--- a/datawrapper.xlsx
+++ b/datawrapper.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10307"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Lauh/Documents/GitHub/covid-cases-by-ua/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\covid-cases-by-ua\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3EC19AF-A48E-9140-9A0F-0023B699BF14}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1075226-1E92-4ABF-81D2-29CCA742ABDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="2060" windowWidth="27640" windowHeight="16940" xr2:uid="{EDE229D6-7CC7-264B-89D8-B1A581B1F05D}"/>
+    <workbookView xWindow="10320" yWindow="1545" windowWidth="26865" windowHeight="13605" xr2:uid="{EAC58F93-768E-47B9-BC54-011C8E15BDC6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,16 +20,25 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>Area</t>
   </si>
   <si>
+    <t>Aneurin Bevan</t>
+  </si>
+  <si>
     <t>Ayrshire and Arran</t>
   </si>
   <si>
@@ -72,6 +81,9 @@
     <t>Cardiff</t>
   </si>
   <si>
+    <t>Cardiff and Vale</t>
+  </si>
+  <si>
     <t>Croydon</t>
   </si>
   <si>
@@ -87,6 +99,9 @@
     <t>Devon</t>
   </si>
   <si>
+    <t>Dudley</t>
+  </si>
+  <si>
     <t>Ealing</t>
   </si>
   <si>
@@ -96,6 +111,9 @@
     <t>Essex</t>
   </si>
   <si>
+    <t>Fife</t>
+  </si>
+  <si>
     <t>Forth Valley</t>
   </si>
   <si>
@@ -126,6 +144,9 @@
     <t>Harrow</t>
   </si>
   <si>
+    <t>Havering</t>
+  </si>
+  <si>
     <t>Hertfordshire</t>
   </si>
   <si>
@@ -135,6 +156,9 @@
     <t>Hounslow</t>
   </si>
   <si>
+    <t>Hywel Dda</t>
+  </si>
+  <si>
     <t>Islington</t>
   </si>
   <si>
@@ -144,6 +168,9 @@
     <t>Kent</t>
   </si>
   <si>
+    <t>Kingston upon Thames</t>
+  </si>
+  <si>
     <t>Lambeth</t>
   </si>
   <si>
@@ -186,6 +213,9 @@
     <t>Newport</t>
   </si>
   <si>
+    <t>Norfolk</t>
+  </si>
+  <si>
     <t>North Yorkshire</t>
   </si>
   <si>
@@ -204,6 +234,12 @@
     <t>Oxfordshire</t>
   </si>
   <si>
+    <t>Redbridge</t>
+  </si>
+  <si>
+    <t>Richmond upon Thames</t>
+  </si>
+  <si>
     <t>Sheffield</t>
   </si>
   <si>
@@ -213,12 +249,21 @@
     <t>Slough</t>
   </si>
   <si>
+    <t>South Gloucestershire</t>
+  </si>
+  <si>
     <t>Southwark</t>
   </si>
   <si>
     <t>Staffordshire</t>
   </si>
   <si>
+    <t>Stockport</t>
+  </si>
+  <si>
+    <t>Suffolk</t>
+  </si>
+  <si>
     <t>Surrey</t>
   </si>
   <si>
@@ -228,6 +273,9 @@
     <t>Swansea</t>
   </si>
   <si>
+    <t>Swansea Bay</t>
+  </si>
+  <si>
     <t>Tameside</t>
   </si>
   <si>
@@ -249,9 +297,21 @@
     <t>Wandsworth</t>
   </si>
   <si>
+    <t>Warwickshire</t>
+  </si>
+  <si>
+    <t>West Sussex</t>
+  </si>
+  <si>
     <t>Westminster</t>
   </si>
   <si>
+    <t>Wiltshire</t>
+  </si>
+  <si>
+    <t>Windsor and Maidenhead</t>
+  </si>
+  <si>
     <t>Wolverhampton</t>
   </si>
   <si>
@@ -270,9 +330,6 @@
     <t>doubles every month</t>
   </si>
   <si>
-    <t>1 days</t>
-  </si>
-  <si>
     <t>2 days</t>
   </si>
   <si>
@@ -303,67 +360,19 @@
     <t>11 days</t>
   </si>
   <si>
-    <t>Aneurin Bevan</t>
-  </si>
-  <si>
-    <t>Cardiff and Vale</t>
-  </si>
-  <si>
-    <t>Dudley</t>
-  </si>
-  <si>
-    <t>Fife</t>
-  </si>
-  <si>
-    <t>Havering</t>
-  </si>
-  <si>
-    <t>Hywel Dda</t>
-  </si>
-  <si>
-    <t>Kingston upon Thames</t>
-  </si>
-  <si>
-    <t>Norfolk</t>
-  </si>
-  <si>
-    <t>Redbridge</t>
-  </si>
-  <si>
-    <t>Richmond upon Thames</t>
-  </si>
-  <si>
-    <t>South Gloucestershire</t>
-  </si>
-  <si>
-    <t>Stockport</t>
-  </si>
-  <si>
-    <t>Suffolk</t>
-  </si>
-  <si>
-    <t>Swansea Bay</t>
-  </si>
-  <si>
-    <t>Warwickshire</t>
-  </si>
-  <si>
-    <t>West Sussex</t>
-  </si>
-  <si>
-    <t>Wiltshire</t>
-  </si>
-  <si>
-    <t>Windsor and Maidenhead</t>
+    <t>12 days</t>
+  </si>
+  <si>
+    <t>1 day</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -705,317 +714,317 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C5097DD-51B7-5647-A650-3DDE086ED3DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88098434-83EE-473A-A635-95028084696D}">
   <dimension ref="A1:CU13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CC1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:CP1048576"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AE1" sqref="AE1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:99">
+    <row r="1" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CJ1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CK1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CL1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CM1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CN1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CO1" t="s">
         <v>92</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="CP1" t="s">
         <v>93</v>
       </c>
-      <c r="R1" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" t="s">
-        <v>18</v>
-      </c>
-      <c r="V1" t="s">
-        <v>19</v>
-      </c>
-      <c r="W1" t="s">
+      <c r="CQ1" t="s">
         <v>94</v>
       </c>
-      <c r="X1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA1" t="s">
+      <c r="CR1" t="s">
         <v>95</v>
       </c>
-      <c r="AB1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL1" t="s">
+      <c r="CS1" t="s">
         <v>96</v>
       </c>
-      <c r="AM1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AP1" t="s">
+      <c r="CT1" t="s">
         <v>97</v>
       </c>
-      <c r="AQ1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AT1" t="s">
+      <c r="CU1" t="s">
         <v>98</v>
       </c>
-      <c r="AU1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>44</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>45</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>46</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>47</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>48</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>49</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>99</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BK1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BM1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BN1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BO1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BP1" t="s">
-        <v>100</v>
-      </c>
-      <c r="BQ1" t="s">
-        <v>101</v>
-      </c>
-      <c r="BR1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BS1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BT1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BU1" t="s">
-        <v>102</v>
-      </c>
-      <c r="BV1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BW1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BX1" t="s">
-        <v>103</v>
-      </c>
-      <c r="BY1" t="s">
-        <v>104</v>
-      </c>
-      <c r="BZ1" t="s">
-        <v>64</v>
-      </c>
-      <c r="CA1" t="s">
-        <v>65</v>
-      </c>
-      <c r="CB1" t="s">
-        <v>66</v>
-      </c>
-      <c r="CC1" t="s">
-        <v>105</v>
-      </c>
-      <c r="CD1" t="s">
-        <v>67</v>
-      </c>
-      <c r="CE1" t="s">
-        <v>68</v>
-      </c>
-      <c r="CF1" t="s">
-        <v>69</v>
-      </c>
-      <c r="CG1" t="s">
-        <v>70</v>
-      </c>
-      <c r="CH1" t="s">
-        <v>71</v>
-      </c>
-      <c r="CI1" t="s">
-        <v>72</v>
-      </c>
-      <c r="CJ1" t="s">
-        <v>73</v>
-      </c>
-      <c r="CK1" t="s">
-        <v>106</v>
-      </c>
-      <c r="CL1" t="s">
-        <v>107</v>
-      </c>
-      <c r="CM1" t="s">
-        <v>74</v>
-      </c>
-      <c r="CN1" t="s">
-        <v>108</v>
-      </c>
-      <c r="CO1" t="s">
-        <v>109</v>
-      </c>
-      <c r="CP1" t="s">
-        <v>75</v>
-      </c>
-      <c r="CQ1" t="s">
-        <v>76</v>
-      </c>
-      <c r="CR1" t="s">
-        <v>77</v>
-      </c>
-      <c r="CS1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CT1" t="s">
-        <v>79</v>
-      </c>
-      <c r="CU1" t="s">
-        <v>80</v>
-      </c>
     </row>
-    <row r="2" spans="1:99">
+    <row r="2" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="C2">
         <v>16</v>
@@ -1300,9 +1309,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:99">
+    <row r="3" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="B3">
         <v>145</v>
@@ -1358,9 +1367,6 @@
       <c r="T3">
         <v>9</v>
       </c>
-      <c r="U3">
-        <v>5</v>
-      </c>
       <c r="V3">
         <v>13</v>
       </c>
@@ -1551,9 +1557,9 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:99">
+    <row r="4" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="E4">
         <v>25</v>
@@ -1687,9 +1693,6 @@
       <c r="BO4">
         <v>23</v>
       </c>
-      <c r="BR4">
-        <v>1</v>
-      </c>
       <c r="BS4">
         <v>11</v>
       </c>
@@ -1745,9 +1748,9 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="5" spans="1:99">
+    <row r="5" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="E5">
         <v>24</v>
@@ -1909,9 +1912,9 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="6" spans="1:99">
+    <row r="6" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="E6">
         <v>27</v>
@@ -2025,9 +2028,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:99">
+    <row r="7" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="E7">
         <v>28</v>
@@ -2117,9 +2120,9 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="8" spans="1:99">
+    <row r="8" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="E8">
         <v>28</v>
@@ -2182,9 +2185,9 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="9" spans="1:99">
+    <row r="9" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="V9">
         <v>20</v>
@@ -2213,13 +2216,16 @@
       <c r="CR9">
         <v>50.4</v>
       </c>
+      <c r="CS9">
+        <v>113.1</v>
+      </c>
       <c r="CU9">
         <v>11.7</v>
       </c>
     </row>
-    <row r="10" spans="1:99">
+    <row r="10" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="V10">
         <v>24</v>
@@ -2246,9 +2252,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:99">
+    <row r="11" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="V11">
         <v>25</v>
@@ -2269,9 +2275,9 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="12" spans="1:99">
+    <row r="12" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="V12">
         <v>26</v>
@@ -2282,16 +2288,31 @@
       <c r="CQ12">
         <v>26.9</v>
       </c>
+      <c r="CR12">
+        <v>100.8</v>
+      </c>
       <c r="CU12">
         <v>12.6</v>
       </c>
     </row>
-    <row r="13" spans="1:99">
+    <row r="13" spans="1:99" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>109</v>
+      </c>
       <c r="V13">
         <v>26</v>
       </c>
       <c r="AM13">
         <v>52</v>
+      </c>
+      <c r="CQ13">
+        <v>29.7</v>
+      </c>
+      <c r="CR13">
+        <v>127</v>
+      </c>
+      <c r="CU13">
+        <v>12.8</v>
       </c>
     </row>
   </sheetData>

--- a/datawrapper.xlsx
+++ b/datawrapper.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10307"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\covid-cases-by-ua\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Lauh/Documents/GitHub/covid-cases-by-ua/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1075226-1E92-4ABF-81D2-29CCA742ABDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AAEE5F2-46CB-1842-893F-E69FFBA3E92E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10320" yWindow="1545" windowWidth="26865" windowHeight="13605" xr2:uid="{EAC58F93-768E-47B9-BC54-011C8E15BDC6}"/>
+    <workbookView xWindow="6740" yWindow="1540" windowWidth="26860" windowHeight="13600" xr2:uid="{EAC58F93-768E-47B9-BC54-011C8E15BDC6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>Area</t>
   </si>
@@ -93,9 +87,6 @@
     <t>Derby</t>
   </si>
   <si>
-    <t>Derbyshire</t>
-  </si>
-  <si>
     <t>Devon</t>
   </si>
   <si>
@@ -240,9 +231,6 @@
     <t>Richmond upon Thames</t>
   </si>
   <si>
-    <t>Sheffield</t>
-  </si>
-  <si>
     <t>Shetland</t>
   </si>
   <si>
@@ -364,16 +352,32 @@
   </si>
   <si>
     <t>1 day</t>
+  </si>
+  <si>
+    <t>Dumfries and Galloway</t>
+  </si>
+  <si>
+    <t>13 days</t>
+  </si>
+  <si>
+    <t>14 days</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -399,8 +403,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -715,15 +720,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88098434-83EE-473A-A635-95028084696D}">
-  <dimension ref="A1:CU13"/>
+  <dimension ref="A1:CT15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AE1" sqref="AE1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:CT15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -791,240 +796,237 @@
         <v>21</v>
       </c>
       <c r="W1" t="s">
+        <v>109</v>
+      </c>
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BR1" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BS1" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BT1" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BU1" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BV1" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BW1" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BX1" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="BY1" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="BZ1" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CA1" t="s">
         <v>77</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CB1" t="s">
         <v>78</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CC1" t="s">
         <v>79</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CD1" t="s">
         <v>80</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CE1" t="s">
         <v>81</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CF1" t="s">
         <v>82</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CG1" t="s">
         <v>83</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CH1" t="s">
         <v>84</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="CI1" t="s">
         <v>85</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="CJ1" t="s">
         <v>86</v>
       </c>
-      <c r="CJ1" t="s">
+      <c r="CK1" t="s">
         <v>87</v>
       </c>
-      <c r="CK1" t="s">
+      <c r="CL1" t="s">
         <v>88</v>
       </c>
-      <c r="CL1" t="s">
+      <c r="CM1" t="s">
         <v>89</v>
       </c>
-      <c r="CM1" t="s">
+      <c r="CN1" t="s">
         <v>90</v>
       </c>
-      <c r="CN1" t="s">
+      <c r="CO1" t="s">
         <v>91</v>
       </c>
-      <c r="CO1" t="s">
+      <c r="CP1" t="s">
         <v>92</v>
       </c>
-      <c r="CP1" t="s">
+      <c r="CQ1" t="s">
         <v>93</v>
       </c>
-      <c r="CQ1" t="s">
+      <c r="CR1" t="s">
         <v>94</v>
       </c>
-      <c r="CR1" t="s">
+      <c r="CS1" t="s">
         <v>95</v>
       </c>
-      <c r="CS1" t="s">
+      <c r="CT1" t="s">
         <v>96</v>
       </c>
-      <c r="CT1" t="s">
-        <v>97</v>
-      </c>
-      <c r="CU1" t="s">
-        <v>98</v>
-      </c>
     </row>
-    <row r="2" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C2">
         <v>16</v>
@@ -1081,10 +1083,10 @@
         <v>12</v>
       </c>
       <c r="V2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W2">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="X2">
         <v>20</v>
@@ -1222,76 +1224,76 @@
         <v>12</v>
       </c>
       <c r="BR2">
+        <v>11</v>
+      </c>
+      <c r="BS2">
+        <v>13</v>
+      </c>
+      <c r="BT2">
         <v>12</v>
       </c>
-      <c r="BS2">
-        <v>11</v>
-      </c>
-      <c r="BT2">
+      <c r="BU2">
+        <v>28</v>
+      </c>
+      <c r="BV2">
+        <v>18</v>
+      </c>
+      <c r="BW2">
         <v>13</v>
-      </c>
-      <c r="BU2">
-        <v>12</v>
-      </c>
-      <c r="BV2">
-        <v>28</v>
-      </c>
-      <c r="BW2">
-        <v>18</v>
       </c>
       <c r="BX2">
         <v>13</v>
       </c>
       <c r="BY2">
+        <v>15</v>
+      </c>
+      <c r="BZ2">
+        <v>10</v>
+      </c>
+      <c r="CA2">
+        <v>22</v>
+      </c>
+      <c r="CC2">
+        <v>14</v>
+      </c>
+      <c r="CD2">
+        <v>15</v>
+      </c>
+      <c r="CE2">
+        <v>23</v>
+      </c>
+      <c r="CF2">
+        <v>14</v>
+      </c>
+      <c r="CG2">
         <v>13</v>
       </c>
-      <c r="BZ2">
-        <v>15</v>
-      </c>
-      <c r="CA2">
+      <c r="CH2">
+        <v>17</v>
+      </c>
+      <c r="CI2">
+        <v>20</v>
+      </c>
+      <c r="CJ2">
+        <v>11</v>
+      </c>
+      <c r="CK2">
+        <v>16</v>
+      </c>
+      <c r="CL2">
+        <v>24</v>
+      </c>
+      <c r="CM2">
+        <v>12</v>
+      </c>
+      <c r="CN2">
+        <v>13</v>
+      </c>
+      <c r="CO2">
+        <v>18</v>
+      </c>
+      <c r="CP2">
         <v>10</v>
-      </c>
-      <c r="CB2">
-        <v>22</v>
-      </c>
-      <c r="CD2">
-        <v>14</v>
-      </c>
-      <c r="CE2">
-        <v>15</v>
-      </c>
-      <c r="CF2">
-        <v>23</v>
-      </c>
-      <c r="CG2">
-        <v>14</v>
-      </c>
-      <c r="CH2">
-        <v>13</v>
-      </c>
-      <c r="CI2">
-        <v>17</v>
-      </c>
-      <c r="CJ2">
-        <v>20</v>
-      </c>
-      <c r="CK2">
-        <v>11</v>
-      </c>
-      <c r="CL2">
-        <v>16</v>
-      </c>
-      <c r="CM2">
-        <v>24</v>
-      </c>
-      <c r="CN2">
-        <v>12</v>
-      </c>
-      <c r="CO2">
-        <v>13</v>
-      </c>
-      <c r="CP2">
-        <v>18</v>
       </c>
       <c r="CQ2">
         <v>10</v>
@@ -1305,13 +1307,10 @@
       <c r="CT2">
         <v>10</v>
       </c>
-      <c r="CU2">
-        <v>10</v>
-      </c>
     </row>
-    <row r="3" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B3">
         <v>145</v>
@@ -1367,7 +1366,7 @@
       <c r="T3">
         <v>9</v>
       </c>
-      <c r="V3">
+      <c r="U3">
         <v>13</v>
       </c>
       <c r="X3">
@@ -1379,6 +1378,9 @@
       <c r="Z3">
         <v>21</v>
       </c>
+      <c r="AA3">
+        <v>16</v>
+      </c>
       <c r="AB3">
         <v>17</v>
       </c>
@@ -1491,75 +1493,78 @@
         <v>15</v>
       </c>
       <c r="BS3">
-        <v>15</v>
-      </c>
-      <c r="BT3">
         <v>17</v>
       </c>
+      <c r="BU3">
+        <v>30</v>
+      </c>
       <c r="BV3">
-        <v>30</v>
-      </c>
-      <c r="BW3">
         <v>18</v>
       </c>
+      <c r="BY3">
+        <v>23</v>
+      </c>
       <c r="BZ3">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="CA3">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="CB3">
+        <v>41</v>
+      </c>
+      <c r="CC3">
+        <v>14</v>
+      </c>
+      <c r="CD3">
+        <v>17</v>
+      </c>
+      <c r="CE3">
+        <v>25</v>
+      </c>
+      <c r="CF3">
+        <v>13</v>
+      </c>
+      <c r="CG3">
+        <v>14</v>
+      </c>
+      <c r="CH3">
+        <v>17</v>
+      </c>
+      <c r="CI3">
         <v>21</v>
       </c>
-      <c r="CC3">
-        <v>41</v>
-      </c>
-      <c r="CD3">
-        <v>14</v>
-      </c>
-      <c r="CE3">
-        <v>17</v>
-      </c>
-      <c r="CF3">
-        <v>25</v>
-      </c>
-      <c r="CG3">
-        <v>13</v>
-      </c>
-      <c r="CH3">
-        <v>14</v>
-      </c>
-      <c r="CI3">
-        <v>17</v>
-      </c>
-      <c r="CJ3">
-        <v>21</v>
-      </c>
-      <c r="CM3">
+      <c r="CL3">
         <v>35</v>
       </c>
+      <c r="CO3">
+        <v>22</v>
+      </c>
       <c r="CP3">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="CQ3">
         <v>11</v>
       </c>
       <c r="CR3">
-        <v>11</v>
+        <v>14.1</v>
       </c>
       <c r="CS3">
-        <v>14.1</v>
+        <v>20</v>
       </c>
       <c r="CT3">
-        <v>20</v>
-      </c>
-      <c r="CU3">
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>100</v>
+        <v>98</v>
+      </c>
+      <c r="B4">
+        <v>185</v>
+      </c>
+      <c r="C4">
+        <v>25</v>
       </c>
       <c r="E4">
         <v>25</v>
@@ -1585,14 +1590,17 @@
       <c r="O4">
         <v>22</v>
       </c>
+      <c r="Q4">
+        <v>64</v>
+      </c>
       <c r="S4">
         <v>38</v>
       </c>
       <c r="U4">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="V4">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="X4">
         <v>21</v>
@@ -1630,6 +1638,9 @@
       <c r="AK4">
         <v>40</v>
       </c>
+      <c r="AL4">
+        <v>35</v>
+      </c>
       <c r="AM4">
         <v>18</v>
       </c>
@@ -1639,6 +1650,9 @@
       <c r="AO4">
         <v>29</v>
       </c>
+      <c r="AP4">
+        <v>16</v>
+      </c>
       <c r="AQ4">
         <v>35</v>
       </c>
@@ -1648,6 +1662,9 @@
       <c r="AS4">
         <v>12</v>
       </c>
+      <c r="AT4">
+        <v>23</v>
+      </c>
       <c r="AU4">
         <v>43</v>
       </c>
@@ -1681,6 +1698,9 @@
       <c r="BG4">
         <v>32</v>
       </c>
+      <c r="BI4">
+        <v>34</v>
+      </c>
       <c r="BK4">
         <v>16</v>
       </c>
@@ -1693,64 +1713,94 @@
       <c r="BO4">
         <v>23</v>
       </c>
+      <c r="BP4">
+        <v>45</v>
+      </c>
+      <c r="BQ4">
+        <v>25</v>
+      </c>
+      <c r="BR4">
+        <v>11</v>
+      </c>
       <c r="BS4">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="BT4">
         <v>17</v>
       </c>
-      <c r="BV4">
+      <c r="BU4">
         <v>33</v>
       </c>
+      <c r="BW4">
+        <v>29</v>
+      </c>
+      <c r="BX4">
+        <v>18</v>
+      </c>
+      <c r="BY4">
+        <v>25</v>
+      </c>
       <c r="BZ4">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="CA4">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="CB4">
-        <v>22</v>
+        <v>47</v>
+      </c>
+      <c r="CD4">
+        <v>20</v>
       </c>
       <c r="CE4">
+        <v>33</v>
+      </c>
+      <c r="CF4">
+        <v>13</v>
+      </c>
+      <c r="CG4">
+        <v>16</v>
+      </c>
+      <c r="CI4">
+        <v>59</v>
+      </c>
+      <c r="CJ4">
+        <v>29</v>
+      </c>
+      <c r="CK4">
+        <v>27</v>
+      </c>
+      <c r="CL4">
+        <v>37</v>
+      </c>
+      <c r="CM4">
+        <v>23</v>
+      </c>
+      <c r="CN4">
+        <v>13</v>
+      </c>
+      <c r="CO4">
+        <v>28</v>
+      </c>
+      <c r="CP4">
+        <v>12.2</v>
+      </c>
+      <c r="CQ4">
+        <v>15.9</v>
+      </c>
+      <c r="CR4">
         <v>20</v>
       </c>
-      <c r="CF4">
-        <v>33</v>
-      </c>
-      <c r="CG4">
-        <v>13</v>
-      </c>
-      <c r="CH4">
-        <v>16</v>
-      </c>
-      <c r="CJ4">
-        <v>59</v>
-      </c>
-      <c r="CM4">
-        <v>37</v>
-      </c>
-      <c r="CP4">
-        <v>28</v>
-      </c>
-      <c r="CQ4">
-        <v>12.2</v>
-      </c>
-      <c r="CR4">
-        <v>15.9</v>
-      </c>
       <c r="CS4">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="CT4">
-        <v>40</v>
-      </c>
-      <c r="CU4">
         <v>10.5</v>
       </c>
     </row>
-    <row r="5" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E5">
         <v>24</v>
@@ -1761,6 +1811,12 @@
       <c r="H5">
         <v>45</v>
       </c>
+      <c r="I5">
+        <v>17</v>
+      </c>
+      <c r="J5">
+        <v>23</v>
+      </c>
       <c r="K5">
         <v>40</v>
       </c>
@@ -1776,15 +1832,21 @@
       <c r="P5">
         <v>28</v>
       </c>
+      <c r="R5">
+        <v>84</v>
+      </c>
+      <c r="T5">
+        <v>23</v>
+      </c>
       <c r="U5">
-        <v>40</v>
-      </c>
-      <c r="V5">
         <v>13</v>
       </c>
       <c r="X5">
         <v>42</v>
       </c>
+      <c r="Y5">
+        <v>68</v>
+      </c>
       <c r="Z5">
         <v>31</v>
       </c>
@@ -1842,6 +1904,9 @@
       <c r="AX5">
         <v>15</v>
       </c>
+      <c r="AY5">
+        <v>43</v>
+      </c>
       <c r="AZ5">
         <v>39</v>
       </c>
@@ -1851,74 +1916,92 @@
       <c r="BD5">
         <v>39</v>
       </c>
+      <c r="BF5">
+        <v>34</v>
+      </c>
       <c r="BH5">
         <v>38</v>
       </c>
+      <c r="BJ5">
+        <v>20</v>
+      </c>
       <c r="BK5">
         <v>16</v>
       </c>
       <c r="BM5">
         <v>29</v>
       </c>
+      <c r="BN5">
+        <v>23</v>
+      </c>
       <c r="BO5">
         <v>25</v>
       </c>
       <c r="BR5">
-        <v>36</v>
-      </c>
-      <c r="BS5">
         <v>16</v>
       </c>
+      <c r="BU5">
+        <v>58</v>
+      </c>
       <c r="BV5">
+        <v>41</v>
+      </c>
+      <c r="BY5">
+        <v>30</v>
+      </c>
+      <c r="BZ5">
+        <v>14</v>
+      </c>
+      <c r="CC5">
+        <v>21</v>
+      </c>
+      <c r="CD5">
+        <v>24</v>
+      </c>
+      <c r="CE5">
+        <v>33</v>
+      </c>
+      <c r="CG5">
+        <v>16</v>
+      </c>
+      <c r="CH5">
+        <v>50</v>
+      </c>
+      <c r="CI5">
+        <v>75</v>
+      </c>
+      <c r="CL5">
         <v>58</v>
       </c>
-      <c r="BZ5">
-        <v>30</v>
-      </c>
-      <c r="CA5">
-        <v>14</v>
-      </c>
-      <c r="CE5">
-        <v>24</v>
-      </c>
-      <c r="CF5">
-        <v>33</v>
-      </c>
-      <c r="CH5">
-        <v>16</v>
-      </c>
-      <c r="CJ5">
-        <v>75</v>
-      </c>
-      <c r="CM5">
-        <v>58</v>
+      <c r="CO5">
+        <v>28</v>
       </c>
       <c r="CP5">
-        <v>28</v>
+        <v>13.5</v>
       </c>
       <c r="CQ5">
-        <v>13.5</v>
+        <v>20</v>
       </c>
       <c r="CR5">
-        <v>20</v>
+        <v>28.3</v>
       </c>
       <c r="CS5">
-        <v>28.3</v>
+        <v>80</v>
       </c>
       <c r="CT5">
-        <v>80</v>
-      </c>
-      <c r="CU5">
         <v>10.7</v>
       </c>
     </row>
-    <row r="6" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E6">
         <v>27</v>
       </c>
+      <c r="F6">
+        <v>39</v>
+      </c>
       <c r="H6">
         <v>66</v>
       </c>
@@ -1931,10 +2014,10 @@
       <c r="O6">
         <v>30</v>
       </c>
+      <c r="S6">
+        <v>79</v>
+      </c>
       <c r="U6">
-        <v>40</v>
-      </c>
-      <c r="V6">
         <v>14</v>
       </c>
       <c r="X6">
@@ -1943,6 +2026,12 @@
       <c r="Z6">
         <v>31</v>
       </c>
+      <c r="AB6">
+        <v>30</v>
+      </c>
+      <c r="AC6">
+        <v>29</v>
+      </c>
       <c r="AD6">
         <v>24</v>
       </c>
@@ -1982,69 +2071,99 @@
       <c r="AV6">
         <v>41</v>
       </c>
+      <c r="AW6">
+        <v>44</v>
+      </c>
       <c r="AX6">
         <v>15</v>
       </c>
       <c r="AZ6">
         <v>39</v>
       </c>
+      <c r="BA6">
+        <v>22</v>
+      </c>
       <c r="BB6">
         <v>30</v>
       </c>
+      <c r="BC6">
+        <v>31</v>
+      </c>
+      <c r="BG6">
+        <v>57</v>
+      </c>
+      <c r="BL6">
+        <v>34</v>
+      </c>
       <c r="BO6">
         <v>34</v>
       </c>
       <c r="BR6">
+        <v>24</v>
+      </c>
+      <c r="BS6">
+        <v>21</v>
+      </c>
+      <c r="BU6">
+        <v>70</v>
+      </c>
+      <c r="BY6">
+        <v>39</v>
+      </c>
+      <c r="CD6">
+        <v>27</v>
+      </c>
+      <c r="CF6">
+        <v>23</v>
+      </c>
+      <c r="CI6">
+        <v>75</v>
+      </c>
+      <c r="CL6">
+        <v>68</v>
+      </c>
+      <c r="CP6">
+        <v>14.9</v>
+      </c>
+      <c r="CQ6">
+        <v>25.2</v>
+      </c>
+      <c r="CR6">
         <v>40</v>
       </c>
-      <c r="BS6">
-        <v>24</v>
-      </c>
-      <c r="BV6">
-        <v>70</v>
-      </c>
-      <c r="BZ6">
-        <v>39</v>
-      </c>
-      <c r="CE6">
-        <v>27</v>
-      </c>
-      <c r="CJ6">
-        <v>75</v>
-      </c>
-      <c r="CM6">
-        <v>68</v>
-      </c>
-      <c r="CQ6">
-        <v>14.9</v>
-      </c>
-      <c r="CR6">
-        <v>25.2</v>
-      </c>
       <c r="CS6">
-        <v>40</v>
-      </c>
-      <c r="CU6">
+        <v>160</v>
+      </c>
+      <c r="CT6">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E7">
         <v>28</v>
       </c>
+      <c r="G7">
+        <v>91</v>
+      </c>
       <c r="H7">
         <v>66</v>
       </c>
+      <c r="K7">
+        <v>67</v>
+      </c>
       <c r="L7">
         <v>39</v>
       </c>
+      <c r="N7">
+        <v>20</v>
+      </c>
       <c r="O7">
         <v>36</v>
       </c>
-      <c r="V7">
+      <c r="U7">
         <v>14</v>
       </c>
       <c r="X7">
@@ -2065,6 +2184,15 @@
       <c r="AM7">
         <v>21</v>
       </c>
+      <c r="AN7">
+        <v>63</v>
+      </c>
+      <c r="AO7">
+        <v>64</v>
+      </c>
+      <c r="AQ7">
+        <v>54</v>
+      </c>
       <c r="AR7">
         <v>43</v>
       </c>
@@ -2080,49 +2208,67 @@
       <c r="BB7">
         <v>33</v>
       </c>
+      <c r="BD7">
+        <v>56</v>
+      </c>
       <c r="BE7">
         <v>15</v>
       </c>
+      <c r="BK7">
+        <v>21</v>
+      </c>
+      <c r="BM7">
+        <v>60</v>
+      </c>
       <c r="BO7">
         <v>34</v>
       </c>
       <c r="BR7">
-        <v>40</v>
-      </c>
-      <c r="BS7">
         <v>24</v>
       </c>
-      <c r="BV7">
+      <c r="BU7">
         <v>82</v>
       </c>
+      <c r="BY7">
+        <v>45</v>
+      </c>
       <c r="BZ7">
-        <v>45</v>
-      </c>
-      <c r="CB7">
+        <v>24</v>
+      </c>
+      <c r="CA7">
         <v>19</v>
       </c>
+      <c r="CD7">
+        <v>31</v>
+      </c>
       <c r="CE7">
-        <v>31</v>
-      </c>
-      <c r="CM7">
+        <v>57</v>
+      </c>
+      <c r="CG7">
+        <v>29</v>
+      </c>
+      <c r="CL7">
         <v>78</v>
       </c>
+      <c r="CO7">
+        <v>52</v>
+      </c>
+      <c r="CP7">
+        <v>16.399999999999999</v>
+      </c>
       <c r="CQ7">
-        <v>16.399999999999999</v>
+        <v>31.7</v>
       </c>
       <c r="CR7">
-        <v>31.7</v>
-      </c>
-      <c r="CS7">
         <v>56.6</v>
       </c>
-      <c r="CU7">
+      <c r="CT7">
         <v>11.2</v>
       </c>
     </row>
-    <row r="8" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E8">
         <v>28</v>
@@ -2130,8 +2276,11 @@
       <c r="O8">
         <v>36</v>
       </c>
-      <c r="V8">
+      <c r="U8">
         <v>15</v>
+      </c>
+      <c r="Z8">
+        <v>53</v>
       </c>
       <c r="AD8">
         <v>19</v>
@@ -2139,9 +2288,21 @@
       <c r="AE8">
         <v>91</v>
       </c>
+      <c r="AF8">
+        <v>61</v>
+      </c>
+      <c r="AH8">
+        <v>51</v>
+      </c>
       <c r="AI8">
         <v>77</v>
       </c>
+      <c r="AJ8">
+        <v>57</v>
+      </c>
+      <c r="AK8">
+        <v>103</v>
+      </c>
       <c r="AM8">
         <v>32</v>
       </c>
@@ -2151,46 +2312,67 @@
       <c r="AS8">
         <v>25</v>
       </c>
+      <c r="AV8">
+        <v>49</v>
+      </c>
+      <c r="AX8">
+        <v>29</v>
+      </c>
+      <c r="AZ8">
+        <v>67</v>
+      </c>
       <c r="BB8">
         <v>35</v>
       </c>
       <c r="BO8">
         <v>34</v>
       </c>
-      <c r="BS8">
+      <c r="BR8">
         <v>24</v>
       </c>
-      <c r="BV8">
+      <c r="BU8">
         <v>82</v>
       </c>
-      <c r="BZ8">
+      <c r="BY8">
         <v>45</v>
       </c>
-      <c r="CE8">
+      <c r="CD8">
         <v>34</v>
       </c>
-      <c r="CM8">
+      <c r="CI8">
+        <v>110</v>
+      </c>
+      <c r="CL8">
         <v>78</v>
       </c>
+      <c r="CP8">
+        <v>18.100000000000001</v>
+      </c>
       <c r="CQ8">
-        <v>18.100000000000001</v>
+        <v>40</v>
       </c>
       <c r="CR8">
-        <v>40</v>
-      </c>
-      <c r="CS8">
         <v>80</v>
       </c>
-      <c r="CU8">
+      <c r="CT8">
         <v>11.5</v>
       </c>
     </row>
-    <row r="9" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>105</v>
-      </c>
-      <c r="V9">
+        <v>103</v>
+      </c>
+      <c r="H9">
+        <v>128</v>
+      </c>
+      <c r="L9">
+        <v>44</v>
+      </c>
+      <c r="U9">
         <v>20</v>
+      </c>
+      <c r="X9">
+        <v>97</v>
       </c>
       <c r="AD9">
         <v>20</v>
@@ -2198,6 +2380,9 @@
       <c r="AE9">
         <v>110</v>
       </c>
+      <c r="AG9">
+        <v>64</v>
+      </c>
       <c r="AI9">
         <v>87</v>
       </c>
@@ -2207,28 +2392,49 @@
       <c r="AR9">
         <v>55</v>
       </c>
+      <c r="AU9">
+        <v>127</v>
+      </c>
       <c r="BB9">
         <v>40</v>
       </c>
+      <c r="BR9">
+        <v>24</v>
+      </c>
+      <c r="CD9">
+        <v>38</v>
+      </c>
+      <c r="CP9">
+        <v>20</v>
+      </c>
       <c r="CQ9">
-        <v>20</v>
+        <v>50.4</v>
       </c>
       <c r="CR9">
-        <v>50.4</v>
-      </c>
-      <c r="CS9">
         <v>113.1</v>
       </c>
-      <c r="CU9">
+      <c r="CT9">
         <v>11.7</v>
       </c>
     </row>
-    <row r="10" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>106</v>
-      </c>
-      <c r="V10">
+        <v>104</v>
+      </c>
+      <c r="E10">
+        <v>88</v>
+      </c>
+      <c r="O10">
+        <v>53</v>
+      </c>
+      <c r="U10">
         <v>24</v>
+      </c>
+      <c r="AD10">
+        <v>23</v>
+      </c>
+      <c r="AE10">
+        <v>130</v>
       </c>
       <c r="AI10">
         <v>87</v>
@@ -2239,24 +2445,42 @@
       <c r="AR10">
         <v>57</v>
       </c>
+      <c r="AS10">
+        <v>48</v>
+      </c>
       <c r="BB10">
         <v>44</v>
       </c>
+      <c r="BO10">
+        <v>52</v>
+      </c>
+      <c r="BU10">
+        <v>139</v>
+      </c>
+      <c r="BY10">
+        <v>68</v>
+      </c>
+      <c r="CL10">
+        <v>117</v>
+      </c>
+      <c r="CP10">
+        <v>22.1</v>
+      </c>
       <c r="CQ10">
-        <v>22.1</v>
+        <v>63.5</v>
       </c>
       <c r="CR10">
-        <v>63.5</v>
-      </c>
-      <c r="CU10">
+        <v>160</v>
+      </c>
+      <c r="CT10">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>107</v>
-      </c>
-      <c r="V11">
+        <v>105</v>
+      </c>
+      <c r="U11">
         <v>25</v>
       </c>
       <c r="AM11">
@@ -2265,54 +2489,177 @@
       <c r="AR11">
         <v>57</v>
       </c>
+      <c r="BB11">
+        <v>46</v>
+      </c>
+      <c r="CP11">
+        <v>24.4</v>
+      </c>
       <c r="CQ11">
-        <v>24.4</v>
-      </c>
-      <c r="CR11">
         <v>80</v>
       </c>
-      <c r="CU11">
+      <c r="CT11">
         <v>12.3</v>
       </c>
     </row>
-    <row r="12" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>108</v>
-      </c>
-      <c r="V12">
+        <v>106</v>
+      </c>
+      <c r="U12">
         <v>26</v>
+      </c>
+      <c r="AI12">
+        <v>156</v>
       </c>
       <c r="AM12">
         <v>52</v>
       </c>
+      <c r="CP12">
+        <v>26.9</v>
+      </c>
       <c r="CQ12">
-        <v>26.9</v>
-      </c>
-      <c r="CR12">
         <v>100.8</v>
       </c>
-      <c r="CU12">
+      <c r="CT12">
         <v>12.6</v>
       </c>
     </row>
-    <row r="13" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>109</v>
-      </c>
-      <c r="V13">
+        <v>107</v>
+      </c>
+      <c r="U13">
         <v>26</v>
       </c>
       <c r="AM13">
         <v>52</v>
       </c>
+      <c r="AR13">
+        <v>81</v>
+      </c>
+      <c r="CP13">
+        <v>29.7</v>
+      </c>
       <c r="CQ13">
-        <v>29.7</v>
-      </c>
-      <c r="CR13">
         <v>127</v>
       </c>
-      <c r="CU13">
+      <c r="CT13">
         <v>12.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>110</v>
+      </c>
+      <c r="CP14">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="CQ14">
+        <v>160</v>
+      </c>
+      <c r="CT14">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:98" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1">
+        <v>43</v>
+      </c>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1"/>
+      <c r="AF15" s="1"/>
+      <c r="AG15" s="1"/>
+      <c r="AH15" s="1"/>
+      <c r="AI15" s="1"/>
+      <c r="AJ15" s="1"/>
+      <c r="AK15" s="1"/>
+      <c r="AL15" s="1"/>
+      <c r="AM15" s="1">
+        <v>92</v>
+      </c>
+      <c r="AN15" s="1"/>
+      <c r="AO15" s="1"/>
+      <c r="AP15" s="1"/>
+      <c r="AQ15" s="1"/>
+      <c r="AR15" s="1"/>
+      <c r="AS15" s="1"/>
+      <c r="AT15" s="1"/>
+      <c r="AU15" s="1"/>
+      <c r="AV15" s="1"/>
+      <c r="AW15" s="1"/>
+      <c r="AX15" s="1"/>
+      <c r="AY15" s="1"/>
+      <c r="AZ15" s="1"/>
+      <c r="BA15" s="1"/>
+      <c r="BB15" s="1"/>
+      <c r="BC15" s="1"/>
+      <c r="BD15" s="1"/>
+      <c r="BE15" s="1"/>
+      <c r="BF15" s="1"/>
+      <c r="BG15" s="1"/>
+      <c r="BH15" s="1"/>
+      <c r="BI15" s="1"/>
+      <c r="BJ15" s="1"/>
+      <c r="BK15" s="1"/>
+      <c r="BL15" s="1"/>
+      <c r="BM15" s="1"/>
+      <c r="BN15" s="1"/>
+      <c r="BO15" s="1"/>
+      <c r="BP15" s="1"/>
+      <c r="BQ15" s="1"/>
+      <c r="BR15" s="1"/>
+      <c r="BS15" s="1"/>
+      <c r="BT15" s="1"/>
+      <c r="BU15" s="1"/>
+      <c r="BV15" s="1"/>
+      <c r="BW15" s="1"/>
+      <c r="BX15" s="1"/>
+      <c r="BY15" s="1"/>
+      <c r="BZ15" s="1"/>
+      <c r="CA15" s="1"/>
+      <c r="CB15" s="1"/>
+      <c r="CC15" s="1"/>
+      <c r="CD15" s="1"/>
+      <c r="CE15" s="1"/>
+      <c r="CP15">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="CQ15">
+        <v>201.6</v>
+      </c>
+      <c r="CT15">
+        <v>13.4</v>
       </c>
     </row>
   </sheetData>

--- a/datawrapper.xlsx
+++ b/datawrapper.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Lauh/Documents/GitHub/covid-cases-by-ua/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AAEE5F2-46CB-1842-893F-E69FFBA3E92E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA273752-C44B-554C-B3E7-174E46C55B19}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6740" yWindow="1540" windowWidth="26860" windowHeight="13600" xr2:uid="{EAC58F93-768E-47B9-BC54-011C8E15BDC6}"/>
+    <workbookView xWindow="33100" yWindow="-4660" windowWidth="26860" windowHeight="13600" xr2:uid="{EAC58F93-768E-47B9-BC54-011C8E15BDC6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t>Area</t>
   </si>
@@ -361,6 +361,12 @@
   </si>
   <si>
     <t>14 days</t>
+  </si>
+  <si>
+    <t>Borders</t>
+  </si>
+  <si>
+    <t>Cwm Taf</t>
   </si>
 </sst>
 </file>
@@ -720,15 +726,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88098434-83EE-473A-A635-95028084696D}">
-  <dimension ref="A1:CT15"/>
+  <dimension ref="A1:CV15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:CT15"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AO13" sqref="AO13:AO14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -751,280 +757,286 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
+        <v>113</v>
+      </c>
+      <c r="V1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>109</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AJ1" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AK1" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AL1" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AM1" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AN1" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AO1" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AP1" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AQ1" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AR1" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AS1" t="s">
         <v>41</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AT1" t="s">
         <v>42</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AU1" t="s">
         <v>43</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AV1" t="s">
         <v>44</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AW1" t="s">
         <v>45</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AX1" t="s">
         <v>46</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AY1" t="s">
         <v>47</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AZ1" t="s">
         <v>48</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BA1" t="s">
         <v>49</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BB1" t="s">
         <v>50</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BC1" t="s">
         <v>51</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BD1" t="s">
         <v>52</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BE1" t="s">
         <v>53</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BF1" t="s">
         <v>54</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BG1" t="s">
         <v>55</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BH1" t="s">
         <v>56</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BI1" t="s">
         <v>57</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BJ1" t="s">
         <v>58</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BK1" t="s">
         <v>59</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BL1" t="s">
         <v>60</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BM1" t="s">
         <v>61</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BN1" t="s">
         <v>62</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BO1" t="s">
         <v>63</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BP1" t="s">
         <v>64</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BQ1" t="s">
         <v>65</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BR1" t="s">
         <v>66</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BS1" t="s">
         <v>67</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BT1" t="s">
         <v>68</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BU1" t="s">
         <v>69</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BV1" t="s">
         <v>70</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BW1" t="s">
         <v>71</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BX1" t="s">
         <v>72</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BY1" t="s">
         <v>73</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="BZ1" t="s">
         <v>74</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="CA1" t="s">
         <v>75</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CB1" t="s">
         <v>76</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CC1" t="s">
         <v>77</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CD1" t="s">
         <v>78</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CE1" t="s">
         <v>79</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CF1" t="s">
         <v>80</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CG1" t="s">
         <v>81</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CH1" t="s">
         <v>82</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CI1" t="s">
         <v>83</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="CJ1" t="s">
         <v>84</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="CK1" t="s">
         <v>85</v>
       </c>
-      <c r="CJ1" t="s">
+      <c r="CL1" t="s">
         <v>86</v>
       </c>
-      <c r="CK1" t="s">
+      <c r="CM1" t="s">
         <v>87</v>
       </c>
-      <c r="CL1" t="s">
+      <c r="CN1" t="s">
         <v>88</v>
       </c>
-      <c r="CM1" t="s">
+      <c r="CO1" t="s">
         <v>89</v>
       </c>
-      <c r="CN1" t="s">
+      <c r="CP1" t="s">
         <v>90</v>
       </c>
-      <c r="CO1" t="s">
+      <c r="CQ1" t="s">
         <v>91</v>
       </c>
-      <c r="CP1" t="s">
+      <c r="CR1" t="s">
         <v>92</v>
       </c>
-      <c r="CQ1" t="s">
+      <c r="CS1" t="s">
         <v>93</v>
       </c>
-      <c r="CR1" t="s">
+      <c r="CT1" t="s">
         <v>94</v>
       </c>
-      <c r="CS1" t="s">
+      <c r="CU1" t="s">
         <v>95</v>
       </c>
-      <c r="CT1" t="s">
+      <c r="CV1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>108</v>
       </c>
@@ -1044,259 +1056,259 @@
         <v>20</v>
       </c>
       <c r="H2">
+        <v>12</v>
+      </c>
+      <c r="I2">
         <v>20</v>
-      </c>
-      <c r="I2">
-        <v>12</v>
       </c>
       <c r="J2">
         <v>12</v>
       </c>
       <c r="K2">
+        <v>12</v>
+      </c>
+      <c r="L2">
         <v>23</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>15</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>14</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>12</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>19</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>14</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>49</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>34</v>
       </c>
-      <c r="T2">
+      <c r="U2">
+        <v>21</v>
+      </c>
+      <c r="V2">
         <v>9</v>
       </c>
-      <c r="U2">
+      <c r="W2">
         <v>12</v>
       </c>
-      <c r="V2">
+      <c r="X2">
         <v>11</v>
       </c>
-      <c r="W2">
+      <c r="Y2">
         <v>16</v>
-      </c>
-      <c r="X2">
-        <v>20</v>
-      </c>
-      <c r="Y2">
-        <v>30</v>
       </c>
       <c r="Z2">
         <v>20</v>
       </c>
       <c r="AA2">
+        <v>30</v>
+      </c>
+      <c r="AB2">
+        <v>20</v>
+      </c>
+      <c r="AC2">
         <v>13</v>
       </c>
-      <c r="AB2">
+      <c r="AD2">
         <v>15</v>
       </c>
-      <c r="AC2">
+      <c r="AE2">
         <v>12</v>
       </c>
-      <c r="AD2">
+      <c r="AF2">
         <v>9</v>
       </c>
-      <c r="AE2">
+      <c r="AG2">
         <v>31</v>
       </c>
-      <c r="AF2">
+      <c r="AH2">
         <v>18</v>
-      </c>
-      <c r="AG2">
-        <v>13</v>
-      </c>
-      <c r="AH2">
-        <v>21</v>
       </c>
       <c r="AI2">
         <v>13</v>
       </c>
       <c r="AJ2">
+        <v>21</v>
+      </c>
+      <c r="AK2">
+        <v>13</v>
+      </c>
+      <c r="AL2">
         <v>16</v>
       </c>
-      <c r="AK2">
+      <c r="AM2">
         <v>14</v>
       </c>
-      <c r="AL2">
+      <c r="AN2">
         <v>14</v>
       </c>
-      <c r="AM2">
+      <c r="AO2">
         <v>13</v>
       </c>
-      <c r="AN2">
+      <c r="AP2">
         <v>16</v>
       </c>
-      <c r="AO2">
-        <v>15</v>
-      </c>
       <c r="AQ2">
-        <v>11</v>
-      </c>
-      <c r="AR2">
         <v>15</v>
       </c>
       <c r="AS2">
         <v>11</v>
       </c>
       <c r="AT2">
+        <v>15</v>
+      </c>
+      <c r="AU2">
+        <v>11</v>
+      </c>
+      <c r="AV2">
         <v>14</v>
       </c>
-      <c r="AU2">
+      <c r="AW2">
         <v>26</v>
       </c>
-      <c r="AV2">
+      <c r="AX2">
         <v>20</v>
       </c>
-      <c r="AW2">
+      <c r="AY2">
         <v>15</v>
       </c>
-      <c r="AX2">
+      <c r="AZ2">
         <v>14</v>
       </c>
-      <c r="AY2">
+      <c r="BA2">
         <v>17</v>
       </c>
-      <c r="AZ2">
+      <c r="BB2">
         <v>17</v>
       </c>
-      <c r="BA2">
+      <c r="BC2">
         <v>12</v>
       </c>
-      <c r="BB2">
+      <c r="BD2">
         <v>20</v>
       </c>
-      <c r="BC2">
+      <c r="BE2">
         <v>18</v>
       </c>
-      <c r="BD2">
+      <c r="BF2">
         <v>13</v>
       </c>
-      <c r="BE2">
+      <c r="BG2">
         <v>11</v>
       </c>
-      <c r="BF2">
+      <c r="BH2">
         <v>19</v>
       </c>
-      <c r="BG2">
+      <c r="BI2">
         <v>23</v>
       </c>
-      <c r="BH2">
+      <c r="BJ2">
         <v>24</v>
       </c>
-      <c r="BI2">
+      <c r="BK2">
         <v>11</v>
       </c>
-      <c r="BJ2">
+      <c r="BL2">
         <v>13</v>
       </c>
-      <c r="BK2">
+      <c r="BM2">
         <v>12</v>
-      </c>
-      <c r="BL2">
-        <v>14</v>
-      </c>
-      <c r="BM2">
-        <v>13</v>
       </c>
       <c r="BN2">
         <v>14</v>
       </c>
       <c r="BO2">
+        <v>13</v>
+      </c>
+      <c r="BP2">
+        <v>14</v>
+      </c>
+      <c r="BQ2">
         <v>21</v>
       </c>
-      <c r="BP2">
+      <c r="BR2">
         <v>18</v>
       </c>
-      <c r="BQ2">
+      <c r="BS2">
         <v>12</v>
       </c>
-      <c r="BR2">
+      <c r="BT2">
         <v>11</v>
       </c>
-      <c r="BS2">
+      <c r="BU2">
         <v>13</v>
       </c>
-      <c r="BT2">
+      <c r="BV2">
         <v>12</v>
       </c>
-      <c r="BU2">
+      <c r="BW2">
         <v>28</v>
       </c>
-      <c r="BV2">
+      <c r="BX2">
         <v>18</v>
       </c>
-      <c r="BW2">
+      <c r="BY2">
         <v>13</v>
       </c>
-      <c r="BX2">
+      <c r="BZ2">
         <v>13</v>
       </c>
-      <c r="BY2">
+      <c r="CA2">
         <v>15</v>
       </c>
-      <c r="BZ2">
+      <c r="CB2">
         <v>10</v>
       </c>
-      <c r="CA2">
+      <c r="CC2">
         <v>22</v>
       </c>
-      <c r="CC2">
+      <c r="CE2">
         <v>14</v>
       </c>
-      <c r="CD2">
+      <c r="CF2">
         <v>15</v>
       </c>
-      <c r="CE2">
+      <c r="CG2">
         <v>23</v>
       </c>
-      <c r="CF2">
+      <c r="CH2">
         <v>14</v>
       </c>
-      <c r="CG2">
+      <c r="CI2">
         <v>13</v>
       </c>
-      <c r="CH2">
+      <c r="CJ2">
         <v>17</v>
       </c>
-      <c r="CI2">
+      <c r="CK2">
         <v>20</v>
       </c>
-      <c r="CJ2">
+      <c r="CL2">
         <v>11</v>
       </c>
-      <c r="CK2">
+      <c r="CM2">
         <v>16</v>
       </c>
-      <c r="CL2">
+      <c r="CN2">
         <v>24</v>
       </c>
-      <c r="CM2">
+      <c r="CO2">
         <v>12</v>
       </c>
-      <c r="CN2">
+      <c r="CP2">
         <v>13</v>
       </c>
-      <c r="CO2">
+      <c r="CQ2">
         <v>18</v>
-      </c>
-      <c r="CP2">
-        <v>10</v>
-      </c>
-      <c r="CQ2">
-        <v>10</v>
       </c>
       <c r="CR2">
         <v>10</v>
@@ -1307,8 +1319,14 @@
       <c r="CT2">
         <v>10</v>
       </c>
+      <c r="CU2">
+        <v>10</v>
+      </c>
+      <c r="CV2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>97</v>
       </c>
@@ -1330,233 +1348,236 @@
       <c r="G3">
         <v>25</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>20</v>
-      </c>
-      <c r="I3">
-        <v>12</v>
       </c>
       <c r="J3">
         <v>12</v>
       </c>
       <c r="K3">
+        <v>12</v>
+      </c>
+      <c r="L3">
         <v>32</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>12</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>15</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>14</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>22</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>51</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>49</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>38</v>
       </c>
-      <c r="T3">
+      <c r="V3">
         <v>9</v>
       </c>
-      <c r="U3">
+      <c r="W3">
         <v>13</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>18</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
+        <v>18</v>
+      </c>
+      <c r="AA3">
         <v>30</v>
       </c>
-      <c r="Z3">
+      <c r="AB3">
         <v>21</v>
       </c>
-      <c r="AA3">
+      <c r="AC3">
         <v>16</v>
       </c>
-      <c r="AB3">
+      <c r="AD3">
         <v>17</v>
       </c>
-      <c r="AC3">
+      <c r="AE3">
         <v>15</v>
       </c>
-      <c r="AD3">
+      <c r="AF3">
         <v>12</v>
       </c>
-      <c r="AE3">
+      <c r="AG3">
         <v>39</v>
       </c>
-      <c r="AF3">
+      <c r="AH3">
         <v>19</v>
-      </c>
-      <c r="AG3">
-        <v>20</v>
-      </c>
-      <c r="AH3">
-        <v>23</v>
       </c>
       <c r="AI3">
         <v>20</v>
       </c>
       <c r="AJ3">
+        <v>23</v>
+      </c>
+      <c r="AK3">
+        <v>20</v>
+      </c>
+      <c r="AL3">
         <v>17</v>
       </c>
-      <c r="AK3">
+      <c r="AM3">
         <v>15</v>
       </c>
-      <c r="AM3">
+      <c r="AO3">
         <v>16</v>
       </c>
-      <c r="AN3">
+      <c r="AP3">
         <v>21</v>
       </c>
-      <c r="AO3">
+      <c r="AQ3">
         <v>24</v>
       </c>
-      <c r="AP3">
+      <c r="AR3">
         <v>14</v>
       </c>
-      <c r="AQ3">
+      <c r="AS3">
         <v>29</v>
       </c>
-      <c r="AR3">
+      <c r="AT3">
         <v>15</v>
       </c>
-      <c r="AS3">
+      <c r="AU3">
         <v>11</v>
       </c>
-      <c r="AU3">
+      <c r="AW3">
         <v>26</v>
       </c>
-      <c r="AV3">
+      <c r="AX3">
         <v>21</v>
       </c>
-      <c r="AW3">
+      <c r="AY3">
         <v>24</v>
       </c>
-      <c r="AX3">
+      <c r="AZ3">
         <v>11</v>
       </c>
-      <c r="AY3">
+      <c r="BA3">
         <v>17</v>
       </c>
-      <c r="AZ3">
+      <c r="BB3">
         <v>18</v>
       </c>
-      <c r="BA3">
+      <c r="BC3">
         <v>13</v>
       </c>
-      <c r="BB3">
+      <c r="BD3">
         <v>25</v>
       </c>
-      <c r="BC3">
+      <c r="BE3">
         <v>21</v>
       </c>
-      <c r="BD3">
+      <c r="BF3">
         <v>34</v>
       </c>
-      <c r="BE3">
+      <c r="BG3">
         <v>11</v>
       </c>
-      <c r="BF3">
+      <c r="BH3">
         <v>19</v>
       </c>
-      <c r="BG3">
+      <c r="BI3">
         <v>32</v>
       </c>
-      <c r="BJ3">
+      <c r="BL3">
         <v>13</v>
       </c>
-      <c r="BK3">
+      <c r="BM3">
         <v>15</v>
-      </c>
-      <c r="BL3">
-        <v>14</v>
-      </c>
-      <c r="BM3">
-        <v>28</v>
       </c>
       <c r="BN3">
         <v>14</v>
       </c>
       <c r="BO3">
+        <v>28</v>
+      </c>
+      <c r="BP3">
+        <v>14</v>
+      </c>
+      <c r="BQ3">
         <v>24</v>
       </c>
-      <c r="BR3">
+      <c r="BT3">
         <v>15</v>
       </c>
-      <c r="BS3">
+      <c r="BU3">
         <v>17</v>
       </c>
-      <c r="BU3">
+      <c r="BW3">
         <v>30</v>
       </c>
-      <c r="BV3">
+      <c r="BX3">
         <v>18</v>
       </c>
-      <c r="BY3">
+      <c r="CA3">
         <v>23</v>
       </c>
-      <c r="BZ3">
+      <c r="CB3">
         <v>12</v>
       </c>
-      <c r="CA3">
+      <c r="CC3">
         <v>21</v>
       </c>
-      <c r="CB3">
+      <c r="CD3">
         <v>41</v>
       </c>
-      <c r="CC3">
+      <c r="CE3">
         <v>14</v>
       </c>
-      <c r="CD3">
+      <c r="CF3">
         <v>17</v>
       </c>
-      <c r="CE3">
+      <c r="CG3">
         <v>25</v>
       </c>
-      <c r="CF3">
+      <c r="CH3">
         <v>13</v>
       </c>
-      <c r="CG3">
+      <c r="CI3">
         <v>14</v>
       </c>
-      <c r="CH3">
+      <c r="CJ3">
         <v>17</v>
       </c>
-      <c r="CI3">
+      <c r="CK3">
         <v>21</v>
       </c>
-      <c r="CL3">
+      <c r="CN3">
         <v>35</v>
       </c>
-      <c r="CO3">
+      <c r="CQ3">
         <v>22</v>
       </c>
-      <c r="CP3">
+      <c r="CR3">
         <v>11</v>
       </c>
-      <c r="CQ3">
+      <c r="CS3">
         <v>11</v>
       </c>
-      <c r="CR3">
+      <c r="CT3">
         <v>14.1</v>
       </c>
-      <c r="CS3">
+      <c r="CU3">
         <v>20</v>
       </c>
-      <c r="CT3">
+      <c r="CV3">
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>98</v>
       </c>
@@ -1575,424 +1596,442 @@
       <c r="G4">
         <v>34</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>24</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>40</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>23</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>15</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>22</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>64</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>38</v>
       </c>
-      <c r="U4">
+      <c r="W4">
         <v>13</v>
       </c>
-      <c r="V4">
+      <c r="X4">
         <v>24</v>
       </c>
-      <c r="X4">
+      <c r="Z4">
         <v>21</v>
       </c>
-      <c r="Z4">
+      <c r="AB4">
         <v>27</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
+        <v>19</v>
+      </c>
+      <c r="AD4">
         <v>23</v>
       </c>
-      <c r="AC4">
+      <c r="AE4">
         <v>15</v>
       </c>
-      <c r="AD4">
+      <c r="AF4">
         <v>12</v>
       </c>
-      <c r="AE4">
+      <c r="AG4">
         <v>44</v>
       </c>
-      <c r="AF4">
+      <c r="AH4">
         <v>19</v>
       </c>
-      <c r="AG4">
+      <c r="AI4">
         <v>22</v>
       </c>
-      <c r="AH4">
+      <c r="AJ4">
         <v>25</v>
       </c>
-      <c r="AI4">
+      <c r="AK4">
         <v>41</v>
       </c>
-      <c r="AJ4">
+      <c r="AL4">
         <v>29</v>
       </c>
-      <c r="AK4">
+      <c r="AM4">
         <v>40</v>
       </c>
-      <c r="AL4">
+      <c r="AN4">
         <v>35</v>
       </c>
-      <c r="AM4">
+      <c r="AO4">
         <v>18</v>
       </c>
-      <c r="AN4">
+      <c r="AP4">
         <v>29</v>
       </c>
-      <c r="AO4">
+      <c r="AQ4">
         <v>29</v>
       </c>
-      <c r="AP4">
+      <c r="AR4">
         <v>16</v>
       </c>
-      <c r="AQ4">
+      <c r="AS4">
         <v>35</v>
       </c>
-      <c r="AR4">
+      <c r="AT4">
         <v>21</v>
       </c>
-      <c r="AS4">
+      <c r="AU4">
         <v>12</v>
       </c>
-      <c r="AT4">
+      <c r="AV4">
         <v>23</v>
       </c>
-      <c r="AU4">
+      <c r="AW4">
         <v>43</v>
       </c>
-      <c r="AV4">
+      <c r="AX4">
         <v>25</v>
       </c>
-      <c r="AW4">
+      <c r="AY4">
         <v>24</v>
       </c>
-      <c r="AX4">
+      <c r="AZ4">
         <v>12</v>
       </c>
-      <c r="AZ4">
+      <c r="BB4">
         <v>22</v>
       </c>
-      <c r="BA4">
+      <c r="BC4">
         <v>13</v>
       </c>
-      <c r="BB4">
+      <c r="BD4">
         <v>28</v>
       </c>
-      <c r="BC4">
+      <c r="BE4">
         <v>21</v>
       </c>
-      <c r="BD4">
+      <c r="BF4">
         <v>39</v>
       </c>
-      <c r="BE4">
+      <c r="BG4">
         <v>11</v>
       </c>
-      <c r="BG4">
+      <c r="BI4">
         <v>32</v>
       </c>
-      <c r="BI4">
+      <c r="BK4">
         <v>34</v>
       </c>
-      <c r="BK4">
+      <c r="BM4">
         <v>16</v>
       </c>
-      <c r="BL4">
+      <c r="BN4">
         <v>14</v>
       </c>
-      <c r="BM4">
+      <c r="BO4">
         <v>29</v>
       </c>
-      <c r="BO4">
+      <c r="BQ4">
         <v>23</v>
       </c>
-      <c r="BP4">
+      <c r="BR4">
         <v>45</v>
       </c>
-      <c r="BQ4">
+      <c r="BS4">
         <v>25</v>
       </c>
-      <c r="BR4">
+      <c r="BT4">
         <v>11</v>
       </c>
-      <c r="BS4">
+      <c r="BU4">
         <v>17</v>
       </c>
-      <c r="BT4">
+      <c r="BV4">
         <v>17</v>
       </c>
-      <c r="BU4">
+      <c r="BW4">
         <v>33</v>
       </c>
-      <c r="BW4">
+      <c r="BY4">
         <v>29</v>
       </c>
-      <c r="BX4">
+      <c r="BZ4">
         <v>18</v>
       </c>
-      <c r="BY4">
+      <c r="CA4">
         <v>25</v>
       </c>
-      <c r="BZ4">
+      <c r="CB4">
         <v>14</v>
       </c>
-      <c r="CA4">
+      <c r="CC4">
         <v>22</v>
       </c>
-      <c r="CB4">
+      <c r="CD4">
         <v>47</v>
       </c>
-      <c r="CD4">
+      <c r="CF4">
         <v>20</v>
       </c>
-      <c r="CE4">
+      <c r="CG4">
         <v>33</v>
       </c>
-      <c r="CF4">
+      <c r="CH4">
         <v>13</v>
       </c>
-      <c r="CG4">
+      <c r="CI4">
         <v>16</v>
       </c>
-      <c r="CI4">
+      <c r="CK4">
         <v>59</v>
       </c>
-      <c r="CJ4">
+      <c r="CL4">
         <v>29</v>
       </c>
-      <c r="CK4">
+      <c r="CM4">
         <v>27</v>
       </c>
-      <c r="CL4">
+      <c r="CN4">
         <v>37</v>
       </c>
-      <c r="CM4">
+      <c r="CO4">
         <v>23</v>
       </c>
-      <c r="CN4">
+      <c r="CP4">
         <v>13</v>
       </c>
-      <c r="CO4">
+      <c r="CQ4">
         <v>28</v>
       </c>
-      <c r="CP4">
+      <c r="CR4">
         <v>12.2</v>
       </c>
-      <c r="CQ4">
+      <c r="CS4">
         <v>15.9</v>
       </c>
-      <c r="CR4">
+      <c r="CT4">
         <v>20</v>
       </c>
-      <c r="CS4">
+      <c r="CU4">
         <v>40</v>
       </c>
-      <c r="CT4">
+      <c r="CV4">
         <v>10.5</v>
       </c>
     </row>
-    <row r="5" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>99</v>
       </c>
+      <c r="B5">
+        <v>220</v>
+      </c>
+      <c r="C5">
+        <v>34</v>
+      </c>
       <c r="E5">
         <v>24</v>
       </c>
       <c r="G5">
         <v>34</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>45</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>17</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>23</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>40</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>27</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>15</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>20</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>28</v>
       </c>
       <c r="R5">
         <v>84</v>
       </c>
-      <c r="T5">
+      <c r="S5">
+        <v>84</v>
+      </c>
+      <c r="V5">
         <v>23</v>
       </c>
-      <c r="U5">
+      <c r="W5">
         <v>13</v>
       </c>
-      <c r="X5">
+      <c r="Z5">
         <v>42</v>
       </c>
-      <c r="Y5">
+      <c r="AA5">
         <v>68</v>
       </c>
-      <c r="Z5">
+      <c r="AB5">
         <v>31</v>
       </c>
-      <c r="AB5">
+      <c r="AD5">
         <v>27</v>
       </c>
-      <c r="AD5">
+      <c r="AF5">
         <v>26</v>
       </c>
-      <c r="AE5">
+      <c r="AG5">
         <v>49</v>
       </c>
-      <c r="AF5">
+      <c r="AH5">
         <v>33</v>
       </c>
-      <c r="AG5">
+      <c r="AI5">
         <v>29</v>
       </c>
-      <c r="AH5">
+      <c r="AJ5">
         <v>28</v>
       </c>
-      <c r="AI5">
+      <c r="AK5">
         <v>53</v>
       </c>
-      <c r="AJ5">
+      <c r="AL5">
         <v>32</v>
       </c>
-      <c r="AK5">
+      <c r="AM5">
         <v>56</v>
       </c>
-      <c r="AM5">
+      <c r="AO5">
         <v>18</v>
       </c>
-      <c r="AN5">
+      <c r="AP5">
         <v>29</v>
       </c>
-      <c r="AO5">
+      <c r="AQ5">
         <v>29</v>
       </c>
-      <c r="AQ5">
+      <c r="AR5">
+        <v>16</v>
+      </c>
+      <c r="AS5">
         <v>35</v>
       </c>
-      <c r="AR5">
+      <c r="AT5">
         <v>27</v>
       </c>
-      <c r="AS5">
+      <c r="AU5">
         <v>18</v>
       </c>
-      <c r="AU5">
+      <c r="AW5">
         <v>61</v>
       </c>
-      <c r="AV5">
+      <c r="AX5">
         <v>33</v>
       </c>
-      <c r="AX5">
+      <c r="AZ5">
         <v>15</v>
       </c>
-      <c r="AY5">
+      <c r="BA5">
         <v>43</v>
       </c>
-      <c r="AZ5">
+      <c r="BB5">
         <v>39</v>
       </c>
-      <c r="BB5">
+      <c r="BD5">
         <v>29</v>
       </c>
-      <c r="BD5">
+      <c r="BF5">
         <v>39</v>
       </c>
-      <c r="BF5">
+      <c r="BH5">
         <v>34</v>
       </c>
-      <c r="BH5">
+      <c r="BJ5">
         <v>38</v>
       </c>
-      <c r="BJ5">
+      <c r="BL5">
         <v>20</v>
       </c>
-      <c r="BK5">
+      <c r="BM5">
         <v>16</v>
       </c>
-      <c r="BM5">
+      <c r="BO5">
         <v>29</v>
       </c>
-      <c r="BN5">
+      <c r="BP5">
         <v>23</v>
       </c>
-      <c r="BO5">
+      <c r="BQ5">
         <v>25</v>
       </c>
-      <c r="BR5">
+      <c r="BT5">
         <v>16</v>
       </c>
-      <c r="BU5">
+      <c r="BW5">
         <v>58</v>
       </c>
-      <c r="BV5">
+      <c r="BX5">
         <v>41</v>
       </c>
-      <c r="BY5">
+      <c r="CA5">
         <v>30</v>
       </c>
-      <c r="BZ5">
+      <c r="CB5">
         <v>14</v>
       </c>
-      <c r="CC5">
+      <c r="CD5">
+        <v>47</v>
+      </c>
+      <c r="CE5">
         <v>21</v>
       </c>
-      <c r="CD5">
+      <c r="CF5">
         <v>24</v>
       </c>
-      <c r="CE5">
+      <c r="CG5">
         <v>33</v>
       </c>
-      <c r="CG5">
+      <c r="CI5">
         <v>16</v>
       </c>
-      <c r="CH5">
+      <c r="CJ5">
         <v>50</v>
       </c>
-      <c r="CI5">
+      <c r="CK5">
         <v>75</v>
       </c>
-      <c r="CL5">
+      <c r="CN5">
         <v>58</v>
       </c>
-      <c r="CO5">
+      <c r="CQ5">
         <v>28</v>
       </c>
-      <c r="CP5">
+      <c r="CR5">
         <v>13.5</v>
       </c>
-      <c r="CQ5">
+      <c r="CS5">
         <v>20</v>
       </c>
-      <c r="CR5">
+      <c r="CT5">
         <v>28.3</v>
       </c>
-      <c r="CS5">
+      <c r="CU5">
         <v>80</v>
       </c>
-      <c r="CT5">
+      <c r="CV5">
         <v>10.7</v>
       </c>
     </row>
-    <row r="6" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>100</v>
       </c>
@@ -2002,143 +2041,143 @@
       <c r="F6">
         <v>39</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>66</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>39</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>23</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>30</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>79</v>
       </c>
-      <c r="U6">
+      <c r="W6">
         <v>14</v>
       </c>
-      <c r="X6">
+      <c r="Z6">
         <v>53</v>
       </c>
-      <c r="Z6">
+      <c r="AB6">
         <v>31</v>
       </c>
-      <c r="AB6">
+      <c r="AD6">
         <v>30</v>
       </c>
-      <c r="AC6">
+      <c r="AE6">
         <v>29</v>
       </c>
-      <c r="AD6">
+      <c r="AF6">
         <v>24</v>
       </c>
-      <c r="AE6">
+      <c r="AG6">
         <v>57</v>
       </c>
-      <c r="AF6">
+      <c r="AH6">
         <v>33</v>
       </c>
-      <c r="AG6">
+      <c r="AI6">
         <v>32</v>
       </c>
-      <c r="AH6">
+      <c r="AJ6">
         <v>28</v>
       </c>
-      <c r="AI6">
+      <c r="AK6">
         <v>55</v>
       </c>
-      <c r="AJ6">
+      <c r="AL6">
         <v>32</v>
       </c>
-      <c r="AK6">
+      <c r="AM6">
         <v>56</v>
       </c>
-      <c r="AM6">
+      <c r="AO6">
         <v>20</v>
       </c>
-      <c r="AR6">
+      <c r="AT6">
         <v>40</v>
       </c>
-      <c r="AS6">
+      <c r="AU6">
         <v>21</v>
       </c>
-      <c r="AU6">
+      <c r="AW6">
         <v>81</v>
       </c>
-      <c r="AV6">
+      <c r="AX6">
         <v>41</v>
       </c>
-      <c r="AW6">
+      <c r="AY6">
         <v>44</v>
       </c>
-      <c r="AX6">
+      <c r="AZ6">
         <v>15</v>
       </c>
-      <c r="AZ6">
+      <c r="BB6">
         <v>39</v>
       </c>
-      <c r="BA6">
+      <c r="BC6">
         <v>22</v>
       </c>
-      <c r="BB6">
+      <c r="BD6">
         <v>30</v>
       </c>
-      <c r="BC6">
+      <c r="BE6">
         <v>31</v>
       </c>
-      <c r="BG6">
+      <c r="BI6">
         <v>57</v>
       </c>
-      <c r="BL6">
+      <c r="BN6">
         <v>34</v>
       </c>
-      <c r="BO6">
+      <c r="BQ6">
         <v>34</v>
       </c>
-      <c r="BR6">
+      <c r="BT6">
         <v>24</v>
       </c>
-      <c r="BS6">
+      <c r="BU6">
         <v>21</v>
       </c>
-      <c r="BU6">
+      <c r="BW6">
         <v>70</v>
       </c>
-      <c r="BY6">
+      <c r="CA6">
         <v>39</v>
       </c>
-      <c r="CD6">
+      <c r="CF6">
         <v>27</v>
       </c>
-      <c r="CF6">
+      <c r="CH6">
         <v>23</v>
       </c>
-      <c r="CI6">
+      <c r="CK6">
         <v>75</v>
       </c>
-      <c r="CL6">
+      <c r="CN6">
         <v>68</v>
       </c>
-      <c r="CP6">
+      <c r="CR6">
         <v>14.9</v>
       </c>
-      <c r="CQ6">
+      <c r="CS6">
         <v>25.2</v>
       </c>
-      <c r="CR6">
+      <c r="CT6">
         <v>40</v>
       </c>
-      <c r="CS6">
+      <c r="CU6">
         <v>160</v>
       </c>
-      <c r="CT6">
+      <c r="CV6">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>101</v>
       </c>
@@ -2148,517 +2187,458 @@
       <c r="G7">
         <v>91</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>66</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>67</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>39</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>20</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>36</v>
       </c>
-      <c r="U7">
+      <c r="W7">
         <v>14</v>
       </c>
-      <c r="X7">
+      <c r="Z7">
         <v>53</v>
       </c>
       <c r="AD7">
+        <v>40</v>
+      </c>
+      <c r="AF7">
         <v>18</v>
       </c>
-      <c r="AE7">
+      <c r="AG7">
         <v>71</v>
       </c>
-      <c r="AG7">
+      <c r="AI7">
         <v>32</v>
       </c>
-      <c r="AI7">
+      <c r="AK7">
         <v>69</v>
       </c>
-      <c r="AM7">
+      <c r="AO7">
         <v>21</v>
       </c>
-      <c r="AN7">
+      <c r="AP7">
         <v>63</v>
       </c>
-      <c r="AO7">
+      <c r="AQ7">
         <v>64</v>
       </c>
-      <c r="AQ7">
+      <c r="AS7">
         <v>54</v>
       </c>
-      <c r="AR7">
+      <c r="AT7">
         <v>43</v>
       </c>
-      <c r="AS7">
+      <c r="AU7">
         <v>25</v>
       </c>
-      <c r="AU7">
+      <c r="AW7">
         <v>81</v>
       </c>
-      <c r="AV7">
+      <c r="AX7">
         <v>49</v>
       </c>
-      <c r="BB7">
+      <c r="BD7">
         <v>33</v>
       </c>
-      <c r="BD7">
+      <c r="BF7">
         <v>56</v>
       </c>
-      <c r="BE7">
+      <c r="BG7">
         <v>15</v>
       </c>
-      <c r="BK7">
+      <c r="BM7">
         <v>21</v>
       </c>
-      <c r="BM7">
+      <c r="BO7">
         <v>60</v>
       </c>
-      <c r="BO7">
+      <c r="BQ7">
         <v>34</v>
       </c>
-      <c r="BR7">
+      <c r="BT7">
         <v>24</v>
       </c>
-      <c r="BU7">
+      <c r="BW7">
         <v>82</v>
       </c>
-      <c r="BY7">
+      <c r="CA7">
         <v>45</v>
       </c>
-      <c r="BZ7">
+      <c r="CB7">
         <v>24</v>
       </c>
-      <c r="CA7">
+      <c r="CC7">
         <v>19</v>
       </c>
-      <c r="CD7">
+      <c r="CF7">
         <v>31</v>
       </c>
-      <c r="CE7">
+      <c r="CG7">
         <v>57</v>
       </c>
-      <c r="CG7">
+      <c r="CI7">
         <v>29</v>
       </c>
-      <c r="CL7">
+      <c r="CN7">
         <v>78</v>
       </c>
-      <c r="CO7">
+      <c r="CQ7">
         <v>52</v>
       </c>
-      <c r="CP7">
+      <c r="CR7">
         <v>16.399999999999999</v>
       </c>
-      <c r="CQ7">
+      <c r="CS7">
         <v>31.7</v>
       </c>
-      <c r="CR7">
+      <c r="CT7">
         <v>56.6</v>
       </c>
-      <c r="CT7">
+      <c r="CV7">
         <v>11.2</v>
       </c>
     </row>
-    <row r="8" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>102</v>
       </c>
       <c r="E8">
         <v>28</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>36</v>
       </c>
-      <c r="U8">
+      <c r="W8">
         <v>15</v>
       </c>
-      <c r="Z8">
+      <c r="AB8">
         <v>53</v>
       </c>
-      <c r="AD8">
+      <c r="AF8">
         <v>19</v>
       </c>
-      <c r="AE8">
+      <c r="AG8">
         <v>91</v>
       </c>
-      <c r="AF8">
+      <c r="AH8">
         <v>61</v>
       </c>
-      <c r="AH8">
+      <c r="AJ8">
         <v>51</v>
       </c>
-      <c r="AI8">
+      <c r="AK8">
         <v>77</v>
       </c>
-      <c r="AJ8">
+      <c r="AL8">
         <v>57</v>
       </c>
-      <c r="AK8">
+      <c r="AM8">
         <v>103</v>
       </c>
-      <c r="AM8">
+      <c r="AO8">
         <v>32</v>
       </c>
-      <c r="AR8">
+      <c r="AT8">
         <v>49</v>
       </c>
-      <c r="AS8">
+      <c r="AU8">
         <v>25</v>
       </c>
-      <c r="AV8">
+      <c r="AX8">
         <v>49</v>
       </c>
-      <c r="AX8">
+      <c r="AZ8">
         <v>29</v>
       </c>
-      <c r="AZ8">
+      <c r="BB8">
         <v>67</v>
       </c>
-      <c r="BB8">
+      <c r="BD8">
         <v>35</v>
       </c>
-      <c r="BO8">
+      <c r="BQ8">
         <v>34</v>
       </c>
-      <c r="BR8">
+      <c r="BT8">
         <v>24</v>
       </c>
-      <c r="BU8">
+      <c r="BW8">
         <v>82</v>
       </c>
-      <c r="BY8">
+      <c r="CA8">
         <v>45</v>
       </c>
-      <c r="CD8">
+      <c r="CF8">
         <v>34</v>
       </c>
-      <c r="CI8">
+      <c r="CK8">
         <v>110</v>
       </c>
-      <c r="CL8">
+      <c r="CN8">
         <v>78</v>
       </c>
-      <c r="CP8">
+      <c r="CR8">
         <v>18.100000000000001</v>
       </c>
-      <c r="CQ8">
+      <c r="CS8">
         <v>40</v>
       </c>
-      <c r="CR8">
+      <c r="CT8">
         <v>80</v>
       </c>
-      <c r="CT8">
+      <c r="CV8">
         <v>11.5</v>
       </c>
     </row>
-    <row r="9" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>103</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>128</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>44</v>
       </c>
-      <c r="U9">
+      <c r="W9">
         <v>20</v>
       </c>
-      <c r="X9">
+      <c r="Z9">
         <v>97</v>
       </c>
-      <c r="AD9">
+      <c r="AF9">
         <v>20</v>
       </c>
-      <c r="AE9">
+      <c r="AG9">
         <v>110</v>
       </c>
-      <c r="AG9">
+      <c r="AI9">
         <v>64</v>
       </c>
-      <c r="AI9">
+      <c r="AK9">
         <v>87</v>
       </c>
-      <c r="AM9">
+      <c r="AO9">
         <v>29</v>
       </c>
-      <c r="AR9">
+      <c r="AT9">
         <v>55</v>
       </c>
-      <c r="AU9">
+      <c r="AW9">
         <v>127</v>
       </c>
-      <c r="BB9">
+      <c r="AX9">
+        <v>58</v>
+      </c>
+      <c r="BD9">
         <v>40</v>
       </c>
-      <c r="BR9">
+      <c r="BT9">
         <v>24</v>
       </c>
-      <c r="CD9">
+      <c r="CF9">
         <v>38</v>
       </c>
-      <c r="CP9">
+      <c r="CR9">
         <v>20</v>
       </c>
-      <c r="CQ9">
+      <c r="CS9">
         <v>50.4</v>
       </c>
-      <c r="CR9">
+      <c r="CT9">
         <v>113.1</v>
       </c>
-      <c r="CT9">
+      <c r="CV9">
         <v>11.7</v>
       </c>
     </row>
-    <row r="10" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>104</v>
       </c>
       <c r="E10">
         <v>88</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>53</v>
       </c>
-      <c r="U10">
+      <c r="W10">
         <v>24</v>
       </c>
-      <c r="AD10">
+      <c r="AF10">
         <v>23</v>
       </c>
-      <c r="AE10">
+      <c r="AG10">
         <v>130</v>
       </c>
-      <c r="AI10">
+      <c r="AK10">
         <v>87</v>
       </c>
-      <c r="AM10">
+      <c r="AO10">
         <v>36</v>
       </c>
-      <c r="AR10">
+      <c r="AT10">
         <v>57</v>
       </c>
-      <c r="AS10">
+      <c r="AU10">
         <v>48</v>
       </c>
-      <c r="BB10">
+      <c r="BD10">
         <v>44</v>
       </c>
-      <c r="BO10">
+      <c r="BQ10">
         <v>52</v>
       </c>
-      <c r="BU10">
+      <c r="BT10">
+        <v>24</v>
+      </c>
+      <c r="BW10">
         <v>139</v>
       </c>
-      <c r="BY10">
+      <c r="CA10">
         <v>68</v>
       </c>
-      <c r="CL10">
+      <c r="CF10">
+        <v>47</v>
+      </c>
+      <c r="CN10">
         <v>117</v>
       </c>
-      <c r="CP10">
+      <c r="CR10">
         <v>22.1</v>
       </c>
-      <c r="CQ10">
+      <c r="CS10">
         <v>63.5</v>
       </c>
-      <c r="CR10">
+      <c r="CT10">
         <v>160</v>
       </c>
-      <c r="CT10">
+      <c r="CV10">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>105</v>
       </c>
-      <c r="U11">
+      <c r="W11">
         <v>25</v>
       </c>
-      <c r="AM11">
+      <c r="AF11">
+        <v>24</v>
+      </c>
+      <c r="AG11">
+        <v>152</v>
+      </c>
+      <c r="AO11">
         <v>50</v>
       </c>
-      <c r="AR11">
+      <c r="AT11">
         <v>57</v>
       </c>
-      <c r="BB11">
+      <c r="BD11">
         <v>46</v>
       </c>
-      <c r="CP11">
+      <c r="CR11">
         <v>24.4</v>
       </c>
-      <c r="CQ11">
+      <c r="CS11">
         <v>80</v>
       </c>
-      <c r="CT11">
+      <c r="CV11">
         <v>12.3</v>
       </c>
     </row>
-    <row r="12" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>106</v>
       </c>
-      <c r="U12">
+      <c r="W12">
         <v>26</v>
       </c>
-      <c r="AI12">
+      <c r="AK12">
         <v>156</v>
       </c>
-      <c r="AM12">
+      <c r="AO12">
         <v>52</v>
       </c>
-      <c r="CP12">
+      <c r="BD12">
+        <v>59</v>
+      </c>
+      <c r="CR12">
         <v>26.9</v>
       </c>
-      <c r="CQ12">
+      <c r="CS12">
         <v>100.8</v>
       </c>
-      <c r="CT12">
+      <c r="CV12">
         <v>12.6</v>
       </c>
     </row>
-    <row r="13" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>107</v>
       </c>
-      <c r="U13">
+      <c r="W13">
         <v>26</v>
       </c>
-      <c r="AM13">
+      <c r="AO13">
         <v>52</v>
       </c>
-      <c r="AR13">
+      <c r="AT13">
         <v>81</v>
       </c>
-      <c r="CP13">
+      <c r="CR13">
         <v>29.7</v>
       </c>
-      <c r="CQ13">
+      <c r="CS13">
         <v>127</v>
       </c>
-      <c r="CT13">
+      <c r="CV13">
         <v>12.8</v>
       </c>
     </row>
-    <row r="14" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>110</v>
       </c>
-      <c r="CP14">
+      <c r="CR14">
         <v>32.799999999999997</v>
       </c>
-      <c r="CQ14">
+      <c r="CS14">
         <v>160</v>
       </c>
-      <c r="CT14">
+      <c r="CV14">
         <v>13.1</v>
       </c>
     </row>
-    <row r="15" spans="1:98" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:100" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1">
+      <c r="W15">
         <v>43</v>
       </c>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="1"/>
-      <c r="AA15" s="1"/>
-      <c r="AB15" s="1"/>
-      <c r="AC15" s="1"/>
-      <c r="AD15" s="1"/>
-      <c r="AE15" s="1"/>
-      <c r="AF15" s="1"/>
-      <c r="AG15" s="1"/>
-      <c r="AH15" s="1"/>
-      <c r="AI15" s="1"/>
-      <c r="AJ15" s="1"/>
-      <c r="AK15" s="1"/>
-      <c r="AL15" s="1"/>
-      <c r="AM15" s="1">
+      <c r="AO15">
         <v>92</v>
       </c>
-      <c r="AN15" s="1"/>
-      <c r="AO15" s="1"/>
-      <c r="AP15" s="1"/>
-      <c r="AQ15" s="1"/>
-      <c r="AR15" s="1"/>
-      <c r="AS15" s="1"/>
-      <c r="AT15" s="1"/>
-      <c r="AU15" s="1"/>
-      <c r="AV15" s="1"/>
-      <c r="AW15" s="1"/>
-      <c r="AX15" s="1"/>
-      <c r="AY15" s="1"/>
-      <c r="AZ15" s="1"/>
-      <c r="BA15" s="1"/>
-      <c r="BB15" s="1"/>
-      <c r="BC15" s="1"/>
-      <c r="BD15" s="1"/>
-      <c r="BE15" s="1"/>
-      <c r="BF15" s="1"/>
-      <c r="BG15" s="1"/>
-      <c r="BH15" s="1"/>
-      <c r="BI15" s="1"/>
-      <c r="BJ15" s="1"/>
-      <c r="BK15" s="1"/>
-      <c r="BL15" s="1"/>
-      <c r="BM15" s="1"/>
-      <c r="BN15" s="1"/>
-      <c r="BO15" s="1"/>
-      <c r="BP15" s="1"/>
-      <c r="BQ15" s="1"/>
-      <c r="BR15" s="1"/>
-      <c r="BS15" s="1"/>
-      <c r="BT15" s="1"/>
-      <c r="BU15" s="1"/>
-      <c r="BV15" s="1"/>
-      <c r="BW15" s="1"/>
-      <c r="BX15" s="1"/>
-      <c r="BY15" s="1"/>
-      <c r="BZ15" s="1"/>
-      <c r="CA15" s="1"/>
-      <c r="CB15" s="1"/>
-      <c r="CC15" s="1"/>
-      <c r="CD15" s="1"/>
-      <c r="CE15" s="1"/>
-      <c r="CP15">
+      <c r="CR15">
         <v>36.200000000000003</v>
       </c>
-      <c r="CQ15">
+      <c r="CS15">
         <v>201.6</v>
       </c>
-      <c r="CT15">
+      <c r="CV15">
         <v>13.4</v>
       </c>
     </row>

--- a/datawrapper.xlsx
+++ b/datawrapper.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Lauh/Documents/GitHub/covid-cases-by-ua/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA273752-C44B-554C-B3E7-174E46C55B19}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF410C57-C383-634B-8FD1-EDF8B4312FA8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33100" yWindow="-4660" windowWidth="26860" windowHeight="13600" xr2:uid="{EAC58F93-768E-47B9-BC54-011C8E15BDC6}"/>
+    <workbookView xWindow="24340" yWindow="440" windowWidth="26860" windowHeight="13600" xr2:uid="{EAC58F93-768E-47B9-BC54-011C8E15BDC6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="157">
   <si>
     <t>Area</t>
   </si>
@@ -351,9 +351,6 @@
     <t>12 days</t>
   </si>
   <si>
-    <t>1 day</t>
-  </si>
-  <si>
     <t>Dumfries and Galloway</t>
   </si>
   <si>
@@ -367,23 +364,148 @@
   </si>
   <si>
     <t>Cwm Taf</t>
+  </si>
+  <si>
+    <t>1 days</t>
+  </si>
+  <si>
+    <t>15 days</t>
+  </si>
+  <si>
+    <t>16 days</t>
+  </si>
+  <si>
+    <t>Barnsley</t>
+  </si>
+  <si>
+    <t>Bath and North East Somerset</t>
+  </si>
+  <si>
+    <t>Betsi Cadwaladr</t>
+  </si>
+  <si>
+    <t>Bolton</t>
+  </si>
+  <si>
+    <t>Bournemouth, Christchurch and Poole</t>
+  </si>
+  <si>
+    <t>Bradford</t>
+  </si>
+  <si>
+    <t>Bury</t>
+  </si>
+  <si>
+    <t>Central Bedfordshire</t>
+  </si>
+  <si>
+    <t>Cheshire East</t>
+  </si>
+  <si>
+    <t>Cheshire West and Chester</t>
+  </si>
+  <si>
+    <t>Cornwall and Isles of Scilly</t>
+  </si>
+  <si>
+    <t>County Durham</t>
+  </si>
+  <si>
+    <t>Coventry</t>
+  </si>
+  <si>
+    <t>Dorset</t>
+  </si>
+  <si>
+    <t>East Riding of Yorkshire</t>
+  </si>
+  <si>
+    <t>East Sussex</t>
+  </si>
+  <si>
+    <t>Highland</t>
+  </si>
+  <si>
+    <t>Kirklees</t>
+  </si>
+  <si>
+    <t>Leicester</t>
+  </si>
+  <si>
+    <t>Lincolnshire</t>
+  </si>
+  <si>
+    <t>Luton</t>
+  </si>
+  <si>
+    <t>Medway</t>
+  </si>
+  <si>
+    <t>Milton Keynes</t>
+  </si>
+  <si>
+    <t>North Tyneside</t>
+  </si>
+  <si>
+    <t>Plymouth</t>
+  </si>
+  <si>
+    <t>Portsmouth</t>
+  </si>
+  <si>
+    <t>Powys</t>
+  </si>
+  <si>
+    <t>Rochdale</t>
+  </si>
+  <si>
+    <t>Rotherham</t>
+  </si>
+  <si>
+    <t>Salford</t>
+  </si>
+  <si>
+    <t>Sandwell</t>
+  </si>
+  <si>
+    <t>Somerset</t>
+  </si>
+  <si>
+    <t>Southampton</t>
+  </si>
+  <si>
+    <t>Stockton-on-Tees</t>
+  </si>
+  <si>
+    <t>Sunderland</t>
+  </si>
+  <si>
+    <t>Thurrock</t>
+  </si>
+  <si>
+    <t>Torbay</t>
+  </si>
+  <si>
+    <t>Wakefield</t>
+  </si>
+  <si>
+    <t>Wirral</t>
+  </si>
+  <si>
+    <t>Wokingham</t>
+  </si>
+  <si>
+    <t>Worcestershire</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -409,9 +531,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -726,15 +847,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88098434-83EE-473A-A635-95028084696D}">
-  <dimension ref="A1:CV15"/>
+  <dimension ref="A1:EK17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AO13" sqref="AO13:AO14"/>
+    <sheetView tabSelected="1" topLeftCell="DY1" workbookViewId="0">
+      <selection activeCell="EL18" sqref="EL18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -751,294 +872,417 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
+        <v>119</v>
+      </c>
+      <c r="L1" t="s">
+        <v>111</v>
+      </c>
+      <c r="M1" t="s">
+        <v>120</v>
+      </c>
+      <c r="N1" t="s">
+        <v>121</v>
+      </c>
+      <c r="O1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T1" t="s">
+        <v>122</v>
+      </c>
+      <c r="U1" t="s">
+        <v>12</v>
+      </c>
+      <c r="V1" t="s">
+        <v>13</v>
+      </c>
+      <c r="W1" t="s">
+        <v>14</v>
+      </c>
+      <c r="X1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH1" t="s">
         <v>112</v>
       </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" t="s">
+      <c r="AI1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>32</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>33</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>34</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>35</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>37</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>38</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>39</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>40</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>41</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>42</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>43</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>44</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>45</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>47</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>48</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>49</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>53</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>137</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>54</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>138</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>139</v>
+      </c>
+      <c r="CJ1" t="s">
+        <v>60</v>
+      </c>
+      <c r="CK1" t="s">
+        <v>61</v>
+      </c>
+      <c r="CL1" t="s">
+        <v>62</v>
+      </c>
+      <c r="CM1" t="s">
+        <v>63</v>
+      </c>
+      <c r="CN1" t="s">
+        <v>64</v>
+      </c>
+      <c r="CO1" t="s">
+        <v>65</v>
+      </c>
+      <c r="CP1" t="s">
+        <v>140</v>
+      </c>
+      <c r="CQ1" t="s">
+        <v>141</v>
+      </c>
+      <c r="CR1" t="s">
+        <v>142</v>
+      </c>
+      <c r="CS1" t="s">
+        <v>66</v>
+      </c>
+      <c r="CT1" t="s">
+        <v>67</v>
+      </c>
+      <c r="CU1" t="s">
+        <v>143</v>
+      </c>
+      <c r="CV1" t="s">
+        <v>144</v>
+      </c>
+      <c r="CW1" t="s">
+        <v>145</v>
+      </c>
+      <c r="CX1" t="s">
+        <v>146</v>
+      </c>
+      <c r="CY1" t="s">
+        <v>68</v>
+      </c>
+      <c r="CZ1" t="s">
+        <v>69</v>
+      </c>
+      <c r="DA1" t="s">
+        <v>147</v>
+      </c>
+      <c r="DB1" t="s">
+        <v>70</v>
+      </c>
+      <c r="DC1" t="s">
+        <v>148</v>
+      </c>
+      <c r="DD1" t="s">
+        <v>71</v>
+      </c>
+      <c r="DE1" t="s">
+        <v>72</v>
+      </c>
+      <c r="DF1" t="s">
+        <v>73</v>
+      </c>
+      <c r="DG1" t="s">
+        <v>149</v>
+      </c>
+      <c r="DH1" t="s">
+        <v>74</v>
+      </c>
+      <c r="DI1" t="s">
+        <v>150</v>
+      </c>
+      <c r="DJ1" t="s">
+        <v>75</v>
+      </c>
+      <c r="DK1" t="s">
+        <v>76</v>
+      </c>
+      <c r="DL1" t="s">
+        <v>77</v>
+      </c>
+      <c r="DM1" t="s">
+        <v>78</v>
+      </c>
+      <c r="DN1" t="s">
+        <v>79</v>
+      </c>
+      <c r="DO1" t="s">
+        <v>80</v>
+      </c>
+      <c r="DP1" t="s">
+        <v>151</v>
+      </c>
+      <c r="DQ1" t="s">
+        <v>152</v>
+      </c>
+      <c r="DR1" t="s">
+        <v>81</v>
+      </c>
+      <c r="DS1" t="s">
+        <v>82</v>
+      </c>
+      <c r="DT1" t="s">
+        <v>153</v>
+      </c>
+      <c r="DU1" t="s">
+        <v>83</v>
+      </c>
+      <c r="DV1" t="s">
+        <v>84</v>
+      </c>
+      <c r="DW1" t="s">
+        <v>85</v>
+      </c>
+      <c r="DX1" t="s">
+        <v>86</v>
+      </c>
+      <c r="DY1" t="s">
+        <v>87</v>
+      </c>
+      <c r="DZ1" t="s">
+        <v>88</v>
+      </c>
+      <c r="EA1" t="s">
+        <v>89</v>
+      </c>
+      <c r="EB1" t="s">
+        <v>90</v>
+      </c>
+      <c r="EC1" t="s">
+        <v>154</v>
+      </c>
+      <c r="ED1" t="s">
+        <v>155</v>
+      </c>
+      <c r="EE1" t="s">
+        <v>91</v>
+      </c>
+      <c r="EF1" t="s">
+        <v>156</v>
+      </c>
+      <c r="EG1" t="s">
+        <v>92</v>
+      </c>
+      <c r="EH1" t="s">
+        <v>93</v>
+      </c>
+      <c r="EI1" t="s">
+        <v>94</v>
+      </c>
+      <c r="EJ1" t="s">
+        <v>95</v>
+      </c>
+      <c r="EK1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:141" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>113</v>
-      </c>
-      <c r="V1" t="s">
-        <v>19</v>
-      </c>
-      <c r="W1" t="s">
-        <v>20</v>
-      </c>
-      <c r="X1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>48</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>49</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BK1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BM1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BN1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BO1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BP1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BQ1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BR1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BS1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BT1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BU1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BV1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BW1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BX1" t="s">
-        <v>72</v>
-      </c>
-      <c r="BY1" t="s">
-        <v>73</v>
-      </c>
-      <c r="BZ1" t="s">
-        <v>74</v>
-      </c>
-      <c r="CA1" t="s">
-        <v>75</v>
-      </c>
-      <c r="CB1" t="s">
-        <v>76</v>
-      </c>
-      <c r="CC1" t="s">
-        <v>77</v>
-      </c>
-      <c r="CD1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CE1" t="s">
-        <v>79</v>
-      </c>
-      <c r="CF1" t="s">
-        <v>80</v>
-      </c>
-      <c r="CG1" t="s">
-        <v>81</v>
-      </c>
-      <c r="CH1" t="s">
-        <v>82</v>
-      </c>
-      <c r="CI1" t="s">
-        <v>83</v>
-      </c>
-      <c r="CJ1" t="s">
-        <v>84</v>
-      </c>
-      <c r="CK1" t="s">
-        <v>85</v>
-      </c>
-      <c r="CL1" t="s">
-        <v>86</v>
-      </c>
-      <c r="CM1" t="s">
-        <v>87</v>
-      </c>
-      <c r="CN1" t="s">
-        <v>88</v>
-      </c>
-      <c r="CO1" t="s">
-        <v>89</v>
-      </c>
-      <c r="CP1" t="s">
-        <v>90</v>
-      </c>
-      <c r="CQ1" t="s">
-        <v>91</v>
-      </c>
-      <c r="CR1" t="s">
-        <v>92</v>
-      </c>
-      <c r="CS1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CT1" t="s">
-        <v>94</v>
-      </c>
-      <c r="CU1" t="s">
-        <v>95</v>
-      </c>
-      <c r="CV1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:100" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>108</v>
       </c>
       <c r="C2">
         <v>16</v>
@@ -1050,283 +1294,406 @@
         <v>23</v>
       </c>
       <c r="F2">
+        <v>15</v>
+      </c>
+      <c r="G2">
+        <v>13</v>
+      </c>
+      <c r="H2">
+        <v>19</v>
+      </c>
+      <c r="I2">
         <v>17</v>
       </c>
-      <c r="G2">
+      <c r="J2">
         <v>20</v>
       </c>
-      <c r="H2">
+      <c r="K2">
+        <v>17</v>
+      </c>
+      <c r="L2">
         <v>12</v>
       </c>
-      <c r="I2">
+      <c r="M2">
+        <v>12</v>
+      </c>
+      <c r="N2">
+        <v>13</v>
+      </c>
+      <c r="O2">
         <v>20</v>
       </c>
-      <c r="J2">
+      <c r="P2">
         <v>12</v>
       </c>
-      <c r="K2">
+      <c r="Q2">
         <v>12</v>
       </c>
-      <c r="L2">
+      <c r="R2">
         <v>23</v>
       </c>
-      <c r="M2">
+      <c r="S2">
         <v>15</v>
       </c>
-      <c r="N2">
+      <c r="T2">
         <v>14</v>
       </c>
-      <c r="O2">
+      <c r="U2">
+        <v>14</v>
+      </c>
+      <c r="V2">
         <v>12</v>
       </c>
-      <c r="P2">
+      <c r="W2">
         <v>19</v>
       </c>
-      <c r="Q2">
+      <c r="X2">
         <v>14</v>
       </c>
-      <c r="S2">
+      <c r="Z2">
+        <v>14</v>
+      </c>
+      <c r="AA2">
+        <v>18</v>
+      </c>
+      <c r="AB2">
+        <v>16</v>
+      </c>
+      <c r="AC2">
+        <v>20</v>
+      </c>
+      <c r="AD2">
+        <v>11</v>
+      </c>
+      <c r="AE2">
+        <v>19</v>
+      </c>
+      <c r="AF2">
         <v>49</v>
       </c>
-      <c r="T2">
+      <c r="AG2">
         <v>34</v>
       </c>
-      <c r="U2">
+      <c r="AH2">
         <v>21</v>
       </c>
-      <c r="V2">
+      <c r="AI2">
         <v>9</v>
       </c>
-      <c r="W2">
+      <c r="AJ2">
         <v>12</v>
       </c>
-      <c r="X2">
+      <c r="AK2">
+        <v>14</v>
+      </c>
+      <c r="AL2">
         <v>11</v>
       </c>
-      <c r="Y2">
+      <c r="AM2">
         <v>16</v>
       </c>
-      <c r="Z2">
+      <c r="AN2">
         <v>20</v>
       </c>
-      <c r="AA2">
+      <c r="AO2">
+        <v>15</v>
+      </c>
+      <c r="AP2">
+        <v>21</v>
+      </c>
+      <c r="AQ2">
         <v>30</v>
       </c>
-      <c r="AB2">
+      <c r="AR2">
         <v>20</v>
       </c>
-      <c r="AC2">
+      <c r="AS2">
         <v>13</v>
-      </c>
-      <c r="AD2">
-        <v>15</v>
-      </c>
-      <c r="AE2">
-        <v>12</v>
-      </c>
-      <c r="AF2">
-        <v>9</v>
-      </c>
-      <c r="AG2">
-        <v>31</v>
-      </c>
-      <c r="AH2">
-        <v>18</v>
-      </c>
-      <c r="AI2">
-        <v>13</v>
-      </c>
-      <c r="AJ2">
-        <v>21</v>
-      </c>
-      <c r="AK2">
-        <v>13</v>
-      </c>
-      <c r="AL2">
-        <v>16</v>
-      </c>
-      <c r="AM2">
-        <v>14</v>
-      </c>
-      <c r="AN2">
-        <v>14</v>
-      </c>
-      <c r="AO2">
-        <v>13</v>
-      </c>
-      <c r="AP2">
-        <v>16</v>
-      </c>
-      <c r="AQ2">
-        <v>15</v>
-      </c>
-      <c r="AS2">
-        <v>11</v>
       </c>
       <c r="AT2">
         <v>15</v>
       </c>
       <c r="AU2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV2">
+        <v>9</v>
+      </c>
+      <c r="AW2">
+        <v>31</v>
+      </c>
+      <c r="AX2">
+        <v>18</v>
+      </c>
+      <c r="AY2">
+        <v>13</v>
+      </c>
+      <c r="AZ2">
+        <v>21</v>
+      </c>
+      <c r="BA2">
+        <v>13</v>
+      </c>
+      <c r="BB2">
+        <v>16</v>
+      </c>
+      <c r="BC2">
         <v>14</v>
       </c>
-      <c r="AW2">
-        <v>26</v>
-      </c>
-      <c r="AX2">
-        <v>20</v>
-      </c>
-      <c r="AY2">
-        <v>15</v>
-      </c>
-      <c r="AZ2">
+      <c r="BD2">
         <v>14</v>
       </c>
-      <c r="BA2">
-        <v>17</v>
-      </c>
-      <c r="BB2">
-        <v>17</v>
-      </c>
-      <c r="BC2">
-        <v>12</v>
-      </c>
-      <c r="BD2">
-        <v>20</v>
-      </c>
       <c r="BE2">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="BF2">
         <v>13</v>
       </c>
       <c r="BG2">
+        <v>16</v>
+      </c>
+      <c r="BH2">
+        <v>15</v>
+      </c>
+      <c r="BJ2">
         <v>11</v>
       </c>
-      <c r="BH2">
+      <c r="BK2">
+        <v>15</v>
+      </c>
+      <c r="BL2">
+        <v>11</v>
+      </c>
+      <c r="BM2">
+        <v>14</v>
+      </c>
+      <c r="BN2">
+        <v>16</v>
+      </c>
+      <c r="BO2">
+        <v>26</v>
+      </c>
+      <c r="BP2">
+        <v>20</v>
+      </c>
+      <c r="BQ2">
+        <v>15</v>
+      </c>
+      <c r="BR2">
+        <v>14</v>
+      </c>
+      <c r="BS2">
         <v>19</v>
       </c>
-      <c r="BI2">
+      <c r="BT2">
+        <v>17</v>
+      </c>
+      <c r="BU2">
+        <v>17</v>
+      </c>
+      <c r="BV2">
+        <v>20</v>
+      </c>
+      <c r="BW2">
+        <v>12</v>
+      </c>
+      <c r="BX2">
+        <v>20</v>
+      </c>
+      <c r="BY2">
+        <v>19</v>
+      </c>
+      <c r="BZ2">
+        <v>18</v>
+      </c>
+      <c r="CA2">
+        <v>11</v>
+      </c>
+      <c r="CB2">
+        <v>13</v>
+      </c>
+      <c r="CC2">
+        <v>17</v>
+      </c>
+      <c r="CD2">
+        <v>11</v>
+      </c>
+      <c r="CE2">
+        <v>19</v>
+      </c>
+      <c r="CF2">
         <v>23</v>
       </c>
-      <c r="BJ2">
+      <c r="CG2">
         <v>24</v>
       </c>
-      <c r="BK2">
+      <c r="CH2">
         <v>11</v>
       </c>
-      <c r="BL2">
+      <c r="CI2">
+        <v>18</v>
+      </c>
+      <c r="CJ2">
         <v>13</v>
       </c>
-      <c r="BM2">
+      <c r="CK2">
         <v>12</v>
       </c>
-      <c r="BN2">
+      <c r="CL2">
         <v>14</v>
       </c>
-      <c r="BO2">
+      <c r="CM2">
         <v>13</v>
       </c>
-      <c r="BP2">
+      <c r="CN2">
         <v>14</v>
       </c>
-      <c r="BQ2">
+      <c r="CO2">
         <v>21</v>
       </c>
-      <c r="BR2">
+      <c r="CP2">
+        <v>11</v>
+      </c>
+      <c r="CQ2">
+        <v>25</v>
+      </c>
+      <c r="CR2">
+        <v>11</v>
+      </c>
+      <c r="CS2">
         <v>18</v>
       </c>
-      <c r="BS2">
+      <c r="CT2">
         <v>12</v>
       </c>
-      <c r="BT2">
+      <c r="CU2">
+        <v>15</v>
+      </c>
+      <c r="CV2">
+        <v>16</v>
+      </c>
+      <c r="CW2">
+        <v>23</v>
+      </c>
+      <c r="CX2">
+        <v>20</v>
+      </c>
+      <c r="CY2">
         <v>11</v>
       </c>
-      <c r="BU2">
+      <c r="CZ2">
         <v>13</v>
       </c>
-      <c r="BV2">
+      <c r="DA2">
+        <v>13</v>
+      </c>
+      <c r="DB2">
         <v>12</v>
       </c>
-      <c r="BW2">
+      <c r="DC2">
+        <v>11</v>
+      </c>
+      <c r="DD2">
         <v>28</v>
       </c>
-      <c r="BX2">
+      <c r="DE2">
         <v>18</v>
       </c>
-      <c r="BY2">
+      <c r="DF2">
         <v>13</v>
       </c>
-      <c r="BZ2">
+      <c r="DG2">
+        <v>12</v>
+      </c>
+      <c r="DH2">
         <v>13</v>
       </c>
-      <c r="CA2">
+      <c r="DI2">
+        <v>11</v>
+      </c>
+      <c r="DJ2">
         <v>15</v>
       </c>
-      <c r="CB2">
+      <c r="DK2">
         <v>10</v>
       </c>
-      <c r="CC2">
+      <c r="DL2">
         <v>22</v>
       </c>
-      <c r="CE2">
+      <c r="DN2">
         <v>14</v>
       </c>
-      <c r="CF2">
+      <c r="DO2">
         <v>15</v>
       </c>
-      <c r="CG2">
+      <c r="DP2">
+        <v>15</v>
+      </c>
+      <c r="DQ2">
+        <v>17</v>
+      </c>
+      <c r="DR2">
         <v>23</v>
       </c>
-      <c r="CH2">
+      <c r="DS2">
         <v>14</v>
       </c>
-      <c r="CI2">
+      <c r="DT2">
         <v>13</v>
       </c>
-      <c r="CJ2">
+      <c r="DU2">
+        <v>13</v>
+      </c>
+      <c r="DV2">
         <v>17</v>
       </c>
-      <c r="CK2">
+      <c r="DW2">
         <v>20</v>
       </c>
-      <c r="CL2">
+      <c r="DX2">
         <v>11</v>
       </c>
-      <c r="CM2">
+      <c r="DY2">
         <v>16</v>
       </c>
-      <c r="CN2">
+      <c r="DZ2">
         <v>24</v>
       </c>
-      <c r="CO2">
+      <c r="EA2">
         <v>12</v>
       </c>
-      <c r="CP2">
+      <c r="EB2">
         <v>13</v>
       </c>
-      <c r="CQ2">
+      <c r="EC2">
+        <v>15</v>
+      </c>
+      <c r="ED2">
+        <v>13</v>
+      </c>
+      <c r="EE2">
         <v>18</v>
       </c>
-      <c r="CR2">
+      <c r="EF2">
+        <v>19</v>
+      </c>
+      <c r="EG2">
         <v>10</v>
       </c>
-      <c r="CS2">
+      <c r="EH2">
         <v>10</v>
       </c>
-      <c r="CT2">
+      <c r="EI2">
         <v>10</v>
       </c>
-      <c r="CU2">
+      <c r="EJ2">
         <v>10</v>
       </c>
-      <c r="CV2">
+      <c r="EK2">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>97</v>
       </c>
@@ -1342,242 +1709,389 @@
       <c r="E3">
         <v>25</v>
       </c>
-      <c r="F3">
+      <c r="G3">
+        <v>16</v>
+      </c>
+      <c r="H3">
         <v>22</v>
       </c>
-      <c r="G3">
+      <c r="I3">
+        <v>22</v>
+      </c>
+      <c r="J3">
         <v>25</v>
       </c>
-      <c r="I3">
+      <c r="K3">
+        <v>18</v>
+      </c>
+      <c r="L3">
+        <v>12</v>
+      </c>
+      <c r="M3">
+        <v>13</v>
+      </c>
+      <c r="N3">
+        <v>14</v>
+      </c>
+      <c r="O3">
         <v>20</v>
       </c>
-      <c r="J3">
+      <c r="P3">
         <v>12</v>
       </c>
-      <c r="K3">
+      <c r="Q3">
         <v>12</v>
       </c>
-      <c r="L3">
+      <c r="R3">
         <v>32</v>
       </c>
-      <c r="M3">
+      <c r="S3">
         <v>12</v>
       </c>
-      <c r="N3">
+      <c r="T3">
         <v>15</v>
       </c>
-      <c r="O3">
+      <c r="U3">
+        <v>15</v>
+      </c>
+      <c r="V3">
         <v>14</v>
       </c>
-      <c r="P3">
+      <c r="W3">
         <v>22</v>
       </c>
-      <c r="R3">
+      <c r="Y3">
         <v>51</v>
       </c>
-      <c r="S3">
+      <c r="Z3">
+        <v>19</v>
+      </c>
+      <c r="AA3">
+        <v>18</v>
+      </c>
+      <c r="AB3">
+        <v>18</v>
+      </c>
+      <c r="AC3">
+        <v>25</v>
+      </c>
+      <c r="AD3">
+        <v>14</v>
+      </c>
+      <c r="AE3">
+        <v>24</v>
+      </c>
+      <c r="AF3">
         <v>49</v>
       </c>
-      <c r="T3">
+      <c r="AG3">
         <v>38</v>
       </c>
-      <c r="V3">
+      <c r="AH3">
+        <v>23</v>
+      </c>
+      <c r="AI3">
         <v>9</v>
       </c>
-      <c r="W3">
+      <c r="AJ3">
         <v>13</v>
       </c>
-      <c r="Y3">
+      <c r="AK3">
+        <v>15</v>
+      </c>
+      <c r="AL3">
+        <v>19</v>
+      </c>
+      <c r="AM3">
         <v>18</v>
       </c>
-      <c r="Z3">
+      <c r="AN3">
         <v>18</v>
-      </c>
-      <c r="AA3">
-        <v>30</v>
-      </c>
-      <c r="AB3">
-        <v>21</v>
-      </c>
-      <c r="AC3">
-        <v>16</v>
-      </c>
-      <c r="AD3">
-        <v>17</v>
-      </c>
-      <c r="AE3">
-        <v>15</v>
-      </c>
-      <c r="AF3">
-        <v>12</v>
-      </c>
-      <c r="AG3">
-        <v>39</v>
-      </c>
-      <c r="AH3">
-        <v>19</v>
-      </c>
-      <c r="AI3">
-        <v>20</v>
-      </c>
-      <c r="AJ3">
-        <v>23</v>
-      </c>
-      <c r="AK3">
-        <v>20</v>
-      </c>
-      <c r="AL3">
-        <v>17</v>
-      </c>
-      <c r="AM3">
-        <v>15</v>
       </c>
       <c r="AO3">
         <v>16</v>
       </c>
-      <c r="AP3">
+      <c r="AQ3">
+        <v>30</v>
+      </c>
+      <c r="AR3">
         <v>21</v>
       </c>
-      <c r="AQ3">
+      <c r="AS3">
+        <v>16</v>
+      </c>
+      <c r="AT3">
+        <v>17</v>
+      </c>
+      <c r="AU3">
+        <v>15</v>
+      </c>
+      <c r="AV3">
+        <v>12</v>
+      </c>
+      <c r="AW3">
+        <v>39</v>
+      </c>
+      <c r="AX3">
+        <v>19</v>
+      </c>
+      <c r="AY3">
+        <v>20</v>
+      </c>
+      <c r="AZ3">
+        <v>23</v>
+      </c>
+      <c r="BA3">
+        <v>20</v>
+      </c>
+      <c r="BB3">
+        <v>17</v>
+      </c>
+      <c r="BC3">
+        <v>15</v>
+      </c>
+      <c r="BD3">
+        <v>30</v>
+      </c>
+      <c r="BE3">
+        <v>16</v>
+      </c>
+      <c r="BF3">
+        <v>22</v>
+      </c>
+      <c r="BG3">
+        <v>21</v>
+      </c>
+      <c r="BH3">
         <v>24</v>
       </c>
-      <c r="AR3">
+      <c r="BI3">
         <v>14</v>
       </c>
-      <c r="AS3">
+      <c r="BJ3">
         <v>29</v>
       </c>
-      <c r="AT3">
+      <c r="BK3">
         <v>15</v>
       </c>
-      <c r="AU3">
+      <c r="BL3">
         <v>11</v>
       </c>
-      <c r="AW3">
+      <c r="BM3">
+        <v>22</v>
+      </c>
+      <c r="BN3">
+        <v>17</v>
+      </c>
+      <c r="BO3">
         <v>26</v>
       </c>
-      <c r="AX3">
+      <c r="BP3">
         <v>21</v>
-      </c>
-      <c r="AY3">
-        <v>24</v>
-      </c>
-      <c r="AZ3">
-        <v>11</v>
-      </c>
-      <c r="BA3">
-        <v>17</v>
-      </c>
-      <c r="BB3">
-        <v>18</v>
-      </c>
-      <c r="BC3">
-        <v>13</v>
-      </c>
-      <c r="BD3">
-        <v>25</v>
-      </c>
-      <c r="BE3">
-        <v>21</v>
-      </c>
-      <c r="BF3">
-        <v>34</v>
-      </c>
-      <c r="BG3">
-        <v>11</v>
-      </c>
-      <c r="BH3">
-        <v>19</v>
-      </c>
-      <c r="BI3">
-        <v>32</v>
-      </c>
-      <c r="BL3">
-        <v>13</v>
-      </c>
-      <c r="BM3">
-        <v>15</v>
-      </c>
-      <c r="BN3">
-        <v>14</v>
-      </c>
-      <c r="BO3">
-        <v>28</v>
-      </c>
-      <c r="BP3">
-        <v>14</v>
       </c>
       <c r="BQ3">
         <v>24</v>
       </c>
+      <c r="BR3">
+        <v>11</v>
+      </c>
+      <c r="BS3">
+        <v>22</v>
+      </c>
       <c r="BT3">
+        <v>17</v>
+      </c>
+      <c r="BU3">
+        <v>18</v>
+      </c>
+      <c r="BV3">
+        <v>24</v>
+      </c>
+      <c r="BW3">
+        <v>13</v>
+      </c>
+      <c r="BX3">
+        <v>25</v>
+      </c>
+      <c r="BZ3">
+        <v>21</v>
+      </c>
+      <c r="CA3">
         <v>15</v>
       </c>
-      <c r="BU3">
+      <c r="CB3">
+        <v>34</v>
+      </c>
+      <c r="CC3">
+        <v>25</v>
+      </c>
+      <c r="CD3">
+        <v>11</v>
+      </c>
+      <c r="CE3">
+        <v>19</v>
+      </c>
+      <c r="CF3">
+        <v>32</v>
+      </c>
+      <c r="CH3">
+        <v>24</v>
+      </c>
+      <c r="CI3">
+        <v>18</v>
+      </c>
+      <c r="CJ3">
+        <v>13</v>
+      </c>
+      <c r="CK3">
+        <v>15</v>
+      </c>
+      <c r="CL3">
+        <v>14</v>
+      </c>
+      <c r="CM3">
+        <v>28</v>
+      </c>
+      <c r="CN3">
+        <v>14</v>
+      </c>
+      <c r="CO3">
+        <v>24</v>
+      </c>
+      <c r="CP3">
+        <v>11</v>
+      </c>
+      <c r="CQ3">
+        <v>25</v>
+      </c>
+      <c r="CR3">
+        <v>14</v>
+      </c>
+      <c r="CS3">
+        <v>42</v>
+      </c>
+      <c r="CT3">
+        <v>22</v>
+      </c>
+      <c r="CU3">
+        <v>19</v>
+      </c>
+      <c r="CW3">
+        <v>25</v>
+      </c>
+      <c r="CX3">
+        <v>31</v>
+      </c>
+      <c r="CY3">
+        <v>15</v>
+      </c>
+      <c r="CZ3">
         <v>17</v>
       </c>
-      <c r="BW3">
+      <c r="DA3">
+        <v>15</v>
+      </c>
+      <c r="DB3">
+        <v>14</v>
+      </c>
+      <c r="DC3">
+        <v>24</v>
+      </c>
+      <c r="DD3">
         <v>30</v>
       </c>
-      <c r="BX3">
+      <c r="DE3">
         <v>18</v>
       </c>
-      <c r="CA3">
+      <c r="DF3">
+        <v>24</v>
+      </c>
+      <c r="DG3">
+        <v>12</v>
+      </c>
+      <c r="DH3">
+        <v>15</v>
+      </c>
+      <c r="DI3">
+        <v>13</v>
+      </c>
+      <c r="DJ3">
         <v>23</v>
       </c>
-      <c r="CB3">
+      <c r="DK3">
         <v>12</v>
       </c>
-      <c r="CC3">
+      <c r="DL3">
         <v>21</v>
       </c>
-      <c r="CD3">
+      <c r="DM3">
         <v>41</v>
       </c>
-      <c r="CE3">
+      <c r="DN3">
         <v>14</v>
       </c>
-      <c r="CF3">
+      <c r="DO3">
         <v>17</v>
       </c>
-      <c r="CG3">
+      <c r="DQ3">
+        <v>17</v>
+      </c>
+      <c r="DR3">
         <v>25</v>
       </c>
-      <c r="CH3">
+      <c r="DS3">
         <v>13</v>
       </c>
-      <c r="CI3">
+      <c r="DU3">
         <v>14</v>
       </c>
-      <c r="CJ3">
+      <c r="DV3">
         <v>17</v>
       </c>
-      <c r="CK3">
+      <c r="DW3">
         <v>21</v>
       </c>
-      <c r="CN3">
+      <c r="DX3">
+        <v>17</v>
+      </c>
+      <c r="DY3">
+        <v>27</v>
+      </c>
+      <c r="DZ3">
         <v>35</v>
       </c>
-      <c r="CQ3">
+      <c r="EA3">
+        <v>20</v>
+      </c>
+      <c r="EB3">
+        <v>13</v>
+      </c>
+      <c r="ED3">
+        <v>13</v>
+      </c>
+      <c r="EE3">
         <v>22</v>
       </c>
-      <c r="CR3">
+      <c r="EF3">
+        <v>28</v>
+      </c>
+      <c r="EG3">
         <v>11</v>
       </c>
-      <c r="CS3">
+      <c r="EH3">
         <v>11</v>
       </c>
-      <c r="CT3">
+      <c r="EI3">
         <v>14.1</v>
       </c>
-      <c r="CU3">
+      <c r="EJ3">
         <v>20</v>
       </c>
-      <c r="CV3">
+      <c r="EK3">
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>98</v>
       </c>
@@ -1587,242 +2101,353 @@
       <c r="C4">
         <v>25</v>
       </c>
+      <c r="D4">
+        <v>30</v>
+      </c>
       <c r="E4">
         <v>25</v>
       </c>
-      <c r="F4">
+      <c r="G4">
+        <v>17</v>
+      </c>
+      <c r="I4">
         <v>22</v>
       </c>
-      <c r="G4">
+      <c r="J4">
         <v>34</v>
       </c>
-      <c r="I4">
+      <c r="K4">
+        <v>19</v>
+      </c>
+      <c r="L4">
+        <v>15</v>
+      </c>
+      <c r="M4">
+        <v>14</v>
+      </c>
+      <c r="O4">
         <v>24</v>
       </c>
-      <c r="L4">
+      <c r="P4">
+        <v>17</v>
+      </c>
+      <c r="Q4">
+        <v>20</v>
+      </c>
+      <c r="R4">
         <v>40</v>
       </c>
-      <c r="M4">
+      <c r="S4">
         <v>23</v>
       </c>
-      <c r="O4">
+      <c r="T4">
+        <v>17</v>
+      </c>
+      <c r="V4">
         <v>15</v>
       </c>
-      <c r="P4">
+      <c r="W4">
         <v>22</v>
       </c>
-      <c r="R4">
+      <c r="Y4">
         <v>64</v>
       </c>
-      <c r="T4">
+      <c r="Z4">
+        <v>22</v>
+      </c>
+      <c r="AA4">
+        <v>25</v>
+      </c>
+      <c r="AC4">
+        <v>30</v>
+      </c>
+      <c r="AD4">
+        <v>18</v>
+      </c>
+      <c r="AF4">
+        <v>81</v>
+      </c>
+      <c r="AG4">
         <v>38</v>
       </c>
-      <c r="W4">
+      <c r="AH4">
+        <v>42</v>
+      </c>
+      <c r="AI4">
+        <v>18</v>
+      </c>
+      <c r="AJ4">
         <v>13</v>
       </c>
-      <c r="X4">
+      <c r="AL4">
         <v>24</v>
       </c>
-      <c r="Z4">
+      <c r="AM4">
+        <v>26</v>
+      </c>
+      <c r="AN4">
         <v>21</v>
       </c>
-      <c r="AB4">
+      <c r="AO4">
+        <v>16</v>
+      </c>
+      <c r="AQ4">
+        <v>54</v>
+      </c>
+      <c r="AR4">
         <v>27</v>
       </c>
-      <c r="AC4">
+      <c r="AS4">
         <v>19</v>
       </c>
-      <c r="AD4">
+      <c r="AT4">
         <v>23</v>
       </c>
-      <c r="AE4">
+      <c r="AU4">
         <v>15</v>
       </c>
-      <c r="AF4">
+      <c r="AV4">
         <v>12</v>
       </c>
-      <c r="AG4">
+      <c r="AW4">
         <v>44</v>
       </c>
-      <c r="AH4">
+      <c r="AX4">
         <v>19</v>
       </c>
-      <c r="AI4">
+      <c r="AY4">
         <v>22</v>
       </c>
-      <c r="AJ4">
+      <c r="AZ4">
         <v>25</v>
       </c>
-      <c r="AK4">
+      <c r="BA4">
         <v>41</v>
       </c>
-      <c r="AL4">
+      <c r="BB4">
         <v>29</v>
       </c>
-      <c r="AM4">
+      <c r="BC4">
         <v>40</v>
       </c>
-      <c r="AN4">
+      <c r="BD4">
         <v>35</v>
       </c>
-      <c r="AO4">
+      <c r="BE4">
         <v>18</v>
       </c>
-      <c r="AP4">
+      <c r="BG4">
         <v>29</v>
       </c>
-      <c r="AQ4">
+      <c r="BH4">
         <v>29</v>
       </c>
-      <c r="AR4">
+      <c r="BI4">
         <v>16</v>
       </c>
-      <c r="AS4">
+      <c r="BJ4">
         <v>35</v>
       </c>
-      <c r="AT4">
+      <c r="BK4">
         <v>21</v>
       </c>
-      <c r="AU4">
+      <c r="BL4">
         <v>12</v>
       </c>
-      <c r="AV4">
+      <c r="BM4">
         <v>23</v>
       </c>
-      <c r="AW4">
+      <c r="BO4">
         <v>43</v>
       </c>
-      <c r="AX4">
+      <c r="BP4">
         <v>25</v>
       </c>
-      <c r="AY4">
+      <c r="BQ4">
         <v>24</v>
       </c>
-      <c r="AZ4">
+      <c r="BR4">
         <v>12</v>
       </c>
-      <c r="BB4">
+      <c r="BS4">
+        <v>24</v>
+      </c>
+      <c r="BT4">
+        <v>29</v>
+      </c>
+      <c r="BU4">
         <v>22</v>
       </c>
-      <c r="BC4">
+      <c r="BW4">
         <v>13</v>
       </c>
-      <c r="BD4">
+      <c r="BX4">
         <v>28</v>
       </c>
-      <c r="BE4">
+      <c r="BZ4">
         <v>21</v>
       </c>
-      <c r="BF4">
+      <c r="CA4">
+        <v>19</v>
+      </c>
+      <c r="CB4">
         <v>39</v>
       </c>
-      <c r="BG4">
+      <c r="CD4">
         <v>11</v>
       </c>
-      <c r="BI4">
+      <c r="CE4">
+        <v>28</v>
+      </c>
+      <c r="CF4">
         <v>32</v>
       </c>
-      <c r="BK4">
+      <c r="CH4">
         <v>34</v>
       </c>
-      <c r="BM4">
+      <c r="CI4">
+        <v>20</v>
+      </c>
+      <c r="CJ4">
         <v>16</v>
       </c>
-      <c r="BN4">
+      <c r="CK4">
+        <v>16</v>
+      </c>
+      <c r="CL4">
         <v>14</v>
       </c>
-      <c r="BO4">
+      <c r="CM4">
         <v>29</v>
       </c>
-      <c r="BQ4">
-        <v>23</v>
-      </c>
-      <c r="BR4">
-        <v>45</v>
-      </c>
-      <c r="BS4">
-        <v>25</v>
-      </c>
-      <c r="BT4">
-        <v>11</v>
-      </c>
-      <c r="BU4">
-        <v>17</v>
-      </c>
-      <c r="BV4">
-        <v>17</v>
-      </c>
-      <c r="BW4">
-        <v>33</v>
-      </c>
-      <c r="BY4">
-        <v>29</v>
-      </c>
-      <c r="BZ4">
-        <v>18</v>
-      </c>
-      <c r="CA4">
-        <v>25</v>
-      </c>
-      <c r="CB4">
-        <v>14</v>
-      </c>
-      <c r="CC4">
-        <v>22</v>
-      </c>
-      <c r="CD4">
-        <v>47</v>
-      </c>
-      <c r="CF4">
-        <v>20</v>
-      </c>
-      <c r="CG4">
-        <v>33</v>
-      </c>
-      <c r="CH4">
-        <v>13</v>
-      </c>
-      <c r="CI4">
-        <v>16</v>
-      </c>
-      <c r="CK4">
-        <v>59</v>
-      </c>
-      <c r="CL4">
-        <v>29</v>
-      </c>
-      <c r="CM4">
-        <v>27</v>
-      </c>
       <c r="CN4">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="CO4">
         <v>23</v>
       </c>
       <c r="CP4">
+        <v>16</v>
+      </c>
+      <c r="CQ4">
+        <v>29</v>
+      </c>
+      <c r="CS4">
+        <v>45</v>
+      </c>
+      <c r="CT4">
+        <v>25</v>
+      </c>
+      <c r="CU4">
+        <v>24</v>
+      </c>
+      <c r="CW4">
+        <v>31</v>
+      </c>
+      <c r="CX4">
+        <v>47</v>
+      </c>
+      <c r="CY4">
+        <v>11</v>
+      </c>
+      <c r="CZ4">
+        <v>17</v>
+      </c>
+      <c r="DA4">
+        <v>21</v>
+      </c>
+      <c r="DB4">
+        <v>17</v>
+      </c>
+      <c r="DD4">
+        <v>33</v>
+      </c>
+      <c r="DE4">
+        <v>35</v>
+      </c>
+      <c r="DF4">
+        <v>29</v>
+      </c>
+      <c r="DH4">
+        <v>18</v>
+      </c>
+      <c r="DI4">
+        <v>20</v>
+      </c>
+      <c r="DJ4">
+        <v>25</v>
+      </c>
+      <c r="DK4">
+        <v>14</v>
+      </c>
+      <c r="DL4">
+        <v>22</v>
+      </c>
+      <c r="DM4">
+        <v>47</v>
+      </c>
+      <c r="DN4">
+        <v>21</v>
+      </c>
+      <c r="DO4">
+        <v>20</v>
+      </c>
+      <c r="DR4">
+        <v>33</v>
+      </c>
+      <c r="DS4">
         <v>13</v>
       </c>
-      <c r="CQ4">
+      <c r="DU4">
+        <v>16</v>
+      </c>
+      <c r="DV4">
+        <v>38</v>
+      </c>
+      <c r="DW4">
+        <v>59</v>
+      </c>
+      <c r="DX4">
+        <v>29</v>
+      </c>
+      <c r="DY4">
+        <v>27</v>
+      </c>
+      <c r="DZ4">
+        <v>37</v>
+      </c>
+      <c r="EA4">
+        <v>23</v>
+      </c>
+      <c r="EB4">
+        <v>13</v>
+      </c>
+      <c r="ED4">
+        <v>13</v>
+      </c>
+      <c r="EE4">
         <v>28</v>
       </c>
-      <c r="CR4">
+      <c r="EF4">
+        <v>38</v>
+      </c>
+      <c r="EG4">
         <v>12.2</v>
       </c>
-      <c r="CS4">
+      <c r="EH4">
         <v>15.9</v>
       </c>
-      <c r="CT4">
+      <c r="EI4">
         <v>20</v>
       </c>
-      <c r="CU4">
+      <c r="EJ4">
         <v>40</v>
       </c>
-      <c r="CV4">
+      <c r="EK4">
         <v>10.5</v>
       </c>
     </row>
-    <row r="5" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>99</v>
       </c>
@@ -1832,814 +2457,1508 @@
       <c r="C5">
         <v>34</v>
       </c>
+      <c r="D5">
+        <v>35</v>
+      </c>
       <c r="E5">
         <v>24</v>
       </c>
-      <c r="G5">
+      <c r="I5">
+        <v>37</v>
+      </c>
+      <c r="J5">
         <v>34</v>
       </c>
-      <c r="I5">
+      <c r="O5">
         <v>45</v>
       </c>
-      <c r="J5">
+      <c r="P5">
         <v>17</v>
       </c>
-      <c r="K5">
+      <c r="Q5">
         <v>23</v>
       </c>
-      <c r="L5">
+      <c r="R5">
         <v>40</v>
       </c>
-      <c r="M5">
+      <c r="S5">
         <v>27</v>
       </c>
-      <c r="O5">
+      <c r="V5">
         <v>15</v>
       </c>
-      <c r="P5">
+      <c r="W5">
         <v>20</v>
       </c>
-      <c r="Q5">
+      <c r="X5">
         <v>28</v>
       </c>
-      <c r="R5">
+      <c r="Y5">
         <v>84</v>
       </c>
-      <c r="S5">
+      <c r="AF5">
         <v>84</v>
       </c>
-      <c r="V5">
+      <c r="AG5">
+        <v>57</v>
+      </c>
+      <c r="AI5">
         <v>23</v>
       </c>
-      <c r="W5">
+      <c r="AJ5">
         <v>13</v>
       </c>
-      <c r="Z5">
+      <c r="AL5">
+        <v>26</v>
+      </c>
+      <c r="AM5">
+        <v>31</v>
+      </c>
+      <c r="AN5">
         <v>42</v>
       </c>
-      <c r="AA5">
+      <c r="AQ5">
         <v>68</v>
       </c>
-      <c r="AB5">
+      <c r="AR5">
         <v>31</v>
       </c>
-      <c r="AD5">
-        <v>27</v>
-      </c>
-      <c r="AF5">
-        <v>26</v>
-      </c>
-      <c r="AG5">
-        <v>49</v>
-      </c>
-      <c r="AH5">
-        <v>33</v>
-      </c>
-      <c r="AI5">
-        <v>29</v>
-      </c>
-      <c r="AJ5">
-        <v>28</v>
-      </c>
-      <c r="AK5">
-        <v>53</v>
-      </c>
-      <c r="AL5">
-        <v>32</v>
-      </c>
-      <c r="AM5">
-        <v>56</v>
-      </c>
-      <c r="AO5">
-        <v>18</v>
-      </c>
-      <c r="AP5">
-        <v>29</v>
-      </c>
-      <c r="AQ5">
-        <v>29</v>
-      </c>
-      <c r="AR5">
-        <v>16</v>
-      </c>
       <c r="AS5">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AT5">
         <v>27</v>
       </c>
       <c r="AU5">
-        <v>18</v>
+        <v>27</v>
+      </c>
+      <c r="AV5">
+        <v>26</v>
       </c>
       <c r="AW5">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="AX5">
         <v>33</v>
       </c>
+      <c r="AY5">
+        <v>29</v>
+      </c>
       <c r="AZ5">
+        <v>28</v>
+      </c>
+      <c r="BA5">
+        <v>53</v>
+      </c>
+      <c r="BB5">
+        <v>32</v>
+      </c>
+      <c r="BC5">
+        <v>56</v>
+      </c>
+      <c r="BD5">
+        <v>39</v>
+      </c>
+      <c r="BE5">
+        <v>18</v>
+      </c>
+      <c r="BG5">
+        <v>29</v>
+      </c>
+      <c r="BH5">
+        <v>29</v>
+      </c>
+      <c r="BI5">
+        <v>16</v>
+      </c>
+      <c r="BJ5">
+        <v>35</v>
+      </c>
+      <c r="BK5">
+        <v>27</v>
+      </c>
+      <c r="BL5">
+        <v>18</v>
+      </c>
+      <c r="BM5">
+        <v>23</v>
+      </c>
+      <c r="BO5">
+        <v>61</v>
+      </c>
+      <c r="BP5">
+        <v>33</v>
+      </c>
+      <c r="BQ5">
+        <v>30</v>
+      </c>
+      <c r="BR5">
         <v>15</v>
       </c>
-      <c r="BA5">
+      <c r="BT5">
         <v>43</v>
       </c>
-      <c r="BB5">
+      <c r="BU5">
         <v>39</v>
       </c>
-      <c r="BD5">
+      <c r="BW5">
+        <v>18</v>
+      </c>
+      <c r="BX5">
         <v>29</v>
       </c>
-      <c r="BF5">
+      <c r="BZ5">
+        <v>28</v>
+      </c>
+      <c r="CB5">
         <v>39</v>
       </c>
-      <c r="BH5">
+      <c r="CE5">
         <v>34</v>
       </c>
-      <c r="BJ5">
+      <c r="CF5">
+        <v>51</v>
+      </c>
+      <c r="CG5">
         <v>38</v>
       </c>
-      <c r="BL5">
+      <c r="CH5">
+        <v>35</v>
+      </c>
+      <c r="CJ5">
         <v>20</v>
       </c>
-      <c r="BM5">
+      <c r="CK5">
         <v>16</v>
       </c>
-      <c r="BO5">
+      <c r="CL5">
+        <v>22</v>
+      </c>
+      <c r="CM5">
         <v>29</v>
       </c>
-      <c r="BP5">
+      <c r="CN5">
         <v>23</v>
       </c>
-      <c r="BQ5">
+      <c r="CO5">
         <v>25</v>
       </c>
-      <c r="BT5">
+      <c r="CS5">
+        <v>51</v>
+      </c>
+      <c r="CT5">
+        <v>31</v>
+      </c>
+      <c r="CY5">
         <v>16</v>
       </c>
-      <c r="BW5">
+      <c r="CZ5">
+        <v>21</v>
+      </c>
+      <c r="DB5">
+        <v>19</v>
+      </c>
+      <c r="DD5">
         <v>58</v>
       </c>
-      <c r="BX5">
+      <c r="DE5">
         <v>41</v>
       </c>
-      <c r="CA5">
+      <c r="DF5">
+        <v>36</v>
+      </c>
+      <c r="DH5">
+        <v>22</v>
+      </c>
+      <c r="DJ5">
         <v>30</v>
       </c>
-      <c r="CB5">
+      <c r="DK5">
         <v>14</v>
       </c>
-      <c r="CD5">
+      <c r="DM5">
         <v>47</v>
       </c>
-      <c r="CE5">
+      <c r="DN5">
         <v>21</v>
       </c>
-      <c r="CF5">
+      <c r="DO5">
         <v>24</v>
       </c>
-      <c r="CG5">
+      <c r="DR5">
         <v>33</v>
       </c>
-      <c r="CI5">
+      <c r="DS5">
+        <v>19</v>
+      </c>
+      <c r="DU5">
         <v>16</v>
       </c>
-      <c r="CJ5">
+      <c r="DV5">
         <v>50</v>
       </c>
-      <c r="CK5">
+      <c r="DW5">
         <v>75</v>
       </c>
-      <c r="CN5">
+      <c r="DX5">
+        <v>35</v>
+      </c>
+      <c r="DY5">
+        <v>28</v>
+      </c>
+      <c r="DZ5">
         <v>58</v>
       </c>
-      <c r="CQ5">
+      <c r="EA5">
         <v>28</v>
       </c>
-      <c r="CR5">
+      <c r="EB5">
+        <v>13</v>
+      </c>
+      <c r="EE5">
+        <v>28</v>
+      </c>
+      <c r="EG5">
         <v>13.5</v>
       </c>
-      <c r="CS5">
+      <c r="EH5">
         <v>20</v>
       </c>
-      <c r="CT5">
+      <c r="EI5">
         <v>28.3</v>
       </c>
-      <c r="CU5">
+      <c r="EJ5">
         <v>80</v>
       </c>
-      <c r="CV5">
+      <c r="EK5">
         <v>10.7</v>
       </c>
     </row>
-    <row r="6" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>100</v>
       </c>
+      <c r="B6">
+        <v>248</v>
+      </c>
+      <c r="C6">
+        <v>41</v>
+      </c>
+      <c r="D6">
+        <v>42</v>
+      </c>
       <c r="E6">
         <v>27</v>
       </c>
-      <c r="F6">
+      <c r="I6">
         <v>39</v>
       </c>
-      <c r="I6">
+      <c r="J6">
+        <v>75</v>
+      </c>
+      <c r="O6">
         <v>66</v>
       </c>
-      <c r="M6">
+      <c r="P6">
+        <v>17</v>
+      </c>
+      <c r="Q6">
+        <v>28</v>
+      </c>
+      <c r="R6">
+        <v>63</v>
+      </c>
+      <c r="S6">
         <v>39</v>
       </c>
-      <c r="N6">
+      <c r="U6">
         <v>23</v>
       </c>
-      <c r="P6">
+      <c r="V6">
+        <v>17</v>
+      </c>
+      <c r="W6">
         <v>30</v>
       </c>
-      <c r="T6">
+      <c r="Y6">
+        <v>96</v>
+      </c>
+      <c r="AF6">
+        <v>85</v>
+      </c>
+      <c r="AG6">
         <v>79</v>
       </c>
-      <c r="W6">
+      <c r="AI6">
+        <v>23</v>
+      </c>
+      <c r="AJ6">
         <v>14</v>
       </c>
-      <c r="Z6">
+      <c r="AL6">
+        <v>40</v>
+      </c>
+      <c r="AN6">
         <v>53</v>
       </c>
-      <c r="AB6">
+      <c r="AQ6">
+        <v>76</v>
+      </c>
+      <c r="AR6">
         <v>31</v>
       </c>
-      <c r="AD6">
+      <c r="AS6">
+        <v>29</v>
+      </c>
+      <c r="AT6">
         <v>30</v>
       </c>
-      <c r="AE6">
+      <c r="AU6">
         <v>29</v>
       </c>
-      <c r="AF6">
+      <c r="AV6">
         <v>24</v>
       </c>
-      <c r="AG6">
+      <c r="AW6">
         <v>57</v>
       </c>
-      <c r="AH6">
+      <c r="AX6">
         <v>33</v>
       </c>
-      <c r="AI6">
+      <c r="AY6">
         <v>32</v>
       </c>
-      <c r="AJ6">
+      <c r="AZ6">
         <v>28</v>
       </c>
-      <c r="AK6">
+      <c r="BA6">
         <v>55</v>
       </c>
-      <c r="AL6">
+      <c r="BB6">
         <v>32</v>
       </c>
-      <c r="AM6">
+      <c r="BC6">
         <v>56</v>
       </c>
-      <c r="AO6">
+      <c r="BD6">
+        <v>44</v>
+      </c>
+      <c r="BE6">
         <v>20</v>
       </c>
-      <c r="AT6">
+      <c r="BG6">
+        <v>50</v>
+      </c>
+      <c r="BH6">
+        <v>52</v>
+      </c>
+      <c r="BI6">
+        <v>27</v>
+      </c>
+      <c r="BJ6">
+        <v>48</v>
+      </c>
+      <c r="BK6">
         <v>40</v>
       </c>
-      <c r="AU6">
+      <c r="BL6">
         <v>21</v>
       </c>
-      <c r="AW6">
+      <c r="BM6">
+        <v>36</v>
+      </c>
+      <c r="BO6">
         <v>81</v>
       </c>
-      <c r="AX6">
+      <c r="BP6">
         <v>41</v>
       </c>
-      <c r="AY6">
+      <c r="BQ6">
         <v>44</v>
       </c>
-      <c r="AZ6">
+      <c r="BR6">
         <v>15</v>
       </c>
-      <c r="BB6">
+      <c r="BT6">
+        <v>53</v>
+      </c>
+      <c r="BU6">
         <v>39</v>
       </c>
-      <c r="BC6">
+      <c r="BW6">
         <v>22</v>
       </c>
-      <c r="BD6">
+      <c r="BX6">
         <v>30</v>
       </c>
-      <c r="BE6">
+      <c r="BZ6">
         <v>31</v>
       </c>
-      <c r="BI6">
+      <c r="CB6">
+        <v>56</v>
+      </c>
+      <c r="CE6">
+        <v>42</v>
+      </c>
+      <c r="CF6">
         <v>57</v>
       </c>
-      <c r="BN6">
+      <c r="CH6">
+        <v>42</v>
+      </c>
+      <c r="CJ6">
+        <v>24</v>
+      </c>
+      <c r="CK6">
+        <v>20</v>
+      </c>
+      <c r="CL6">
         <v>34</v>
       </c>
-      <c r="BQ6">
+      <c r="CM6">
+        <v>45</v>
+      </c>
+      <c r="CN6">
+        <v>28</v>
+      </c>
+      <c r="CO6">
         <v>34</v>
       </c>
-      <c r="BT6">
+      <c r="CS6">
+        <v>57</v>
+      </c>
+      <c r="CT6">
+        <v>36</v>
+      </c>
+      <c r="CY6">
         <v>24</v>
       </c>
-      <c r="BU6">
+      <c r="CZ6">
         <v>21</v>
       </c>
-      <c r="BW6">
+      <c r="DB6">
+        <v>19</v>
+      </c>
+      <c r="DD6">
         <v>70</v>
       </c>
-      <c r="CA6">
+      <c r="DE6">
+        <v>54</v>
+      </c>
+      <c r="DF6">
+        <v>42</v>
+      </c>
+      <c r="DH6">
+        <v>28</v>
+      </c>
+      <c r="DJ6">
         <v>39</v>
       </c>
-      <c r="CF6">
+      <c r="DK6">
+        <v>23</v>
+      </c>
+      <c r="DM6">
+        <v>49</v>
+      </c>
+      <c r="DN6">
         <v>27</v>
       </c>
-      <c r="CH6">
+      <c r="DO6">
+        <v>27</v>
+      </c>
+      <c r="DR6">
+        <v>51</v>
+      </c>
+      <c r="DS6">
         <v>23</v>
       </c>
-      <c r="CK6">
+      <c r="DU6">
+        <v>28</v>
+      </c>
+      <c r="DV6">
+        <v>56</v>
+      </c>
+      <c r="DW6">
         <v>75</v>
       </c>
-      <c r="CN6">
+      <c r="DX6">
+        <v>52</v>
+      </c>
+      <c r="DY6">
+        <v>52</v>
+      </c>
+      <c r="DZ6">
         <v>68</v>
       </c>
-      <c r="CR6">
+      <c r="EA6">
+        <v>34</v>
+      </c>
+      <c r="EB6">
+        <v>13</v>
+      </c>
+      <c r="EE6">
+        <v>45</v>
+      </c>
+      <c r="EG6">
         <v>14.9</v>
       </c>
-      <c r="CS6">
+      <c r="EH6">
         <v>25.2</v>
       </c>
-      <c r="CT6">
+      <c r="EI6">
         <v>40</v>
       </c>
-      <c r="CU6">
+      <c r="EJ6">
         <v>160</v>
       </c>
-      <c r="CV6">
+      <c r="EK6">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>101</v>
       </c>
+      <c r="B7">
+        <v>309</v>
+      </c>
+      <c r="C7">
+        <v>57</v>
+      </c>
+      <c r="D7">
+        <v>45</v>
+      </c>
       <c r="E7">
         <v>28</v>
       </c>
-      <c r="G7">
+      <c r="I7">
+        <v>43</v>
+      </c>
+      <c r="J7">
         <v>91</v>
       </c>
-      <c r="I7">
+      <c r="O7">
         <v>66</v>
       </c>
-      <c r="L7">
+      <c r="P7">
+        <v>25</v>
+      </c>
+      <c r="Q7">
+        <v>37</v>
+      </c>
+      <c r="R7">
         <v>67</v>
       </c>
-      <c r="M7">
+      <c r="S7">
         <v>39</v>
       </c>
-      <c r="O7">
+      <c r="V7">
         <v>20</v>
       </c>
-      <c r="P7">
+      <c r="W7">
         <v>36</v>
       </c>
-      <c r="W7">
+      <c r="Y7">
+        <v>125</v>
+      </c>
+      <c r="AF7">
+        <v>128</v>
+      </c>
+      <c r="AG7">
+        <v>110</v>
+      </c>
+      <c r="AI7">
+        <v>37</v>
+      </c>
+      <c r="AJ7">
         <v>14</v>
       </c>
-      <c r="Z7">
+      <c r="AN7">
         <v>53</v>
       </c>
-      <c r="AD7">
+      <c r="AQ7">
+        <v>84</v>
+      </c>
+      <c r="AR7">
+        <v>45</v>
+      </c>
+      <c r="AT7">
         <v>40</v>
       </c>
-      <c r="AF7">
+      <c r="AU7">
+        <v>32</v>
+      </c>
+      <c r="AV7">
         <v>18</v>
       </c>
-      <c r="AG7">
+      <c r="AW7">
         <v>71</v>
       </c>
-      <c r="AI7">
+      <c r="AX7">
+        <v>54</v>
+      </c>
+      <c r="AY7">
         <v>32</v>
       </c>
-      <c r="AK7">
+      <c r="AZ7">
+        <v>45</v>
+      </c>
+      <c r="BA7">
         <v>69</v>
       </c>
-      <c r="AO7">
+      <c r="BB7">
+        <v>51</v>
+      </c>
+      <c r="BC7">
+        <v>89</v>
+      </c>
+      <c r="BE7">
         <v>21</v>
       </c>
-      <c r="AP7">
+      <c r="BG7">
         <v>63</v>
       </c>
-      <c r="AQ7">
+      <c r="BH7">
         <v>64</v>
       </c>
-      <c r="AS7">
+      <c r="BI7">
+        <v>38</v>
+      </c>
+      <c r="BJ7">
         <v>54</v>
       </c>
-      <c r="AT7">
+      <c r="BK7">
         <v>43</v>
       </c>
-      <c r="AU7">
+      <c r="BL7">
         <v>25</v>
       </c>
-      <c r="AW7">
+      <c r="BO7">
         <v>81</v>
       </c>
-      <c r="AX7">
+      <c r="BP7">
         <v>49</v>
       </c>
-      <c r="BD7">
+      <c r="BQ7">
+        <v>59</v>
+      </c>
+      <c r="BR7">
+        <v>20</v>
+      </c>
+      <c r="BT7">
+        <v>65</v>
+      </c>
+      <c r="BU7">
+        <v>60</v>
+      </c>
+      <c r="BW7">
+        <v>35</v>
+      </c>
+      <c r="BX7">
         <v>33</v>
       </c>
-      <c r="BF7">
+      <c r="BZ7">
+        <v>37</v>
+      </c>
+      <c r="CB7">
         <v>56</v>
       </c>
-      <c r="BG7">
+      <c r="CD7">
         <v>15</v>
       </c>
-      <c r="BM7">
+      <c r="CE7">
+        <v>49</v>
+      </c>
+      <c r="CF7">
+        <v>70</v>
+      </c>
+      <c r="CJ7">
+        <v>30</v>
+      </c>
+      <c r="CK7">
         <v>21</v>
       </c>
-      <c r="BO7">
+      <c r="CL7">
+        <v>41</v>
+      </c>
+      <c r="CM7">
         <v>60</v>
       </c>
-      <c r="BQ7">
+      <c r="CN7">
         <v>34</v>
       </c>
-      <c r="BT7">
+      <c r="CO7">
+        <v>34</v>
+      </c>
+      <c r="CY7">
         <v>24</v>
       </c>
-      <c r="BW7">
+      <c r="CZ7">
+        <v>22</v>
+      </c>
+      <c r="DD7">
         <v>82</v>
       </c>
-      <c r="CA7">
+      <c r="DE7">
+        <v>76</v>
+      </c>
+      <c r="DJ7">
         <v>45</v>
       </c>
-      <c r="CB7">
+      <c r="DK7">
         <v>24</v>
       </c>
-      <c r="CC7">
+      <c r="DL7">
         <v>19</v>
       </c>
-      <c r="CF7">
+      <c r="DM7">
+        <v>70</v>
+      </c>
+      <c r="DN7">
+        <v>32</v>
+      </c>
+      <c r="DO7">
         <v>31</v>
       </c>
-      <c r="CG7">
+      <c r="DR7">
         <v>57</v>
       </c>
-      <c r="CI7">
+      <c r="DS7">
+        <v>28</v>
+      </c>
+      <c r="DU7">
         <v>29</v>
       </c>
-      <c r="CN7">
+      <c r="DV7">
+        <v>61</v>
+      </c>
+      <c r="DW7">
+        <v>107</v>
+      </c>
+      <c r="DZ7">
         <v>78</v>
       </c>
-      <c r="CQ7">
+      <c r="EE7">
         <v>52</v>
       </c>
-      <c r="CR7">
+      <c r="EG7">
         <v>16.399999999999999</v>
       </c>
-      <c r="CS7">
+      <c r="EH7">
         <v>31.7</v>
       </c>
-      <c r="CT7">
+      <c r="EI7">
         <v>56.6</v>
       </c>
-      <c r="CV7">
+      <c r="EJ7">
+        <v>320</v>
+      </c>
+      <c r="EK7">
         <v>11.2</v>
       </c>
     </row>
-    <row r="8" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>102</v>
       </c>
       <c r="E8">
         <v>28</v>
       </c>
-      <c r="P8">
+      <c r="I8">
+        <v>47</v>
+      </c>
+      <c r="J8">
+        <v>137</v>
+      </c>
+      <c r="O8">
+        <v>108</v>
+      </c>
+      <c r="R8">
+        <v>76</v>
+      </c>
+      <c r="S8">
+        <v>41</v>
+      </c>
+      <c r="V8">
+        <v>30</v>
+      </c>
+      <c r="W8">
         <v>36</v>
       </c>
-      <c r="W8">
+      <c r="AG8">
+        <v>129</v>
+      </c>
+      <c r="AJ8">
         <v>15</v>
       </c>
-      <c r="AB8">
+      <c r="AN8">
+        <v>80</v>
+      </c>
+      <c r="AR8">
         <v>53</v>
       </c>
-      <c r="AF8">
+      <c r="AT8">
+        <v>43</v>
+      </c>
+      <c r="AU8">
+        <v>49</v>
+      </c>
+      <c r="AV8">
         <v>19</v>
       </c>
-      <c r="AG8">
+      <c r="AW8">
         <v>91</v>
       </c>
-      <c r="AH8">
+      <c r="AX8">
         <v>61</v>
       </c>
-      <c r="AJ8">
+      <c r="AY8">
+        <v>52</v>
+      </c>
+      <c r="AZ8">
         <v>51</v>
       </c>
-      <c r="AK8">
+      <c r="BA8">
         <v>77</v>
       </c>
-      <c r="AL8">
+      <c r="BB8">
         <v>57</v>
       </c>
-      <c r="AM8">
+      <c r="BC8">
         <v>103</v>
       </c>
-      <c r="AO8">
+      <c r="BE8">
         <v>32</v>
       </c>
-      <c r="AT8">
+      <c r="BG8">
+        <v>78</v>
+      </c>
+      <c r="BH8">
+        <v>73</v>
+      </c>
+      <c r="BJ8">
+        <v>59</v>
+      </c>
+      <c r="BK8">
         <v>49</v>
       </c>
-      <c r="AU8">
+      <c r="BL8">
         <v>25</v>
       </c>
-      <c r="AX8">
+      <c r="BO8">
+        <v>118</v>
+      </c>
+      <c r="BP8">
         <v>49</v>
       </c>
-      <c r="AZ8">
+      <c r="BQ8">
+        <v>71</v>
+      </c>
+      <c r="BR8">
         <v>29</v>
       </c>
-      <c r="BB8">
+      <c r="BU8">
         <v>67</v>
       </c>
-      <c r="BD8">
+      <c r="BW8">
+        <v>41</v>
+      </c>
+      <c r="BX8">
         <v>35</v>
       </c>
-      <c r="BQ8">
+      <c r="BZ8">
+        <v>41</v>
+      </c>
+      <c r="CB8">
+        <v>57</v>
+      </c>
+      <c r="CF8">
+        <v>76</v>
+      </c>
+      <c r="CK8">
+        <v>29</v>
+      </c>
+      <c r="CL8">
+        <v>49</v>
+      </c>
+      <c r="CM8">
+        <v>71</v>
+      </c>
+      <c r="CO8">
         <v>34</v>
       </c>
-      <c r="BT8">
+      <c r="CY8">
         <v>24</v>
       </c>
-      <c r="BW8">
+      <c r="CZ8">
+        <v>22</v>
+      </c>
+      <c r="DD8">
         <v>82</v>
       </c>
-      <c r="CA8">
+      <c r="DJ8">
         <v>45</v>
       </c>
-      <c r="CF8">
+      <c r="DK8">
+        <v>24</v>
+      </c>
+      <c r="DO8">
         <v>34</v>
       </c>
-      <c r="CK8">
+      <c r="DR8">
+        <v>67</v>
+      </c>
+      <c r="DS8">
+        <v>31</v>
+      </c>
+      <c r="DU8">
+        <v>37</v>
+      </c>
+      <c r="DW8">
         <v>110</v>
       </c>
-      <c r="CN8">
+      <c r="DZ8">
         <v>78</v>
       </c>
-      <c r="CR8">
+      <c r="EE8">
+        <v>69</v>
+      </c>
+      <c r="EG8">
         <v>18.100000000000001</v>
       </c>
-      <c r="CS8">
+      <c r="EH8">
         <v>40</v>
       </c>
-      <c r="CT8">
+      <c r="EI8">
         <v>80</v>
       </c>
-      <c r="CV8">
+      <c r="EK8">
         <v>11.5</v>
       </c>
     </row>
-    <row r="9" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>103</v>
       </c>
-      <c r="I9">
+      <c r="E9">
+        <v>81</v>
+      </c>
+      <c r="J9">
+        <v>187</v>
+      </c>
+      <c r="O9">
         <v>128</v>
       </c>
-      <c r="M9">
+      <c r="R9">
+        <v>93</v>
+      </c>
+      <c r="S9">
         <v>44</v>
       </c>
+      <c r="V9">
+        <v>37</v>
+      </c>
       <c r="W9">
+        <v>51</v>
+      </c>
+      <c r="AJ9">
         <v>20</v>
       </c>
-      <c r="Z9">
+      <c r="AN9">
         <v>97</v>
       </c>
-      <c r="AF9">
+      <c r="AR9">
+        <v>67</v>
+      </c>
+      <c r="AT9">
+        <v>59</v>
+      </c>
+      <c r="AV9">
         <v>20</v>
       </c>
-      <c r="AG9">
+      <c r="AW9">
         <v>110</v>
       </c>
-      <c r="AI9">
+      <c r="AX9">
+        <v>67</v>
+      </c>
+      <c r="AY9">
         <v>64</v>
       </c>
-      <c r="AK9">
+      <c r="AZ9">
+        <v>58</v>
+      </c>
+      <c r="BA9">
         <v>87</v>
       </c>
-      <c r="AO9">
+      <c r="BB9">
+        <v>64</v>
+      </c>
+      <c r="BC9">
+        <v>113</v>
+      </c>
+      <c r="BE9">
         <v>29</v>
       </c>
-      <c r="AT9">
+      <c r="BG9">
+        <v>85</v>
+      </c>
+      <c r="BH9">
+        <v>82</v>
+      </c>
+      <c r="BJ9">
+        <v>66</v>
+      </c>
+      <c r="BK9">
         <v>55</v>
       </c>
-      <c r="AW9">
+      <c r="BL9">
+        <v>45</v>
+      </c>
+      <c r="BO9">
         <v>127</v>
       </c>
-      <c r="AX9">
+      <c r="BP9">
         <v>58</v>
       </c>
-      <c r="BD9">
+      <c r="BR9">
+        <v>35</v>
+      </c>
+      <c r="BU9">
+        <v>86</v>
+      </c>
+      <c r="BX9">
         <v>40</v>
       </c>
-      <c r="BT9">
+      <c r="CB9">
+        <v>84</v>
+      </c>
+      <c r="CK9">
+        <v>37</v>
+      </c>
+      <c r="CM9">
+        <v>78</v>
+      </c>
+      <c r="CO9">
+        <v>44</v>
+      </c>
+      <c r="CY9">
         <v>24</v>
       </c>
-      <c r="CF9">
+      <c r="DD9">
+        <v>134</v>
+      </c>
+      <c r="DJ9">
+        <v>65</v>
+      </c>
+      <c r="DK9">
+        <v>40</v>
+      </c>
+      <c r="DO9">
         <v>38</v>
       </c>
-      <c r="CR9">
+      <c r="DR9">
+        <v>70</v>
+      </c>
+      <c r="DU9">
+        <v>43</v>
+      </c>
+      <c r="DW9">
+        <v>113</v>
+      </c>
+      <c r="DZ9">
+        <v>110</v>
+      </c>
+      <c r="EE9">
+        <v>81</v>
+      </c>
+      <c r="EG9">
         <v>20</v>
       </c>
-      <c r="CS9">
+      <c r="EH9">
         <v>50.4</v>
       </c>
-      <c r="CT9">
+      <c r="EI9">
         <v>113.1</v>
       </c>
-      <c r="CV9">
+      <c r="EK9">
         <v>11.7</v>
       </c>
     </row>
-    <row r="10" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>104</v>
       </c>
       <c r="E10">
         <v>88</v>
       </c>
-      <c r="P10">
+      <c r="O10">
+        <v>143</v>
+      </c>
+      <c r="S10">
+        <v>45</v>
+      </c>
+      <c r="W10">
         <v>53</v>
       </c>
-      <c r="W10">
+      <c r="AJ10">
         <v>24</v>
       </c>
-      <c r="AF10">
+      <c r="AN10">
+        <v>106</v>
+      </c>
+      <c r="AR10">
+        <v>80</v>
+      </c>
+      <c r="AV10">
         <v>23</v>
       </c>
-      <c r="AG10">
+      <c r="AW10">
         <v>130</v>
       </c>
-      <c r="AK10">
+      <c r="AX10">
+        <v>77</v>
+      </c>
+      <c r="AY10">
+        <v>72</v>
+      </c>
+      <c r="AZ10">
+        <v>70</v>
+      </c>
+      <c r="BA10">
         <v>87</v>
       </c>
-      <c r="AO10">
+      <c r="BB10">
+        <v>72</v>
+      </c>
+      <c r="BC10">
+        <v>134</v>
+      </c>
+      <c r="BE10">
         <v>36</v>
       </c>
-      <c r="AT10">
+      <c r="BK10">
         <v>57</v>
       </c>
-      <c r="AU10">
+      <c r="BL10">
         <v>48</v>
       </c>
-      <c r="BD10">
+      <c r="BO10">
+        <v>134</v>
+      </c>
+      <c r="BP10">
+        <v>75</v>
+      </c>
+      <c r="BR10">
+        <v>42</v>
+      </c>
+      <c r="BU10">
+        <v>97</v>
+      </c>
+      <c r="BX10">
         <v>44</v>
       </c>
-      <c r="BQ10">
+      <c r="CO10">
         <v>52</v>
       </c>
-      <c r="BT10">
+      <c r="CY10">
         <v>24</v>
       </c>
-      <c r="BW10">
+      <c r="DD10">
         <v>139</v>
       </c>
-      <c r="CA10">
+      <c r="DJ10">
         <v>68</v>
       </c>
-      <c r="CF10">
+      <c r="DO10">
         <v>47</v>
       </c>
-      <c r="CN10">
+      <c r="DW10">
+        <v>155</v>
+      </c>
+      <c r="DZ10">
         <v>117</v>
       </c>
-      <c r="CR10">
+      <c r="EG10">
         <v>22.1</v>
       </c>
-      <c r="CS10">
+      <c r="EH10">
         <v>63.5</v>
       </c>
-      <c r="CT10">
+      <c r="EI10">
         <v>160</v>
       </c>
-      <c r="CV10">
+      <c r="EK10">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>105</v>
       </c>
+      <c r="E11">
+        <v>94</v>
+      </c>
+      <c r="O11">
+        <v>170</v>
+      </c>
+      <c r="S11">
+        <v>50</v>
+      </c>
       <c r="W11">
+        <v>60</v>
+      </c>
+      <c r="AJ11">
         <v>25</v>
       </c>
-      <c r="AF11">
+      <c r="AN11">
+        <v>123</v>
+      </c>
+      <c r="AV11">
         <v>24</v>
       </c>
-      <c r="AG11">
+      <c r="AW11">
         <v>152</v>
       </c>
-      <c r="AO11">
+      <c r="AY11">
+        <v>74</v>
+      </c>
+      <c r="BA11">
+        <v>138</v>
+      </c>
+      <c r="BE11">
         <v>50</v>
       </c>
-      <c r="AT11">
+      <c r="BK11">
         <v>57</v>
       </c>
-      <c r="BD11">
+      <c r="BL11">
+        <v>64</v>
+      </c>
+      <c r="BO11">
+        <v>188</v>
+      </c>
+      <c r="BP11">
+        <v>87</v>
+      </c>
+      <c r="BX11">
         <v>46</v>
       </c>
-      <c r="CR11">
+      <c r="CO11">
+        <v>63</v>
+      </c>
+      <c r="CY11">
+        <v>24</v>
+      </c>
+      <c r="DD11">
+        <v>154</v>
+      </c>
+      <c r="DJ11">
+        <v>69</v>
+      </c>
+      <c r="DO11">
+        <v>48</v>
+      </c>
+      <c r="DZ11">
+        <v>134</v>
+      </c>
+      <c r="EG11">
         <v>24.4</v>
       </c>
-      <c r="CS11">
+      <c r="EH11">
         <v>80</v>
       </c>
-      <c r="CV11">
+      <c r="EI11">
+        <v>226.3</v>
+      </c>
+      <c r="EK11">
         <v>12.3</v>
       </c>
     </row>
-    <row r="12" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>106</v>
       </c>
+      <c r="E12">
+        <v>99</v>
+      </c>
       <c r="W12">
+        <v>64</v>
+      </c>
+      <c r="AJ12">
         <v>26</v>
       </c>
-      <c r="AK12">
+      <c r="AV12">
+        <v>24</v>
+      </c>
+      <c r="AW12">
+        <v>183</v>
+      </c>
+      <c r="BA12">
         <v>156</v>
       </c>
-      <c r="AO12">
+      <c r="BE12">
         <v>52</v>
       </c>
-      <c r="BD12">
+      <c r="BK12">
+        <v>75</v>
+      </c>
+      <c r="BL12">
+        <v>72</v>
+      </c>
+      <c r="BX12">
         <v>59</v>
       </c>
-      <c r="CR12">
+      <c r="CO12">
+        <v>69</v>
+      </c>
+      <c r="CY12">
+        <v>24</v>
+      </c>
+      <c r="DD12">
+        <v>181</v>
+      </c>
+      <c r="DJ12">
+        <v>110</v>
+      </c>
+      <c r="DO12">
+        <v>57</v>
+      </c>
+      <c r="DZ12">
+        <v>143</v>
+      </c>
+      <c r="EG12">
         <v>26.9</v>
       </c>
-      <c r="CS12">
+      <c r="EH12">
         <v>100.8</v>
       </c>
-      <c r="CV12">
+      <c r="EK12">
         <v>12.6</v>
       </c>
     </row>
-    <row r="13" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>107</v>
       </c>
-      <c r="W13">
+      <c r="AJ13">
         <v>26</v>
       </c>
-      <c r="AO13">
+      <c r="AV13">
+        <v>29</v>
+      </c>
+      <c r="AW13">
+        <v>221</v>
+      </c>
+      <c r="BA13">
+        <v>171</v>
+      </c>
+      <c r="BE13">
         <v>52</v>
       </c>
-      <c r="AT13">
+      <c r="BK13">
         <v>81</v>
       </c>
-      <c r="CR13">
+      <c r="BX13">
+        <v>70</v>
+      </c>
+      <c r="EG13">
         <v>29.7</v>
       </c>
-      <c r="CS13">
+      <c r="EH13">
         <v>127</v>
       </c>
-      <c r="CV13">
+      <c r="EK13">
         <v>12.8</v>
       </c>
     </row>
-    <row r="14" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ14">
+        <v>42</v>
+      </c>
+      <c r="BA14">
+        <v>207</v>
+      </c>
+      <c r="BE14">
+        <v>75</v>
+      </c>
+      <c r="BK14">
+        <v>85</v>
+      </c>
+      <c r="BX14">
+        <v>88</v>
+      </c>
+      <c r="EG14">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="EH14">
+        <v>160</v>
+      </c>
+      <c r="EK14">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:141" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>110</v>
       </c>
-      <c r="CR14">
-        <v>32.799999999999997</v>
-      </c>
-      <c r="CS14">
-        <v>160</v>
-      </c>
-      <c r="CV14">
-        <v>13.1</v>
+      <c r="AJ15">
+        <v>43</v>
+      </c>
+      <c r="BE15">
+        <v>92</v>
+      </c>
+      <c r="BK15">
+        <v>91</v>
+      </c>
+      <c r="EG15">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="EH15">
+        <v>201.6</v>
+      </c>
+      <c r="EK15">
+        <v>13.4</v>
       </c>
     </row>
-    <row r="15" spans="1:100" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="W15">
-        <v>43</v>
-      </c>
-      <c r="AO15">
-        <v>92</v>
-      </c>
-      <c r="CR15">
-        <v>36.200000000000003</v>
-      </c>
-      <c r="CS15">
-        <v>201.6</v>
-      </c>
-      <c r="CV15">
-        <v>13.4</v>
+    <row r="16" spans="1:141" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>114</v>
+      </c>
+      <c r="AJ16">
+        <v>46</v>
+      </c>
+      <c r="BE16">
+        <v>115</v>
+      </c>
+      <c r="EG16">
+        <v>40</v>
+      </c>
+      <c r="EH16">
+        <v>254</v>
+      </c>
+      <c r="EK16">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:141" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>115</v>
+      </c>
+      <c r="AJ17">
+        <v>48</v>
+      </c>
+      <c r="BE17">
+        <v>139</v>
+      </c>
+      <c r="EG17">
+        <v>44.2</v>
+      </c>
+      <c r="EK17">
+        <v>14.1</v>
       </c>
     </row>
   </sheetData>

--- a/datawrapper.xlsx
+++ b/datawrapper.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Lauh/Documents/GitHub/covid-cases-by-ua/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3AD51C-E579-4744-A42C-8005072B0BBA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{508A2C74-24FC-3242-9287-81A0D19D1E50}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24340" yWindow="460" windowWidth="26860" windowHeight="13600" xr2:uid="{EAC58F93-768E-47B9-BC54-011C8E15BDC6}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="174">
-  <si>
-    <t>Area</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="180">
   <si>
     <t>Aneurin Bevan</t>
   </si>
@@ -547,6 +544,27 @@
   </si>
   <si>
     <t>York</t>
+  </si>
+  <si>
+    <t>timeSince10</t>
+  </si>
+  <si>
+    <t>Cwm Taf Morgannwg</t>
+  </si>
+  <si>
+    <t>Gateshead</t>
+  </si>
+  <si>
+    <t>Knowsley</t>
+  </si>
+  <si>
+    <t>Southend-on-Sea</t>
+  </si>
+  <si>
+    <t>Swindon</t>
+  </si>
+  <si>
+    <t>18 days</t>
   </si>
 </sst>
 </file>
@@ -898,487 +916,502 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88098434-83EE-473A-A635-95028084696D}">
-  <dimension ref="A1:EZ19"/>
+  <dimension ref="A1:FE20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="EC1" workbookViewId="0">
-      <selection activeCell="EY19" sqref="EY8:EY19"/>
+    <sheetView tabSelected="1" topLeftCell="ES1" workbookViewId="0">
+      <selection activeCell="FB20" sqref="FB20:FD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:161" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>158</v>
+      </c>
+      <c r="L1" t="s">
         <v>118</v>
       </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
+        <v>110</v>
+      </c>
+      <c r="N1" t="s">
+        <v>119</v>
+      </c>
+      <c r="O1" t="s">
+        <v>120</v>
+      </c>
+      <c r="P1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
+      <c r="Q1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T1" t="s">
+        <v>10</v>
+      </c>
+      <c r="U1" t="s">
+        <v>121</v>
+      </c>
+      <c r="V1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W1" t="s">
+        <v>12</v>
+      </c>
+      <c r="X1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM1" t="s">
         <v>159</v>
       </c>
-      <c r="L1" t="s">
-        <v>119</v>
-      </c>
-      <c r="M1" t="s">
-        <v>111</v>
-      </c>
-      <c r="N1" t="s">
-        <v>120</v>
-      </c>
-      <c r="O1" t="s">
-        <v>121</v>
-      </c>
-      <c r="P1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>8</v>
-      </c>
-      <c r="R1" t="s">
-        <v>9</v>
-      </c>
-      <c r="S1" t="s">
-        <v>10</v>
-      </c>
-      <c r="T1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U1" t="s">
-        <v>122</v>
-      </c>
-      <c r="V1" t="s">
-        <v>12</v>
-      </c>
-      <c r="W1" t="s">
-        <v>13</v>
-      </c>
-      <c r="X1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AF1" t="s">
+      <c r="AN1" t="s">
         <v>128</v>
       </c>
-      <c r="AG1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK1" t="s">
+      <c r="AO1" t="s">
         <v>20</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AP1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>175</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>27</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>28</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>29</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>30</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>31</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>32</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>33</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>34</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>35</v>
+      </c>
+      <c r="BI1" t="s">
         <v>160</v>
       </c>
-      <c r="AM1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AR1" t="s">
+      <c r="BJ1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BK1" t="s">
         <v>131</v>
       </c>
-      <c r="AS1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>30</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>31</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>32</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>33</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>34</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>35</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>36</v>
-      </c>
-      <c r="BG1" t="s">
+      <c r="BL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>176</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>44</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>45</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>47</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>48</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>49</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>134</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>50</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>51</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>135</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>52</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>136</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>53</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>137</v>
+      </c>
+      <c r="CJ1" t="s">
         <v>161</v>
       </c>
-      <c r="BH1" t="s">
-        <v>37</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>132</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>38</v>
-      </c>
-      <c r="BK1" t="s">
-        <v>39</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>40</v>
-      </c>
-      <c r="BM1" t="s">
-        <v>41</v>
-      </c>
-      <c r="BN1" t="s">
-        <v>42</v>
-      </c>
-      <c r="BO1" t="s">
-        <v>43</v>
-      </c>
-      <c r="BP1" t="s">
-        <v>44</v>
-      </c>
-      <c r="BQ1" t="s">
-        <v>133</v>
-      </c>
-      <c r="BR1" t="s">
-        <v>45</v>
-      </c>
-      <c r="BS1" t="s">
-        <v>46</v>
-      </c>
-      <c r="BT1" t="s">
-        <v>47</v>
-      </c>
-      <c r="BU1" t="s">
-        <v>48</v>
-      </c>
-      <c r="BV1" t="s">
-        <v>134</v>
-      </c>
-      <c r="BW1" t="s">
-        <v>49</v>
-      </c>
-      <c r="BX1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BY1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BZ1" t="s">
-        <v>51</v>
-      </c>
-      <c r="CA1" t="s">
-        <v>52</v>
-      </c>
-      <c r="CB1" t="s">
-        <v>136</v>
-      </c>
-      <c r="CC1" t="s">
-        <v>53</v>
-      </c>
-      <c r="CD1" t="s">
-        <v>137</v>
-      </c>
-      <c r="CE1" t="s">
+      <c r="CK1" t="s">
         <v>54</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CL1" t="s">
+        <v>55</v>
+      </c>
+      <c r="CM1" t="s">
+        <v>56</v>
+      </c>
+      <c r="CN1" t="s">
+        <v>57</v>
+      </c>
+      <c r="CO1" t="s">
+        <v>58</v>
+      </c>
+      <c r="CP1" t="s">
+        <v>162</v>
+      </c>
+      <c r="CQ1" t="s">
         <v>138</v>
       </c>
-      <c r="CG1" t="s">
-        <v>162</v>
-      </c>
-      <c r="CH1" t="s">
-        <v>55</v>
-      </c>
-      <c r="CI1" t="s">
-        <v>56</v>
-      </c>
-      <c r="CJ1" t="s">
-        <v>57</v>
-      </c>
-      <c r="CK1" t="s">
-        <v>58</v>
-      </c>
-      <c r="CL1" t="s">
+      <c r="CR1" t="s">
         <v>59</v>
       </c>
-      <c r="CM1" t="s">
+      <c r="CS1" t="s">
+        <v>60</v>
+      </c>
+      <c r="CT1" t="s">
         <v>163</v>
       </c>
-      <c r="CN1" t="s">
+      <c r="CU1" t="s">
+        <v>61</v>
+      </c>
+      <c r="CV1" t="s">
+        <v>62</v>
+      </c>
+      <c r="CW1" t="s">
+        <v>63</v>
+      </c>
+      <c r="CX1" t="s">
+        <v>64</v>
+      </c>
+      <c r="CY1" t="s">
         <v>139</v>
       </c>
-      <c r="CO1" t="s">
-        <v>60</v>
-      </c>
-      <c r="CP1" t="s">
-        <v>61</v>
-      </c>
-      <c r="CQ1" t="s">
+      <c r="CZ1" t="s">
+        <v>140</v>
+      </c>
+      <c r="DA1" t="s">
+        <v>141</v>
+      </c>
+      <c r="DB1" t="s">
+        <v>65</v>
+      </c>
+      <c r="DC1" t="s">
+        <v>66</v>
+      </c>
+      <c r="DD1" t="s">
+        <v>142</v>
+      </c>
+      <c r="DE1" t="s">
+        <v>143</v>
+      </c>
+      <c r="DF1" t="s">
+        <v>144</v>
+      </c>
+      <c r="DG1" t="s">
+        <v>145</v>
+      </c>
+      <c r="DH1" t="s">
         <v>164</v>
       </c>
-      <c r="CR1" t="s">
-        <v>62</v>
-      </c>
-      <c r="CS1" t="s">
-        <v>63</v>
-      </c>
-      <c r="CT1" t="s">
-        <v>64</v>
-      </c>
-      <c r="CU1" t="s">
-        <v>65</v>
-      </c>
-      <c r="CV1" t="s">
-        <v>140</v>
-      </c>
-      <c r="CW1" t="s">
-        <v>141</v>
-      </c>
-      <c r="CX1" t="s">
-        <v>142</v>
-      </c>
-      <c r="CY1" t="s">
-        <v>66</v>
-      </c>
-      <c r="CZ1" t="s">
+      <c r="DI1" t="s">
         <v>67</v>
       </c>
-      <c r="DA1" t="s">
-        <v>143</v>
-      </c>
-      <c r="DB1" t="s">
-        <v>144</v>
-      </c>
-      <c r="DC1" t="s">
-        <v>145</v>
-      </c>
-      <c r="DD1" t="s">
+      <c r="DJ1" t="s">
+        <v>165</v>
+      </c>
+      <c r="DK1" t="s">
+        <v>68</v>
+      </c>
+      <c r="DL1" t="s">
+        <v>166</v>
+      </c>
+      <c r="DM1" t="s">
         <v>146</v>
       </c>
-      <c r="DE1" t="s">
-        <v>165</v>
-      </c>
-      <c r="DF1" t="s">
-        <v>68</v>
-      </c>
-      <c r="DG1" t="s">
-        <v>166</v>
-      </c>
-      <c r="DH1" t="s">
+      <c r="DN1" t="s">
         <v>69</v>
       </c>
-      <c r="DI1" t="s">
+      <c r="DO1" t="s">
+        <v>147</v>
+      </c>
+      <c r="DP1" t="s">
+        <v>177</v>
+      </c>
+      <c r="DQ1" t="s">
+        <v>70</v>
+      </c>
+      <c r="DR1" t="s">
         <v>167</v>
       </c>
-      <c r="DJ1" t="s">
-        <v>147</v>
-      </c>
-      <c r="DK1" t="s">
-        <v>70</v>
-      </c>
-      <c r="DL1" t="s">
+      <c r="DS1" t="s">
+        <v>71</v>
+      </c>
+      <c r="DT1" t="s">
+        <v>72</v>
+      </c>
+      <c r="DU1" t="s">
         <v>148</v>
       </c>
-      <c r="DM1" t="s">
-        <v>71</v>
-      </c>
-      <c r="DN1" t="s">
+      <c r="DV1" t="s">
         <v>168</v>
       </c>
-      <c r="DO1" t="s">
-        <v>72</v>
-      </c>
-      <c r="DP1" t="s">
+      <c r="DW1" t="s">
         <v>73</v>
       </c>
-      <c r="DQ1" t="s">
+      <c r="DX1" t="s">
         <v>149</v>
       </c>
-      <c r="DR1" t="s">
+      <c r="DY1" t="s">
+        <v>74</v>
+      </c>
+      <c r="DZ1" t="s">
+        <v>75</v>
+      </c>
+      <c r="EA1" t="s">
+        <v>76</v>
+      </c>
+      <c r="EB1" t="s">
+        <v>77</v>
+      </c>
+      <c r="EC1" t="s">
+        <v>178</v>
+      </c>
+      <c r="ED1" t="s">
+        <v>78</v>
+      </c>
+      <c r="EE1" t="s">
+        <v>79</v>
+      </c>
+      <c r="EF1" t="s">
         <v>169</v>
       </c>
-      <c r="DS1" t="s">
-        <v>74</v>
-      </c>
-      <c r="DT1" t="s">
+      <c r="EG1" t="s">
         <v>150</v>
       </c>
-      <c r="DU1" t="s">
-        <v>75</v>
-      </c>
-      <c r="DV1" t="s">
-        <v>76</v>
-      </c>
-      <c r="DW1" t="s">
-        <v>77</v>
-      </c>
-      <c r="DX1" t="s">
-        <v>78</v>
-      </c>
-      <c r="DY1" t="s">
-        <v>79</v>
-      </c>
-      <c r="DZ1" t="s">
+      <c r="EH1" t="s">
+        <v>151</v>
+      </c>
+      <c r="EI1" t="s">
         <v>80</v>
       </c>
-      <c r="EA1" t="s">
+      <c r="EJ1" t="s">
+        <v>81</v>
+      </c>
+      <c r="EK1" t="s">
+        <v>152</v>
+      </c>
+      <c r="EL1" t="s">
+        <v>82</v>
+      </c>
+      <c r="EM1" t="s">
+        <v>83</v>
+      </c>
+      <c r="EN1" t="s">
+        <v>84</v>
+      </c>
+      <c r="EO1" t="s">
+        <v>85</v>
+      </c>
+      <c r="EP1" t="s">
         <v>170</v>
       </c>
-      <c r="EB1" t="s">
-        <v>151</v>
-      </c>
-      <c r="EC1" t="s">
-        <v>152</v>
-      </c>
-      <c r="ED1" t="s">
-        <v>81</v>
-      </c>
-      <c r="EE1" t="s">
-        <v>82</v>
-      </c>
-      <c r="EF1" t="s">
+      <c r="EQ1" t="s">
+        <v>86</v>
+      </c>
+      <c r="ER1" t="s">
+        <v>87</v>
+      </c>
+      <c r="ES1" t="s">
+        <v>171</v>
+      </c>
+      <c r="ET1" t="s">
+        <v>88</v>
+      </c>
+      <c r="EU1" t="s">
+        <v>89</v>
+      </c>
+      <c r="EV1" t="s">
         <v>153</v>
       </c>
-      <c r="EG1" t="s">
-        <v>83</v>
-      </c>
-      <c r="EH1" t="s">
-        <v>84</v>
-      </c>
-      <c r="EI1" t="s">
-        <v>85</v>
-      </c>
-      <c r="EJ1" t="s">
-        <v>86</v>
-      </c>
-      <c r="EK1" t="s">
-        <v>171</v>
-      </c>
-      <c r="EL1" t="s">
-        <v>87</v>
-      </c>
-      <c r="EM1" t="s">
-        <v>88</v>
-      </c>
-      <c r="EN1" t="s">
+      <c r="EW1" t="s">
+        <v>154</v>
+      </c>
+      <c r="EX1" t="s">
+        <v>90</v>
+      </c>
+      <c r="EY1" t="s">
+        <v>155</v>
+      </c>
+      <c r="EZ1" t="s">
         <v>172</v>
       </c>
-      <c r="EO1" t="s">
-        <v>89</v>
-      </c>
-      <c r="EP1" t="s">
-        <v>90</v>
-      </c>
-      <c r="EQ1" t="s">
-        <v>154</v>
-      </c>
-      <c r="ER1" t="s">
-        <v>155</v>
-      </c>
-      <c r="ES1" t="s">
+      <c r="FA1" t="s">
         <v>91</v>
       </c>
-      <c r="ET1" t="s">
+      <c r="FB1" t="s">
+        <v>92</v>
+      </c>
+      <c r="FC1" t="s">
+        <v>93</v>
+      </c>
+      <c r="FD1" t="s">
+        <v>94</v>
+      </c>
+      <c r="FE1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:161" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>156</v>
-      </c>
-      <c r="EU1" t="s">
-        <v>173</v>
-      </c>
-      <c r="EV1" t="s">
-        <v>92</v>
-      </c>
-      <c r="EW1" t="s">
-        <v>93</v>
-      </c>
-      <c r="EX1" t="s">
-        <v>94</v>
-      </c>
-      <c r="EY1" t="s">
-        <v>95</v>
-      </c>
-      <c r="EZ1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:156" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>157</v>
       </c>
       <c r="B2">
         <v>76</v>
@@ -1483,83 +1516,83 @@
         <v>13</v>
       </c>
       <c r="AJ2">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="AK2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AN2">
         <v>11</v>
       </c>
       <c r="AO2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AP2">
+        <v>13</v>
+      </c>
+      <c r="AQ2">
         <v>18</v>
       </c>
-      <c r="AQ2">
+      <c r="AR2">
         <v>15</v>
       </c>
-      <c r="AR2">
-        <v>11</v>
-      </c>
       <c r="AS2">
+        <v>11</v>
+      </c>
+      <c r="AT2">
         <v>27</v>
       </c>
-      <c r="AT2">
+      <c r="AU2">
         <v>14</v>
       </c>
-      <c r="AU2">
-        <v>12</v>
-      </c>
       <c r="AV2">
         <v>12</v>
       </c>
       <c r="AW2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY2">
+        <v>11</v>
+      </c>
+      <c r="AZ2">
+        <v>11</v>
+      </c>
+      <c r="BA2">
         <v>21</v>
       </c>
-      <c r="AZ2">
-        <v>13</v>
-      </c>
-      <c r="BA2">
-        <v>11</v>
-      </c>
       <c r="BB2">
+        <v>13</v>
+      </c>
+      <c r="BC2">
+        <v>11</v>
+      </c>
+      <c r="BD2">
         <v>19</v>
       </c>
-      <c r="BC2">
-        <v>13</v>
-      </c>
-      <c r="BD2">
-        <v>11</v>
-      </c>
       <c r="BE2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BF2">
+        <v>11</v>
+      </c>
+      <c r="BG2">
+        <v>12</v>
+      </c>
+      <c r="BH2">
         <v>14</v>
       </c>
-      <c r="BG2">
+      <c r="BI2">
         <v>15</v>
       </c>
-      <c r="BH2">
-        <v>13</v>
-      </c>
-      <c r="BI2">
-        <v>12</v>
-      </c>
       <c r="BJ2">
         <v>13</v>
       </c>
@@ -1567,257 +1600,257 @@
         <v>12</v>
       </c>
       <c r="BL2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BM2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BN2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BO2">
         <v>11</v>
       </c>
       <c r="BP2">
+        <v>13</v>
+      </c>
+      <c r="BQ2">
+        <v>11</v>
+      </c>
+      <c r="BR2">
         <v>14</v>
       </c>
-      <c r="BQ2">
-        <v>11</v>
-      </c>
-      <c r="BR2">
+      <c r="BS2">
+        <v>11</v>
+      </c>
+      <c r="BT2">
+        <v>12</v>
+      </c>
+      <c r="BU2">
         <v>25</v>
       </c>
-      <c r="BS2">
+      <c r="BV2">
         <v>16</v>
       </c>
-      <c r="BT2">
+      <c r="BW2">
         <v>15</v>
       </c>
-      <c r="BU2">
+      <c r="BX2">
         <v>19</v>
-      </c>
-      <c r="BV2">
-        <v>14</v>
-      </c>
-      <c r="BW2">
-        <v>14</v>
-      </c>
-      <c r="BX2">
-        <v>11</v>
       </c>
       <c r="BY2">
         <v>14</v>
       </c>
       <c r="BZ2">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="CA2">
         <v>11</v>
       </c>
       <c r="CB2">
+        <v>14</v>
+      </c>
+      <c r="CC2">
+        <v>11</v>
+      </c>
+      <c r="CD2">
+        <v>11</v>
+      </c>
+      <c r="CE2">
         <v>15</v>
       </c>
-      <c r="CC2">
+      <c r="CF2">
         <v>14</v>
       </c>
-      <c r="CD2">
-        <v>11</v>
-      </c>
-      <c r="CE2">
-        <v>12</v>
-      </c>
-      <c r="CF2">
-        <v>11</v>
-      </c>
       <c r="CG2">
+        <v>11</v>
+      </c>
+      <c r="CH2">
+        <v>12</v>
+      </c>
+      <c r="CI2">
+        <v>11</v>
+      </c>
+      <c r="CJ2">
         <v>15</v>
       </c>
-      <c r="CH2">
-        <v>11</v>
-      </c>
-      <c r="CI2">
-        <v>13</v>
-      </c>
-      <c r="CJ2">
+      <c r="CK2">
+        <v>11</v>
+      </c>
+      <c r="CL2">
+        <v>13</v>
+      </c>
+      <c r="CM2">
         <v>17</v>
       </c>
-      <c r="CK2">
+      <c r="CN2">
         <v>21</v>
       </c>
-      <c r="CL2">
-        <v>11</v>
-      </c>
-      <c r="CM2">
+      <c r="CO2">
+        <v>11</v>
+      </c>
+      <c r="CP2">
         <v>21</v>
       </c>
-      <c r="CN2">
+      <c r="CQ2">
         <v>17</v>
       </c>
-      <c r="CO2">
-        <v>11</v>
-      </c>
-      <c r="CP2">
-        <v>12</v>
-      </c>
-      <c r="CQ2">
-        <v>13</v>
-      </c>
       <c r="CR2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CS2">
+        <v>12</v>
+      </c>
+      <c r="CT2">
+        <v>13</v>
+      </c>
+      <c r="CU2">
+        <v>12</v>
+      </c>
+      <c r="CV2">
         <v>14</v>
       </c>
-      <c r="CT2">
-        <v>12</v>
-      </c>
-      <c r="CU2">
+      <c r="CW2">
+        <v>12</v>
+      </c>
+      <c r="CX2">
         <v>22</v>
       </c>
-      <c r="CV2">
-        <v>11</v>
-      </c>
-      <c r="CW2">
+      <c r="CY2">
+        <v>11</v>
+      </c>
+      <c r="CZ2">
         <v>22</v>
       </c>
-      <c r="CX2">
-        <v>11</v>
-      </c>
-      <c r="CY2">
+      <c r="DA2">
+        <v>11</v>
+      </c>
+      <c r="DB2">
         <v>18</v>
       </c>
-      <c r="CZ2">
-        <v>12</v>
-      </c>
-      <c r="DA2">
-        <v>13</v>
-      </c>
-      <c r="DB2">
-        <v>12</v>
-      </c>
       <c r="DC2">
         <v>12</v>
       </c>
       <c r="DD2">
+        <v>13</v>
+      </c>
+      <c r="DE2">
+        <v>12</v>
+      </c>
+      <c r="DF2">
+        <v>12</v>
+      </c>
+      <c r="DG2">
         <v>15</v>
       </c>
-      <c r="DE2">
-        <v>13</v>
-      </c>
-      <c r="DF2">
-        <v>11</v>
-      </c>
-      <c r="DG2">
+      <c r="DH2">
+        <v>13</v>
+      </c>
+      <c r="DI2">
+        <v>11</v>
+      </c>
+      <c r="DJ2">
         <v>27</v>
       </c>
-      <c r="DH2">
-        <v>12</v>
-      </c>
-      <c r="DI2">
-        <v>12</v>
-      </c>
-      <c r="DJ2">
-        <v>12</v>
-      </c>
       <c r="DK2">
         <v>12</v>
       </c>
       <c r="DL2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="DM2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DN2">
+        <v>12</v>
+      </c>
+      <c r="DO2">
+        <v>11</v>
+      </c>
+      <c r="DP2">
+        <v>12</v>
+      </c>
+      <c r="DQ2">
+        <v>13</v>
+      </c>
+      <c r="DR2">
         <v>16</v>
       </c>
-      <c r="DO2">
+      <c r="DS2">
         <v>14</v>
       </c>
-      <c r="DP2">
-        <v>13</v>
-      </c>
-      <c r="DQ2">
-        <v>11</v>
-      </c>
-      <c r="DR2">
-        <v>12</v>
-      </c>
-      <c r="DS2">
-        <v>13</v>
-      </c>
       <c r="DT2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="DU2">
+        <v>11</v>
+      </c>
+      <c r="DV2">
+        <v>12</v>
+      </c>
+      <c r="DW2">
+        <v>13</v>
+      </c>
+      <c r="DX2">
+        <v>11</v>
+      </c>
+      <c r="DY2">
         <v>16</v>
       </c>
-      <c r="DV2">
-        <v>11</v>
-      </c>
-      <c r="DW2">
+      <c r="DZ2">
+        <v>11</v>
+      </c>
+      <c r="EA2">
         <v>14</v>
       </c>
-      <c r="DX2">
+      <c r="EB2">
         <v>33</v>
       </c>
-      <c r="DY2">
-        <v>12</v>
-      </c>
-      <c r="DZ2">
-        <v>11</v>
-      </c>
-      <c r="EA2">
-        <v>12</v>
-      </c>
-      <c r="EB2">
-        <v>13</v>
-      </c>
       <c r="EC2">
+        <v>11</v>
+      </c>
+      <c r="ED2">
+        <v>12</v>
+      </c>
+      <c r="EE2">
+        <v>11</v>
+      </c>
+      <c r="EF2">
+        <v>12</v>
+      </c>
+      <c r="EG2">
+        <v>13</v>
+      </c>
+      <c r="EH2">
         <v>16</v>
       </c>
-      <c r="ED2">
-        <v>12</v>
-      </c>
-      <c r="EE2">
-        <v>12</v>
-      </c>
-      <c r="EF2">
-        <v>12</v>
-      </c>
-      <c r="EG2">
-        <v>11</v>
-      </c>
-      <c r="EH2">
+      <c r="EI2">
+        <v>12</v>
+      </c>
+      <c r="EJ2">
+        <v>12</v>
+      </c>
+      <c r="EK2">
+        <v>12</v>
+      </c>
+      <c r="EL2">
+        <v>11</v>
+      </c>
+      <c r="EM2">
         <v>14</v>
       </c>
-      <c r="EI2">
+      <c r="EN2">
         <v>17</v>
       </c>
-      <c r="EJ2">
-        <v>11</v>
-      </c>
-      <c r="EK2">
-        <v>12</v>
-      </c>
-      <c r="EL2">
+      <c r="EO2">
+        <v>11</v>
+      </c>
+      <c r="EP2">
+        <v>12</v>
+      </c>
+      <c r="EQ2">
         <v>16</v>
       </c>
-      <c r="EM2">
-        <v>13</v>
-      </c>
-      <c r="EN2">
-        <v>11</v>
-      </c>
-      <c r="EO2">
-        <v>12</v>
-      </c>
-      <c r="EP2">
-        <v>13</v>
-      </c>
-      <c r="EQ2">
-        <v>12</v>
-      </c>
       <c r="ER2">
         <v>13</v>
       </c>
@@ -1828,27 +1861,42 @@
         <v>12</v>
       </c>
       <c r="EU2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="EV2">
+        <v>12</v>
+      </c>
+      <c r="EW2">
+        <v>13</v>
+      </c>
+      <c r="EX2">
+        <v>11</v>
+      </c>
+      <c r="EY2">
+        <v>12</v>
+      </c>
+      <c r="EZ2">
+        <v>11</v>
+      </c>
+      <c r="FA2">
         <v>10</v>
       </c>
-      <c r="EW2">
+      <c r="FB2">
         <v>10</v>
       </c>
-      <c r="EX2">
+      <c r="FC2">
         <v>10</v>
       </c>
-      <c r="EY2">
+      <c r="FD2">
         <v>10</v>
       </c>
-      <c r="EZ2">
+      <c r="FE2">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:161" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C3">
         <v>16</v>
@@ -1943,355 +1991,364 @@
       <c r="AI3">
         <v>21</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>9</v>
       </c>
-      <c r="AK3">
-        <v>12</v>
-      </c>
       <c r="AL3">
+        <v>12</v>
+      </c>
+      <c r="AM3">
         <v>15</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>14</v>
       </c>
-      <c r="AN3">
-        <v>11</v>
-      </c>
       <c r="AO3">
+        <v>11</v>
+      </c>
+      <c r="AP3">
         <v>16</v>
       </c>
-      <c r="AP3">
+      <c r="AQ3">
         <v>20</v>
       </c>
-      <c r="AQ3">
+      <c r="AR3">
         <v>15</v>
       </c>
-      <c r="AR3">
+      <c r="AS3">
         <v>21</v>
       </c>
-      <c r="AS3">
+      <c r="AT3">
         <v>30</v>
       </c>
-      <c r="AT3">
+      <c r="AU3">
         <v>20</v>
       </c>
-      <c r="AU3">
-        <v>13</v>
-      </c>
       <c r="AV3">
+        <v>13</v>
+      </c>
+      <c r="AW3">
         <v>15</v>
       </c>
-      <c r="AW3">
-        <v>12</v>
-      </c>
-      <c r="AX3">
+      <c r="AY3">
+        <v>12</v>
+      </c>
+      <c r="AZ3">
         <v>9</v>
       </c>
-      <c r="AY3">
+      <c r="BA3">
         <v>31</v>
       </c>
-      <c r="AZ3">
+      <c r="BB3">
         <v>18</v>
       </c>
-      <c r="BA3">
-        <v>13</v>
-      </c>
-      <c r="BB3">
+      <c r="BC3">
+        <v>13</v>
+      </c>
+      <c r="BD3">
         <v>21</v>
       </c>
-      <c r="BC3">
-        <v>13</v>
-      </c>
-      <c r="BD3">
+      <c r="BE3">
+        <v>13</v>
+      </c>
+      <c r="BF3">
         <v>16</v>
       </c>
-      <c r="BE3">
+      <c r="BG3">
         <v>14</v>
       </c>
-      <c r="BF3">
+      <c r="BH3">
         <v>14</v>
       </c>
-      <c r="BG3">
+      <c r="BI3">
         <v>15</v>
       </c>
-      <c r="BH3">
-        <v>13</v>
-      </c>
-      <c r="BI3">
-        <v>13</v>
-      </c>
       <c r="BJ3">
+        <v>13</v>
+      </c>
+      <c r="BK3">
+        <v>13</v>
+      </c>
+      <c r="BL3">
         <v>16</v>
       </c>
-      <c r="BK3">
+      <c r="BM3">
         <v>15</v>
       </c>
-      <c r="BM3">
-        <v>11</v>
-      </c>
-      <c r="BN3">
+      <c r="BO3">
+        <v>11</v>
+      </c>
+      <c r="BP3">
         <v>15</v>
       </c>
-      <c r="BO3">
-        <v>11</v>
-      </c>
-      <c r="BP3">
+      <c r="BQ3">
+        <v>11</v>
+      </c>
+      <c r="BR3">
         <v>14</v>
       </c>
-      <c r="BQ3">
+      <c r="BS3">
         <v>16</v>
       </c>
-      <c r="BR3">
+      <c r="BU3">
         <v>26</v>
       </c>
-      <c r="BS3">
+      <c r="BV3">
         <v>20</v>
       </c>
-      <c r="BT3">
+      <c r="BW3">
         <v>15</v>
       </c>
-      <c r="BU3">
+      <c r="BX3">
         <v>14</v>
       </c>
-      <c r="BV3">
+      <c r="BY3">
         <v>19</v>
       </c>
-      <c r="BW3">
+      <c r="BZ3">
         <v>17</v>
       </c>
-      <c r="BX3">
+      <c r="CA3">
         <v>17</v>
       </c>
-      <c r="BY3">
+      <c r="CB3">
         <v>20</v>
       </c>
-      <c r="BZ3">
-        <v>12</v>
-      </c>
-      <c r="CA3">
+      <c r="CC3">
+        <v>12</v>
+      </c>
+      <c r="CD3">
         <v>20</v>
       </c>
-      <c r="CB3">
+      <c r="CE3">
         <v>19</v>
       </c>
-      <c r="CC3">
+      <c r="CF3">
         <v>18</v>
       </c>
-      <c r="CD3">
-        <v>11</v>
-      </c>
-      <c r="CE3">
-        <v>13</v>
-      </c>
-      <c r="CF3">
+      <c r="CG3">
+        <v>11</v>
+      </c>
+      <c r="CH3">
+        <v>13</v>
+      </c>
+      <c r="CI3">
         <v>17</v>
       </c>
-      <c r="CH3">
-        <v>11</v>
-      </c>
-      <c r="CI3">
+      <c r="CK3">
+        <v>11</v>
+      </c>
+      <c r="CL3">
         <v>19</v>
       </c>
-      <c r="CJ3">
+      <c r="CM3">
         <v>23</v>
       </c>
-      <c r="CK3">
+      <c r="CN3">
         <v>24</v>
       </c>
-      <c r="CL3">
-        <v>11</v>
-      </c>
-      <c r="CM3">
+      <c r="CO3">
+        <v>11</v>
+      </c>
+      <c r="CP3">
         <v>21</v>
       </c>
-      <c r="CN3">
+      <c r="CQ3">
         <v>18</v>
       </c>
-      <c r="CO3">
-        <v>13</v>
-      </c>
-      <c r="CP3">
-        <v>12</v>
-      </c>
-      <c r="CQ3">
+      <c r="CR3">
+        <v>13</v>
+      </c>
+      <c r="CS3">
+        <v>12</v>
+      </c>
+      <c r="CT3">
         <v>19</v>
       </c>
-      <c r="CR3">
+      <c r="CU3">
         <v>14</v>
       </c>
-      <c r="CS3">
-        <v>13</v>
-      </c>
-      <c r="CT3">
+      <c r="CV3">
+        <v>13</v>
+      </c>
+      <c r="CW3">
         <v>14</v>
       </c>
-      <c r="CU3">
+      <c r="CX3">
         <v>21</v>
       </c>
-      <c r="CV3">
-        <v>11</v>
-      </c>
-      <c r="CW3">
+      <c r="CY3">
+        <v>11</v>
+      </c>
+      <c r="CZ3">
         <v>25</v>
       </c>
-      <c r="CX3">
-        <v>11</v>
-      </c>
-      <c r="CY3">
+      <c r="DA3">
+        <v>11</v>
+      </c>
+      <c r="DB3">
         <v>18</v>
       </c>
-      <c r="CZ3">
-        <v>12</v>
-      </c>
-      <c r="DA3">
+      <c r="DC3">
+        <v>12</v>
+      </c>
+      <c r="DD3">
         <v>15</v>
       </c>
-      <c r="DB3">
+      <c r="DE3">
         <v>16</v>
       </c>
-      <c r="DC3">
+      <c r="DF3">
         <v>23</v>
       </c>
-      <c r="DD3">
+      <c r="DG3">
         <v>20</v>
       </c>
-      <c r="DE3">
+      <c r="DH3">
         <v>20</v>
       </c>
-      <c r="DF3">
-        <v>11</v>
-      </c>
-      <c r="DG3">
+      <c r="DI3">
+        <v>11</v>
+      </c>
+      <c r="DJ3">
         <v>33</v>
       </c>
-      <c r="DH3">
-        <v>13</v>
-      </c>
-      <c r="DI3">
+      <c r="DK3">
+        <v>13</v>
+      </c>
+      <c r="DL3">
         <v>19</v>
       </c>
-      <c r="DJ3">
-        <v>13</v>
-      </c>
-      <c r="DK3">
-        <v>12</v>
-      </c>
-      <c r="DL3">
-        <v>11</v>
-      </c>
       <c r="DM3">
+        <v>13</v>
+      </c>
+      <c r="DN3">
+        <v>12</v>
+      </c>
+      <c r="DO3">
+        <v>11</v>
+      </c>
+      <c r="DQ3">
         <v>28</v>
       </c>
-      <c r="DO3">
+      <c r="DR3">
+        <v>17</v>
+      </c>
+      <c r="DS3">
         <v>18</v>
       </c>
-      <c r="DP3">
-        <v>13</v>
-      </c>
-      <c r="DQ3">
-        <v>12</v>
-      </c>
-      <c r="DS3">
-        <v>13</v>
-      </c>
       <c r="DT3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="DU3">
+        <v>12</v>
+      </c>
+      <c r="DV3">
+        <v>16</v>
+      </c>
+      <c r="DW3">
+        <v>13</v>
+      </c>
+      <c r="DX3">
+        <v>11</v>
+      </c>
+      <c r="DY3">
         <v>15</v>
       </c>
-      <c r="DV3">
+      <c r="DZ3">
         <v>10</v>
       </c>
-      <c r="DW3">
+      <c r="EA3">
         <v>22</v>
       </c>
-      <c r="DY3">
+      <c r="ED3">
         <v>14</v>
       </c>
-      <c r="DZ3">
+      <c r="EE3">
         <v>15</v>
       </c>
-      <c r="EB3">
+      <c r="EF3">
+        <v>17</v>
+      </c>
+      <c r="EG3">
         <v>15</v>
-      </c>
-      <c r="EC3">
-        <v>17</v>
-      </c>
-      <c r="ED3">
-        <v>23</v>
-      </c>
-      <c r="EE3">
-        <v>14</v>
-      </c>
-      <c r="EF3">
-        <v>13</v>
-      </c>
-      <c r="EG3">
-        <v>13</v>
       </c>
       <c r="EH3">
         <v>17</v>
       </c>
       <c r="EI3">
+        <v>23</v>
+      </c>
+      <c r="EJ3">
+        <v>14</v>
+      </c>
+      <c r="EK3">
+        <v>13</v>
+      </c>
+      <c r="EL3">
+        <v>13</v>
+      </c>
+      <c r="EM3">
+        <v>17</v>
+      </c>
+      <c r="EN3">
         <v>20</v>
       </c>
-      <c r="EJ3">
-        <v>11</v>
-      </c>
-      <c r="EK3">
+      <c r="EO3">
+        <v>11</v>
+      </c>
+      <c r="EP3">
         <v>16</v>
       </c>
-      <c r="EL3">
+      <c r="EQ3">
         <v>16</v>
       </c>
-      <c r="EM3">
+      <c r="ER3">
         <v>24</v>
       </c>
-      <c r="EN3">
+      <c r="ES3">
         <v>14</v>
       </c>
-      <c r="EO3">
-        <v>12</v>
-      </c>
-      <c r="EP3">
-        <v>13</v>
-      </c>
-      <c r="EQ3">
+      <c r="ET3">
+        <v>12</v>
+      </c>
+      <c r="EU3">
+        <v>13</v>
+      </c>
+      <c r="EV3">
         <v>15</v>
       </c>
-      <c r="ER3">
-        <v>13</v>
-      </c>
-      <c r="ES3">
+      <c r="EW3">
+        <v>13</v>
+      </c>
+      <c r="EX3">
         <v>18</v>
       </c>
-      <c r="ET3">
+      <c r="EY3">
         <v>19</v>
       </c>
-      <c r="EU3">
+      <c r="EZ3">
         <v>14</v>
       </c>
-      <c r="EV3">
-        <v>11</v>
-      </c>
-      <c r="EW3">
-        <v>11</v>
-      </c>
-      <c r="EX3">
+      <c r="FA3">
+        <v>11</v>
+      </c>
+      <c r="FB3">
+        <v>11</v>
+      </c>
+      <c r="FC3">
         <v>14.1</v>
       </c>
-      <c r="EY3">
+      <c r="FD3">
         <v>20</v>
       </c>
-      <c r="EZ3">
+      <c r="FE3">
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:161" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B4">
         <v>145</v>
@@ -2389,328 +2446,358 @@
       <c r="AI4">
         <v>23</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>9</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>13</v>
       </c>
       <c r="AM4">
+        <v>21</v>
+      </c>
+      <c r="AN4">
         <v>15</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>19</v>
-      </c>
-      <c r="AO4">
-        <v>18</v>
       </c>
       <c r="AP4">
         <v>18</v>
       </c>
       <c r="AQ4">
+        <v>18</v>
+      </c>
+      <c r="AR4">
         <v>16</v>
       </c>
-      <c r="AR4">
+      <c r="AS4">
         <v>22</v>
       </c>
-      <c r="AS4">
+      <c r="AT4">
         <v>30</v>
       </c>
-      <c r="AT4">
+      <c r="AU4">
         <v>21</v>
       </c>
-      <c r="AU4">
+      <c r="AV4">
         <v>16</v>
       </c>
-      <c r="AV4">
+      <c r="AW4">
         <v>17</v>
       </c>
-      <c r="AW4">
+      <c r="AY4">
         <v>15</v>
       </c>
-      <c r="AX4">
-        <v>12</v>
-      </c>
-      <c r="AY4">
+      <c r="AZ4">
+        <v>12</v>
+      </c>
+      <c r="BA4">
         <v>39</v>
       </c>
-      <c r="AZ4">
+      <c r="BB4">
         <v>19</v>
-      </c>
-      <c r="BA4">
-        <v>20</v>
-      </c>
-      <c r="BB4">
-        <v>23</v>
       </c>
       <c r="BC4">
         <v>20</v>
       </c>
       <c r="BD4">
+        <v>23</v>
+      </c>
+      <c r="BE4">
+        <v>20</v>
+      </c>
+      <c r="BF4">
         <v>17</v>
       </c>
-      <c r="BE4">
+      <c r="BG4">
         <v>15</v>
       </c>
-      <c r="BF4">
+      <c r="BH4">
         <v>30</v>
       </c>
-      <c r="BH4">
+      <c r="BI4">
+        <v>21</v>
+      </c>
+      <c r="BJ4">
         <v>16</v>
       </c>
-      <c r="BI4">
+      <c r="BK4">
         <v>22</v>
       </c>
-      <c r="BJ4">
+      <c r="BL4">
         <v>21</v>
       </c>
-      <c r="BK4">
+      <c r="BM4">
         <v>24</v>
       </c>
-      <c r="BL4">
+      <c r="BN4">
         <v>14</v>
       </c>
-      <c r="BM4">
+      <c r="BO4">
         <v>29</v>
       </c>
-      <c r="BN4">
+      <c r="BP4">
         <v>15</v>
       </c>
-      <c r="BO4">
-        <v>11</v>
-      </c>
-      <c r="BP4">
+      <c r="BQ4">
+        <v>11</v>
+      </c>
+      <c r="BR4">
         <v>22</v>
       </c>
-      <c r="BQ4">
+      <c r="BS4">
         <v>17</v>
       </c>
-      <c r="BR4">
+      <c r="BU4">
         <v>26</v>
       </c>
-      <c r="BS4">
+      <c r="BV4">
         <v>21</v>
       </c>
-      <c r="BT4">
+      <c r="BW4">
         <v>24</v>
       </c>
-      <c r="BU4">
-        <v>11</v>
-      </c>
-      <c r="BV4">
+      <c r="BX4">
+        <v>11</v>
+      </c>
+      <c r="BY4">
         <v>22</v>
       </c>
-      <c r="BW4">
+      <c r="BZ4">
         <v>17</v>
       </c>
-      <c r="BX4">
+      <c r="CA4">
         <v>18</v>
       </c>
-      <c r="BY4">
+      <c r="CB4">
         <v>24</v>
       </c>
-      <c r="BZ4">
-        <v>13</v>
-      </c>
-      <c r="CA4">
+      <c r="CC4">
+        <v>13</v>
+      </c>
+      <c r="CD4">
         <v>25</v>
       </c>
-      <c r="CB4">
+      <c r="CE4">
         <v>29</v>
       </c>
-      <c r="CC4">
+      <c r="CF4">
         <v>21</v>
       </c>
-      <c r="CD4">
+      <c r="CG4">
         <v>15</v>
       </c>
-      <c r="CE4">
+      <c r="CH4">
         <v>34</v>
       </c>
-      <c r="CF4">
+      <c r="CI4">
         <v>25</v>
       </c>
-      <c r="CH4">
-        <v>11</v>
-      </c>
-      <c r="CI4">
+      <c r="CK4">
+        <v>11</v>
+      </c>
+      <c r="CL4">
         <v>19</v>
       </c>
-      <c r="CJ4">
+      <c r="CM4">
         <v>32</v>
       </c>
-      <c r="CL4">
+      <c r="CO4">
         <v>24</v>
       </c>
-      <c r="CN4">
+      <c r="CP4">
+        <v>22</v>
+      </c>
+      <c r="CQ4">
         <v>18</v>
       </c>
-      <c r="CO4">
-        <v>13</v>
-      </c>
-      <c r="CP4">
+      <c r="CR4">
+        <v>13</v>
+      </c>
+      <c r="CS4">
         <v>15</v>
       </c>
-      <c r="CR4">
+      <c r="CT4">
+        <v>23</v>
+      </c>
+      <c r="CU4">
         <v>14</v>
       </c>
-      <c r="CS4">
+      <c r="CV4">
         <v>28</v>
       </c>
-      <c r="CT4">
+      <c r="CW4">
         <v>14</v>
       </c>
-      <c r="CU4">
+      <c r="CX4">
         <v>24</v>
       </c>
-      <c r="CV4">
-        <v>11</v>
-      </c>
-      <c r="CW4">
+      <c r="CY4">
+        <v>11</v>
+      </c>
+      <c r="CZ4">
         <v>25</v>
       </c>
-      <c r="CX4">
+      <c r="DA4">
         <v>14</v>
       </c>
-      <c r="CY4">
+      <c r="DB4">
         <v>42</v>
       </c>
-      <c r="CZ4">
+      <c r="DC4">
         <v>22</v>
       </c>
-      <c r="DA4">
+      <c r="DD4">
         <v>19</v>
       </c>
-      <c r="DB4">
+      <c r="DE4">
         <v>20</v>
       </c>
-      <c r="DC4">
+      <c r="DF4">
         <v>25</v>
       </c>
-      <c r="DD4">
+      <c r="DG4">
         <v>31</v>
       </c>
-      <c r="DF4">
+      <c r="DH4">
+        <v>24</v>
+      </c>
+      <c r="DI4">
         <v>15</v>
       </c>
-      <c r="DH4">
+      <c r="DJ4">
+        <v>44</v>
+      </c>
+      <c r="DK4">
         <v>17</v>
       </c>
-      <c r="DJ4">
+      <c r="DL4">
+        <v>29</v>
+      </c>
+      <c r="DM4">
         <v>15</v>
       </c>
-      <c r="DK4">
+      <c r="DN4">
         <v>14</v>
       </c>
-      <c r="DL4">
+      <c r="DO4">
         <v>24</v>
       </c>
-      <c r="DM4">
+      <c r="DQ4">
         <v>30</v>
       </c>
-      <c r="DO4">
+      <c r="DS4">
         <v>18</v>
       </c>
-      <c r="DP4">
+      <c r="DT4">
         <v>24</v>
       </c>
-      <c r="DQ4">
-        <v>12</v>
-      </c>
-      <c r="DS4">
+      <c r="DU4">
+        <v>12</v>
+      </c>
+      <c r="DW4">
         <v>15</v>
       </c>
-      <c r="DT4">
-        <v>13</v>
-      </c>
-      <c r="DU4">
+      <c r="DX4">
+        <v>13</v>
+      </c>
+      <c r="DY4">
         <v>23</v>
       </c>
-      <c r="DV4">
-        <v>12</v>
-      </c>
-      <c r="DW4">
+      <c r="DZ4">
+        <v>12</v>
+      </c>
+      <c r="EA4">
         <v>21</v>
       </c>
-      <c r="DX4">
+      <c r="EB4">
         <v>41</v>
       </c>
-      <c r="DY4">
+      <c r="ED4">
         <v>14</v>
       </c>
-      <c r="DZ4">
+      <c r="EE4">
         <v>17</v>
       </c>
-      <c r="EB4">
+      <c r="EG4">
         <v>15</v>
-      </c>
-      <c r="EC4">
-        <v>17</v>
-      </c>
-      <c r="ED4">
-        <v>25</v>
-      </c>
-      <c r="EE4">
-        <v>13</v>
-      </c>
-      <c r="EF4">
-        <v>19</v>
-      </c>
-      <c r="EG4">
-        <v>14</v>
       </c>
       <c r="EH4">
         <v>17</v>
       </c>
       <c r="EI4">
+        <v>25</v>
+      </c>
+      <c r="EJ4">
+        <v>13</v>
+      </c>
+      <c r="EK4">
+        <v>19</v>
+      </c>
+      <c r="EL4">
+        <v>14</v>
+      </c>
+      <c r="EM4">
+        <v>17</v>
+      </c>
+      <c r="EN4">
         <v>21</v>
       </c>
-      <c r="EJ4">
+      <c r="EO4">
         <v>17</v>
       </c>
-      <c r="EL4">
+      <c r="EP4">
+        <v>18</v>
+      </c>
+      <c r="EQ4">
         <v>27</v>
       </c>
-      <c r="EM4">
+      <c r="ER4">
         <v>35</v>
       </c>
-      <c r="EO4">
+      <c r="ES4">
+        <v>16</v>
+      </c>
+      <c r="ET4">
         <v>20</v>
       </c>
-      <c r="EP4">
-        <v>13</v>
-      </c>
-      <c r="EQ4">
+      <c r="EU4">
+        <v>13</v>
+      </c>
+      <c r="EV4">
         <v>16</v>
       </c>
-      <c r="ER4">
-        <v>13</v>
-      </c>
-      <c r="ES4">
+      <c r="EW4">
+        <v>13</v>
+      </c>
+      <c r="EX4">
         <v>22</v>
       </c>
-      <c r="ET4">
+      <c r="EY4">
         <v>28</v>
       </c>
-      <c r="EV4">
+      <c r="EZ4">
+        <v>14</v>
+      </c>
+      <c r="FA4">
         <v>12.2</v>
       </c>
-      <c r="EW4">
+      <c r="FB4">
         <v>15.9</v>
       </c>
-      <c r="EX4">
+      <c r="FC4">
         <v>20</v>
       </c>
-      <c r="EY4">
+      <c r="FD4">
         <v>40</v>
       </c>
-      <c r="EZ4">
+      <c r="FE4">
         <v>10.5</v>
       </c>
     </row>
-    <row r="5" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:161" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B5">
         <v>185</v>
@@ -2724,9 +2811,15 @@
       <c r="E5">
         <v>25</v>
       </c>
+      <c r="F5">
+        <v>27</v>
+      </c>
       <c r="G5">
         <v>17</v>
       </c>
+      <c r="H5">
+        <v>25</v>
+      </c>
       <c r="I5">
         <v>22</v>
       </c>
@@ -2799,304 +2892,328 @@
       <c r="AI5">
         <v>42</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>18</v>
       </c>
-      <c r="AK5">
-        <v>13</v>
-      </c>
-      <c r="AM5">
+      <c r="AL5">
+        <v>13</v>
+      </c>
+      <c r="AN5">
         <v>23</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>24</v>
       </c>
-      <c r="AO5">
+      <c r="AP5">
         <v>26</v>
       </c>
-      <c r="AP5">
+      <c r="AQ5">
         <v>21</v>
       </c>
-      <c r="AQ5">
+      <c r="AR5">
         <v>16</v>
       </c>
       <c r="AS5">
+        <v>26</v>
+      </c>
+      <c r="AT5">
         <v>54</v>
       </c>
-      <c r="AT5">
+      <c r="AU5">
         <v>27</v>
       </c>
-      <c r="AU5">
+      <c r="AV5">
         <v>19</v>
       </c>
-      <c r="AV5">
+      <c r="AW5">
         <v>23</v>
       </c>
-      <c r="AW5">
+      <c r="AY5">
         <v>15</v>
       </c>
-      <c r="AX5">
-        <v>12</v>
-      </c>
-      <c r="AY5">
+      <c r="AZ5">
+        <v>12</v>
+      </c>
+      <c r="BA5">
         <v>44</v>
       </c>
-      <c r="AZ5">
+      <c r="BB5">
         <v>19</v>
       </c>
-      <c r="BA5">
+      <c r="BC5">
         <v>22</v>
       </c>
-      <c r="BB5">
+      <c r="BD5">
         <v>25</v>
       </c>
-      <c r="BC5">
+      <c r="BE5">
         <v>41</v>
       </c>
-      <c r="BD5">
+      <c r="BF5">
         <v>29</v>
       </c>
-      <c r="BE5">
+      <c r="BG5">
         <v>40</v>
       </c>
-      <c r="BF5">
+      <c r="BH5">
         <v>35</v>
       </c>
-      <c r="BH5">
+      <c r="BJ5">
         <v>18</v>
-      </c>
-      <c r="BJ5">
-        <v>29</v>
       </c>
       <c r="BK5">
         <v>29</v>
       </c>
       <c r="BL5">
+        <v>29</v>
+      </c>
+      <c r="BM5">
+        <v>29</v>
+      </c>
+      <c r="BN5">
         <v>16</v>
       </c>
-      <c r="BM5">
+      <c r="BO5">
         <v>35</v>
       </c>
-      <c r="BN5">
+      <c r="BP5">
         <v>21</v>
       </c>
-      <c r="BO5">
-        <v>12</v>
-      </c>
-      <c r="BP5">
+      <c r="BQ5">
+        <v>12</v>
+      </c>
+      <c r="BR5">
         <v>23</v>
       </c>
-      <c r="BQ5">
+      <c r="BS5">
         <v>20</v>
       </c>
-      <c r="BR5">
+      <c r="BU5">
         <v>43</v>
       </c>
-      <c r="BS5">
+      <c r="BV5">
         <v>25</v>
       </c>
-      <c r="BT5">
+      <c r="BW5">
         <v>24</v>
       </c>
-      <c r="BU5">
-        <v>12</v>
-      </c>
-      <c r="BV5">
+      <c r="BX5">
+        <v>12</v>
+      </c>
+      <c r="BY5">
         <v>24</v>
       </c>
-      <c r="BW5">
+      <c r="BZ5">
         <v>29</v>
       </c>
-      <c r="BX5">
+      <c r="CA5">
         <v>22</v>
       </c>
-      <c r="BY5">
+      <c r="CB5">
         <v>31</v>
       </c>
-      <c r="BZ5">
-        <v>13</v>
-      </c>
-      <c r="CA5">
+      <c r="CC5">
+        <v>13</v>
+      </c>
+      <c r="CD5">
         <v>28</v>
       </c>
-      <c r="CC5">
+      <c r="CE5">
+        <v>30</v>
+      </c>
+      <c r="CF5">
         <v>21</v>
       </c>
-      <c r="CD5">
+      <c r="CG5">
         <v>19</v>
       </c>
-      <c r="CE5">
+      <c r="CH5">
         <v>39</v>
       </c>
-      <c r="CF5">
+      <c r="CI5">
         <v>29</v>
       </c>
-      <c r="CH5">
-        <v>11</v>
-      </c>
-      <c r="CI5">
+      <c r="CK5">
+        <v>11</v>
+      </c>
+      <c r="CL5">
         <v>28</v>
       </c>
-      <c r="CJ5">
+      <c r="CM5">
         <v>32</v>
       </c>
-      <c r="CL5">
+      <c r="CO5">
         <v>34</v>
       </c>
-      <c r="CN5">
+      <c r="CQ5">
         <v>20</v>
       </c>
-      <c r="CO5">
+      <c r="CR5">
         <v>16</v>
       </c>
-      <c r="CP5">
+      <c r="CS5">
         <v>16</v>
       </c>
-      <c r="CR5">
+      <c r="CU5">
         <v>14</v>
       </c>
-      <c r="CS5">
+      <c r="CV5">
         <v>29</v>
       </c>
-      <c r="CT5">
+      <c r="CW5">
         <v>15</v>
       </c>
-      <c r="CU5">
+      <c r="CX5">
         <v>23</v>
       </c>
-      <c r="CV5">
+      <c r="CY5">
         <v>16</v>
       </c>
-      <c r="CW5">
+      <c r="CZ5">
         <v>29</v>
       </c>
-      <c r="CY5">
+      <c r="DA5">
+        <v>75</v>
+      </c>
+      <c r="DB5">
         <v>45</v>
       </c>
-      <c r="CZ5">
+      <c r="DC5">
         <v>25</v>
       </c>
-      <c r="DA5">
+      <c r="DD5">
         <v>24</v>
       </c>
-      <c r="DC5">
+      <c r="DE5">
+        <v>30</v>
+      </c>
+      <c r="DF5">
         <v>31</v>
       </c>
-      <c r="DD5">
+      <c r="DG5">
         <v>47</v>
       </c>
-      <c r="DF5">
-        <v>11</v>
-      </c>
-      <c r="DH5">
-        <v>17</v>
-      </c>
-      <c r="DJ5">
-        <v>21</v>
+      <c r="DI5">
+        <v>11</v>
       </c>
       <c r="DK5">
         <v>17</v>
       </c>
-      <c r="DL5">
+      <c r="DM5">
+        <v>21</v>
+      </c>
+      <c r="DN5">
+        <v>17</v>
+      </c>
+      <c r="DO5">
         <v>28</v>
       </c>
-      <c r="DM5">
+      <c r="DQ5">
         <v>33</v>
       </c>
-      <c r="DO5">
+      <c r="DS5">
         <v>35</v>
       </c>
-      <c r="DP5">
+      <c r="DT5">
         <v>29</v>
       </c>
-      <c r="DQ5">
+      <c r="DU5">
         <v>14</v>
       </c>
-      <c r="DS5">
+      <c r="DW5">
         <v>18</v>
       </c>
-      <c r="DT5">
+      <c r="DX5">
         <v>20</v>
       </c>
-      <c r="DU5">
+      <c r="DY5">
         <v>25</v>
       </c>
-      <c r="DV5">
+      <c r="DZ5">
         <v>14</v>
       </c>
-      <c r="DW5">
+      <c r="EA5">
         <v>22</v>
       </c>
-      <c r="DX5">
+      <c r="EB5">
         <v>47</v>
       </c>
-      <c r="DY5">
+      <c r="ED5">
         <v>21</v>
       </c>
-      <c r="DZ5">
+      <c r="EE5">
         <v>20</v>
       </c>
-      <c r="EC5">
+      <c r="EG5">
+        <v>20</v>
+      </c>
+      <c r="EH5">
         <v>18</v>
       </c>
-      <c r="ED5">
+      <c r="EI5">
         <v>33</v>
       </c>
-      <c r="EE5">
-        <v>13</v>
-      </c>
-      <c r="EG5">
+      <c r="EJ5">
+        <v>13</v>
+      </c>
+      <c r="EK5">
+        <v>24</v>
+      </c>
+      <c r="EL5">
         <v>16</v>
       </c>
-      <c r="EH5">
+      <c r="EM5">
         <v>38</v>
       </c>
-      <c r="EI5">
+      <c r="EN5">
         <v>59</v>
       </c>
-      <c r="EJ5">
+      <c r="EO5">
         <v>29</v>
       </c>
-      <c r="EL5">
+      <c r="EQ5">
         <v>27</v>
       </c>
-      <c r="EM5">
+      <c r="ER5">
         <v>37</v>
       </c>
-      <c r="EO5">
+      <c r="ET5">
         <v>23</v>
       </c>
-      <c r="EP5">
-        <v>13</v>
-      </c>
-      <c r="ER5">
-        <v>13</v>
-      </c>
-      <c r="ES5">
+      <c r="EU5">
+        <v>13</v>
+      </c>
+      <c r="EV5">
+        <v>22</v>
+      </c>
+      <c r="EW5">
+        <v>13</v>
+      </c>
+      <c r="EX5">
         <v>28</v>
       </c>
-      <c r="ET5">
+      <c r="EY5">
         <v>38</v>
       </c>
-      <c r="EV5">
+      <c r="FA5">
         <v>13.5</v>
       </c>
-      <c r="EW5">
+      <c r="FB5">
         <v>20</v>
       </c>
-      <c r="EX5">
+      <c r="FC5">
         <v>28.3</v>
       </c>
-      <c r="EY5">
+      <c r="FD5">
         <v>80</v>
       </c>
-      <c r="EZ5">
+      <c r="FE5">
         <v>10.7</v>
       </c>
     </row>
-    <row r="6" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:161" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B6">
         <v>220</v>
@@ -3122,9 +3239,15 @@
       <c r="L6">
         <v>21</v>
       </c>
+      <c r="M6">
+        <v>23</v>
+      </c>
       <c r="N6">
         <v>15</v>
       </c>
+      <c r="O6">
+        <v>23</v>
+      </c>
       <c r="P6">
         <v>45</v>
       </c>
@@ -3161,292 +3284,319 @@
       <c r="AB6">
         <v>30</v>
       </c>
+      <c r="AC6">
+        <v>24</v>
+      </c>
       <c r="AD6">
         <v>37</v>
       </c>
       <c r="AE6">
         <v>25</v>
       </c>
+      <c r="AF6">
+        <v>35</v>
+      </c>
       <c r="AG6">
         <v>84</v>
       </c>
       <c r="AH6">
         <v>57</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>23</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>13</v>
       </c>
       <c r="AN6">
+        <v>25</v>
+      </c>
+      <c r="AO6">
         <v>26</v>
       </c>
-      <c r="AO6">
+      <c r="AP6">
         <v>31</v>
       </c>
-      <c r="AP6">
+      <c r="AQ6">
         <v>42</v>
       </c>
-      <c r="AQ6">
+      <c r="AR6">
         <v>19</v>
       </c>
-      <c r="AS6">
+      <c r="AT6">
         <v>68</v>
       </c>
-      <c r="AT6">
+      <c r="AU6">
         <v>31</v>
       </c>
-      <c r="AU6">
+      <c r="AV6">
         <v>25</v>
-      </c>
-      <c r="AV6">
-        <v>27</v>
       </c>
       <c r="AW6">
         <v>27</v>
       </c>
-      <c r="AX6">
+      <c r="AY6">
+        <v>27</v>
+      </c>
+      <c r="AZ6">
         <v>26</v>
       </c>
-      <c r="AY6">
+      <c r="BA6">
         <v>49</v>
       </c>
-      <c r="AZ6">
+      <c r="BB6">
         <v>33</v>
       </c>
-      <c r="BA6">
+      <c r="BC6">
         <v>29</v>
       </c>
-      <c r="BB6">
+      <c r="BD6">
         <v>28</v>
       </c>
-      <c r="BC6">
+      <c r="BE6">
         <v>53</v>
       </c>
-      <c r="BD6">
+      <c r="BF6">
         <v>32</v>
       </c>
-      <c r="BE6">
+      <c r="BG6">
         <v>56</v>
       </c>
-      <c r="BF6">
+      <c r="BH6">
         <v>39</v>
       </c>
-      <c r="BH6">
+      <c r="BJ6">
         <v>18</v>
       </c>
-      <c r="BJ6">
+      <c r="BL6">
         <v>29</v>
       </c>
-      <c r="BK6">
+      <c r="BM6">
         <v>29</v>
       </c>
-      <c r="BL6">
+      <c r="BN6">
         <v>16</v>
       </c>
-      <c r="BM6">
+      <c r="BO6">
         <v>35</v>
       </c>
-      <c r="BN6">
+      <c r="BP6">
         <v>27</v>
       </c>
-      <c r="BO6">
+      <c r="BQ6">
         <v>18</v>
       </c>
-      <c r="BP6">
+      <c r="BR6">
         <v>23</v>
       </c>
-      <c r="BR6">
+      <c r="BS6">
+        <v>24</v>
+      </c>
+      <c r="BU6">
         <v>61</v>
       </c>
-      <c r="BS6">
+      <c r="BV6">
         <v>33</v>
       </c>
-      <c r="BT6">
+      <c r="BW6">
         <v>30</v>
       </c>
-      <c r="BU6">
+      <c r="BX6">
         <v>15</v>
       </c>
-      <c r="BV6">
+      <c r="BY6">
         <v>32</v>
       </c>
-      <c r="BW6">
+      <c r="BZ6">
         <v>43</v>
       </c>
-      <c r="BX6">
+      <c r="CA6">
         <v>39</v>
       </c>
-      <c r="BZ6">
+      <c r="CB6">
+        <v>32</v>
+      </c>
+      <c r="CC6">
         <v>18</v>
       </c>
-      <c r="CA6">
+      <c r="CD6">
         <v>29</v>
       </c>
-      <c r="CC6">
+      <c r="CF6">
         <v>28</v>
       </c>
-      <c r="CD6">
+      <c r="CG6">
         <v>25</v>
       </c>
-      <c r="CE6">
+      <c r="CH6">
         <v>39</v>
       </c>
       <c r="CI6">
+        <v>38</v>
+      </c>
+      <c r="CL6">
         <v>34</v>
       </c>
-      <c r="CJ6">
+      <c r="CM6">
         <v>51</v>
       </c>
-      <c r="CK6">
+      <c r="CN6">
         <v>38</v>
       </c>
-      <c r="CL6">
+      <c r="CO6">
         <v>35</v>
       </c>
-      <c r="CN6">
+      <c r="CQ6">
         <v>23</v>
       </c>
-      <c r="CO6">
+      <c r="CR6">
         <v>20</v>
       </c>
-      <c r="CP6">
+      <c r="CS6">
         <v>16</v>
       </c>
-      <c r="CR6">
+      <c r="CU6">
         <v>22</v>
       </c>
-      <c r="CS6">
+      <c r="CV6">
         <v>29</v>
       </c>
-      <c r="CT6">
+      <c r="CW6">
         <v>23</v>
       </c>
-      <c r="CU6">
+      <c r="CX6">
         <v>25</v>
       </c>
-      <c r="CV6">
+      <c r="CY6">
         <v>21</v>
       </c>
-      <c r="CW6">
+      <c r="CZ6">
         <v>33</v>
       </c>
-      <c r="CY6">
+      <c r="DB6">
         <v>51</v>
       </c>
-      <c r="CZ6">
+      <c r="DC6">
         <v>31</v>
       </c>
-      <c r="DA6">
+      <c r="DD6">
         <v>29</v>
       </c>
-      <c r="DC6">
+      <c r="DF6">
         <v>47</v>
       </c>
-      <c r="DD6">
+      <c r="DG6">
         <v>50</v>
       </c>
-      <c r="DF6">
+      <c r="DI6">
         <v>16</v>
       </c>
-      <c r="DH6">
+      <c r="DK6">
         <v>21</v>
       </c>
-      <c r="DJ6">
+      <c r="DM6">
         <v>22</v>
       </c>
-      <c r="DK6">
+      <c r="DN6">
         <v>19</v>
       </c>
-      <c r="DM6">
+      <c r="DO6">
+        <v>32</v>
+      </c>
+      <c r="DQ6">
         <v>58</v>
       </c>
-      <c r="DO6">
+      <c r="DS6">
         <v>41</v>
       </c>
-      <c r="DP6">
+      <c r="DT6">
         <v>36</v>
       </c>
-      <c r="DS6">
+      <c r="DU6">
+        <v>16</v>
+      </c>
+      <c r="DW6">
         <v>22</v>
       </c>
-      <c r="DT6">
+      <c r="DX6">
         <v>25</v>
       </c>
-      <c r="DU6">
+      <c r="DY6">
         <v>30</v>
       </c>
-      <c r="DV6">
+      <c r="DZ6">
         <v>14</v>
       </c>
-      <c r="DX6">
+      <c r="EB6">
         <v>47</v>
       </c>
-      <c r="DY6">
+      <c r="ED6">
         <v>21</v>
       </c>
-      <c r="DZ6">
+      <c r="EE6">
         <v>24</v>
       </c>
-      <c r="ED6">
+      <c r="EH6">
+        <v>21</v>
+      </c>
+      <c r="EI6">
         <v>33</v>
       </c>
-      <c r="EE6">
+      <c r="EJ6">
         <v>19</v>
       </c>
-      <c r="EG6">
+      <c r="EL6">
         <v>16</v>
       </c>
-      <c r="EH6">
+      <c r="EM6">
         <v>50</v>
       </c>
-      <c r="EI6">
+      <c r="EN6">
         <v>75</v>
       </c>
-      <c r="EJ6">
+      <c r="EO6">
         <v>35</v>
       </c>
-      <c r="EL6">
+      <c r="EQ6">
         <v>28</v>
       </c>
-      <c r="EM6">
+      <c r="ER6">
         <v>58</v>
       </c>
-      <c r="EO6">
+      <c r="ET6">
         <v>28</v>
       </c>
-      <c r="EP6">
-        <v>13</v>
-      </c>
-      <c r="ER6">
-        <v>13</v>
-      </c>
-      <c r="ES6">
+      <c r="EU6">
+        <v>13</v>
+      </c>
+      <c r="EW6">
+        <v>13</v>
+      </c>
+      <c r="EX6">
         <v>28</v>
       </c>
-      <c r="ET6">
+      <c r="EY6">
         <v>55</v>
       </c>
-      <c r="EV6">
+      <c r="FA6">
         <v>14.9</v>
       </c>
-      <c r="EW6">
+      <c r="FB6">
         <v>25.2</v>
       </c>
-      <c r="EX6">
+      <c r="FC6">
         <v>40</v>
       </c>
-      <c r="EY6">
+      <c r="FD6">
         <v>160</v>
       </c>
-      <c r="EZ6">
+      <c r="FE6">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:161" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B7">
         <v>248</v>
@@ -3460,12 +3610,21 @@
       <c r="E7">
         <v>27</v>
       </c>
+      <c r="G7">
+        <v>23</v>
+      </c>
       <c r="I7">
         <v>39</v>
       </c>
       <c r="J7">
         <v>75</v>
       </c>
+      <c r="L7">
+        <v>25</v>
+      </c>
+      <c r="N7">
+        <v>15</v>
+      </c>
       <c r="P7">
         <v>66</v>
       </c>
@@ -3481,6 +3640,9 @@
       <c r="T7">
         <v>39</v>
       </c>
+      <c r="U7">
+        <v>27</v>
+      </c>
       <c r="V7">
         <v>23</v>
       </c>
@@ -3493,241 +3655,295 @@
       <c r="Z7">
         <v>96</v>
       </c>
+      <c r="AA7">
+        <v>28</v>
+      </c>
+      <c r="AB7">
+        <v>31</v>
+      </c>
+      <c r="AD7">
+        <v>43</v>
+      </c>
+      <c r="AE7">
+        <v>29</v>
+      </c>
       <c r="AG7">
         <v>85</v>
       </c>
       <c r="AH7">
         <v>79</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>23</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>14</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>40</v>
       </c>
       <c r="AP7">
+        <v>39</v>
+      </c>
+      <c r="AQ7">
         <v>53</v>
       </c>
-      <c r="AS7">
+      <c r="AR7">
+        <v>21</v>
+      </c>
+      <c r="AT7">
         <v>76</v>
       </c>
-      <c r="AT7">
+      <c r="AU7">
         <v>31</v>
       </c>
-      <c r="AU7">
+      <c r="AV7">
         <v>29</v>
       </c>
-      <c r="AV7">
+      <c r="AW7">
         <v>30</v>
       </c>
-      <c r="AW7">
+      <c r="AY7">
         <v>29</v>
       </c>
-      <c r="AX7">
+      <c r="AZ7">
         <v>24</v>
       </c>
-      <c r="AY7">
+      <c r="BA7">
         <v>57</v>
       </c>
-      <c r="AZ7">
+      <c r="BB7">
         <v>33</v>
       </c>
-      <c r="BA7">
+      <c r="BC7">
         <v>32</v>
       </c>
-      <c r="BB7">
+      <c r="BD7">
         <v>28</v>
       </c>
-      <c r="BC7">
+      <c r="BE7">
         <v>55</v>
       </c>
-      <c r="BD7">
+      <c r="BF7">
         <v>32</v>
       </c>
-      <c r="BE7">
+      <c r="BG7">
         <v>56</v>
       </c>
-      <c r="BF7">
+      <c r="BH7">
         <v>44</v>
       </c>
-      <c r="BH7">
+      <c r="BJ7">
         <v>20</v>
       </c>
-      <c r="BJ7">
+      <c r="BL7">
         <v>50</v>
       </c>
-      <c r="BK7">
+      <c r="BM7">
         <v>52</v>
       </c>
-      <c r="BL7">
+      <c r="BN7">
         <v>27</v>
       </c>
-      <c r="BM7">
+      <c r="BO7">
         <v>48</v>
       </c>
-      <c r="BN7">
+      <c r="BP7">
         <v>40</v>
       </c>
-      <c r="BO7">
+      <c r="BQ7">
         <v>21</v>
       </c>
-      <c r="BP7">
+      <c r="BR7">
         <v>36</v>
       </c>
-      <c r="BR7">
+      <c r="BU7">
         <v>81</v>
       </c>
-      <c r="BS7">
+      <c r="BV7">
         <v>41</v>
       </c>
-      <c r="BT7">
+      <c r="BW7">
         <v>44</v>
       </c>
-      <c r="BU7">
+      <c r="BX7">
         <v>15</v>
       </c>
-      <c r="BW7">
+      <c r="BY7">
+        <v>45</v>
+      </c>
+      <c r="BZ7">
         <v>53</v>
       </c>
-      <c r="BX7">
+      <c r="CA7">
         <v>39</v>
       </c>
-      <c r="BZ7">
+      <c r="CC7">
         <v>22</v>
       </c>
-      <c r="CA7">
+      <c r="CD7">
         <v>30</v>
       </c>
-      <c r="CC7">
+      <c r="CF7">
         <v>31</v>
       </c>
-      <c r="CE7">
+      <c r="CG7">
+        <v>32</v>
+      </c>
+      <c r="CH7">
         <v>56</v>
-      </c>
-      <c r="CI7">
-        <v>42</v>
-      </c>
-      <c r="CJ7">
-        <v>57</v>
       </c>
       <c r="CL7">
         <v>42</v>
       </c>
+      <c r="CM7">
+        <v>57</v>
+      </c>
       <c r="CO7">
+        <v>42</v>
+      </c>
+      <c r="CQ7">
+        <v>27</v>
+      </c>
+      <c r="CR7">
         <v>24</v>
       </c>
-      <c r="CP7">
+      <c r="CS7">
         <v>20</v>
-      </c>
-      <c r="CR7">
-        <v>34</v>
-      </c>
-      <c r="CS7">
-        <v>45</v>
-      </c>
-      <c r="CT7">
-        <v>28</v>
       </c>
       <c r="CU7">
         <v>34</v>
       </c>
+      <c r="CV7">
+        <v>45</v>
+      </c>
+      <c r="CW7">
+        <v>28</v>
+      </c>
+      <c r="CX7">
+        <v>34</v>
+      </c>
       <c r="CY7">
+        <v>26</v>
+      </c>
+      <c r="CZ7">
+        <v>42</v>
+      </c>
+      <c r="DB7">
         <v>57</v>
       </c>
-      <c r="CZ7">
+      <c r="DC7">
         <v>36</v>
       </c>
+      <c r="DD7">
+        <v>38</v>
+      </c>
       <c r="DF7">
+        <v>52</v>
+      </c>
+      <c r="DG7">
+        <v>65</v>
+      </c>
+      <c r="DI7">
         <v>24</v>
       </c>
-      <c r="DH7">
+      <c r="DK7">
         <v>21</v>
       </c>
-      <c r="DK7">
+      <c r="DM7">
+        <v>23</v>
+      </c>
+      <c r="DN7">
         <v>19</v>
       </c>
-      <c r="DM7">
+      <c r="DQ7">
         <v>70</v>
       </c>
-      <c r="DO7">
+      <c r="DS7">
         <v>54</v>
       </c>
-      <c r="DP7">
+      <c r="DT7">
         <v>42</v>
       </c>
-      <c r="DS7">
+      <c r="DW7">
         <v>28</v>
       </c>
-      <c r="DU7">
+      <c r="DX7">
+        <v>27</v>
+      </c>
+      <c r="DY7">
         <v>39</v>
       </c>
-      <c r="DV7">
+      <c r="DZ7">
         <v>23</v>
       </c>
-      <c r="DX7">
+      <c r="EB7">
         <v>49</v>
       </c>
-      <c r="DY7">
+      <c r="ED7">
         <v>27</v>
       </c>
-      <c r="DZ7">
+      <c r="EE7">
         <v>27</v>
       </c>
-      <c r="ED7">
+      <c r="EI7">
         <v>51</v>
       </c>
-      <c r="EE7">
+      <c r="EJ7">
         <v>23</v>
       </c>
-      <c r="EG7">
+      <c r="EL7">
         <v>28</v>
       </c>
-      <c r="EH7">
+      <c r="EM7">
         <v>56</v>
       </c>
-      <c r="EI7">
+      <c r="EN7">
         <v>75</v>
       </c>
-      <c r="EJ7">
+      <c r="EO7">
         <v>52</v>
       </c>
-      <c r="EL7">
+      <c r="EQ7">
         <v>52</v>
       </c>
-      <c r="EM7">
+      <c r="ER7">
         <v>68</v>
       </c>
-      <c r="EO7">
+      <c r="ET7">
         <v>34</v>
       </c>
-      <c r="EP7">
-        <v>13</v>
-      </c>
-      <c r="ES7">
+      <c r="EU7">
+        <v>13</v>
+      </c>
+      <c r="EW7">
+        <v>13</v>
+      </c>
+      <c r="EX7">
         <v>45</v>
       </c>
-      <c r="EV7">
+      <c r="EY7">
+        <v>76</v>
+      </c>
+      <c r="FA7">
         <v>16.399999999999999</v>
       </c>
-      <c r="EW7">
+      <c r="FB7">
         <v>31.7</v>
       </c>
-      <c r="EX7">
+      <c r="FC7">
         <v>56.6</v>
       </c>
-      <c r="EY7">
+      <c r="FD7">
         <v>320</v>
       </c>
-      <c r="EZ7">
+      <c r="FE7">
         <v>11.2</v>
       </c>
     </row>
-    <row r="8" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:161" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B8">
         <v>309</v>
@@ -3777,235 +3993,244 @@
       <c r="AH8">
         <v>110</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>37</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>14</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>51</v>
       </c>
-      <c r="AP8">
+      <c r="AQ8">
         <v>53</v>
       </c>
-      <c r="AS8">
+      <c r="AT8">
         <v>84</v>
       </c>
-      <c r="AT8">
+      <c r="AU8">
         <v>45</v>
       </c>
       <c r="AV8">
         <v>40</v>
       </c>
       <c r="AW8">
+        <v>40</v>
+      </c>
+      <c r="AY8">
         <v>32</v>
       </c>
-      <c r="AX8">
+      <c r="AZ8">
         <v>18</v>
       </c>
-      <c r="AY8">
+      <c r="BA8">
         <v>71</v>
       </c>
-      <c r="AZ8">
+      <c r="BB8">
         <v>54</v>
       </c>
-      <c r="BA8">
+      <c r="BC8">
         <v>32</v>
       </c>
-      <c r="BB8">
+      <c r="BD8">
         <v>45</v>
       </c>
-      <c r="BC8">
+      <c r="BE8">
         <v>69</v>
       </c>
-      <c r="BD8">
+      <c r="BF8">
         <v>51</v>
       </c>
-      <c r="BE8">
+      <c r="BG8">
         <v>89</v>
       </c>
-      <c r="BF8">
+      <c r="BH8">
         <v>47</v>
       </c>
-      <c r="BH8">
+      <c r="BJ8">
         <v>21</v>
       </c>
-      <c r="BJ8">
+      <c r="BL8">
         <v>63</v>
       </c>
-      <c r="BK8">
+      <c r="BM8">
         <v>64</v>
       </c>
-      <c r="BL8">
+      <c r="BN8">
         <v>38</v>
       </c>
-      <c r="BM8">
+      <c r="BO8">
         <v>54</v>
       </c>
-      <c r="BN8">
+      <c r="BP8">
         <v>43</v>
       </c>
-      <c r="BO8">
+      <c r="BQ8">
         <v>25</v>
       </c>
-      <c r="BP8">
+      <c r="BR8">
         <v>37</v>
       </c>
-      <c r="BR8">
+      <c r="BU8">
         <v>81</v>
       </c>
-      <c r="BS8">
+      <c r="BV8">
         <v>49</v>
       </c>
-      <c r="BT8">
+      <c r="BW8">
         <v>59</v>
       </c>
-      <c r="BU8">
+      <c r="BX8">
         <v>20</v>
       </c>
-      <c r="BW8">
+      <c r="BZ8">
         <v>65</v>
       </c>
-      <c r="BX8">
+      <c r="CA8">
         <v>60</v>
       </c>
-      <c r="BZ8">
+      <c r="CC8">
         <v>35</v>
       </c>
-      <c r="CA8">
+      <c r="CD8">
         <v>33</v>
       </c>
-      <c r="CC8">
+      <c r="CF8">
         <v>37</v>
       </c>
-      <c r="CE8">
+      <c r="CH8">
         <v>56</v>
       </c>
-      <c r="CH8">
+      <c r="CK8">
         <v>15</v>
       </c>
-      <c r="CI8">
+      <c r="CL8">
         <v>49</v>
       </c>
-      <c r="CJ8">
+      <c r="CM8">
         <v>70</v>
       </c>
-      <c r="CL8">
+      <c r="CO8">
         <v>45</v>
       </c>
-      <c r="CO8">
+      <c r="CR8">
         <v>30</v>
       </c>
-      <c r="CP8">
+      <c r="CS8">
         <v>21</v>
       </c>
-      <c r="CR8">
+      <c r="CU8">
         <v>41</v>
       </c>
-      <c r="CS8">
+      <c r="CV8">
         <v>60</v>
       </c>
-      <c r="CT8">
+      <c r="CW8">
         <v>34</v>
       </c>
-      <c r="CU8">
+      <c r="CX8">
         <v>34</v>
       </c>
-      <c r="CY8">
+      <c r="DB8">
         <v>67</v>
       </c>
-      <c r="CZ8">
+      <c r="DC8">
         <v>44</v>
       </c>
-      <c r="DF8">
+      <c r="DI8">
         <v>24</v>
       </c>
-      <c r="DH8">
+      <c r="DK8">
         <v>22</v>
       </c>
-      <c r="DK8">
+      <c r="DN8">
         <v>25</v>
       </c>
-      <c r="DM8">
+      <c r="DQ8">
         <v>82</v>
       </c>
-      <c r="DO8">
+      <c r="DS8">
         <v>76</v>
       </c>
-      <c r="DP8">
+      <c r="DT8">
         <v>45</v>
       </c>
-      <c r="DS8">
+      <c r="DW8">
         <v>35</v>
       </c>
-      <c r="DU8">
+      <c r="DY8">
         <v>45</v>
       </c>
-      <c r="DV8">
+      <c r="DZ8">
         <v>24</v>
       </c>
-      <c r="DW8">
+      <c r="EA8">
         <v>19</v>
       </c>
-      <c r="DX8">
+      <c r="EB8">
         <v>70</v>
       </c>
-      <c r="DY8">
+      <c r="ED8">
         <v>32</v>
       </c>
-      <c r="DZ8">
+      <c r="EE8">
         <v>31</v>
       </c>
-      <c r="ED8">
+      <c r="EI8">
         <v>57</v>
       </c>
-      <c r="EE8">
+      <c r="EJ8">
         <v>28</v>
       </c>
-      <c r="EG8">
+      <c r="EL8">
         <v>29</v>
       </c>
-      <c r="EH8">
+      <c r="EM8">
         <v>61</v>
       </c>
-      <c r="EI8">
+      <c r="EN8">
         <v>107</v>
       </c>
-      <c r="EJ8">
+      <c r="EO8">
         <v>59</v>
       </c>
-      <c r="EL8">
+      <c r="EQ8">
         <v>57</v>
       </c>
-      <c r="EM8">
+      <c r="ER8">
         <v>78</v>
       </c>
-      <c r="EO8">
+      <c r="ET8">
         <v>39</v>
       </c>
-      <c r="EP8">
-        <v>13</v>
-      </c>
-      <c r="ES8">
+      <c r="EU8">
+        <v>13</v>
+      </c>
+      <c r="EX8">
         <v>52</v>
       </c>
-      <c r="EV8">
+      <c r="FA8">
         <v>18.100000000000001</v>
       </c>
-      <c r="EW8">
+      <c r="FB8">
         <v>40</v>
       </c>
-      <c r="EX8">
+      <c r="FC8">
         <v>80</v>
       </c>
-      <c r="EZ8">
+      <c r="FE8">
         <v>11.5</v>
       </c>
     </row>
-    <row r="9" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:161" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>102</v>
+        <v>101</v>
+      </c>
+      <c r="B9">
+        <v>358</v>
+      </c>
+      <c r="C9">
+        <v>74</v>
       </c>
       <c r="D9">
         <v>53</v>
@@ -4040,190 +4265,241 @@
       <c r="X9">
         <v>36</v>
       </c>
+      <c r="Z9">
+        <v>156</v>
+      </c>
       <c r="AG9">
         <v>163</v>
       </c>
       <c r="AH9">
         <v>129</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>40</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>15</v>
       </c>
-      <c r="AP9">
+      <c r="AO9">
+        <v>60</v>
+      </c>
+      <c r="AQ9">
         <v>80</v>
       </c>
-      <c r="AS9">
+      <c r="AT9">
         <v>98</v>
       </c>
-      <c r="AT9">
+      <c r="AU9">
         <v>53</v>
       </c>
-      <c r="AV9">
+      <c r="AW9">
         <v>43</v>
       </c>
-      <c r="AW9">
+      <c r="AY9">
         <v>49</v>
       </c>
-      <c r="AX9">
+      <c r="AZ9">
         <v>19</v>
       </c>
-      <c r="AY9">
+      <c r="BA9">
         <v>91</v>
       </c>
-      <c r="AZ9">
+      <c r="BB9">
         <v>61</v>
       </c>
-      <c r="BA9">
+      <c r="BC9">
         <v>52</v>
       </c>
-      <c r="BB9">
+      <c r="BD9">
         <v>51</v>
       </c>
-      <c r="BC9">
+      <c r="BE9">
         <v>77</v>
       </c>
-      <c r="BD9">
+      <c r="BF9">
         <v>57</v>
       </c>
-      <c r="BE9">
+      <c r="BG9">
         <v>103</v>
       </c>
       <c r="BH9">
+        <v>70</v>
+      </c>
+      <c r="BJ9">
         <v>32</v>
       </c>
-      <c r="BJ9">
+      <c r="BL9">
         <v>78</v>
       </c>
-      <c r="BK9">
+      <c r="BM9">
         <v>73</v>
       </c>
-      <c r="BM9">
+      <c r="BN9">
+        <v>45</v>
+      </c>
+      <c r="BO9">
         <v>59</v>
       </c>
-      <c r="BN9">
+      <c r="BP9">
         <v>49</v>
       </c>
-      <c r="BO9">
+      <c r="BQ9">
         <v>25</v>
       </c>
       <c r="BR9">
+        <v>42</v>
+      </c>
+      <c r="BU9">
         <v>118</v>
       </c>
-      <c r="BS9">
+      <c r="BV9">
         <v>49</v>
       </c>
-      <c r="BT9">
+      <c r="BW9">
         <v>71</v>
       </c>
-      <c r="BU9">
+      <c r="BX9">
         <v>29</v>
       </c>
-      <c r="BW9">
+      <c r="BZ9">
         <v>80</v>
       </c>
-      <c r="BX9">
+      <c r="CA9">
         <v>67</v>
-      </c>
-      <c r="BZ9">
-        <v>41</v>
-      </c>
-      <c r="CA9">
-        <v>35</v>
       </c>
       <c r="CC9">
         <v>41</v>
       </c>
-      <c r="CE9">
+      <c r="CD9">
+        <v>35</v>
+      </c>
+      <c r="CF9">
+        <v>41</v>
+      </c>
+      <c r="CH9">
         <v>57</v>
       </c>
-      <c r="CI9">
+      <c r="CL9">
         <v>58</v>
       </c>
-      <c r="CJ9">
+      <c r="CM9">
         <v>76</v>
       </c>
       <c r="CO9">
+        <v>51</v>
+      </c>
+      <c r="CR9">
         <v>45</v>
       </c>
-      <c r="CP9">
+      <c r="CS9">
         <v>29</v>
       </c>
-      <c r="CR9">
+      <c r="CU9">
         <v>49</v>
       </c>
-      <c r="CS9">
+      <c r="CV9">
         <v>71</v>
       </c>
-      <c r="CT9">
+      <c r="CW9">
         <v>42</v>
       </c>
-      <c r="CU9">
+      <c r="CX9">
         <v>34</v>
       </c>
-      <c r="DF9">
+      <c r="DB9">
+        <v>89</v>
+      </c>
+      <c r="DC9">
+        <v>55</v>
+      </c>
+      <c r="DI9">
         <v>24</v>
       </c>
-      <c r="DH9">
+      <c r="DK9">
         <v>22</v>
       </c>
-      <c r="DM9">
+      <c r="DN9">
+        <v>31</v>
+      </c>
+      <c r="DQ9">
         <v>82</v>
       </c>
-      <c r="DO9">
+      <c r="DS9">
         <v>97</v>
       </c>
-      <c r="DU9">
+      <c r="DT9">
+        <v>48</v>
+      </c>
+      <c r="DW9">
+        <v>42</v>
+      </c>
+      <c r="DY9">
         <v>45</v>
       </c>
-      <c r="DV9">
+      <c r="DZ9">
         <v>24</v>
       </c>
-      <c r="DY9">
+      <c r="EB9">
+        <v>16</v>
+      </c>
+      <c r="ED9">
         <v>35</v>
       </c>
-      <c r="DZ9">
+      <c r="EE9">
         <v>34</v>
       </c>
-      <c r="ED9">
+      <c r="EI9">
         <v>67</v>
       </c>
-      <c r="EE9">
+      <c r="EJ9">
         <v>31</v>
       </c>
-      <c r="EG9">
+      <c r="EL9">
         <v>37</v>
       </c>
-      <c r="EH9">
+      <c r="EM9">
         <v>63</v>
       </c>
-      <c r="EI9">
+      <c r="EN9">
         <v>110</v>
       </c>
-      <c r="EM9">
+      <c r="EO9">
+        <v>74</v>
+      </c>
+      <c r="EQ9">
+        <v>69</v>
+      </c>
+      <c r="ER9">
         <v>78</v>
       </c>
-      <c r="ES9">
+      <c r="ET9">
+        <v>43</v>
+      </c>
+      <c r="EU9">
+        <v>14</v>
+      </c>
+      <c r="EX9">
         <v>69</v>
       </c>
-      <c r="EV9">
+      <c r="FA9">
         <v>20</v>
       </c>
-      <c r="EW9">
+      <c r="FB9">
         <v>50.4</v>
       </c>
-      <c r="EX9">
+      <c r="FC9">
         <v>113.1</v>
       </c>
-      <c r="EZ9">
+      <c r="FE9">
         <v>11.7</v>
       </c>
     </row>
-    <row r="10" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:161" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>103</v>
+        <v>102</v>
+      </c>
+      <c r="D10">
+        <v>72</v>
       </c>
       <c r="E10">
         <v>81</v>
@@ -4237,6 +4513,12 @@
       <c r="P10">
         <v>128</v>
       </c>
+      <c r="Q10">
+        <v>30</v>
+      </c>
+      <c r="R10">
+        <v>51</v>
+      </c>
       <c r="S10">
         <v>93</v>
       </c>
@@ -4249,164 +4531,197 @@
       <c r="X10">
         <v>51</v>
       </c>
+      <c r="AG10">
+        <v>181</v>
+      </c>
       <c r="AH10">
         <v>145</v>
       </c>
       <c r="AK10">
+        <v>58</v>
+      </c>
+      <c r="AL10">
         <v>20</v>
       </c>
-      <c r="AP10">
+      <c r="AQ10">
         <v>97</v>
       </c>
       <c r="AT10">
+        <v>110</v>
+      </c>
+      <c r="AU10">
         <v>67</v>
       </c>
-      <c r="AV10">
+      <c r="AW10">
         <v>59</v>
       </c>
-      <c r="AW10">
+      <c r="AY10">
         <v>57</v>
       </c>
-      <c r="AX10">
+      <c r="AZ10">
         <v>20</v>
       </c>
-      <c r="AY10">
+      <c r="BA10">
         <v>110</v>
       </c>
-      <c r="AZ10">
+      <c r="BB10">
         <v>67</v>
       </c>
-      <c r="BA10">
+      <c r="BC10">
         <v>64</v>
       </c>
-      <c r="BB10">
+      <c r="BD10">
         <v>58</v>
       </c>
-      <c r="BC10">
+      <c r="BE10">
         <v>87</v>
       </c>
-      <c r="BD10">
+      <c r="BF10">
         <v>64</v>
       </c>
-      <c r="BE10">
+      <c r="BG10">
         <v>113</v>
       </c>
-      <c r="BH10">
+      <c r="BJ10">
         <v>29</v>
       </c>
-      <c r="BJ10">
+      <c r="BL10">
         <v>85</v>
       </c>
-      <c r="BK10">
+      <c r="BM10">
         <v>82</v>
       </c>
-      <c r="BM10">
+      <c r="BO10">
         <v>66</v>
       </c>
-      <c r="BN10">
+      <c r="BP10">
         <v>55</v>
       </c>
-      <c r="BO10">
+      <c r="BQ10">
         <v>45</v>
       </c>
-      <c r="BR10">
+      <c r="BU10">
         <v>127</v>
       </c>
-      <c r="BS10">
+      <c r="BV10">
         <v>58</v>
       </c>
-      <c r="BT10">
+      <c r="BW10">
         <v>78</v>
       </c>
-      <c r="BU10">
+      <c r="BX10">
         <v>35</v>
       </c>
-      <c r="BX10">
+      <c r="BZ10">
+        <v>98</v>
+      </c>
+      <c r="CA10">
         <v>86</v>
       </c>
-      <c r="BZ10">
+      <c r="CC10">
         <v>57</v>
       </c>
-      <c r="CA10">
+      <c r="CD10">
         <v>40</v>
       </c>
-      <c r="CC10">
+      <c r="CF10">
         <v>45</v>
       </c>
-      <c r="CE10">
+      <c r="CH10">
         <v>84</v>
       </c>
-      <c r="CJ10">
+      <c r="CL10">
+        <v>80</v>
+      </c>
+      <c r="CM10">
         <v>77</v>
       </c>
-      <c r="CP10">
+      <c r="CR10">
+        <v>50</v>
+      </c>
+      <c r="CS10">
         <v>37</v>
       </c>
-      <c r="CR10">
+      <c r="CU10">
         <v>57</v>
       </c>
-      <c r="CS10">
+      <c r="CV10">
         <v>78</v>
       </c>
-      <c r="CU10">
+      <c r="CW10">
+        <v>48</v>
+      </c>
+      <c r="CX10">
         <v>44</v>
       </c>
-      <c r="DF10">
+      <c r="DI10">
         <v>24</v>
       </c>
-      <c r="DH10">
+      <c r="DK10">
         <v>22</v>
       </c>
-      <c r="DM10">
+      <c r="DQ10">
         <v>134</v>
       </c>
-      <c r="DU10">
+      <c r="DS10">
+        <v>121</v>
+      </c>
+      <c r="DY10">
         <v>65</v>
       </c>
-      <c r="DV10">
+      <c r="DZ10">
         <v>40</v>
       </c>
-      <c r="DZ10">
+      <c r="ED10">
+        <v>40</v>
+      </c>
+      <c r="EE10">
         <v>38</v>
       </c>
-      <c r="ED10">
+      <c r="EI10">
         <v>70</v>
       </c>
-      <c r="EE10">
+      <c r="EJ10">
         <v>40</v>
       </c>
-      <c r="EG10">
+      <c r="EL10">
         <v>43</v>
       </c>
-      <c r="EI10">
+      <c r="EM10">
+        <v>95</v>
+      </c>
+      <c r="EN10">
         <v>113</v>
       </c>
-      <c r="EM10">
+      <c r="ER10">
         <v>110</v>
       </c>
-      <c r="ES10">
+      <c r="EX10">
         <v>81</v>
       </c>
-      <c r="EV10">
+      <c r="FA10">
         <v>22.1</v>
       </c>
-      <c r="EW10">
+      <c r="FB10">
         <v>63.5</v>
       </c>
-      <c r="EX10">
+      <c r="FC10">
         <v>160</v>
       </c>
-      <c r="EZ10">
+      <c r="FE10">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:161" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E11">
         <v>88</v>
       </c>
+      <c r="I11">
+        <v>77</v>
+      </c>
       <c r="J11">
         <v>228</v>
       </c>
@@ -4425,234 +4740,303 @@
       <c r="X11">
         <v>53</v>
       </c>
-      <c r="AK11">
+      <c r="AH11">
+        <v>176</v>
+      </c>
+      <c r="AL11">
         <v>24</v>
       </c>
-      <c r="AP11">
+      <c r="AQ11">
         <v>106</v>
       </c>
-      <c r="AT11">
+      <c r="AU11">
         <v>80</v>
       </c>
-      <c r="AX11">
+      <c r="AW11">
+        <v>75</v>
+      </c>
+      <c r="AY11">
+        <v>64</v>
+      </c>
+      <c r="AZ11">
         <v>23</v>
       </c>
-      <c r="AY11">
+      <c r="BA11">
         <v>130</v>
       </c>
-      <c r="AZ11">
+      <c r="BB11">
         <v>77</v>
       </c>
-      <c r="BA11">
+      <c r="BC11">
         <v>72</v>
       </c>
-      <c r="BB11">
+      <c r="BD11">
         <v>70</v>
       </c>
-      <c r="BC11">
+      <c r="BE11">
         <v>87</v>
       </c>
-      <c r="BD11">
+      <c r="BF11">
         <v>72</v>
       </c>
-      <c r="BE11">
+      <c r="BG11">
         <v>134</v>
       </c>
-      <c r="BH11">
+      <c r="BJ11">
         <v>36</v>
       </c>
-      <c r="BJ11">
+      <c r="BL11">
         <v>90</v>
       </c>
-      <c r="BK11">
+      <c r="BM11">
         <v>90</v>
       </c>
-      <c r="BM11">
+      <c r="BO11">
         <v>70</v>
       </c>
-      <c r="BN11">
+      <c r="BP11">
         <v>57</v>
       </c>
-      <c r="BO11">
+      <c r="BQ11">
         <v>48</v>
       </c>
-      <c r="BR11">
+      <c r="BU11">
         <v>134</v>
       </c>
-      <c r="BS11">
+      <c r="BV11">
         <v>75</v>
       </c>
-      <c r="BU11">
+      <c r="BW11">
+        <v>102</v>
+      </c>
+      <c r="BX11">
         <v>42</v>
       </c>
-      <c r="BX11">
+      <c r="CA11">
         <v>97</v>
       </c>
-      <c r="CA11">
+      <c r="CC11">
+        <v>72</v>
+      </c>
+      <c r="CD11">
         <v>44</v>
       </c>
-      <c r="CE11">
+      <c r="CF11">
+        <v>55</v>
+      </c>
+      <c r="CH11">
         <v>98</v>
       </c>
-      <c r="CP11">
+      <c r="CM11">
+        <v>109</v>
+      </c>
+      <c r="CS11">
         <v>43</v>
       </c>
-      <c r="CS11">
+      <c r="CU11">
+        <v>67</v>
+      </c>
+      <c r="CV11">
         <v>92</v>
       </c>
-      <c r="CU11">
+      <c r="CX11">
         <v>52</v>
       </c>
-      <c r="DF11">
+      <c r="DI11">
         <v>24</v>
       </c>
-      <c r="DM11">
+      <c r="DK11">
+        <v>22</v>
+      </c>
+      <c r="DQ11">
         <v>139</v>
       </c>
-      <c r="DU11">
+      <c r="DY11">
         <v>68</v>
       </c>
-      <c r="DV11">
+      <c r="DZ11">
         <v>45</v>
       </c>
-      <c r="DZ11">
+      <c r="EE11">
         <v>47</v>
       </c>
-      <c r="ED11">
+      <c r="EI11">
         <v>71</v>
       </c>
-      <c r="EG11">
+      <c r="EJ11">
+        <v>46</v>
+      </c>
+      <c r="EL11">
         <v>60</v>
       </c>
-      <c r="EI11">
+      <c r="EN11">
         <v>155</v>
       </c>
-      <c r="EM11">
+      <c r="ER11">
         <v>117</v>
       </c>
-      <c r="ES11">
+      <c r="EX11">
         <v>98</v>
       </c>
-      <c r="EV11">
+      <c r="FA11">
         <v>24.4</v>
       </c>
-      <c r="EW11">
+      <c r="FB11">
         <v>80</v>
       </c>
-      <c r="EX11">
+      <c r="FC11">
         <v>226.3</v>
       </c>
-      <c r="EZ11">
+      <c r="FE11">
         <v>12.3</v>
       </c>
     </row>
-    <row r="12" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:161" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E12">
         <v>94</v>
       </c>
+      <c r="J12">
+        <v>290</v>
+      </c>
       <c r="P12">
         <v>170</v>
       </c>
+      <c r="S12">
+        <v>149</v>
+      </c>
       <c r="T12">
         <v>50</v>
       </c>
+      <c r="W12">
+        <v>47</v>
+      </c>
       <c r="X12">
         <v>60</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>25</v>
       </c>
-      <c r="AP12">
+      <c r="AQ12">
         <v>123</v>
       </c>
-      <c r="AT12">
+      <c r="AU12">
         <v>88</v>
       </c>
-      <c r="AX12">
+      <c r="AZ12">
         <v>24</v>
       </c>
-      <c r="AY12">
+      <c r="BA12">
         <v>152</v>
       </c>
-      <c r="AZ12">
+      <c r="BB12">
         <v>97</v>
       </c>
-      <c r="BA12">
+      <c r="BC12">
         <v>74</v>
       </c>
-      <c r="BB12">
+      <c r="BD12">
         <v>80</v>
       </c>
-      <c r="BC12">
+      <c r="BE12">
         <v>138</v>
       </c>
-      <c r="BD12">
+      <c r="BF12">
         <v>76</v>
       </c>
-      <c r="BE12">
+      <c r="BG12">
         <v>145</v>
       </c>
-      <c r="BH12">
+      <c r="BJ12">
         <v>50</v>
       </c>
-      <c r="BN12">
+      <c r="BL12">
+        <v>103</v>
+      </c>
+      <c r="BM12">
+        <v>112</v>
+      </c>
+      <c r="BO12">
+        <v>96</v>
+      </c>
+      <c r="BP12">
         <v>57</v>
       </c>
-      <c r="BO12">
+      <c r="BQ12">
         <v>64</v>
       </c>
-      <c r="BR12">
+      <c r="BU12">
         <v>188</v>
       </c>
-      <c r="BS12">
+      <c r="BV12">
         <v>87</v>
       </c>
-      <c r="BU12">
+      <c r="BX12">
         <v>53</v>
       </c>
-      <c r="BX12">
+      <c r="CA12">
         <v>114</v>
       </c>
-      <c r="CA12">
+      <c r="CD12">
         <v>46</v>
       </c>
-      <c r="CU12">
+      <c r="CH12">
+        <v>108</v>
+      </c>
+      <c r="CS12">
+        <v>64</v>
+      </c>
+      <c r="CV12">
+        <v>109</v>
+      </c>
+      <c r="CX12">
         <v>63</v>
       </c>
-      <c r="DF12">
+      <c r="DI12">
         <v>24</v>
       </c>
-      <c r="DM12">
+      <c r="DQ12">
         <v>154</v>
       </c>
-      <c r="DU12">
+      <c r="DY12">
         <v>69</v>
       </c>
       <c r="DZ12">
+        <v>54</v>
+      </c>
+      <c r="EE12">
         <v>48</v>
       </c>
       <c r="EI12">
+        <v>93</v>
+      </c>
+      <c r="EL12">
+        <v>78</v>
+      </c>
+      <c r="EN12">
         <v>184</v>
       </c>
-      <c r="EM12">
+      <c r="ER12">
         <v>134</v>
       </c>
-      <c r="EV12">
+      <c r="EX12">
+        <v>103</v>
+      </c>
+      <c r="FA12">
         <v>26.9</v>
       </c>
-      <c r="EW12">
+      <c r="FB12">
         <v>100.8</v>
       </c>
-      <c r="EZ12">
+      <c r="FE12">
         <v>12.6</v>
       </c>
     </row>
-    <row r="13" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:161" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E13">
         <v>99</v>
@@ -4666,230 +5050,331 @@
       <c r="X13">
         <v>64</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>26</v>
       </c>
-      <c r="AP13">
+      <c r="AQ13">
         <v>136</v>
       </c>
-      <c r="AX13">
+      <c r="AU13">
+        <v>130</v>
+      </c>
+      <c r="AZ13">
         <v>24</v>
       </c>
-      <c r="AY13">
+      <c r="BA13">
         <v>183</v>
       </c>
-      <c r="BA13">
+      <c r="BB13">
+        <v>118</v>
+      </c>
+      <c r="BC13">
         <v>85</v>
       </c>
-      <c r="BC13">
+      <c r="BD13">
+        <v>94</v>
+      </c>
+      <c r="BE13">
         <v>156</v>
       </c>
-      <c r="BH13">
+      <c r="BF13">
+        <v>91</v>
+      </c>
+      <c r="BG13">
+        <v>167</v>
+      </c>
+      <c r="BJ13">
         <v>52</v>
       </c>
-      <c r="BN13">
+      <c r="BP13">
         <v>75</v>
       </c>
-      <c r="BO13">
+      <c r="BQ13">
         <v>72</v>
       </c>
-      <c r="BR13">
+      <c r="BU13">
         <v>212</v>
       </c>
+      <c r="BV13">
+        <v>114</v>
+      </c>
+      <c r="BX13">
+        <v>67</v>
+      </c>
       <c r="CA13">
+        <v>144</v>
+      </c>
+      <c r="CD13">
         <v>59</v>
       </c>
-      <c r="CU13">
+      <c r="CX13">
         <v>69</v>
       </c>
-      <c r="DF13">
+      <c r="DI13">
         <v>24</v>
       </c>
-      <c r="DM13">
+      <c r="DQ13">
         <v>181</v>
       </c>
-      <c r="DU13">
+      <c r="DY13">
         <v>110</v>
       </c>
-      <c r="DZ13">
+      <c r="EE13">
         <v>57</v>
       </c>
-      <c r="EM13">
+      <c r="EN13">
+        <v>204</v>
+      </c>
+      <c r="ER13">
         <v>143</v>
       </c>
-      <c r="EV13">
+      <c r="FA13">
         <v>29.7</v>
       </c>
-      <c r="EW13">
+      <c r="FB13">
         <v>127</v>
       </c>
-      <c r="EZ13">
+      <c r="FE13">
         <v>12.8</v>
       </c>
     </row>
-    <row r="14" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:161" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E14">
         <v>100</v>
       </c>
+      <c r="P14">
+        <v>228</v>
+      </c>
+      <c r="T14">
+        <v>66</v>
+      </c>
       <c r="X14">
         <v>71</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>26</v>
       </c>
-      <c r="AX14">
+      <c r="AQ14">
+        <v>165</v>
+      </c>
+      <c r="AZ14">
         <v>29</v>
       </c>
-      <c r="AY14">
+      <c r="BA14">
         <v>221</v>
       </c>
       <c r="BC14">
+        <v>119</v>
+      </c>
+      <c r="BE14">
         <v>171</v>
       </c>
-      <c r="BH14">
+      <c r="BJ14">
         <v>52</v>
       </c>
-      <c r="BN14">
+      <c r="BP14">
         <v>81</v>
       </c>
-      <c r="BO14">
+      <c r="BQ14">
         <v>96</v>
       </c>
-      <c r="CA14">
+      <c r="BU14">
+        <v>248</v>
+      </c>
+      <c r="CD14">
         <v>70</v>
       </c>
-      <c r="CU14">
+      <c r="CX14">
         <v>86</v>
       </c>
-      <c r="DM14">
+      <c r="DI14">
+        <v>24</v>
+      </c>
+      <c r="DQ14">
         <v>209</v>
       </c>
-      <c r="DU14">
+      <c r="DY14">
         <v>117</v>
       </c>
-      <c r="EM14">
+      <c r="EE14">
+        <v>76</v>
+      </c>
+      <c r="ER14">
         <v>152</v>
       </c>
-      <c r="EV14">
+      <c r="FA14">
         <v>32.799999999999997</v>
       </c>
-      <c r="EW14">
+      <c r="FB14">
         <v>160</v>
       </c>
-      <c r="EZ14">
+      <c r="FE14">
         <v>13.1</v>
       </c>
     </row>
-    <row r="15" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:161" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15">
+        <v>103</v>
+      </c>
+      <c r="X15">
+        <v>85</v>
+      </c>
+      <c r="AL15">
+        <v>42</v>
+      </c>
+      <c r="AZ15">
+        <v>31</v>
+      </c>
+      <c r="BA15">
+        <v>258</v>
+      </c>
+      <c r="BE15">
+        <v>207</v>
+      </c>
+      <c r="BJ15">
+        <v>75</v>
+      </c>
+      <c r="BP15">
+        <v>85</v>
+      </c>
+      <c r="BQ15">
+        <v>112</v>
+      </c>
+      <c r="CD15">
+        <v>88</v>
+      </c>
+      <c r="CX15">
+        <v>98</v>
+      </c>
+      <c r="DQ15">
+        <v>253</v>
+      </c>
+      <c r="DY15">
+        <v>142</v>
+      </c>
+      <c r="ER15">
+        <v>172</v>
+      </c>
+      <c r="FA15">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="FB15">
+        <v>201.6</v>
+      </c>
+      <c r="FE15">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:161" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>109</v>
       </c>
-      <c r="AK15">
-        <v>42</v>
-      </c>
-      <c r="BC15">
-        <v>207</v>
-      </c>
-      <c r="BH15">
-        <v>75</v>
-      </c>
-      <c r="BN15">
-        <v>85</v>
-      </c>
-      <c r="CA15">
-        <v>88</v>
-      </c>
-      <c r="EV15">
-        <v>36.200000000000003</v>
-      </c>
-      <c r="EW15">
-        <v>201.6</v>
-      </c>
-      <c r="EZ15">
-        <v>13.4</v>
+      <c r="AL16">
+        <v>43</v>
+      </c>
+      <c r="BE16">
+        <v>251</v>
+      </c>
+      <c r="BJ16">
+        <v>92</v>
+      </c>
+      <c r="BP16">
+        <v>91</v>
+      </c>
+      <c r="CD16">
+        <v>111</v>
+      </c>
+      <c r="FA16">
+        <v>40</v>
+      </c>
+      <c r="FB16">
+        <v>254</v>
+      </c>
+      <c r="FE16">
+        <v>13.8</v>
       </c>
     </row>
-    <row r="16" spans="1:156" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="17" spans="1:161" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL17">
+        <v>46</v>
+      </c>
+      <c r="BE17">
+        <v>267</v>
+      </c>
+      <c r="BJ17">
+        <v>115</v>
+      </c>
+      <c r="BP17">
+        <v>97</v>
+      </c>
+      <c r="FA17">
+        <v>44.2</v>
+      </c>
+      <c r="FE17">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:161" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>114</v>
+      </c>
+      <c r="AL18">
+        <v>48</v>
+      </c>
+      <c r="BJ18">
+        <v>139</v>
+      </c>
+      <c r="BP18">
         <v>110</v>
       </c>
-      <c r="AK16">
-        <v>43</v>
-      </c>
-      <c r="BC16">
-        <v>251</v>
-      </c>
-      <c r="BH16">
-        <v>92</v>
-      </c>
-      <c r="BN16">
-        <v>91</v>
-      </c>
-      <c r="EV16">
-        <v>40</v>
-      </c>
-      <c r="EW16">
-        <v>254</v>
-      </c>
-      <c r="EZ16">
-        <v>13.8</v>
+      <c r="FA18">
+        <v>48.8</v>
+      </c>
+      <c r="FE18">
+        <v>14.4</v>
       </c>
     </row>
-    <row r="17" spans="1:156" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>114</v>
-      </c>
-      <c r="AK17">
-        <v>46</v>
-      </c>
-      <c r="BH17">
-        <v>115</v>
-      </c>
-      <c r="BN17">
-        <v>97</v>
-      </c>
-      <c r="EV17">
-        <v>44.2</v>
-      </c>
-      <c r="EZ17">
-        <v>14.1</v>
+    <row r="19" spans="1:161" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>157</v>
+      </c>
+      <c r="AL19">
+        <v>50</v>
+      </c>
+      <c r="BJ19">
+        <v>147</v>
+      </c>
+      <c r="FA19">
+        <v>53.836007705294151</v>
+      </c>
+      <c r="FE19">
+        <v>14.624497930329516</v>
       </c>
     </row>
-    <row r="18" spans="1:156" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>115</v>
-      </c>
-      <c r="AK18">
-        <v>48</v>
-      </c>
-      <c r="BH18">
-        <v>139</v>
-      </c>
-      <c r="EV18">
-        <v>48.8</v>
-      </c>
-      <c r="EZ18">
-        <v>14.4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:156" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>158</v>
-      </c>
-      <c r="AK19">
-        <v>50</v>
-      </c>
-      <c r="BH19">
-        <v>147</v>
-      </c>
-      <c r="EV19">
-        <v>53.836007705294151</v>
-      </c>
-      <c r="EZ19">
-        <v>14.624497930329516</v>
+    <row r="20" spans="1:161" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>179</v>
+      </c>
+      <c r="AL20">
+        <v>55</v>
+      </c>
+      <c r="BJ20">
+        <v>170</v>
+      </c>
+      <c r="FA20">
+        <v>59.4</v>
+      </c>
+      <c r="FE20">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/datawrapper.xlsx
+++ b/datawrapper.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Lauh/Documents/GitHub/covid-cases-by-ua/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2CDB1C9-66FA-3C43-BE76-AE68821BC745}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9BFF5A3-9F63-6E4A-8A54-6F3C0E99A2BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6740" yWindow="460" windowWidth="26860" windowHeight="13600" xr2:uid="{EAC58F93-768E-47B9-BC54-011C8E15BDC6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="214">
   <si>
     <t>Aneurin Bevan</t>
   </si>
@@ -652,6 +652,21 @@
   </si>
   <si>
     <t>22 days</t>
+  </si>
+  <si>
+    <t>23 days</t>
+  </si>
+  <si>
+    <t>24 days</t>
+  </si>
+  <si>
+    <t>25 days</t>
+  </si>
+  <si>
+    <t>26 days</t>
+  </si>
+  <si>
+    <t>27 days</t>
   </si>
 </sst>
 </file>
@@ -1003,10 +1018,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88098434-83EE-473A-A635-95028084696D}">
-  <dimension ref="A1:GD24"/>
+  <dimension ref="A1:GD29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="FR1" workbookViewId="0">
-      <selection activeCell="GD24" sqref="A1:GD24"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1621,7 +1636,7 @@
         <v>18</v>
       </c>
       <c r="Q2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="R2">
         <v>11</v>
@@ -1660,7 +1675,7 @@
         <v>12</v>
       </c>
       <c r="AD2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE2">
         <v>28</v>
@@ -1678,7 +1693,7 @@
         <v>11</v>
       </c>
       <c r="AJ2">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AK2">
         <v>11</v>
@@ -1696,7 +1711,7 @@
         <v>13</v>
       </c>
       <c r="AP2">
-        <v>17</v>
+        <v>387</v>
       </c>
       <c r="AQ2">
         <v>11</v>
@@ -1843,7 +1858,7 @@
         <v>19</v>
       </c>
       <c r="CM2">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="CN2">
         <v>14</v>
@@ -1912,7 +1927,7 @@
         <v>21</v>
       </c>
       <c r="DJ2">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="DK2">
         <v>11</v>
@@ -1933,7 +1948,7 @@
         <v>12</v>
       </c>
       <c r="DQ2">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="DR2">
         <v>11</v>
@@ -1942,7 +1957,7 @@
         <v>11</v>
       </c>
       <c r="DT2">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="DU2">
         <v>11</v>
@@ -1960,7 +1975,7 @@
         <v>12</v>
       </c>
       <c r="DZ2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="EA2">
         <v>12</v>
@@ -1969,7 +1984,7 @@
         <v>12</v>
       </c>
       <c r="EC2">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="ED2">
         <v>13</v>
@@ -2005,7 +2020,7 @@
         <v>12</v>
       </c>
       <c r="EO2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="EP2">
         <v>16</v>
@@ -2029,7 +2044,7 @@
         <v>11</v>
       </c>
       <c r="EW2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="EX2">
         <v>11</v>
@@ -2089,7 +2104,7 @@
         <v>16</v>
       </c>
       <c r="FQ2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="FR2">
         <v>11</v>
@@ -2104,7 +2119,7 @@
         <v>12</v>
       </c>
       <c r="FV2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="FW2">
         <v>11</v>
@@ -2177,8 +2192,11 @@
       <c r="O3">
         <v>14</v>
       </c>
+      <c r="P3">
+        <v>18</v>
+      </c>
       <c r="Q3">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="R3">
         <v>12</v>
@@ -2217,11 +2235,14 @@
         <v>12</v>
       </c>
       <c r="AD3">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AE3">
         <v>93</v>
       </c>
+      <c r="AF3">
+        <v>16</v>
+      </c>
       <c r="AG3">
         <v>14</v>
       </c>
@@ -2249,9 +2270,6 @@
       <c r="AO3">
         <v>21</v>
       </c>
-      <c r="AP3">
-        <v>24</v>
-      </c>
       <c r="AQ3">
         <v>14</v>
       </c>
@@ -2261,6 +2279,9 @@
       <c r="AS3">
         <v>12</v>
       </c>
+      <c r="AT3">
+        <v>24</v>
+      </c>
       <c r="AU3">
         <v>12</v>
       </c>
@@ -2271,7 +2292,7 @@
         <v>14</v>
       </c>
       <c r="AX3">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="AY3">
         <v>16</v>
@@ -2325,7 +2346,7 @@
         <v>21</v>
       </c>
       <c r="BP3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BQ3">
         <v>16</v>
@@ -2337,7 +2358,7 @@
         <v>12</v>
       </c>
       <c r="BT3">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="BU3">
         <v>15</v>
@@ -2357,6 +2378,9 @@
       <c r="BZ3">
         <v>95</v>
       </c>
+      <c r="CA3">
+        <v>13</v>
+      </c>
       <c r="CB3">
         <v>11</v>
       </c>
@@ -2366,8 +2390,11 @@
       <c r="CD3">
         <v>11</v>
       </c>
+      <c r="CE3">
+        <v>11</v>
+      </c>
       <c r="CF3">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="CG3">
         <v>16</v>
@@ -2388,7 +2415,7 @@
         <v>14</v>
       </c>
       <c r="CM3">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="CN3">
         <v>17</v>
@@ -2420,6 +2447,9 @@
       <c r="CW3">
         <v>13</v>
       </c>
+      <c r="CX3">
+        <v>17</v>
+      </c>
       <c r="CY3">
         <v>16</v>
       </c>
@@ -2439,7 +2469,7 @@
         <v>16</v>
       </c>
       <c r="DE3">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="DF3">
         <v>25</v>
@@ -2454,7 +2484,7 @@
         <v>21</v>
       </c>
       <c r="DJ3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="DK3">
         <v>13</v>
@@ -2475,7 +2505,7 @@
         <v>14</v>
       </c>
       <c r="DQ3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="DR3">
         <v>20</v>
@@ -2484,7 +2514,7 @@
         <v>11</v>
       </c>
       <c r="DT3">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="DU3">
         <v>11</v>
@@ -2493,16 +2523,16 @@
         <v>27</v>
       </c>
       <c r="DW3">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="DX3">
         <v>15</v>
       </c>
       <c r="DY3">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="DZ3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="EA3">
         <v>16</v>
@@ -2511,7 +2541,7 @@
         <v>23</v>
       </c>
       <c r="EC3">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="ED3">
         <v>20</v>
@@ -2535,7 +2565,7 @@
         <v>13</v>
       </c>
       <c r="EK3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="EL3">
         <v>22</v>
@@ -2547,7 +2577,7 @@
         <v>17</v>
       </c>
       <c r="EO3">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="EP3">
         <v>17</v>
@@ -2556,7 +2586,7 @@
         <v>18</v>
       </c>
       <c r="ER3">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="ES3">
         <v>12</v>
@@ -2571,7 +2601,7 @@
         <v>11</v>
       </c>
       <c r="EW3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="EX3">
         <v>10</v>
@@ -2603,6 +2633,9 @@
       <c r="FG3">
         <v>14</v>
       </c>
+      <c r="FH3">
+        <v>29</v>
+      </c>
       <c r="FI3">
         <v>13</v>
       </c>
@@ -2619,22 +2652,22 @@
         <v>19</v>
       </c>
       <c r="FN3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="FO3">
         <v>16</v>
       </c>
       <c r="FP3">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="FQ3">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="FR3">
         <v>14</v>
       </c>
       <c r="FS3">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="FT3">
         <v>13</v>
@@ -2681,7 +2714,7 @@
         <v>21</v>
       </c>
       <c r="F4">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G4">
         <v>25</v>
@@ -2704,8 +2737,14 @@
       <c r="N4">
         <v>25</v>
       </c>
+      <c r="O4">
+        <v>20</v>
+      </c>
+      <c r="P4">
+        <v>27</v>
+      </c>
       <c r="Q4">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R4">
         <v>12</v>
@@ -2723,10 +2762,10 @@
         <v>20</v>
       </c>
       <c r="W4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="X4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y4">
         <v>32</v>
@@ -2744,11 +2783,14 @@
         <v>14</v>
       </c>
       <c r="AD4">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AE4">
         <v>51</v>
       </c>
+      <c r="AF4">
+        <v>18</v>
+      </c>
       <c r="AG4">
         <v>19</v>
       </c>
@@ -2759,7 +2801,7 @@
         <v>18</v>
       </c>
       <c r="AJ4">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AK4">
         <v>14</v>
@@ -2768,7 +2810,7 @@
         <v>24</v>
       </c>
       <c r="AM4">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="AN4">
         <v>38</v>
@@ -2776,14 +2818,14 @@
       <c r="AO4">
         <v>23</v>
       </c>
-      <c r="AP4">
-        <v>31</v>
-      </c>
       <c r="AQ4">
         <v>15</v>
       </c>
       <c r="AR4">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="AT4">
+        <v>29</v>
       </c>
       <c r="AU4">
         <v>13</v>
@@ -2804,13 +2846,13 @@
         <v>18</v>
       </c>
       <c r="BA4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BB4">
         <v>22</v>
       </c>
       <c r="BC4">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="BD4">
         <v>21</v>
@@ -2854,6 +2896,9 @@
       <c r="BR4">
         <v>15</v>
       </c>
+      <c r="BS4">
+        <v>12</v>
+      </c>
       <c r="BT4">
         <v>30</v>
       </c>
@@ -2875,15 +2920,21 @@
       <c r="BZ4">
         <v>14</v>
       </c>
+      <c r="CA4">
+        <v>14</v>
+      </c>
       <c r="CB4">
         <v>29</v>
       </c>
       <c r="CC4">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="CD4">
         <v>11</v>
       </c>
+      <c r="CE4">
+        <v>14</v>
+      </c>
       <c r="CF4">
         <v>22</v>
       </c>
@@ -2906,10 +2957,10 @@
         <v>11</v>
       </c>
       <c r="CM4">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="CN4">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="CO4">
         <v>18</v>
@@ -2930,11 +2981,14 @@
         <v>21</v>
       </c>
       <c r="CV4">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="CW4">
         <v>34</v>
       </c>
+      <c r="CX4">
+        <v>19</v>
+      </c>
       <c r="CZ4">
         <v>26</v>
       </c>
@@ -2942,7 +2996,7 @@
         <v>25</v>
       </c>
       <c r="DB4">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="DC4">
         <v>32</v>
@@ -2950,6 +3004,12 @@
       <c r="DE4">
         <v>24</v>
       </c>
+      <c r="DG4">
+        <v>21</v>
+      </c>
+      <c r="DH4">
+        <v>17</v>
+      </c>
       <c r="DI4">
         <v>22</v>
       </c>
@@ -2957,7 +3017,7 @@
         <v>18</v>
       </c>
       <c r="DK4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="DL4">
         <v>15</v>
@@ -2975,7 +3035,7 @@
         <v>14</v>
       </c>
       <c r="DQ4">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="DR4">
         <v>21</v>
@@ -3002,7 +3062,7 @@
         <v>22</v>
       </c>
       <c r="DZ4">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="EA4">
         <v>20</v>
@@ -3011,7 +3071,7 @@
         <v>25</v>
       </c>
       <c r="EC4">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="ED4">
         <v>24</v>
@@ -3047,13 +3107,13 @@
         <v>23</v>
       </c>
       <c r="EO4">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="EP4">
         <v>32</v>
       </c>
       <c r="EQ4">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="ER4">
         <v>24</v>
@@ -3071,7 +3131,7 @@
         <v>13</v>
       </c>
       <c r="EW4">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="EX4">
         <v>12</v>
@@ -3083,7 +3143,7 @@
         <v>18</v>
       </c>
       <c r="FA4">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="FB4">
         <v>17</v>
@@ -3103,6 +3163,9 @@
       <c r="FG4">
         <v>13</v>
       </c>
+      <c r="FH4">
+        <v>39</v>
+      </c>
       <c r="FI4">
         <v>19</v>
       </c>
@@ -3110,7 +3173,7 @@
         <v>14</v>
       </c>
       <c r="FK4">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="FL4">
         <v>21</v>
@@ -3128,7 +3191,7 @@
         <v>27</v>
       </c>
       <c r="FQ4">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="FR4">
         <v>16</v>
@@ -3199,13 +3262,19 @@
         <v>25</v>
       </c>
       <c r="M5">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="N5">
         <v>34</v>
       </c>
+      <c r="O5">
+        <v>25</v>
+      </c>
+      <c r="P5">
+        <v>28</v>
+      </c>
       <c r="Q5">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R5">
         <v>15</v>
@@ -3249,6 +3318,9 @@
       <c r="AE5">
         <v>64</v>
       </c>
+      <c r="AF5">
+        <v>19</v>
+      </c>
       <c r="AG5">
         <v>22</v>
       </c>
@@ -3259,7 +3331,7 @@
         <v>18</v>
       </c>
       <c r="AJ5">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AK5">
         <v>18</v>
@@ -3271,14 +3343,11 @@
         <v>81</v>
       </c>
       <c r="AN5">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="AO5">
         <v>42</v>
       </c>
-      <c r="AP5">
-        <v>38</v>
-      </c>
       <c r="AQ5">
         <v>16</v>
       </c>
@@ -3288,6 +3357,9 @@
       <c r="AS5">
         <v>27</v>
       </c>
+      <c r="AT5">
+        <v>30</v>
+      </c>
       <c r="AU5">
         <v>13</v>
       </c>
@@ -3328,7 +3400,7 @@
         <v>44</v>
       </c>
       <c r="BI5">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="BJ5">
         <v>12</v>
@@ -3342,6 +3414,9 @@
       <c r="BM5">
         <v>22</v>
       </c>
+      <c r="BN5">
+        <v>25</v>
+      </c>
       <c r="BO5">
         <v>25</v>
       </c>
@@ -3354,6 +3429,9 @@
       <c r="BR5">
         <v>40</v>
       </c>
+      <c r="BS5">
+        <v>15</v>
+      </c>
       <c r="BT5">
         <v>35</v>
       </c>
@@ -3375,6 +3453,9 @@
       <c r="BZ5">
         <v>16</v>
       </c>
+      <c r="CA5">
+        <v>17</v>
+      </c>
       <c r="CB5">
         <v>35</v>
       </c>
@@ -3384,6 +3465,9 @@
       <c r="CD5">
         <v>12</v>
       </c>
+      <c r="CE5">
+        <v>18</v>
+      </c>
       <c r="CF5">
         <v>23</v>
       </c>
@@ -3400,13 +3484,13 @@
         <v>25</v>
       </c>
       <c r="CK5">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="CL5">
         <v>12</v>
       </c>
       <c r="CM5">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="CN5">
         <v>29</v>
@@ -3418,7 +3502,7 @@
         <v>31</v>
       </c>
       <c r="CR5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="CS5">
         <v>28</v>
@@ -3427,14 +3511,17 @@
         <v>30</v>
       </c>
       <c r="CU5">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="CV5">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="CW5">
         <v>39</v>
       </c>
+      <c r="CX5">
+        <v>21</v>
+      </c>
       <c r="CZ5">
         <v>33</v>
       </c>
@@ -3445,16 +3532,22 @@
         <v>28</v>
       </c>
       <c r="DC5">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="DE5">
         <v>34</v>
       </c>
+      <c r="DG5">
+        <v>23</v>
+      </c>
+      <c r="DH5">
+        <v>23</v>
+      </c>
       <c r="DI5">
         <v>24</v>
       </c>
       <c r="DJ5">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="DK5">
         <v>16</v>
@@ -3466,7 +3559,7 @@
         <v>45</v>
       </c>
       <c r="DN5">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="DO5">
         <v>29</v>
@@ -3475,7 +3568,7 @@
         <v>15</v>
       </c>
       <c r="DQ5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="DR5">
         <v>24</v>
@@ -3484,7 +3577,7 @@
         <v>16</v>
       </c>
       <c r="DT5">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="DU5">
         <v>16</v>
@@ -3502,7 +3595,7 @@
         <v>25</v>
       </c>
       <c r="DZ5">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="EA5">
         <v>30</v>
@@ -3511,7 +3604,7 @@
         <v>31</v>
       </c>
       <c r="EC5">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="ED5">
         <v>30</v>
@@ -3523,7 +3616,7 @@
         <v>53</v>
       </c>
       <c r="EH5">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="EI5">
         <v>39</v>
@@ -3544,7 +3637,7 @@
         <v>24</v>
       </c>
       <c r="EO5">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="EP5">
         <v>33</v>
@@ -3568,7 +3661,7 @@
         <v>20</v>
       </c>
       <c r="EW5">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="EX5">
         <v>14</v>
@@ -3598,7 +3691,10 @@
         <v>33</v>
       </c>
       <c r="FG5">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="FH5">
+        <v>47</v>
       </c>
       <c r="FI5">
         <v>24</v>
@@ -3625,7 +3721,7 @@
         <v>27</v>
       </c>
       <c r="FQ5">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="FR5">
         <v>21</v>
@@ -3695,6 +3791,9 @@
       <c r="I6">
         <v>20</v>
       </c>
+      <c r="J6">
+        <v>60</v>
+      </c>
       <c r="K6">
         <v>160</v>
       </c>
@@ -3705,10 +3804,16 @@
         <v>37</v>
       </c>
       <c r="N6">
-        <v>34</v>
+        <v>54</v>
+      </c>
+      <c r="O6">
+        <v>37</v>
+      </c>
+      <c r="P6">
+        <v>41</v>
       </c>
       <c r="Q6">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="R6">
         <v>23</v>
@@ -3716,6 +3821,9 @@
       <c r="S6">
         <v>15</v>
       </c>
+      <c r="T6">
+        <v>21</v>
+      </c>
       <c r="U6">
         <v>23</v>
       </c>
@@ -3729,7 +3837,7 @@
         <v>23</v>
       </c>
       <c r="Y6">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="Z6">
         <v>27</v>
@@ -3737,15 +3845,21 @@
       <c r="AA6">
         <v>23</v>
       </c>
+      <c r="AB6">
+        <v>44</v>
+      </c>
       <c r="AC6">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AD6">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AE6">
         <v>84</v>
       </c>
+      <c r="AF6">
+        <v>21</v>
+      </c>
       <c r="AG6">
         <v>24</v>
       </c>
@@ -3756,7 +3870,7 @@
         <v>24</v>
       </c>
       <c r="AJ6">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="AK6">
         <v>25</v>
@@ -3773,8 +3887,8 @@
       <c r="AO6">
         <v>54</v>
       </c>
-      <c r="AP6">
-        <v>45</v>
+      <c r="AQ6">
+        <v>23</v>
       </c>
       <c r="AR6">
         <v>23</v>
@@ -3782,6 +3896,9 @@
       <c r="AS6">
         <v>40</v>
       </c>
+      <c r="AT6">
+        <v>35</v>
+      </c>
       <c r="AU6">
         <v>13</v>
       </c>
@@ -3801,7 +3918,7 @@
         <v>42</v>
       </c>
       <c r="BA6">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="BB6">
         <v>39</v>
@@ -3839,6 +3956,9 @@
       <c r="BM6">
         <v>29</v>
       </c>
+      <c r="BN6">
+        <v>32</v>
+      </c>
       <c r="BO6">
         <v>28</v>
       </c>
@@ -3851,6 +3971,9 @@
       <c r="BR6">
         <v>56</v>
       </c>
+      <c r="BS6">
+        <v>17</v>
+      </c>
       <c r="BT6">
         <v>39</v>
       </c>
@@ -3864,16 +3987,19 @@
         <v>33</v>
       </c>
       <c r="BX6">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BY6">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="BZ6">
         <v>16</v>
       </c>
+      <c r="CA6">
+        <v>19</v>
+      </c>
       <c r="CB6">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="CC6">
         <v>27</v>
@@ -3881,6 +4007,9 @@
       <c r="CD6">
         <v>18</v>
       </c>
+      <c r="CE6">
+        <v>21</v>
+      </c>
       <c r="CF6">
         <v>23</v>
       </c>
@@ -3903,7 +4032,7 @@
         <v>15</v>
       </c>
       <c r="CM6">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="CN6">
         <v>43</v>
@@ -3930,14 +4059,20 @@
         <v>28</v>
       </c>
       <c r="CV6">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="CW6">
-        <v>39</v>
+        <v>45</v>
+      </c>
+      <c r="CX6">
+        <v>23</v>
       </c>
       <c r="CY6">
         <v>28</v>
       </c>
+      <c r="CZ6">
+        <v>44</v>
+      </c>
       <c r="DA6">
         <v>38</v>
       </c>
@@ -3956,17 +4091,23 @@
       <c r="DF6">
         <v>52</v>
       </c>
+      <c r="DG6">
+        <v>23</v>
+      </c>
+      <c r="DH6">
+        <v>24</v>
+      </c>
       <c r="DI6">
         <v>31</v>
       </c>
       <c r="DJ6">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="DK6">
         <v>20</v>
       </c>
       <c r="DL6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="DM6">
         <v>53</v>
@@ -3975,31 +4116,40 @@
         <v>22</v>
       </c>
       <c r="DO6">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="DP6">
         <v>23</v>
       </c>
       <c r="DQ6">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="DR6">
+        <v>36</v>
       </c>
       <c r="DS6">
         <v>21</v>
       </c>
       <c r="DT6">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="DU6">
         <v>18</v>
       </c>
+      <c r="DV6">
+        <v>29</v>
+      </c>
       <c r="DW6">
         <v>51</v>
       </c>
+      <c r="DX6">
+        <v>43</v>
+      </c>
       <c r="DY6">
         <v>31</v>
       </c>
       <c r="DZ6">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="EA6">
         <v>39</v>
@@ -4008,7 +4158,7 @@
         <v>47</v>
       </c>
       <c r="EC6">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="ED6">
         <v>35</v>
@@ -4034,6 +4184,9 @@
       <c r="EK6">
         <v>19</v>
       </c>
+      <c r="EL6">
+        <v>33</v>
+      </c>
       <c r="EM6">
         <v>32</v>
       </c>
@@ -4041,7 +4194,7 @@
         <v>31</v>
       </c>
       <c r="EO6">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="EP6">
         <v>39</v>
@@ -4065,10 +4218,10 @@
         <v>25</v>
       </c>
       <c r="EW6">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="EX6">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="EY6">
         <v>47</v>
@@ -4092,16 +4245,19 @@
         <v>21</v>
       </c>
       <c r="FF6">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="FG6">
         <v>19</v>
       </c>
+      <c r="FH6">
+        <v>66</v>
+      </c>
       <c r="FI6">
         <v>34</v>
       </c>
       <c r="FJ6">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="FK6">
         <v>50</v>
@@ -4109,6 +4265,9 @@
       <c r="FL6">
         <v>75</v>
       </c>
+      <c r="FM6">
+        <v>32</v>
+      </c>
       <c r="FN6">
         <v>35</v>
       </c>
@@ -4119,7 +4278,7 @@
         <v>28</v>
       </c>
       <c r="FQ6">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="FR6">
         <v>30</v>
@@ -4137,7 +4296,7 @@
         <v>13</v>
       </c>
       <c r="FW6">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="FX6">
         <v>55</v>
@@ -4168,6 +4327,12 @@
       <c r="B7">
         <v>248</v>
       </c>
+      <c r="C7">
+        <v>36</v>
+      </c>
+      <c r="D7">
+        <v>62</v>
+      </c>
       <c r="E7">
         <v>41</v>
       </c>
@@ -4183,6 +4348,12 @@
       <c r="I7">
         <v>23</v>
       </c>
+      <c r="J7">
+        <v>60</v>
+      </c>
+      <c r="K7">
+        <v>166</v>
+      </c>
       <c r="L7">
         <v>64</v>
       </c>
@@ -4192,8 +4363,14 @@
       <c r="N7">
         <v>75</v>
       </c>
+      <c r="O7">
+        <v>43</v>
+      </c>
+      <c r="P7">
+        <v>50</v>
+      </c>
       <c r="Q7">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="R7">
         <v>28</v>
@@ -4201,6 +4378,9 @@
       <c r="S7">
         <v>15</v>
       </c>
+      <c r="T7">
+        <v>35</v>
+      </c>
       <c r="U7">
         <v>29</v>
       </c>
@@ -4222,11 +4402,14 @@
       <c r="AA7">
         <v>27</v>
       </c>
+      <c r="AB7">
+        <v>54</v>
+      </c>
       <c r="AC7">
         <v>17</v>
       </c>
       <c r="AD7">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AE7">
         <v>96</v>
@@ -4241,7 +4424,7 @@
         <v>25</v>
       </c>
       <c r="AJ7">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="AK7">
         <v>29</v>
@@ -4258,14 +4441,14 @@
       <c r="AO7">
         <v>68</v>
       </c>
-      <c r="AP7">
-        <v>52</v>
+      <c r="AQ7">
+        <v>24</v>
       </c>
       <c r="AR7">
         <v>23</v>
       </c>
       <c r="AS7">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AU7">
         <v>14</v>
@@ -4286,7 +4469,7 @@
         <v>53</v>
       </c>
       <c r="BA7">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BB7">
         <v>43</v>
@@ -4295,7 +4478,10 @@
         <v>76</v>
       </c>
       <c r="BD7">
-        <v>31</v>
+        <v>43</v>
+      </c>
+      <c r="BE7">
+        <v>29</v>
       </c>
       <c r="BF7">
         <v>29</v>
@@ -4303,6 +4489,9 @@
       <c r="BG7">
         <v>30</v>
       </c>
+      <c r="BH7">
+        <v>65</v>
+      </c>
       <c r="BI7">
         <v>29</v>
       </c>
@@ -4313,22 +4502,28 @@
         <v>57</v>
       </c>
       <c r="BL7">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="BM7">
         <v>32</v>
       </c>
+      <c r="BN7">
+        <v>41</v>
+      </c>
       <c r="BO7">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="BP7">
         <v>55</v>
       </c>
       <c r="BQ7">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="BR7">
-        <v>56</v>
+        <v>60</v>
+      </c>
+      <c r="BS7">
+        <v>23</v>
       </c>
       <c r="BT7">
         <v>44</v>
@@ -4351,6 +4546,9 @@
       <c r="BZ7">
         <v>27</v>
       </c>
+      <c r="CA7">
+        <v>25</v>
+      </c>
       <c r="CB7">
         <v>48</v>
       </c>
@@ -4360,12 +4558,18 @@
       <c r="CD7">
         <v>21</v>
       </c>
+      <c r="CE7">
+        <v>28</v>
+      </c>
       <c r="CF7">
         <v>36</v>
       </c>
       <c r="CG7">
         <v>33</v>
       </c>
+      <c r="CH7">
+        <v>42</v>
+      </c>
       <c r="CI7">
         <v>81</v>
       </c>
@@ -4376,20 +4580,23 @@
         <v>44</v>
       </c>
       <c r="CL7">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="CM7">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="CN7">
         <v>53</v>
       </c>
       <c r="CO7">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="CP7">
         <v>39</v>
       </c>
+      <c r="CQ7">
+        <v>70</v>
+      </c>
       <c r="CR7">
         <v>22</v>
       </c>
@@ -4403,11 +4610,17 @@
         <v>31</v>
       </c>
       <c r="CV7">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="CW7">
         <v>56</v>
       </c>
+      <c r="CY7">
+        <v>32</v>
+      </c>
+      <c r="CZ7">
+        <v>59</v>
+      </c>
       <c r="DA7">
         <v>58</v>
       </c>
@@ -4417,14 +4630,26 @@
       <c r="DC7">
         <v>57</v>
       </c>
+      <c r="DD7">
+        <v>44</v>
+      </c>
       <c r="DE7">
         <v>42</v>
       </c>
+      <c r="DF7">
+        <v>61</v>
+      </c>
+      <c r="DG7">
+        <v>29</v>
+      </c>
+      <c r="DH7">
+        <v>29</v>
+      </c>
       <c r="DI7">
         <v>32</v>
       </c>
       <c r="DJ7">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="DK7">
         <v>24</v>
@@ -4445,25 +4670,34 @@
         <v>28</v>
       </c>
       <c r="DQ7">
-        <v>34</v>
+        <v>25</v>
+      </c>
+      <c r="DR7">
+        <v>36</v>
       </c>
       <c r="DS7">
         <v>26</v>
       </c>
       <c r="DT7">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="DU7">
         <v>19</v>
       </c>
+      <c r="DV7">
+        <v>66</v>
+      </c>
       <c r="DW7">
         <v>57</v>
       </c>
+      <c r="DX7">
+        <v>51</v>
+      </c>
       <c r="DY7">
         <v>36</v>
       </c>
       <c r="DZ7">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="EA7">
         <v>57</v>
@@ -4472,7 +4706,7 @@
         <v>52</v>
       </c>
       <c r="EC7">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="ED7">
         <v>45</v>
@@ -4498,11 +4732,17 @@
       <c r="EK7">
         <v>19</v>
       </c>
+      <c r="EL7">
+        <v>44</v>
+      </c>
       <c r="EM7">
         <v>37</v>
       </c>
+      <c r="EN7">
+        <v>39</v>
+      </c>
       <c r="EO7">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="EP7">
         <v>49</v>
@@ -4526,7 +4766,7 @@
         <v>27</v>
       </c>
       <c r="EW7">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="EX7">
         <v>23</v>
@@ -4534,6 +4774,9 @@
       <c r="EY7">
         <v>49</v>
       </c>
+      <c r="EZ7">
+        <v>29</v>
+      </c>
       <c r="FA7">
         <v>27</v>
       </c>
@@ -4565,7 +4808,10 @@
         <v>56</v>
       </c>
       <c r="FL7">
-        <v>75</v>
+        <v>98</v>
+      </c>
+      <c r="FM7">
+        <v>40</v>
       </c>
       <c r="FN7">
         <v>52</v>
@@ -4577,7 +4823,7 @@
         <v>52</v>
       </c>
       <c r="FQ7">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="FR7">
         <v>39</v>
@@ -4626,6 +4872,12 @@
       <c r="B8">
         <v>309</v>
       </c>
+      <c r="C8">
+        <v>47</v>
+      </c>
+      <c r="D8">
+        <v>70</v>
+      </c>
       <c r="E8">
         <v>57</v>
       </c>
@@ -4641,6 +4893,12 @@
       <c r="I8">
         <v>26</v>
       </c>
+      <c r="J8">
+        <v>72</v>
+      </c>
+      <c r="K8">
+        <v>200</v>
+      </c>
       <c r="L8">
         <v>69</v>
       </c>
@@ -4650,8 +4908,11 @@
       <c r="N8">
         <v>91</v>
       </c>
+      <c r="O8">
+        <v>52</v>
+      </c>
       <c r="Q8">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R8">
         <v>35</v>
@@ -4659,11 +4920,14 @@
       <c r="S8">
         <v>20</v>
       </c>
+      <c r="T8">
+        <v>36</v>
+      </c>
       <c r="U8">
         <v>37</v>
       </c>
       <c r="V8">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="W8">
         <v>25</v>
@@ -4680,11 +4944,14 @@
       <c r="AA8">
         <v>30</v>
       </c>
+      <c r="AB8">
+        <v>60</v>
+      </c>
       <c r="AC8">
         <v>20</v>
       </c>
       <c r="AD8">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AE8">
         <v>125</v>
@@ -4699,7 +4966,7 @@
         <v>31</v>
       </c>
       <c r="AJ8">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="AK8">
         <v>56</v>
@@ -4716,8 +4983,8 @@
       <c r="AO8">
         <v>90</v>
       </c>
-      <c r="AP8">
-        <v>59</v>
+      <c r="AQ8">
+        <v>30</v>
       </c>
       <c r="AR8">
         <v>37</v>
@@ -4741,10 +5008,10 @@
         <v>47</v>
       </c>
       <c r="AZ8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="BA8">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BB8">
         <v>44</v>
@@ -4755,12 +5022,18 @@
       <c r="BD8">
         <v>45</v>
       </c>
+      <c r="BE8">
+        <v>32</v>
+      </c>
       <c r="BF8">
         <v>40</v>
       </c>
       <c r="BG8">
         <v>40</v>
       </c>
+      <c r="BH8">
+        <v>80</v>
+      </c>
       <c r="BI8">
         <v>32</v>
       </c>
@@ -4774,7 +5047,10 @@
         <v>54</v>
       </c>
       <c r="BM8">
-        <v>32</v>
+        <v>45</v>
+      </c>
+      <c r="BN8">
+        <v>51</v>
       </c>
       <c r="BO8">
         <v>45</v>
@@ -4788,6 +5064,9 @@
       <c r="BR8">
         <v>89</v>
       </c>
+      <c r="BS8">
+        <v>23</v>
+      </c>
       <c r="BT8">
         <v>47</v>
       </c>
@@ -4824,8 +5103,11 @@
       <c r="CG8">
         <v>38</v>
       </c>
+      <c r="CH8">
+        <v>53</v>
+      </c>
       <c r="CI8">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="CJ8">
         <v>49</v>
@@ -4837,7 +5119,7 @@
         <v>20</v>
       </c>
       <c r="CM8">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="CN8">
         <v>65</v>
@@ -4848,6 +5130,9 @@
       <c r="CP8">
         <v>53</v>
       </c>
+      <c r="CQ8">
+        <v>81</v>
+      </c>
       <c r="CR8">
         <v>35</v>
       </c>
@@ -4861,11 +5146,17 @@
         <v>37</v>
       </c>
       <c r="CV8">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="CW8">
         <v>56</v>
       </c>
+      <c r="CY8">
+        <v>36</v>
+      </c>
+      <c r="CZ8">
+        <v>74</v>
+      </c>
       <c r="DA8">
         <v>71</v>
       </c>
@@ -4875,14 +5166,26 @@
       <c r="DC8">
         <v>70</v>
       </c>
+      <c r="DD8">
+        <v>51</v>
+      </c>
       <c r="DE8">
         <v>45</v>
       </c>
+      <c r="DF8">
+        <v>67</v>
+      </c>
+      <c r="DG8">
+        <v>36</v>
+      </c>
+      <c r="DH8">
+        <v>43</v>
+      </c>
       <c r="DI8">
         <v>36</v>
       </c>
       <c r="DJ8">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="DK8">
         <v>30</v>
@@ -4905,23 +5208,32 @@
       <c r="DQ8">
         <v>34</v>
       </c>
+      <c r="DR8">
+        <v>37</v>
+      </c>
       <c r="DS8">
         <v>32</v>
       </c>
       <c r="DT8">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="DU8">
         <v>20</v>
       </c>
+      <c r="DV8">
+        <v>67</v>
+      </c>
       <c r="DW8">
         <v>67</v>
       </c>
+      <c r="DX8">
+        <v>55</v>
+      </c>
       <c r="DY8">
         <v>44</v>
       </c>
       <c r="DZ8">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="EA8">
         <v>60</v>
@@ -4930,13 +5242,13 @@
         <v>58</v>
       </c>
       <c r="EC8">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="ED8">
         <v>57</v>
       </c>
       <c r="EE8">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="EF8">
         <v>24</v>
@@ -4956,11 +5268,20 @@
       <c r="EK8">
         <v>25</v>
       </c>
+      <c r="EL8">
+        <v>53</v>
+      </c>
       <c r="EM8">
         <v>41</v>
       </c>
+      <c r="EN8">
+        <v>44</v>
+      </c>
       <c r="EO8">
-        <v>82</v>
+        <v>70</v>
+      </c>
+      <c r="EP8">
+        <v>61</v>
       </c>
       <c r="EQ8">
         <v>76</v>
@@ -4971,6 +5292,9 @@
       <c r="ES8">
         <v>29</v>
       </c>
+      <c r="ET8">
+        <v>37</v>
+      </c>
       <c r="EU8">
         <v>35</v>
       </c>
@@ -4978,7 +5302,7 @@
         <v>55</v>
       </c>
       <c r="EW8">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="EX8">
         <v>24</v>
@@ -4986,12 +5310,18 @@
       <c r="EY8">
         <v>70</v>
       </c>
+      <c r="EZ8">
+        <v>31</v>
+      </c>
       <c r="FA8">
         <v>32</v>
       </c>
       <c r="FB8">
         <v>31</v>
       </c>
+      <c r="FC8">
+        <v>40</v>
+      </c>
       <c r="FD8">
         <v>37</v>
       </c>
@@ -5016,6 +5346,9 @@
       <c r="FL8">
         <v>107</v>
       </c>
+      <c r="FM8">
+        <v>65</v>
+      </c>
       <c r="FN8">
         <v>59</v>
       </c>
@@ -5026,7 +5359,7 @@
         <v>57</v>
       </c>
       <c r="FQ8">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="FR8">
         <v>53</v>
@@ -5041,7 +5374,7 @@
         <v>44</v>
       </c>
       <c r="FV8">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="FW8">
         <v>52</v>
@@ -5075,6 +5408,12 @@
       <c r="B9">
         <v>358</v>
       </c>
+      <c r="C9">
+        <v>51</v>
+      </c>
+      <c r="D9">
+        <v>79</v>
+      </c>
       <c r="E9">
         <v>74</v>
       </c>
@@ -5082,7 +5421,7 @@
         <v>53</v>
       </c>
       <c r="G9">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="H9">
         <v>79</v>
@@ -5090,6 +5429,12 @@
       <c r="I9">
         <v>32</v>
       </c>
+      <c r="J9">
+        <v>74</v>
+      </c>
+      <c r="K9">
+        <v>226</v>
+      </c>
       <c r="L9">
         <v>82</v>
       </c>
@@ -5100,7 +5445,7 @@
         <v>137</v>
       </c>
       <c r="Q9">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="R9">
         <v>50</v>
@@ -5108,6 +5453,9 @@
       <c r="S9">
         <v>25</v>
       </c>
+      <c r="T9">
+        <v>36</v>
+      </c>
       <c r="U9">
         <v>46</v>
       </c>
@@ -5129,6 +5477,9 @@
       <c r="AA9">
         <v>40</v>
       </c>
+      <c r="AB9">
+        <v>69</v>
+      </c>
       <c r="AC9">
         <v>30</v>
       </c>
@@ -5148,7 +5499,7 @@
         <v>34</v>
       </c>
       <c r="AJ9">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="AK9">
         <v>69</v>
@@ -5165,8 +5516,8 @@
       <c r="AO9">
         <v>124</v>
       </c>
-      <c r="AP9">
-        <v>66</v>
+      <c r="AQ9">
+        <v>32</v>
       </c>
       <c r="AR9">
         <v>40</v>
@@ -5177,6 +5528,9 @@
       <c r="AU9">
         <v>15</v>
       </c>
+      <c r="AV9">
+        <v>56</v>
+      </c>
       <c r="AW9">
         <v>36</v>
       </c>
@@ -5190,7 +5544,7 @@
         <v>80</v>
       </c>
       <c r="BA9">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BB9">
         <v>45</v>
@@ -5201,12 +5555,18 @@
       <c r="BD9">
         <v>53</v>
       </c>
+      <c r="BE9">
+        <v>37</v>
+      </c>
       <c r="BF9">
         <v>41</v>
       </c>
       <c r="BG9">
         <v>43</v>
       </c>
+      <c r="BH9">
+        <v>95</v>
+      </c>
       <c r="BI9">
         <v>49</v>
       </c>
@@ -5222,6 +5582,9 @@
       <c r="BM9">
         <v>52</v>
       </c>
+      <c r="BN9">
+        <v>61</v>
+      </c>
       <c r="BO9">
         <v>51</v>
       </c>
@@ -5237,6 +5600,9 @@
       <c r="BT9">
         <v>70</v>
       </c>
+      <c r="BU9">
+        <v>35</v>
+      </c>
       <c r="BV9">
         <v>32</v>
       </c>
@@ -5259,7 +5625,7 @@
         <v>49</v>
       </c>
       <c r="CD9">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="CF9">
         <v>42</v>
@@ -5267,6 +5633,9 @@
       <c r="CG9">
         <v>60</v>
       </c>
+      <c r="CH9">
+        <v>79</v>
+      </c>
       <c r="CI9">
         <v>118</v>
       </c>
@@ -5280,7 +5649,7 @@
         <v>29</v>
       </c>
       <c r="CM9">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="CN9">
         <v>80</v>
@@ -5291,6 +5660,9 @@
       <c r="CP9">
         <v>72</v>
       </c>
+      <c r="CQ9">
+        <v>97</v>
+      </c>
       <c r="CR9">
         <v>41</v>
       </c>
@@ -5304,11 +5676,17 @@
         <v>41</v>
       </c>
       <c r="CV9">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CW9">
         <v>57</v>
       </c>
+      <c r="CY9">
+        <v>37</v>
+      </c>
+      <c r="CZ9">
+        <v>92</v>
+      </c>
       <c r="DA9">
         <v>82</v>
       </c>
@@ -5318,11 +5696,20 @@
       <c r="DC9">
         <v>76</v>
       </c>
+      <c r="DD9">
+        <v>55</v>
+      </c>
       <c r="DE9">
         <v>51</v>
       </c>
+      <c r="DF9">
+        <v>75</v>
+      </c>
+      <c r="DI9">
+        <v>40</v>
+      </c>
       <c r="DJ9">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="DK9">
         <v>45</v>
@@ -5330,6 +5717,9 @@
       <c r="DL9">
         <v>29</v>
       </c>
+      <c r="DM9">
+        <v>76</v>
+      </c>
       <c r="DN9">
         <v>49</v>
       </c>
@@ -5342,23 +5732,32 @@
       <c r="DQ9">
         <v>34</v>
       </c>
+      <c r="DR9">
+        <v>48</v>
+      </c>
       <c r="DS9">
         <v>39</v>
       </c>
       <c r="DT9">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="DU9">
         <v>22</v>
       </c>
+      <c r="DV9">
+        <v>67</v>
+      </c>
       <c r="DW9">
         <v>89</v>
       </c>
+      <c r="DX9">
+        <v>64</v>
+      </c>
       <c r="DY9">
         <v>55</v>
       </c>
       <c r="DZ9">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="EA9">
         <v>70</v>
@@ -5367,7 +5766,10 @@
         <v>78</v>
       </c>
       <c r="EC9">
-        <v>116</v>
+        <v>103</v>
+      </c>
+      <c r="ED9">
+        <v>73</v>
       </c>
       <c r="EE9">
         <v>61</v>
@@ -5375,21 +5777,36 @@
       <c r="EF9">
         <v>24</v>
       </c>
+      <c r="EG9">
+        <v>85</v>
+      </c>
       <c r="EH9">
         <v>22</v>
       </c>
+      <c r="EI9">
+        <v>117</v>
+      </c>
       <c r="EJ9">
         <v>31</v>
       </c>
       <c r="EK9">
         <v>31</v>
       </c>
+      <c r="EL9">
+        <v>56</v>
+      </c>
       <c r="EM9">
         <v>43</v>
       </c>
+      <c r="EN9">
+        <v>71</v>
+      </c>
       <c r="EO9">
         <v>82</v>
       </c>
+      <c r="EP9">
+        <v>72</v>
+      </c>
       <c r="EQ9">
         <v>97</v>
       </c>
@@ -5399,6 +5816,9 @@
       <c r="ES9">
         <v>34</v>
       </c>
+      <c r="ET9">
+        <v>55</v>
+      </c>
       <c r="EU9">
         <v>42</v>
       </c>
@@ -5414,12 +5834,18 @@
       <c r="EY9">
         <v>75</v>
       </c>
+      <c r="EZ9">
+        <v>40</v>
+      </c>
       <c r="FA9">
         <v>35</v>
       </c>
       <c r="FB9">
         <v>34</v>
       </c>
+      <c r="FC9">
+        <v>48</v>
+      </c>
       <c r="FD9">
         <v>41</v>
       </c>
@@ -5444,15 +5870,24 @@
       <c r="FL9">
         <v>110</v>
       </c>
+      <c r="FM9">
+        <v>82</v>
+      </c>
       <c r="FN9">
         <v>74</v>
       </c>
+      <c r="FO9">
+        <v>43</v>
+      </c>
       <c r="FP9">
         <v>69</v>
       </c>
       <c r="FQ9">
         <v>78</v>
       </c>
+      <c r="FR9">
+        <v>65</v>
+      </c>
       <c r="FS9">
         <v>43</v>
       </c>
@@ -5463,7 +5898,7 @@
         <v>56</v>
       </c>
       <c r="FV9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="FW9">
         <v>69</v>
@@ -5471,6 +5906,9 @@
       <c r="FX9">
         <v>108</v>
       </c>
+      <c r="FY9">
+        <v>32</v>
+      </c>
       <c r="FZ9">
         <v>20</v>
       </c>
@@ -5479,6 +5917,9 @@
       </c>
       <c r="GB9">
         <v>113.1</v>
+      </c>
+      <c r="GC9">
+        <v>1280</v>
       </c>
       <c r="GD9">
         <v>11.7</v>
@@ -5491,6 +5932,12 @@
       <c r="B10">
         <v>432</v>
       </c>
+      <c r="C10">
+        <v>59</v>
+      </c>
+      <c r="D10">
+        <v>91</v>
+      </c>
       <c r="E10">
         <v>75</v>
       </c>
@@ -5500,9 +5947,21 @@
       <c r="G10">
         <v>81</v>
       </c>
+      <c r="H10">
+        <v>100</v>
+      </c>
       <c r="I10">
         <v>36</v>
       </c>
+      <c r="J10">
+        <v>83</v>
+      </c>
+      <c r="K10">
+        <v>272</v>
+      </c>
+      <c r="L10">
+        <v>86</v>
+      </c>
       <c r="M10">
         <v>59</v>
       </c>
@@ -5510,7 +5969,7 @@
         <v>187</v>
       </c>
       <c r="Q10">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="R10">
         <v>63</v>
@@ -5518,6 +5977,9 @@
       <c r="S10">
         <v>34</v>
       </c>
+      <c r="T10">
+        <v>45</v>
+      </c>
       <c r="U10">
         <v>63</v>
       </c>
@@ -5539,11 +6001,14 @@
       <c r="AA10">
         <v>55</v>
       </c>
+      <c r="AB10">
+        <v>69</v>
+      </c>
       <c r="AC10">
         <v>37</v>
       </c>
       <c r="AD10">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AE10">
         <v>194</v>
@@ -5558,7 +6023,7 @@
         <v>45</v>
       </c>
       <c r="AJ10">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="AK10">
         <v>81</v>
@@ -5575,8 +6040,8 @@
       <c r="AO10">
         <v>158</v>
       </c>
-      <c r="AP10">
-        <v>73</v>
+      <c r="AQ10">
+        <v>32</v>
       </c>
       <c r="AR10">
         <v>58</v>
@@ -5587,6 +6052,9 @@
       <c r="AU10">
         <v>20</v>
       </c>
+      <c r="AV10">
+        <v>79</v>
+      </c>
       <c r="AW10">
         <v>45</v>
       </c>
@@ -5600,7 +6068,10 @@
         <v>97</v>
       </c>
       <c r="BA10">
-        <v>31</v>
+        <v>26</v>
+      </c>
+      <c r="BB10">
+        <v>73</v>
       </c>
       <c r="BC10">
         <v>110</v>
@@ -5608,12 +6079,18 @@
       <c r="BD10">
         <v>67</v>
       </c>
+      <c r="BE10">
+        <v>40</v>
+      </c>
       <c r="BF10">
         <v>51</v>
       </c>
       <c r="BG10">
         <v>59</v>
       </c>
+      <c r="BH10">
+        <v>108</v>
+      </c>
       <c r="BI10">
         <v>57</v>
       </c>
@@ -5644,9 +6121,15 @@
       <c r="BT10">
         <v>82</v>
       </c>
+      <c r="BU10">
+        <v>40</v>
+      </c>
       <c r="BV10">
         <v>29</v>
       </c>
+      <c r="BW10">
+        <v>51</v>
+      </c>
       <c r="BX10">
         <v>85</v>
       </c>
@@ -5671,6 +6154,9 @@
       <c r="CG10">
         <v>72</v>
       </c>
+      <c r="CH10">
+        <v>89</v>
+      </c>
       <c r="CI10">
         <v>127</v>
       </c>
@@ -5695,21 +6181,33 @@
       <c r="CP10">
         <v>78</v>
       </c>
+      <c r="CQ10">
+        <v>109</v>
+      </c>
       <c r="CR10">
         <v>57</v>
       </c>
       <c r="CS10">
         <v>40</v>
       </c>
+      <c r="CT10">
+        <v>86</v>
+      </c>
       <c r="CU10">
         <v>45</v>
       </c>
       <c r="CV10">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="CW10">
         <v>84</v>
       </c>
+      <c r="CY10">
+        <v>46</v>
+      </c>
+      <c r="CZ10">
+        <v>111</v>
+      </c>
       <c r="DA10">
         <v>94</v>
       </c>
@@ -5719,11 +6217,20 @@
       <c r="DC10">
         <v>77</v>
       </c>
+      <c r="DD10">
+        <v>61</v>
+      </c>
       <c r="DE10">
         <v>70</v>
       </c>
+      <c r="DF10">
+        <v>81</v>
+      </c>
+      <c r="DI10">
+        <v>42</v>
+      </c>
       <c r="DJ10">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="DK10">
         <v>50</v>
@@ -5731,6 +6238,9 @@
       <c r="DL10">
         <v>37</v>
       </c>
+      <c r="DM10">
+        <v>92</v>
+      </c>
       <c r="DN10">
         <v>57</v>
       </c>
@@ -5741,28 +6251,46 @@
         <v>48</v>
       </c>
       <c r="DQ10">
-        <v>44</v>
+        <v>40</v>
+      </c>
+      <c r="DR10">
+        <v>48</v>
       </c>
       <c r="DS10">
         <v>42</v>
       </c>
       <c r="DT10">
-        <v>70</v>
+        <v>64</v>
+      </c>
+      <c r="DU10">
+        <v>23</v>
+      </c>
+      <c r="DV10">
+        <v>79</v>
       </c>
       <c r="DW10">
         <v>115</v>
       </c>
+      <c r="DX10">
+        <v>75</v>
+      </c>
       <c r="DY10">
         <v>68</v>
       </c>
       <c r="DZ10">
-        <v>65</v>
+        <v>52</v>
+      </c>
+      <c r="EA10">
+        <v>78</v>
       </c>
       <c r="EB10">
         <v>92</v>
       </c>
       <c r="EC10">
-        <v>138</v>
+        <v>116</v>
+      </c>
+      <c r="ED10">
+        <v>86</v>
       </c>
       <c r="EE10">
         <v>82</v>
@@ -5770,20 +6298,35 @@
       <c r="EF10">
         <v>24</v>
       </c>
+      <c r="EG10">
+        <v>102</v>
+      </c>
       <c r="EH10">
         <v>22</v>
       </c>
+      <c r="EI10">
+        <v>126</v>
+      </c>
       <c r="EJ10">
         <v>36</v>
       </c>
       <c r="EK10">
         <v>37</v>
       </c>
+      <c r="EL10">
+        <v>57</v>
+      </c>
       <c r="EM10">
         <v>68</v>
       </c>
+      <c r="EN10">
+        <v>76</v>
+      </c>
       <c r="EO10">
-        <v>134</v>
+        <v>110</v>
+      </c>
+      <c r="EP10">
+        <v>112</v>
       </c>
       <c r="EQ10">
         <v>121</v>
@@ -5794,6 +6337,9 @@
       <c r="ES10">
         <v>43</v>
       </c>
+      <c r="ET10">
+        <v>61</v>
+      </c>
       <c r="EU10">
         <v>61</v>
       </c>
@@ -5801,7 +6347,7 @@
         <v>76</v>
       </c>
       <c r="EW10">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="EX10">
         <v>40</v>
@@ -5809,12 +6355,21 @@
       <c r="EY10">
         <v>93</v>
       </c>
+      <c r="EZ10">
+        <v>44</v>
+      </c>
       <c r="FA10">
         <v>40</v>
       </c>
       <c r="FB10">
         <v>38</v>
       </c>
+      <c r="FC10">
+        <v>51</v>
+      </c>
+      <c r="FD10">
+        <v>54</v>
+      </c>
       <c r="FE10">
         <v>35</v>
       </c>
@@ -5824,6 +6379,9 @@
       <c r="FG10">
         <v>40</v>
       </c>
+      <c r="FI10">
+        <v>72</v>
+      </c>
       <c r="FJ10">
         <v>43</v>
       </c>
@@ -5833,14 +6391,23 @@
       <c r="FL10">
         <v>113</v>
       </c>
+      <c r="FM10">
+        <v>97</v>
+      </c>
       <c r="FN10">
         <v>101</v>
       </c>
+      <c r="FO10">
+        <v>63</v>
+      </c>
       <c r="FP10">
         <v>86</v>
       </c>
       <c r="FQ10">
-        <v>110</v>
+        <v>99</v>
+      </c>
+      <c r="FR10">
+        <v>67</v>
       </c>
       <c r="FS10">
         <v>54</v>
@@ -5848,6 +6415,9 @@
       <c r="FT10">
         <v>37</v>
       </c>
+      <c r="FU10">
+        <v>69</v>
+      </c>
       <c r="FV10">
         <v>23</v>
       </c>
@@ -5856,6 +6426,9 @@
       </c>
       <c r="FX10">
         <v>126</v>
+      </c>
+      <c r="FY10">
+        <v>35</v>
       </c>
       <c r="FZ10">
         <v>22.1</v>
@@ -5886,9 +6459,15 @@
       <c r="G11">
         <v>88</v>
       </c>
+      <c r="H11">
+        <v>122</v>
+      </c>
       <c r="I11">
         <v>39</v>
       </c>
+      <c r="L11">
+        <v>91</v>
+      </c>
       <c r="M11">
         <v>77</v>
       </c>
@@ -5896,11 +6475,17 @@
         <v>228</v>
       </c>
       <c r="Q11">
-        <v>47</v>
+        <v>42</v>
+      </c>
+      <c r="R11">
+        <v>77</v>
       </c>
       <c r="S11">
         <v>39</v>
       </c>
+      <c r="U11">
+        <v>80</v>
+      </c>
       <c r="V11">
         <v>143</v>
       </c>
@@ -5923,7 +6508,7 @@
         <v>41</v>
       </c>
       <c r="AD11">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AE11">
         <v>256</v>
@@ -5934,20 +6519,26 @@
       <c r="AH11">
         <v>61</v>
       </c>
+      <c r="AI11">
+        <v>54</v>
+      </c>
       <c r="AJ11">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="AK11">
         <v>100</v>
       </c>
+      <c r="AL11">
+        <v>108</v>
+      </c>
       <c r="AM11">
         <v>219</v>
       </c>
       <c r="AN11">
         <v>176</v>
       </c>
-      <c r="AP11">
-        <v>80</v>
+      <c r="AO11">
+        <v>189</v>
       </c>
       <c r="AR11">
         <v>77</v>
@@ -5958,6 +6549,12 @@
       <c r="AU11">
         <v>24</v>
       </c>
+      <c r="AV11">
+        <v>95</v>
+      </c>
+      <c r="AW11">
+        <v>54</v>
+      </c>
       <c r="AX11">
         <v>83</v>
       </c>
@@ -5968,7 +6565,10 @@
         <v>106</v>
       </c>
       <c r="BA11">
-        <v>35</v>
+        <v>31</v>
+      </c>
+      <c r="BB11">
+        <v>84</v>
       </c>
       <c r="BC11">
         <v>136</v>
@@ -5982,6 +6582,9 @@
       <c r="BG11">
         <v>75</v>
       </c>
+      <c r="BH11">
+        <v>108</v>
+      </c>
       <c r="BI11">
         <v>64</v>
       </c>
@@ -6001,7 +6604,7 @@
         <v>70</v>
       </c>
       <c r="BP11">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="BQ11">
         <v>72</v>
@@ -6012,9 +6615,15 @@
       <c r="BT11">
         <v>101</v>
       </c>
+      <c r="BU11">
+        <v>47</v>
+      </c>
       <c r="BV11">
         <v>36</v>
       </c>
+      <c r="BW11">
+        <v>58</v>
+      </c>
       <c r="BX11">
         <v>90</v>
       </c>
@@ -6036,6 +6645,12 @@
       <c r="CF11">
         <v>66</v>
       </c>
+      <c r="CG11">
+        <v>84</v>
+      </c>
+      <c r="CH11">
+        <v>110</v>
+      </c>
       <c r="CI11">
         <v>134</v>
       </c>
@@ -6057,21 +6672,30 @@
       <c r="CO11">
         <v>97</v>
       </c>
+      <c r="CP11">
+        <v>104</v>
+      </c>
       <c r="CR11">
         <v>72</v>
       </c>
       <c r="CS11">
         <v>44</v>
       </c>
+      <c r="CT11">
+        <v>91</v>
+      </c>
       <c r="CU11">
         <v>55</v>
       </c>
       <c r="CV11">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="CW11">
         <v>98</v>
       </c>
+      <c r="DA11">
+        <v>106</v>
+      </c>
       <c r="DB11">
         <v>121</v>
       </c>
@@ -6081,8 +6705,11 @@
       <c r="DE11">
         <v>90</v>
       </c>
+      <c r="DI11">
+        <v>50</v>
+      </c>
       <c r="DJ11">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="DK11">
         <v>69</v>
@@ -6090,6 +6717,9 @@
       <c r="DL11">
         <v>43</v>
       </c>
+      <c r="DM11">
+        <v>119</v>
+      </c>
       <c r="DN11">
         <v>67</v>
       </c>
@@ -6100,13 +6730,16 @@
         <v>51</v>
       </c>
       <c r="DQ11">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="DS11">
         <v>44</v>
       </c>
       <c r="DT11">
-        <v>72</v>
+        <v>70</v>
+      </c>
+      <c r="DU11">
+        <v>29</v>
       </c>
       <c r="DW11">
         <v>128</v>
@@ -6115,13 +6748,19 @@
         <v>83</v>
       </c>
       <c r="DZ11">
-        <v>78</v>
+        <v>65</v>
+      </c>
+      <c r="EA11">
+        <v>107</v>
       </c>
       <c r="EB11">
         <v>104</v>
       </c>
       <c r="EC11">
-        <v>144</v>
+        <v>138</v>
+      </c>
+      <c r="ED11">
+        <v>119</v>
       </c>
       <c r="EE11">
         <v>106</v>
@@ -6129,17 +6768,32 @@
       <c r="EF11">
         <v>24</v>
       </c>
+      <c r="EG11">
+        <v>106</v>
+      </c>
       <c r="EH11">
         <v>22</v>
       </c>
+      <c r="EI11">
+        <v>141</v>
+      </c>
       <c r="EJ11">
         <v>46</v>
       </c>
       <c r="EK11">
         <v>49</v>
       </c>
+      <c r="EM11">
+        <v>76</v>
+      </c>
+      <c r="EN11">
+        <v>76</v>
+      </c>
       <c r="EO11">
-        <v>139</v>
+        <v>134</v>
+      </c>
+      <c r="EP11">
+        <v>122</v>
       </c>
       <c r="EQ11">
         <v>145</v>
@@ -6147,6 +6801,12 @@
       <c r="ER11">
         <v>66</v>
       </c>
+      <c r="ES11">
+        <v>47</v>
+      </c>
+      <c r="ET11">
+        <v>76</v>
+      </c>
       <c r="EU11">
         <v>74</v>
       </c>
@@ -6154,7 +6814,7 @@
         <v>86</v>
       </c>
       <c r="EW11">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="EX11">
         <v>45</v>
@@ -6162,18 +6822,33 @@
       <c r="EY11">
         <v>104</v>
       </c>
+      <c r="EZ11">
+        <v>49</v>
+      </c>
       <c r="FA11">
         <v>43</v>
       </c>
       <c r="FB11">
         <v>47</v>
       </c>
+      <c r="FC11">
+        <v>62</v>
+      </c>
+      <c r="FD11">
+        <v>62</v>
+      </c>
+      <c r="FE11">
+        <v>36</v>
+      </c>
       <c r="FF11">
         <v>71</v>
       </c>
       <c r="FG11">
         <v>46</v>
       </c>
+      <c r="FI11">
+        <v>79</v>
+      </c>
       <c r="FJ11">
         <v>60</v>
       </c>
@@ -6186,11 +6861,17 @@
       <c r="FN11">
         <v>113</v>
       </c>
+      <c r="FO11">
+        <v>66</v>
+      </c>
       <c r="FP11">
         <v>110</v>
       </c>
       <c r="FQ11">
-        <v>117</v>
+        <v>110</v>
+      </c>
+      <c r="FR11">
+        <v>91</v>
       </c>
       <c r="FS11">
         <v>58</v>
@@ -6198,6 +6879,9 @@
       <c r="FT11">
         <v>44</v>
       </c>
+      <c r="FU11">
+        <v>83</v>
+      </c>
       <c r="FV11">
         <v>23</v>
       </c>
@@ -6206,6 +6890,9 @@
       </c>
       <c r="FX11">
         <v>146</v>
+      </c>
+      <c r="FY11">
+        <v>36</v>
       </c>
       <c r="FZ11">
         <v>24.4</v>
@@ -6236,12 +6923,33 @@
       <c r="G12">
         <v>94</v>
       </c>
+      <c r="H12">
+        <v>134</v>
+      </c>
+      <c r="I12">
+        <v>41</v>
+      </c>
+      <c r="L12">
+        <v>117</v>
+      </c>
       <c r="M12">
         <v>85</v>
       </c>
       <c r="N12">
         <v>290</v>
       </c>
+      <c r="Q12">
+        <v>47</v>
+      </c>
+      <c r="R12">
+        <v>87</v>
+      </c>
+      <c r="S12">
+        <v>51</v>
+      </c>
+      <c r="U12">
+        <v>95</v>
+      </c>
       <c r="V12">
         <v>170</v>
       </c>
@@ -6257,23 +6965,44 @@
       <c r="Z12">
         <v>50</v>
       </c>
+      <c r="AA12">
+        <v>72</v>
+      </c>
       <c r="AC12">
         <v>47</v>
       </c>
       <c r="AD12">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="AE12">
         <v>282</v>
       </c>
+      <c r="AG12">
+        <v>78</v>
+      </c>
+      <c r="AH12">
+        <v>74</v>
+      </c>
+      <c r="AI12">
+        <v>65</v>
+      </c>
+      <c r="AJ12">
+        <v>69</v>
+      </c>
+      <c r="AK12">
+        <v>120</v>
+      </c>
+      <c r="AL12">
+        <v>127</v>
+      </c>
       <c r="AM12">
         <v>261</v>
       </c>
       <c r="AN12">
         <v>211</v>
       </c>
-      <c r="AP12">
-        <v>87</v>
+      <c r="AO12">
+        <v>210</v>
       </c>
       <c r="AR12">
         <v>100</v>
@@ -6284,12 +7013,27 @@
       <c r="AU12">
         <v>25</v>
       </c>
+      <c r="AV12">
+        <v>116</v>
+      </c>
+      <c r="AW12">
+        <v>62</v>
+      </c>
       <c r="AX12">
         <v>122</v>
       </c>
+      <c r="AY12">
+        <v>92</v>
+      </c>
       <c r="AZ12">
         <v>123</v>
       </c>
+      <c r="BA12">
+        <v>35</v>
+      </c>
+      <c r="BB12">
+        <v>95</v>
+      </c>
       <c r="BC12">
         <v>144</v>
       </c>
@@ -6332,9 +7076,15 @@
       <c r="BT12">
         <v>105</v>
       </c>
+      <c r="BU12">
+        <v>51</v>
+      </c>
       <c r="BV12">
         <v>50</v>
       </c>
+      <c r="BW12">
+        <v>65</v>
+      </c>
       <c r="BX12">
         <v>103</v>
       </c>
@@ -6348,7 +7098,7 @@
         <v>96</v>
       </c>
       <c r="CC12">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="CD12">
         <v>64</v>
@@ -6356,6 +7106,9 @@
       <c r="CF12">
         <v>82</v>
       </c>
+      <c r="CG12">
+        <v>101</v>
+      </c>
       <c r="CI12">
         <v>188</v>
       </c>
@@ -6368,24 +7121,39 @@
       <c r="CL12">
         <v>53</v>
       </c>
+      <c r="CM12">
+        <v>65</v>
+      </c>
       <c r="CN12">
         <v>136</v>
       </c>
       <c r="CO12">
         <v>114</v>
       </c>
+      <c r="CP12">
+        <v>133</v>
+      </c>
       <c r="CR12">
         <v>100</v>
       </c>
       <c r="CS12">
         <v>46</v>
       </c>
+      <c r="CT12">
+        <v>115</v>
+      </c>
       <c r="CU12">
         <v>63</v>
       </c>
+      <c r="CV12">
+        <v>72</v>
+      </c>
       <c r="CW12">
         <v>108</v>
       </c>
+      <c r="DA12">
+        <v>117</v>
+      </c>
       <c r="DB12">
         <v>135</v>
       </c>
@@ -6395,12 +7163,21 @@
       <c r="DE12">
         <v>107</v>
       </c>
+      <c r="DI12">
+        <v>58</v>
+      </c>
+      <c r="DJ12">
+        <v>71</v>
+      </c>
       <c r="DK12">
         <v>75</v>
       </c>
       <c r="DL12">
         <v>64</v>
       </c>
+      <c r="DM12">
+        <v>142</v>
+      </c>
       <c r="DN12">
         <v>79</v>
       </c>
@@ -6411,7 +7188,16 @@
         <v>73</v>
       </c>
       <c r="DQ12">
-        <v>63</v>
+        <v>52</v>
+      </c>
+      <c r="DS12">
+        <v>50</v>
+      </c>
+      <c r="DT12">
+        <v>72</v>
+      </c>
+      <c r="DU12">
+        <v>34</v>
       </c>
       <c r="DW12">
         <v>143</v>
@@ -6419,20 +7205,50 @@
       <c r="DY12">
         <v>94</v>
       </c>
+      <c r="DZ12">
+        <v>78</v>
+      </c>
+      <c r="EA12">
+        <v>129</v>
+      </c>
+      <c r="EB12">
+        <v>127</v>
+      </c>
+      <c r="EC12">
+        <v>144</v>
+      </c>
+      <c r="ED12">
+        <v>142</v>
+      </c>
       <c r="EE12">
         <v>130</v>
       </c>
       <c r="EF12">
         <v>24</v>
       </c>
+      <c r="EG12">
+        <v>120</v>
+      </c>
       <c r="EH12">
         <v>59</v>
       </c>
+      <c r="EI12">
+        <v>164</v>
+      </c>
+      <c r="EJ12">
+        <v>54</v>
+      </c>
       <c r="EK12">
         <v>53</v>
       </c>
+      <c r="EM12">
+        <v>100</v>
+      </c>
       <c r="EO12">
-        <v>154</v>
+        <v>139</v>
+      </c>
+      <c r="EP12">
+        <v>148</v>
       </c>
       <c r="EQ12">
         <v>186</v>
@@ -6440,11 +7256,20 @@
       <c r="ER12">
         <v>79</v>
       </c>
+      <c r="ES12">
+        <v>60</v>
+      </c>
+      <c r="ET12">
+        <v>80</v>
+      </c>
       <c r="EU12">
         <v>87</v>
       </c>
+      <c r="EV12">
+        <v>93</v>
+      </c>
       <c r="EW12">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="EX12">
         <v>54</v>
@@ -6458,12 +7283,24 @@
       <c r="FB12">
         <v>48</v>
       </c>
+      <c r="FC12">
+        <v>70</v>
+      </c>
+      <c r="FD12">
+        <v>79</v>
+      </c>
+      <c r="FE12">
+        <v>42</v>
+      </c>
       <c r="FF12">
         <v>93</v>
       </c>
       <c r="FG12">
         <v>53</v>
       </c>
+      <c r="FI12">
+        <v>95</v>
+      </c>
       <c r="FJ12">
         <v>78</v>
       </c>
@@ -6476,11 +7313,17 @@
       <c r="FN12">
         <v>127</v>
       </c>
+      <c r="FO12">
+        <v>69</v>
+      </c>
       <c r="FP12">
         <v>113</v>
       </c>
       <c r="FQ12">
-        <v>134</v>
+        <v>117</v>
+      </c>
+      <c r="FR12">
+        <v>110</v>
       </c>
       <c r="FS12">
         <v>67</v>
@@ -6488,8 +7331,20 @@
       <c r="FT12">
         <v>48</v>
       </c>
+      <c r="FU12">
+        <v>111</v>
+      </c>
+      <c r="FV12">
+        <v>23</v>
+      </c>
       <c r="FW12">
         <v>103</v>
+      </c>
+      <c r="FX12">
+        <v>170</v>
+      </c>
+      <c r="FY12">
+        <v>57</v>
       </c>
       <c r="FZ12">
         <v>26.9</v>
@@ -6520,12 +7375,33 @@
       <c r="G13">
         <v>99</v>
       </c>
+      <c r="H13">
+        <v>154</v>
+      </c>
+      <c r="I13">
+        <v>45</v>
+      </c>
+      <c r="L13">
+        <v>133</v>
+      </c>
       <c r="M13">
         <v>102</v>
       </c>
       <c r="N13">
         <v>366</v>
       </c>
+      <c r="Q13">
+        <v>48</v>
+      </c>
+      <c r="R13">
+        <v>93</v>
+      </c>
+      <c r="S13">
+        <v>58</v>
+      </c>
+      <c r="U13">
+        <v>118</v>
+      </c>
       <c r="V13">
         <v>192</v>
       </c>
@@ -6541,21 +7417,45 @@
       <c r="Z13">
         <v>59</v>
       </c>
+      <c r="AA13">
+        <v>75</v>
+      </c>
       <c r="AC13">
         <v>68</v>
       </c>
       <c r="AD13">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="AE13">
         <v>344</v>
       </c>
+      <c r="AG13">
+        <v>81</v>
+      </c>
+      <c r="AH13">
+        <v>76</v>
+      </c>
+      <c r="AI13">
+        <v>97</v>
+      </c>
+      <c r="AJ13">
+        <v>81</v>
+      </c>
+      <c r="AK13">
+        <v>131</v>
+      </c>
+      <c r="AL13">
+        <v>155</v>
+      </c>
       <c r="AM13">
         <v>289</v>
       </c>
       <c r="AN13">
         <v>238</v>
       </c>
+      <c r="AO13">
+        <v>242</v>
+      </c>
       <c r="AR13">
         <v>105</v>
       </c>
@@ -6565,18 +7465,36 @@
       <c r="AU13">
         <v>26</v>
       </c>
+      <c r="AV13">
+        <v>117</v>
+      </c>
+      <c r="AW13">
+        <v>73</v>
+      </c>
       <c r="AX13">
         <v>136</v>
       </c>
+      <c r="AY13">
+        <v>100</v>
+      </c>
       <c r="AZ13">
         <v>136</v>
       </c>
+      <c r="BA13">
+        <v>38</v>
+      </c>
+      <c r="BB13">
+        <v>129</v>
+      </c>
       <c r="BC13">
         <v>151</v>
       </c>
       <c r="BD13">
         <v>130</v>
       </c>
+      <c r="BF13">
+        <v>76</v>
+      </c>
       <c r="BG13">
         <v>95</v>
       </c>
@@ -6610,9 +7528,15 @@
       <c r="BT13">
         <v>118</v>
       </c>
+      <c r="BU13">
+        <v>57</v>
+      </c>
       <c r="BV13">
         <v>52</v>
       </c>
+      <c r="BW13">
+        <v>72</v>
+      </c>
       <c r="BX13">
         <v>129</v>
       </c>
@@ -6634,6 +7558,9 @@
       <c r="CF13">
         <v>92</v>
       </c>
+      <c r="CG13">
+        <v>114</v>
+      </c>
       <c r="CI13">
         <v>212</v>
       </c>
@@ -6646,24 +7573,39 @@
       <c r="CL13">
         <v>67</v>
       </c>
+      <c r="CM13">
+        <v>89</v>
+      </c>
       <c r="CN13">
         <v>141</v>
       </c>
       <c r="CO13">
         <v>144</v>
       </c>
+      <c r="CP13">
+        <v>153</v>
+      </c>
       <c r="CR13">
         <v>132</v>
       </c>
       <c r="CS13">
         <v>59</v>
       </c>
+      <c r="CT13">
+        <v>116</v>
+      </c>
       <c r="CU13">
         <v>76</v>
       </c>
+      <c r="CV13">
+        <v>78</v>
+      </c>
       <c r="CW13">
         <v>128</v>
       </c>
+      <c r="DA13">
+        <v>127</v>
+      </c>
       <c r="DB13">
         <v>155</v>
       </c>
@@ -6673,12 +7615,21 @@
       <c r="DE13">
         <v>133</v>
       </c>
+      <c r="DI13">
+        <v>66</v>
+      </c>
+      <c r="DJ13">
+        <v>76</v>
+      </c>
       <c r="DK13">
         <v>88</v>
       </c>
       <c r="DL13">
         <v>86</v>
       </c>
+      <c r="DM13">
+        <v>142</v>
+      </c>
       <c r="DN13">
         <v>91</v>
       </c>
@@ -6689,7 +7640,16 @@
         <v>82</v>
       </c>
       <c r="DQ13">
-        <v>69</v>
+        <v>63</v>
+      </c>
+      <c r="DS13">
+        <v>56</v>
+      </c>
+      <c r="DT13">
+        <v>78</v>
+      </c>
+      <c r="DU13">
+        <v>41</v>
       </c>
       <c r="DW13">
         <v>161</v>
@@ -6697,20 +7657,47 @@
       <c r="DY13">
         <v>112</v>
       </c>
+      <c r="DZ13">
+        <v>89</v>
+      </c>
+      <c r="EA13">
+        <v>154</v>
+      </c>
+      <c r="EB13">
+        <v>129</v>
+      </c>
+      <c r="EC13">
+        <v>158</v>
+      </c>
+      <c r="ED13">
+        <v>172</v>
+      </c>
       <c r="EE13">
         <v>174</v>
       </c>
       <c r="EF13">
         <v>24</v>
       </c>
+      <c r="EG13">
+        <v>138</v>
+      </c>
       <c r="EH13">
         <v>69</v>
       </c>
+      <c r="EI13">
+        <v>183</v>
+      </c>
+      <c r="EJ13">
+        <v>63</v>
+      </c>
       <c r="EK13">
         <v>58</v>
       </c>
+      <c r="EM13">
+        <v>105</v>
+      </c>
       <c r="EO13">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="EQ13">
         <v>212</v>
@@ -6718,11 +7705,17 @@
       <c r="ER13">
         <v>93</v>
       </c>
+      <c r="ES13">
+        <v>70</v>
+      </c>
       <c r="EU13">
         <v>100</v>
       </c>
+      <c r="EV13">
+        <v>109</v>
+      </c>
       <c r="EW13">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="EX13">
         <v>69</v>
@@ -6736,12 +7729,21 @@
       <c r="FB13">
         <v>57</v>
       </c>
+      <c r="FD13">
+        <v>83</v>
+      </c>
+      <c r="FE13">
+        <v>49</v>
+      </c>
       <c r="FF13">
         <v>129</v>
       </c>
       <c r="FG13">
         <v>64</v>
       </c>
+      <c r="FI13">
+        <v>105</v>
+      </c>
       <c r="FJ13">
         <v>100</v>
       </c>
@@ -6754,11 +7756,17 @@
       <c r="FN13">
         <v>148</v>
       </c>
+      <c r="FO13">
+        <v>74</v>
+      </c>
       <c r="FP13">
         <v>113</v>
       </c>
       <c r="FQ13">
-        <v>143</v>
+        <v>134</v>
+      </c>
+      <c r="FR13">
+        <v>116</v>
       </c>
       <c r="FS13">
         <v>76</v>
@@ -6766,8 +7774,20 @@
       <c r="FT13">
         <v>48</v>
       </c>
+      <c r="FU13">
+        <v>130</v>
+      </c>
+      <c r="FV13">
+        <v>24</v>
+      </c>
       <c r="FW13">
         <v>128</v>
+      </c>
+      <c r="FX13">
+        <v>201</v>
+      </c>
+      <c r="FY13">
+        <v>57</v>
       </c>
       <c r="FZ13">
         <v>29.7</v>
@@ -6786,18 +7806,45 @@
       <c r="A14" t="s">
         <v>101</v>
       </c>
+      <c r="B14">
+        <v>590</v>
+      </c>
+      <c r="E14">
+        <v>177</v>
+      </c>
       <c r="F14">
         <v>115</v>
       </c>
       <c r="G14">
         <v>100</v>
       </c>
+      <c r="H14">
+        <v>158</v>
+      </c>
+      <c r="I14">
+        <v>52</v>
+      </c>
+      <c r="L14">
+        <v>178</v>
+      </c>
       <c r="M14">
         <v>119</v>
       </c>
       <c r="N14">
         <v>428</v>
       </c>
+      <c r="Q14">
+        <v>51</v>
+      </c>
+      <c r="R14">
+        <v>100</v>
+      </c>
+      <c r="S14">
+        <v>58</v>
+      </c>
+      <c r="U14">
+        <v>135</v>
+      </c>
       <c r="V14">
         <v>228</v>
       </c>
@@ -6813,11 +7860,35 @@
       <c r="Z14">
         <v>66</v>
       </c>
+      <c r="AA14">
+        <v>87</v>
+      </c>
       <c r="AC14">
         <v>85</v>
       </c>
       <c r="AD14">
-        <v>71</v>
+        <v>64</v>
+      </c>
+      <c r="AE14">
+        <v>375</v>
+      </c>
+      <c r="AG14">
+        <v>99</v>
+      </c>
+      <c r="AH14">
+        <v>102</v>
+      </c>
+      <c r="AI14">
+        <v>116</v>
+      </c>
+      <c r="AJ14">
+        <v>99</v>
+      </c>
+      <c r="AK14">
+        <v>165</v>
+      </c>
+      <c r="AL14">
+        <v>188</v>
       </c>
       <c r="AM14">
         <v>313</v>
@@ -6825,6 +7896,9 @@
       <c r="AN14">
         <v>292</v>
       </c>
+      <c r="AO14">
+        <v>329</v>
+      </c>
       <c r="AR14">
         <v>118</v>
       </c>
@@ -6832,17 +7906,35 @@
         <v>170</v>
       </c>
       <c r="AU14">
-        <v>26</v>
+        <v>30</v>
+      </c>
+      <c r="AW14">
+        <v>80</v>
+      </c>
+      <c r="AX14">
+        <v>149</v>
+      </c>
+      <c r="AY14">
+        <v>104</v>
       </c>
       <c r="AZ14">
         <v>165</v>
       </c>
+      <c r="BA14">
+        <v>46</v>
+      </c>
+      <c r="BB14">
+        <v>132</v>
+      </c>
       <c r="BC14">
         <v>164</v>
       </c>
       <c r="BD14">
         <v>166</v>
       </c>
+      <c r="BF14">
+        <v>96</v>
+      </c>
       <c r="BG14">
         <v>94</v>
       </c>
@@ -6873,8 +7965,14 @@
       <c r="BR14">
         <v>196</v>
       </c>
+      <c r="BT14">
+        <v>127</v>
+      </c>
       <c r="BV14">
-        <v>52</v>
+        <v>61</v>
+      </c>
+      <c r="BW14">
+        <v>85</v>
       </c>
       <c r="BX14">
         <v>140</v>
@@ -6882,6 +7980,9 @@
       <c r="BY14">
         <v>139</v>
       </c>
+      <c r="BZ14">
+        <v>94</v>
+      </c>
       <c r="CB14">
         <v>131</v>
       </c>
@@ -6891,6 +7992,12 @@
       <c r="CD14">
         <v>96</v>
       </c>
+      <c r="CF14">
+        <v>99</v>
+      </c>
+      <c r="CG14">
+        <v>142</v>
+      </c>
       <c r="CI14">
         <v>248</v>
       </c>
@@ -6903,30 +8010,51 @@
       <c r="CL14">
         <v>80</v>
       </c>
+      <c r="CM14">
+        <v>101</v>
+      </c>
       <c r="CN14">
         <v>146</v>
       </c>
       <c r="CO14">
         <v>158</v>
       </c>
+      <c r="CP14">
+        <v>182</v>
+      </c>
       <c r="CR14">
         <v>157</v>
       </c>
       <c r="CS14">
         <v>70</v>
       </c>
+      <c r="CT14">
+        <v>128</v>
+      </c>
       <c r="CU14">
         <v>91</v>
       </c>
+      <c r="CV14">
+        <v>98</v>
+      </c>
       <c r="CW14">
         <v>141</v>
       </c>
+      <c r="DA14">
+        <v>141</v>
+      </c>
       <c r="DB14">
         <v>186</v>
       </c>
       <c r="DC14">
         <v>230</v>
       </c>
+      <c r="DE14">
+        <v>148</v>
+      </c>
+      <c r="DJ14">
+        <v>87</v>
+      </c>
       <c r="DK14">
         <v>108</v>
       </c>
@@ -6943,7 +8071,34 @@
         <v>101</v>
       </c>
       <c r="DQ14">
-        <v>86</v>
+        <v>69</v>
+      </c>
+      <c r="DS14">
+        <v>60</v>
+      </c>
+      <c r="DT14">
+        <v>79</v>
+      </c>
+      <c r="DU14">
+        <v>46</v>
+      </c>
+      <c r="DW14">
+        <v>177</v>
+      </c>
+      <c r="DY14">
+        <v>123</v>
+      </c>
+      <c r="DZ14">
+        <v>94</v>
+      </c>
+      <c r="EA14">
+        <v>158</v>
+      </c>
+      <c r="EB14">
+        <v>158</v>
+      </c>
+      <c r="EC14">
+        <v>186</v>
       </c>
       <c r="EE14">
         <v>240</v>
@@ -6954,30 +8109,63 @@
       <c r="EH14">
         <v>73</v>
       </c>
+      <c r="EJ14">
+        <v>68</v>
+      </c>
+      <c r="EK14">
+        <v>66</v>
+      </c>
+      <c r="EM14">
+        <v>128</v>
+      </c>
       <c r="EO14">
-        <v>209</v>
+        <v>181</v>
       </c>
       <c r="EQ14">
         <v>256</v>
       </c>
+      <c r="ER14">
+        <v>101</v>
+      </c>
+      <c r="ES14">
+        <v>77</v>
+      </c>
+      <c r="EU14">
+        <v>116</v>
+      </c>
+      <c r="EV14">
+        <v>131</v>
+      </c>
       <c r="EW14">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="EX14">
         <v>82</v>
       </c>
+      <c r="EY14">
+        <v>167</v>
+      </c>
       <c r="FA14">
         <v>62</v>
       </c>
       <c r="FB14">
         <v>76</v>
       </c>
+      <c r="FD14">
+        <v>83</v>
+      </c>
+      <c r="FE14">
+        <v>51</v>
+      </c>
       <c r="FF14">
         <v>160</v>
       </c>
       <c r="FG14">
         <v>77</v>
       </c>
+      <c r="FI14">
+        <v>128</v>
+      </c>
       <c r="FJ14">
         <v>108</v>
       </c>
@@ -6987,11 +8175,32 @@
       <c r="FL14">
         <v>228</v>
       </c>
+      <c r="FN14">
+        <v>161</v>
+      </c>
+      <c r="FP14">
+        <v>146</v>
+      </c>
       <c r="FQ14">
-        <v>152</v>
+        <v>143</v>
+      </c>
+      <c r="FS14">
+        <v>83</v>
+      </c>
+      <c r="FT14">
+        <v>49</v>
+      </c>
+      <c r="FU14">
+        <v>147</v>
+      </c>
+      <c r="FV14">
+        <v>67</v>
       </c>
       <c r="FW14">
         <v>141</v>
+      </c>
+      <c r="FX14">
+        <v>221</v>
       </c>
       <c r="FZ14">
         <v>32.799999999999997</v>
@@ -7010,35 +8219,92 @@
       <c r="A15" t="s">
         <v>103</v>
       </c>
+      <c r="B15">
+        <v>681</v>
+      </c>
+      <c r="E15">
+        <v>199</v>
+      </c>
+      <c r="F15">
+        <v>125</v>
+      </c>
       <c r="G15">
         <v>103</v>
       </c>
+      <c r="I15">
+        <v>52</v>
+      </c>
       <c r="M15">
         <v>130</v>
       </c>
       <c r="N15">
         <v>513</v>
       </c>
+      <c r="Q15">
+        <v>69</v>
+      </c>
+      <c r="R15">
+        <v>110</v>
+      </c>
+      <c r="S15">
+        <v>74</v>
+      </c>
+      <c r="U15">
+        <v>170</v>
+      </c>
       <c r="V15">
         <v>265</v>
       </c>
+      <c r="W15">
+        <v>44</v>
+      </c>
+      <c r="X15">
+        <v>103</v>
+      </c>
       <c r="Y15">
         <v>268</v>
       </c>
       <c r="Z15">
         <v>106</v>
       </c>
+      <c r="AA15">
+        <v>102</v>
+      </c>
       <c r="AC15">
         <v>100</v>
       </c>
       <c r="AD15">
-        <v>85</v>
+        <v>71</v>
+      </c>
+      <c r="AE15">
+        <v>460</v>
+      </c>
+      <c r="AG15">
+        <v>99</v>
+      </c>
+      <c r="AH15">
+        <v>111</v>
+      </c>
+      <c r="AI15">
+        <v>149</v>
+      </c>
+      <c r="AJ15">
+        <v>114</v>
+      </c>
+      <c r="AK15">
+        <v>198</v>
+      </c>
+      <c r="AL15">
+        <v>215</v>
+      </c>
+      <c r="AM15">
+        <v>344</v>
       </c>
       <c r="AN15">
         <v>340</v>
       </c>
-      <c r="AP15">
-        <v>94</v>
+      <c r="AR15">
+        <v>122</v>
       </c>
       <c r="AS15">
         <v>194</v>
@@ -7046,12 +8312,30 @@
       <c r="AU15">
         <v>42</v>
       </c>
+      <c r="AW15">
+        <v>91</v>
+      </c>
+      <c r="AX15">
+        <v>157</v>
+      </c>
+      <c r="AY15">
+        <v>122</v>
+      </c>
       <c r="AZ15">
         <v>209</v>
       </c>
+      <c r="BA15">
+        <v>56</v>
+      </c>
+      <c r="BC15">
+        <v>174</v>
+      </c>
       <c r="BD15">
         <v>213</v>
       </c>
+      <c r="BF15">
+        <v>119</v>
+      </c>
       <c r="BG15">
         <v>103</v>
       </c>
@@ -7082,6 +8366,9 @@
       <c r="BR15">
         <v>225</v>
       </c>
+      <c r="BT15">
+        <v>133</v>
+      </c>
       <c r="BV15">
         <v>75</v>
       </c>
@@ -7091,6 +8378,9 @@
       <c r="BY15">
         <v>152</v>
       </c>
+      <c r="BZ15">
+        <v>107</v>
+      </c>
       <c r="CB15">
         <v>141</v>
       </c>
@@ -7100,6 +8390,12 @@
       <c r="CD15">
         <v>112</v>
       </c>
+      <c r="CF15">
+        <v>108</v>
+      </c>
+      <c r="CG15">
+        <v>153</v>
+      </c>
       <c r="CI15">
         <v>276</v>
       </c>
@@ -7112,9 +8408,18 @@
       <c r="CL15">
         <v>95</v>
       </c>
+      <c r="CM15">
+        <v>107</v>
+      </c>
+      <c r="CN15">
+        <v>170</v>
+      </c>
       <c r="CO15">
         <v>188</v>
       </c>
+      <c r="CP15">
+        <v>223</v>
+      </c>
       <c r="CR15">
         <v>197</v>
       </c>
@@ -7124,12 +8429,30 @@
       <c r="CU15">
         <v>109</v>
       </c>
+      <c r="CV15">
+        <v>110</v>
+      </c>
       <c r="CW15">
         <v>161</v>
       </c>
+      <c r="DA15">
+        <v>149</v>
+      </c>
+      <c r="DB15">
+        <v>201</v>
+      </c>
       <c r="DC15">
         <v>250</v>
       </c>
+      <c r="DE15">
+        <v>180</v>
+      </c>
+      <c r="DJ15">
+        <v>113</v>
+      </c>
+      <c r="DK15">
+        <v>122</v>
+      </c>
       <c r="DL15">
         <v>126</v>
       </c>
@@ -7139,8 +8462,32 @@
       <c r="DO15">
         <v>193</v>
       </c>
+      <c r="DP15">
+        <v>108</v>
+      </c>
       <c r="DQ15">
-        <v>98</v>
+        <v>86</v>
+      </c>
+      <c r="DS15">
+        <v>71</v>
+      </c>
+      <c r="DT15">
+        <v>83</v>
+      </c>
+      <c r="DW15">
+        <v>196</v>
+      </c>
+      <c r="DY15">
+        <v>142</v>
+      </c>
+      <c r="DZ15">
+        <v>105</v>
+      </c>
+      <c r="EB15">
+        <v>190</v>
+      </c>
+      <c r="EC15">
+        <v>215</v>
       </c>
       <c r="EE15">
         <v>286</v>
@@ -7151,18 +8498,51 @@
       <c r="EH15">
         <v>73</v>
       </c>
+      <c r="EJ15">
+        <v>72</v>
+      </c>
+      <c r="EK15">
+        <v>76</v>
+      </c>
+      <c r="EM15">
+        <v>145</v>
+      </c>
       <c r="EO15">
-        <v>253</v>
+        <v>209</v>
+      </c>
+      <c r="EQ15">
+        <v>281</v>
+      </c>
+      <c r="ER15">
+        <v>107</v>
+      </c>
+      <c r="ES15">
+        <v>81</v>
+      </c>
+      <c r="EU15">
+        <v>125</v>
+      </c>
+      <c r="EV15">
+        <v>152</v>
       </c>
       <c r="EW15">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="EX15">
         <v>93</v>
       </c>
+      <c r="EY15">
+        <v>213</v>
+      </c>
+      <c r="FA15">
+        <v>69</v>
+      </c>
       <c r="FB15">
         <v>107</v>
       </c>
+      <c r="FE15">
+        <v>53</v>
+      </c>
       <c r="FF15">
         <v>184</v>
       </c>
@@ -7172,20 +8552,44 @@
       <c r="FJ15">
         <v>125</v>
       </c>
+      <c r="FK15">
+        <v>230</v>
+      </c>
       <c r="FL15">
         <v>265</v>
       </c>
+      <c r="FN15">
+        <v>190</v>
+      </c>
+      <c r="FP15">
+        <v>160</v>
+      </c>
       <c r="FQ15">
-        <v>172</v>
+        <v>152</v>
+      </c>
+      <c r="FS15">
+        <v>93</v>
+      </c>
+      <c r="FT15">
+        <v>75</v>
+      </c>
+      <c r="FV15">
+        <v>67</v>
       </c>
       <c r="FW15">
         <v>153</v>
       </c>
+      <c r="FX15">
+        <v>277</v>
+      </c>
       <c r="FZ15">
         <v>36.200000000000003</v>
       </c>
       <c r="GA15">
         <v>201.6</v>
+      </c>
+      <c r="GB15">
+        <v>905.1</v>
       </c>
       <c r="GD15">
         <v>13.4</v>
@@ -7195,26 +8599,80 @@
       <c r="A16" t="s">
         <v>104</v>
       </c>
+      <c r="B16">
+        <v>766</v>
+      </c>
+      <c r="E16">
+        <v>221</v>
+      </c>
+      <c r="F16">
+        <v>130</v>
+      </c>
       <c r="G16">
         <v>115</v>
       </c>
+      <c r="I16">
+        <v>58</v>
+      </c>
+      <c r="M16">
+        <v>137</v>
+      </c>
       <c r="N16">
         <v>578</v>
       </c>
+      <c r="Q16">
+        <v>80</v>
+      </c>
+      <c r="S16">
+        <v>83</v>
+      </c>
       <c r="V16">
         <v>295</v>
       </c>
+      <c r="W16">
+        <v>49</v>
+      </c>
+      <c r="X16">
+        <v>117</v>
+      </c>
       <c r="Y16">
         <v>277</v>
       </c>
       <c r="Z16">
         <v>115</v>
       </c>
+      <c r="AA16">
+        <v>104</v>
+      </c>
       <c r="AC16">
         <v>109</v>
       </c>
       <c r="AD16">
-        <v>99</v>
+        <v>85</v>
+      </c>
+      <c r="AE16">
+        <v>528</v>
+      </c>
+      <c r="AG16">
+        <v>116</v>
+      </c>
+      <c r="AH16">
+        <v>144</v>
+      </c>
+      <c r="AJ16">
+        <v>125</v>
+      </c>
+      <c r="AK16">
+        <v>199</v>
+      </c>
+      <c r="AM16">
+        <v>380</v>
+      </c>
+      <c r="AN16">
+        <v>380</v>
+      </c>
+      <c r="AR16">
+        <v>143</v>
       </c>
       <c r="AS16">
         <v>210</v>
@@ -7222,12 +8680,33 @@
       <c r="AU16">
         <v>43</v>
       </c>
+      <c r="AX16">
+        <v>194</v>
+      </c>
+      <c r="AY16">
+        <v>127</v>
+      </c>
       <c r="AZ16">
         <v>241</v>
       </c>
+      <c r="BA16">
+        <v>72</v>
+      </c>
+      <c r="BC16">
+        <v>240</v>
+      </c>
       <c r="BD16">
         <v>244</v>
       </c>
+      <c r="BF16">
+        <v>147</v>
+      </c>
+      <c r="BG16">
+        <v>131</v>
+      </c>
+      <c r="BI16">
+        <v>156</v>
+      </c>
       <c r="BJ16">
         <v>45</v>
       </c>
@@ -7252,6 +8731,9 @@
       <c r="BR16">
         <v>251</v>
       </c>
+      <c r="BT16">
+        <v>142</v>
+      </c>
       <c r="BV16">
         <v>92</v>
       </c>
@@ -7261,6 +8743,9 @@
       <c r="BY16">
         <v>184</v>
       </c>
+      <c r="BZ16">
+        <v>134</v>
+      </c>
       <c r="CB16">
         <v>152</v>
       </c>
@@ -7270,32 +8755,95 @@
       <c r="CD16">
         <v>182</v>
       </c>
+      <c r="CF16">
+        <v>127</v>
+      </c>
       <c r="CI16">
         <v>318</v>
       </c>
       <c r="CJ16">
         <v>184</v>
       </c>
+      <c r="CK16">
+        <v>313</v>
+      </c>
       <c r="CL16">
         <v>113</v>
       </c>
+      <c r="CM16">
+        <v>149</v>
+      </c>
+      <c r="CN16">
+        <v>187</v>
+      </c>
       <c r="CO16">
         <v>218</v>
       </c>
+      <c r="CR16">
+        <v>217</v>
+      </c>
       <c r="CS16">
         <v>111</v>
       </c>
+      <c r="CU16">
+        <v>126</v>
+      </c>
+      <c r="CV16">
+        <v>116</v>
+      </c>
       <c r="CW16">
         <v>172</v>
       </c>
+      <c r="DB16">
+        <v>225</v>
+      </c>
+      <c r="DC16">
+        <v>287</v>
+      </c>
+      <c r="DE16">
+        <v>207</v>
+      </c>
+      <c r="DJ16">
+        <v>133</v>
+      </c>
+      <c r="DK16">
+        <v>149</v>
+      </c>
       <c r="DL16">
         <v>153</v>
       </c>
+      <c r="DN16">
+        <v>100</v>
+      </c>
       <c r="DO16">
         <v>216</v>
       </c>
+      <c r="DP16">
+        <v>114</v>
+      </c>
       <c r="DQ16">
-        <v>113</v>
+        <v>98</v>
+      </c>
+      <c r="DS16">
+        <v>71</v>
+      </c>
+      <c r="DT16">
+        <v>85</v>
+      </c>
+      <c r="DW16">
+        <v>212</v>
+      </c>
+      <c r="DY16">
+        <v>155</v>
+      </c>
+      <c r="DZ16">
+        <v>126</v>
+      </c>
+      <c r="EB16">
+        <v>191</v>
+      </c>
+      <c r="EC16">
+        <v>252</v>
       </c>
       <c r="EE16">
         <v>361</v>
@@ -7303,38 +8851,92 @@
       <c r="EF16">
         <v>27</v>
       </c>
+      <c r="EH16">
+        <v>73</v>
+      </c>
+      <c r="EJ16">
+        <v>76</v>
+      </c>
+      <c r="EK16">
+        <v>91</v>
+      </c>
       <c r="EO16">
-        <v>290</v>
+        <v>253</v>
+      </c>
+      <c r="EQ16">
+        <v>329</v>
+      </c>
+      <c r="ER16">
+        <v>140</v>
+      </c>
+      <c r="EU16">
+        <v>157</v>
+      </c>
+      <c r="EV16">
+        <v>152</v>
       </c>
       <c r="EW16">
-        <v>271</v>
+        <v>142</v>
       </c>
       <c r="EX16">
         <v>111</v>
       </c>
+      <c r="EY16">
+        <v>248</v>
+      </c>
+      <c r="FA16">
+        <v>77</v>
+      </c>
       <c r="FB16">
         <v>107</v>
       </c>
       <c r="FF16">
         <v>195</v>
       </c>
+      <c r="FG16">
+        <v>96</v>
+      </c>
       <c r="FJ16">
         <v>151</v>
       </c>
+      <c r="FK16">
+        <v>260</v>
+      </c>
       <c r="FL16">
         <v>287</v>
       </c>
+      <c r="FN16">
+        <v>235</v>
+      </c>
+      <c r="FP16">
+        <v>172</v>
+      </c>
       <c r="FQ16">
-        <v>189</v>
+        <v>172</v>
+      </c>
+      <c r="FS16">
+        <v>105</v>
+      </c>
+      <c r="FT16">
+        <v>75</v>
+      </c>
+      <c r="FV16">
+        <v>69</v>
       </c>
       <c r="FW16">
         <v>175</v>
       </c>
+      <c r="FX16">
+        <v>321</v>
+      </c>
       <c r="FZ16">
         <v>40</v>
       </c>
       <c r="GA16">
         <v>254</v>
+      </c>
+      <c r="GB16">
+        <v>1280</v>
       </c>
       <c r="GD16">
         <v>13.8</v>
@@ -7344,17 +8946,62 @@
       <c r="A17" t="s">
         <v>108</v>
       </c>
+      <c r="B17">
+        <v>869</v>
+      </c>
+      <c r="E17">
+        <v>240</v>
+      </c>
+      <c r="F17">
+        <v>141</v>
+      </c>
       <c r="G17">
         <v>117</v>
       </c>
+      <c r="M17">
+        <v>147</v>
+      </c>
+      <c r="N17">
+        <v>650</v>
+      </c>
+      <c r="Q17">
+        <v>109</v>
+      </c>
       <c r="V17">
         <v>321</v>
       </c>
+      <c r="W17">
+        <v>50</v>
+      </c>
+      <c r="X17">
+        <v>137</v>
+      </c>
+      <c r="Y17">
+        <v>295</v>
+      </c>
       <c r="Z17">
         <v>128</v>
       </c>
+      <c r="AC17">
+        <v>129</v>
+      </c>
       <c r="AD17">
-        <v>115</v>
+        <v>99</v>
+      </c>
+      <c r="AE17">
+        <v>613</v>
+      </c>
+      <c r="AJ17">
+        <v>149</v>
+      </c>
+      <c r="AM17">
+        <v>437</v>
+      </c>
+      <c r="AN17">
+        <v>425</v>
+      </c>
+      <c r="AR17">
+        <v>167</v>
       </c>
       <c r="AS17">
         <v>225</v>
@@ -7362,12 +9009,30 @@
       <c r="AU17">
         <v>46</v>
       </c>
+      <c r="AX17">
+        <v>226</v>
+      </c>
       <c r="AZ17">
         <v>265</v>
       </c>
+      <c r="BA17">
+        <v>78</v>
+      </c>
+      <c r="BC17">
+        <v>264</v>
+      </c>
       <c r="BD17">
         <v>301</v>
       </c>
+      <c r="BF17">
+        <v>173</v>
+      </c>
+      <c r="BG17">
+        <v>146</v>
+      </c>
+      <c r="BI17">
+        <v>172</v>
+      </c>
       <c r="BJ17">
         <v>52</v>
       </c>
@@ -7392,32 +9057,113 @@
       <c r="BR17">
         <v>283</v>
       </c>
+      <c r="BT17">
+        <v>183</v>
+      </c>
       <c r="BV17">
         <v>115</v>
       </c>
+      <c r="BX17">
+        <v>209</v>
+      </c>
+      <c r="BY17">
+        <v>195</v>
+      </c>
+      <c r="BZ17">
+        <v>144</v>
+      </c>
+      <c r="CB17">
+        <v>161</v>
+      </c>
       <c r="CC17">
         <v>97</v>
       </c>
       <c r="CD17">
         <v>230</v>
       </c>
+      <c r="CF17">
+        <v>140</v>
+      </c>
       <c r="CI17">
         <v>358</v>
       </c>
       <c r="CJ17">
         <v>197</v>
       </c>
+      <c r="CK17">
+        <v>368</v>
+      </c>
       <c r="CL17">
         <v>129</v>
       </c>
+      <c r="CM17">
+        <v>159</v>
+      </c>
+      <c r="CN17">
+        <v>201</v>
+      </c>
       <c r="CO17">
         <v>248</v>
       </c>
+      <c r="CR17">
+        <v>262</v>
+      </c>
       <c r="CS17">
         <v>139</v>
       </c>
+      <c r="CU17">
+        <v>155</v>
+      </c>
+      <c r="CV17">
+        <v>144</v>
+      </c>
+      <c r="CW17">
+        <v>186</v>
+      </c>
+      <c r="DB17">
+        <v>252</v>
+      </c>
+      <c r="DC17">
+        <v>330</v>
+      </c>
+      <c r="DE17">
+        <v>225</v>
+      </c>
+      <c r="DJ17">
+        <v>133</v>
+      </c>
+      <c r="DK17">
+        <v>163</v>
+      </c>
+      <c r="DL17">
+        <v>170</v>
+      </c>
+      <c r="DN17">
+        <v>120</v>
+      </c>
+      <c r="DO17">
+        <v>218</v>
+      </c>
+      <c r="DP17">
+        <v>125</v>
+      </c>
       <c r="DQ17">
-        <v>121</v>
+        <v>113</v>
+      </c>
+      <c r="DT17">
+        <v>89</v>
+      </c>
+      <c r="DW17">
+        <v>247</v>
+      </c>
+      <c r="DY17">
+        <v>167</v>
+      </c>
+      <c r="DZ17">
+        <v>127</v>
+      </c>
+      <c r="EC17">
+        <v>283</v>
       </c>
       <c r="EE17">
         <v>387</v>
@@ -7425,20 +9171,74 @@
       <c r="EF17">
         <v>27</v>
       </c>
+      <c r="EH17">
+        <v>115</v>
+      </c>
+      <c r="EK17">
+        <v>104</v>
+      </c>
       <c r="EO17">
-        <v>319</v>
+        <v>290</v>
+      </c>
+      <c r="EQ17">
+        <v>372</v>
+      </c>
+      <c r="ER17">
+        <v>156</v>
+      </c>
+      <c r="EU17">
+        <v>161</v>
       </c>
       <c r="EW17">
-        <v>314</v>
+        <v>271</v>
+      </c>
+      <c r="EX17">
+        <v>115</v>
+      </c>
+      <c r="EY17">
+        <v>273</v>
+      </c>
+      <c r="FA17">
+        <v>94</v>
       </c>
       <c r="FB17">
         <v>107</v>
       </c>
+      <c r="FF17">
+        <v>225</v>
+      </c>
+      <c r="FG17">
+        <v>104</v>
+      </c>
+      <c r="FJ17">
+        <v>176</v>
+      </c>
+      <c r="FK17">
+        <v>290</v>
+      </c>
       <c r="FL17">
         <v>314</v>
       </c>
+      <c r="FN17">
+        <v>279</v>
+      </c>
+      <c r="FP17">
+        <v>199</v>
+      </c>
       <c r="FQ17">
-        <v>206</v>
+        <v>189</v>
+      </c>
+      <c r="FS17">
+        <v>110</v>
+      </c>
+      <c r="FT17">
+        <v>76</v>
+      </c>
+      <c r="FV17">
+        <v>83</v>
+      </c>
+      <c r="FW17">
+        <v>183</v>
       </c>
       <c r="FZ17">
         <v>44.2</v>
@@ -7454,53 +9254,194 @@
       <c r="A18" t="s">
         <v>109</v>
       </c>
+      <c r="B18">
+        <v>956</v>
+      </c>
+      <c r="E18">
+        <v>254</v>
+      </c>
+      <c r="F18">
+        <v>178</v>
+      </c>
       <c r="G18">
         <v>119</v>
       </c>
+      <c r="M18">
+        <v>190</v>
+      </c>
+      <c r="N18">
+        <v>734</v>
+      </c>
       <c r="V18">
         <v>359</v>
       </c>
+      <c r="W18">
+        <v>71</v>
+      </c>
+      <c r="X18">
+        <v>156</v>
+      </c>
+      <c r="Y18">
+        <v>321</v>
+      </c>
       <c r="Z18">
         <v>140</v>
       </c>
+      <c r="AC18">
+        <v>141</v>
+      </c>
       <c r="AD18">
-        <v>119</v>
+        <v>115</v>
+      </c>
+      <c r="AE18">
+        <v>729</v>
+      </c>
+      <c r="AM18">
+        <v>497</v>
+      </c>
+      <c r="AN18">
+        <v>512</v>
+      </c>
+      <c r="AR18">
+        <v>187</v>
+      </c>
+      <c r="AS18">
+        <v>257</v>
       </c>
       <c r="AU18">
         <v>48</v>
       </c>
+      <c r="AX18">
+        <v>249</v>
+      </c>
       <c r="AZ18">
         <v>304</v>
       </c>
+      <c r="BC18">
+        <v>282</v>
+      </c>
+      <c r="BD18">
+        <v>380</v>
+      </c>
+      <c r="BG18">
+        <v>172</v>
+      </c>
+      <c r="BI18">
+        <v>208</v>
+      </c>
       <c r="BJ18">
         <v>62</v>
       </c>
       <c r="BK18">
         <v>401</v>
       </c>
+      <c r="BL18">
+        <v>200</v>
+      </c>
       <c r="BM18">
         <v>189</v>
       </c>
+      <c r="BO18">
+        <v>168</v>
+      </c>
       <c r="BP18">
         <v>317</v>
       </c>
+      <c r="BQ18">
+        <v>161</v>
+      </c>
+      <c r="BR18">
+        <v>302</v>
+      </c>
+      <c r="BT18">
+        <v>194</v>
+      </c>
       <c r="BV18">
         <v>139</v>
       </c>
+      <c r="BX18">
+        <v>222</v>
+      </c>
+      <c r="BY18">
+        <v>214</v>
+      </c>
+      <c r="BZ18">
+        <v>170</v>
+      </c>
+      <c r="CB18">
+        <v>174</v>
+      </c>
       <c r="CC18">
         <v>110</v>
       </c>
       <c r="CD18">
         <v>253</v>
       </c>
+      <c r="CF18">
+        <v>144</v>
+      </c>
       <c r="CI18">
         <v>366</v>
       </c>
+      <c r="CJ18">
+        <v>244</v>
+      </c>
+      <c r="CK18">
+        <v>463</v>
+      </c>
+      <c r="CL18">
+        <v>150</v>
+      </c>
+      <c r="CN18">
+        <v>267</v>
+      </c>
+      <c r="CO18">
+        <v>275</v>
+      </c>
+      <c r="CR18">
+        <v>309</v>
+      </c>
       <c r="CS18">
         <v>151</v>
       </c>
+      <c r="CU18">
+        <v>195</v>
+      </c>
+      <c r="CW18">
+        <v>208</v>
+      </c>
+      <c r="DB18">
+        <v>284</v>
+      </c>
+      <c r="DC18">
+        <v>370</v>
+      </c>
+      <c r="DE18">
+        <v>254</v>
+      </c>
+      <c r="DK18">
+        <v>193</v>
+      </c>
+      <c r="DL18">
+        <v>187</v>
+      </c>
+      <c r="DN18">
+        <v>125</v>
+      </c>
+      <c r="DO18">
+        <v>275</v>
+      </c>
+      <c r="DP18">
+        <v>149</v>
+      </c>
       <c r="DQ18">
-        <v>140</v>
+        <v>121</v>
+      </c>
+      <c r="DW18">
+        <v>252</v>
+      </c>
+      <c r="DY18">
+        <v>175</v>
       </c>
       <c r="EE18">
         <v>428</v>
@@ -7508,17 +9449,71 @@
       <c r="EF18">
         <v>27</v>
       </c>
+      <c r="EH18">
+        <v>117</v>
+      </c>
+      <c r="EK18">
+        <v>113</v>
+      </c>
       <c r="EO18">
-        <v>365</v>
+        <v>319</v>
+      </c>
+      <c r="EQ18">
+        <v>439</v>
+      </c>
+      <c r="ER18">
+        <v>193</v>
+      </c>
+      <c r="EU18">
+        <v>191</v>
       </c>
       <c r="EW18">
-        <v>338</v>
+        <v>314</v>
+      </c>
+      <c r="EX18">
+        <v>142</v>
+      </c>
+      <c r="EY18">
+        <v>312</v>
+      </c>
+      <c r="FA18">
+        <v>109</v>
       </c>
       <c r="FB18">
         <v>108</v>
       </c>
+      <c r="FF18">
+        <v>241</v>
+      </c>
+      <c r="FG18">
+        <v>126</v>
+      </c>
+      <c r="FJ18">
+        <v>198</v>
+      </c>
+      <c r="FK18">
+        <v>309</v>
+      </c>
+      <c r="FL18">
+        <v>337</v>
+      </c>
+      <c r="FN18">
+        <v>302</v>
+      </c>
+      <c r="FP18">
+        <v>216</v>
+      </c>
       <c r="FQ18">
-        <v>226</v>
+        <v>206</v>
+      </c>
+      <c r="FS18">
+        <v>120</v>
+      </c>
+      <c r="FT18">
+        <v>88</v>
+      </c>
+      <c r="FW18">
+        <v>208</v>
       </c>
       <c r="FZ18">
         <v>48.8</v>
@@ -7534,47 +9529,212 @@
       <c r="A19" t="s">
         <v>152</v>
       </c>
+      <c r="F19">
+        <v>183</v>
+      </c>
       <c r="G19">
         <v>124</v>
       </c>
+      <c r="M19">
+        <v>217</v>
+      </c>
+      <c r="N19">
+        <v>852</v>
+      </c>
+      <c r="V19">
+        <v>384</v>
+      </c>
+      <c r="W19">
+        <v>73</v>
+      </c>
+      <c r="X19">
+        <v>166</v>
+      </c>
+      <c r="Y19">
+        <v>366</v>
+      </c>
+      <c r="Z19">
+        <v>147</v>
+      </c>
+      <c r="AC19">
+        <v>166</v>
+      </c>
       <c r="AD19">
-        <v>127</v>
+        <v>119</v>
+      </c>
+      <c r="AM19">
+        <v>515</v>
+      </c>
+      <c r="AN19">
+        <v>564</v>
+      </c>
+      <c r="AR19">
+        <v>194</v>
+      </c>
+      <c r="AS19">
+        <v>307</v>
       </c>
       <c r="AU19">
         <v>50</v>
       </c>
+      <c r="AZ19">
+        <v>317</v>
+      </c>
+      <c r="BC19">
+        <v>300</v>
+      </c>
+      <c r="BD19">
+        <v>420</v>
+      </c>
+      <c r="BG19">
+        <v>189</v>
+      </c>
+      <c r="BI19">
+        <v>224</v>
+      </c>
       <c r="BJ19">
         <v>66</v>
       </c>
       <c r="BK19">
         <v>449</v>
       </c>
+      <c r="BL19">
+        <v>205</v>
+      </c>
+      <c r="BM19">
+        <v>213</v>
+      </c>
+      <c r="BO19">
+        <v>177</v>
+      </c>
       <c r="BP19">
         <v>384</v>
       </c>
+      <c r="BQ19">
+        <v>194</v>
+      </c>
+      <c r="BR19">
+        <v>347</v>
+      </c>
       <c r="BV19">
         <v>147</v>
       </c>
+      <c r="BX19">
+        <v>250</v>
+      </c>
+      <c r="BY19">
+        <v>234</v>
+      </c>
+      <c r="CB19">
+        <v>188</v>
+      </c>
       <c r="CC19">
         <v>116</v>
       </c>
       <c r="CD19">
         <v>296</v>
       </c>
+      <c r="CI19">
+        <v>418</v>
+      </c>
+      <c r="CJ19">
+        <v>284</v>
+      </c>
+      <c r="CK19">
+        <v>536</v>
+      </c>
+      <c r="CL19">
+        <v>192</v>
+      </c>
+      <c r="CN19">
+        <v>277</v>
+      </c>
+      <c r="CO19">
+        <v>285</v>
+      </c>
+      <c r="CR19">
+        <v>342</v>
+      </c>
       <c r="CS19">
         <v>188</v>
       </c>
+      <c r="CU19">
+        <v>224</v>
+      </c>
+      <c r="CW19">
+        <v>235</v>
+      </c>
+      <c r="DB19">
+        <v>285</v>
+      </c>
+      <c r="DC19">
+        <v>409</v>
+      </c>
+      <c r="DK19">
+        <v>218</v>
+      </c>
+      <c r="DL19">
+        <v>220</v>
+      </c>
+      <c r="DN19">
+        <v>161</v>
+      </c>
+      <c r="DO19">
+        <v>298</v>
+      </c>
+      <c r="DP19">
+        <v>152</v>
+      </c>
       <c r="DQ19">
-        <v>165</v>
+        <v>140</v>
+      </c>
+      <c r="EE19">
+        <v>451</v>
+      </c>
+      <c r="EF19">
+        <v>29</v>
+      </c>
+      <c r="EH19">
+        <v>117</v>
       </c>
       <c r="EO19">
-        <v>368</v>
+        <v>365</v>
+      </c>
+      <c r="EQ19">
+        <v>470</v>
       </c>
       <c r="EW19">
-        <v>358</v>
+        <v>338</v>
+      </c>
+      <c r="EX19">
+        <v>176</v>
+      </c>
+      <c r="FA19">
+        <v>129</v>
+      </c>
+      <c r="FB19">
+        <v>214</v>
+      </c>
+      <c r="FF19">
+        <v>259</v>
+      </c>
+      <c r="FG19">
+        <v>139</v>
+      </c>
+      <c r="FJ19">
+        <v>231</v>
+      </c>
+      <c r="FK19">
+        <v>313</v>
+      </c>
+      <c r="FL19">
+        <v>360</v>
       </c>
       <c r="FQ19">
-        <v>241</v>
+        <v>226</v>
+      </c>
+      <c r="FW19">
+        <v>222</v>
       </c>
       <c r="FZ19">
         <v>53.8</v>
@@ -7590,23 +9750,179 @@
       <c r="A20" t="s">
         <v>172</v>
       </c>
+      <c r="G20">
+        <v>130</v>
+      </c>
+      <c r="M20">
+        <v>221</v>
+      </c>
+      <c r="N20">
+        <v>984</v>
+      </c>
+      <c r="V20">
+        <v>506</v>
+      </c>
+      <c r="Y20">
+        <v>405</v>
+      </c>
+      <c r="Z20">
+        <v>195</v>
+      </c>
+      <c r="AC20">
+        <v>172</v>
+      </c>
+      <c r="AD20">
+        <v>127</v>
+      </c>
+      <c r="AN20">
+        <v>629</v>
+      </c>
+      <c r="AS20">
+        <v>342</v>
+      </c>
       <c r="AU20">
         <v>55</v>
       </c>
+      <c r="AZ20">
+        <v>350</v>
+      </c>
+      <c r="BD20">
+        <v>517</v>
+      </c>
+      <c r="BG20">
+        <v>208</v>
+      </c>
+      <c r="BI20">
+        <v>258</v>
+      </c>
+      <c r="BJ20">
+        <v>86</v>
+      </c>
+      <c r="BK20">
+        <v>547</v>
+      </c>
+      <c r="BL20">
+        <v>247</v>
+      </c>
+      <c r="BM20">
+        <v>221</v>
+      </c>
+      <c r="BO20">
+        <v>188</v>
+      </c>
       <c r="BP20">
         <v>432</v>
       </c>
+      <c r="BQ20">
+        <v>211</v>
+      </c>
+      <c r="BR20">
+        <v>378</v>
+      </c>
       <c r="BV20">
         <v>170</v>
       </c>
+      <c r="BX20">
+        <v>274</v>
+      </c>
+      <c r="BY20">
+        <v>253</v>
+      </c>
+      <c r="CB20">
+        <v>210</v>
+      </c>
       <c r="CC20">
         <v>123</v>
       </c>
+      <c r="CD20">
+        <v>383</v>
+      </c>
+      <c r="CI20">
+        <v>462</v>
+      </c>
+      <c r="CJ20">
+        <v>320</v>
+      </c>
+      <c r="CK20">
+        <v>642</v>
+      </c>
+      <c r="CL20">
+        <v>203</v>
+      </c>
+      <c r="CO20">
+        <v>346</v>
+      </c>
+      <c r="CR20">
+        <v>387</v>
+      </c>
       <c r="CS20">
         <v>208</v>
       </c>
+      <c r="CU20">
+        <v>252</v>
+      </c>
+      <c r="CW20">
+        <v>262</v>
+      </c>
+      <c r="DC20">
+        <v>412</v>
+      </c>
+      <c r="DL20">
+        <v>264</v>
+      </c>
+      <c r="DN20">
+        <v>161</v>
+      </c>
+      <c r="DO20">
+        <v>336</v>
+      </c>
+      <c r="DQ20">
+        <v>165</v>
+      </c>
+      <c r="EE20">
+        <v>541</v>
+      </c>
+      <c r="EF20">
+        <v>30</v>
+      </c>
+      <c r="EH20">
+        <v>129</v>
+      </c>
+      <c r="EO20">
+        <v>368</v>
+      </c>
+      <c r="EW20">
+        <v>358</v>
+      </c>
+      <c r="EX20">
+        <v>197</v>
+      </c>
+      <c r="FB20">
+        <v>254</v>
+      </c>
+      <c r="FF20">
+        <v>287</v>
+      </c>
+      <c r="FG20">
+        <v>173</v>
+      </c>
+      <c r="FJ20">
+        <v>270</v>
+      </c>
+      <c r="FL20">
+        <v>397</v>
+      </c>
+      <c r="FQ20">
+        <v>241</v>
+      </c>
+      <c r="FW20">
+        <v>251</v>
+      </c>
       <c r="FZ20">
         <v>59.4</v>
+      </c>
+      <c r="GA20">
+        <v>640</v>
       </c>
       <c r="GD20">
         <v>15</v>
@@ -7616,20 +9932,146 @@
       <c r="A21" t="s">
         <v>185</v>
       </c>
+      <c r="G21">
+        <v>468</v>
+      </c>
+      <c r="N21">
+        <v>1138</v>
+      </c>
+      <c r="V21">
+        <v>559</v>
+      </c>
+      <c r="Y21">
+        <v>434</v>
+      </c>
+      <c r="Z21">
+        <v>212</v>
+      </c>
+      <c r="AC21">
+        <v>191</v>
+      </c>
+      <c r="AD21">
+        <v>143</v>
+      </c>
+      <c r="AS21">
+        <v>383</v>
+      </c>
       <c r="AU21">
         <v>65</v>
       </c>
+      <c r="AZ21">
+        <v>385</v>
+      </c>
+      <c r="BD21">
+        <v>547</v>
+      </c>
+      <c r="BJ21">
+        <v>108</v>
+      </c>
+      <c r="BK21">
+        <v>632</v>
+      </c>
+      <c r="BL21">
+        <v>277</v>
+      </c>
+      <c r="BM21">
+        <v>266</v>
+      </c>
+      <c r="BO21">
+        <v>207</v>
+      </c>
       <c r="BP21">
         <v>498</v>
       </c>
+      <c r="BQ21">
+        <v>233</v>
+      </c>
+      <c r="BR21">
+        <v>401</v>
+      </c>
       <c r="BV21">
         <v>206</v>
       </c>
+      <c r="BX21">
+        <v>295</v>
+      </c>
+      <c r="BY21">
+        <v>285</v>
+      </c>
+      <c r="CB21">
+        <v>226</v>
+      </c>
       <c r="CC21">
         <v>141</v>
       </c>
+      <c r="CD21">
+        <v>455</v>
+      </c>
+      <c r="CI21">
+        <v>508</v>
+      </c>
+      <c r="CJ21">
+        <v>377</v>
+      </c>
+      <c r="CL21">
+        <v>219</v>
+      </c>
+      <c r="CO21">
+        <v>401</v>
+      </c>
+      <c r="CS21">
+        <v>269</v>
+      </c>
+      <c r="CW21">
+        <v>271</v>
+      </c>
+      <c r="DL21">
+        <v>302</v>
+      </c>
+      <c r="DO21">
+        <v>357</v>
+      </c>
+      <c r="DQ21">
+        <v>198</v>
+      </c>
+      <c r="EE21">
+        <v>602</v>
+      </c>
+      <c r="EF21">
+        <v>30</v>
+      </c>
+      <c r="EO21">
+        <v>415</v>
+      </c>
+      <c r="EW21">
+        <v>387</v>
+      </c>
+      <c r="EX21">
+        <v>208</v>
+      </c>
+      <c r="FB21">
+        <v>307</v>
+      </c>
+      <c r="FF21">
+        <v>288</v>
+      </c>
+      <c r="FJ21">
+        <v>309</v>
+      </c>
+      <c r="FL21">
+        <v>434</v>
+      </c>
+      <c r="FQ21">
+        <v>269</v>
+      </c>
+      <c r="FW21">
+        <v>275</v>
+      </c>
       <c r="FZ21">
         <v>65.599999999999994</v>
+      </c>
+      <c r="GA21">
+        <v>806.3</v>
       </c>
       <c r="GD21">
         <v>15.3</v>
@@ -7639,17 +10081,107 @@
       <c r="A22" t="s">
         <v>191</v>
       </c>
+      <c r="G22">
+        <v>510</v>
+      </c>
+      <c r="V22">
+        <v>601</v>
+      </c>
+      <c r="Z22">
+        <v>222</v>
+      </c>
+      <c r="AD22">
+        <v>212</v>
+      </c>
+      <c r="AS22">
+        <v>398</v>
+      </c>
       <c r="AU22">
         <v>84</v>
       </c>
+      <c r="AZ22">
+        <v>414</v>
+      </c>
+      <c r="BD22">
+        <v>597</v>
+      </c>
+      <c r="BJ22">
+        <v>128</v>
+      </c>
+      <c r="BK22">
+        <v>682</v>
+      </c>
+      <c r="BL22">
+        <v>283</v>
+      </c>
+      <c r="BM22">
+        <v>298</v>
+      </c>
+      <c r="BO22">
+        <v>230</v>
+      </c>
+      <c r="BP22">
+        <v>567</v>
+      </c>
+      <c r="BQ22">
+        <v>246</v>
+      </c>
+      <c r="BR22">
+        <v>422</v>
+      </c>
       <c r="BV22">
         <v>262</v>
       </c>
       <c r="CC22">
         <v>170</v>
       </c>
+      <c r="CD22">
+        <v>531</v>
+      </c>
+      <c r="CI22">
+        <v>563</v>
+      </c>
+      <c r="CJ22">
+        <v>427</v>
+      </c>
+      <c r="CL22">
+        <v>272</v>
+      </c>
+      <c r="CO22">
+        <v>408</v>
+      </c>
+      <c r="CS22">
+        <v>311</v>
+      </c>
+      <c r="DQ22">
+        <v>234</v>
+      </c>
+      <c r="EE22">
+        <v>715</v>
+      </c>
+      <c r="EF22">
+        <v>36</v>
+      </c>
+      <c r="EO22">
+        <v>474</v>
+      </c>
+      <c r="EW22">
+        <v>571</v>
+      </c>
+      <c r="FB22">
+        <v>353</v>
+      </c>
+      <c r="FL22">
+        <v>454</v>
+      </c>
+      <c r="FQ22">
+        <v>301</v>
+      </c>
       <c r="FZ22">
         <v>72.5</v>
+      </c>
+      <c r="GA22">
+        <v>1015.9</v>
       </c>
       <c r="GD22">
         <v>15.6</v>
@@ -7659,11 +10191,71 @@
       <c r="A23" t="s">
         <v>192</v>
       </c>
+      <c r="G23">
+        <v>547</v>
+      </c>
+      <c r="V23">
+        <v>663</v>
+      </c>
+      <c r="Z23">
+        <v>255</v>
+      </c>
+      <c r="AD23">
+        <v>225</v>
+      </c>
       <c r="AU23">
         <v>91</v>
       </c>
+      <c r="AZ23">
+        <v>445</v>
+      </c>
+      <c r="BJ23">
+        <v>173</v>
+      </c>
+      <c r="BK23">
+        <v>779</v>
+      </c>
+      <c r="BM23">
+        <v>304</v>
+      </c>
+      <c r="BP23">
+        <v>652</v>
+      </c>
       <c r="BV23">
         <v>282</v>
+      </c>
+      <c r="CC23">
+        <v>180</v>
+      </c>
+      <c r="CD23">
+        <v>621</v>
+      </c>
+      <c r="CI23">
+        <v>577</v>
+      </c>
+      <c r="CS23">
+        <v>356</v>
+      </c>
+      <c r="DQ23">
+        <v>277</v>
+      </c>
+      <c r="EE23">
+        <v>730</v>
+      </c>
+      <c r="EF23">
+        <v>40</v>
+      </c>
+      <c r="EO23">
+        <v>516</v>
+      </c>
+      <c r="EW23">
+        <v>618</v>
+      </c>
+      <c r="FB23">
+        <v>410</v>
+      </c>
+      <c r="FQ23">
+        <v>311</v>
       </c>
       <c r="FZ23">
         <v>80</v>
@@ -7676,17 +10268,171 @@
       <c r="A24" t="s">
         <v>208</v>
       </c>
+      <c r="G24">
+        <v>589</v>
+      </c>
+      <c r="AD24">
+        <v>244</v>
+      </c>
       <c r="AU24">
         <v>101</v>
       </c>
+      <c r="BJ24">
+        <v>177</v>
+      </c>
+      <c r="BK24">
+        <v>851</v>
+      </c>
+      <c r="BP24">
+        <v>699</v>
+      </c>
       <c r="BV24">
         <v>339</v>
       </c>
+      <c r="CC24">
+        <v>191</v>
+      </c>
+      <c r="CD24">
+        <v>704</v>
+      </c>
+      <c r="CS24">
+        <v>408</v>
+      </c>
+      <c r="DQ24">
+        <v>315</v>
+      </c>
+      <c r="EO24">
+        <v>566</v>
+      </c>
+      <c r="EW24">
+        <v>649</v>
+      </c>
+      <c r="FQ24">
+        <v>322</v>
+      </c>
       <c r="FZ24">
         <v>88.3</v>
       </c>
       <c r="GD24">
         <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:186" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>209</v>
+      </c>
+      <c r="AD25">
+        <v>263</v>
+      </c>
+      <c r="AU25">
+        <v>121</v>
+      </c>
+      <c r="BP25">
+        <v>749</v>
+      </c>
+      <c r="BV25">
+        <v>396</v>
+      </c>
+      <c r="CC25">
+        <v>208</v>
+      </c>
+      <c r="CS25">
+        <v>476</v>
+      </c>
+      <c r="DQ25">
+        <v>356</v>
+      </c>
+      <c r="EO25">
+        <v>586</v>
+      </c>
+      <c r="EW25">
+        <v>736</v>
+      </c>
+      <c r="FQ25">
+        <v>338</v>
+      </c>
+      <c r="FZ25">
+        <v>97.5</v>
+      </c>
+      <c r="GD25">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:186" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>210</v>
+      </c>
+      <c r="AU26">
+        <v>128</v>
+      </c>
+      <c r="BP26">
+        <v>809</v>
+      </c>
+      <c r="BV26">
+        <v>480</v>
+      </c>
+      <c r="CC26">
+        <v>222</v>
+      </c>
+      <c r="FZ26">
+        <v>107.7</v>
+      </c>
+      <c r="GD26">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:186" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>211</v>
+      </c>
+      <c r="AU27">
+        <v>147</v>
+      </c>
+      <c r="BV27">
+        <v>582</v>
+      </c>
+      <c r="CC27">
+        <v>240</v>
+      </c>
+      <c r="FZ27">
+        <v>118.9</v>
+      </c>
+      <c r="GD27">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:186" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>212</v>
+      </c>
+      <c r="AU28">
+        <v>163</v>
+      </c>
+      <c r="BV28">
+        <v>637</v>
+      </c>
+      <c r="FZ28">
+        <v>131.30000000000001</v>
+      </c>
+      <c r="GD28">
+        <v>17.899999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:186" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>213</v>
+      </c>
+      <c r="AU29">
+        <v>181</v>
+      </c>
+      <c r="BV29">
+        <v>692</v>
+      </c>
+      <c r="FZ29">
+        <v>144.9</v>
+      </c>
+      <c r="GD29">
+        <v>18.3</v>
       </c>
     </row>
   </sheetData>
